--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/TELab/Soil Inoculation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07BE08F5-F88E-BD47-A246-9838ECA25A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59756CBC-EC68-8843-90F4-4344A6E7CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="10">
   <si>
     <t>seed_species</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>inoculated_%</t>
+  </si>
+  <si>
+    <t>282_alive</t>
+  </si>
+  <si>
+    <t>282_dead</t>
   </si>
 </sst>
 </file>
@@ -121,13 +127,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:E212" totalsRowShown="0">
-  <autoFilter ref="B2:E212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:G212" totalsRowShown="0">
+  <autoFilter ref="B2:G212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
     <tableColumn id="4" xr3:uid="{8A11EADE-C65F-784E-81F3-F09F807476AD}" name="notes"/>
+    <tableColumn id="5" xr3:uid="{51033E0C-19D6-5D44-8021-28156160EB71}" name="282_alive"/>
+    <tableColumn id="6" xr3:uid="{B3DB47D5-3D79-8044-9F36-AA1442CFD021}" name="282_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -450,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:E212"/>
+  <dimension ref="B2:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +471,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -476,8 +484,14 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -488,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -499,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -510,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -521,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -532,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -543,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -554,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -565,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -576,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -587,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -598,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -609,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -620,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59756CBC-EC68-8843-90F4-4344A6E7CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94036523-FBFD-A24D-9761-328E4CDF7FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="11">
   <si>
     <t>seed_species</t>
   </si>
@@ -67,12 +67,15 @@
   <si>
     <t>282_dead</t>
   </si>
+  <si>
+    <t>pot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,16 +89,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,12 +119,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,12 +156,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:G212" totalsRowShown="0">
-  <autoFilter ref="B2:G212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:H212" totalsRowShown="0">
+  <autoFilter ref="B2:H212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
+    <tableColumn id="7" xr3:uid="{1DA27551-5E25-1241-A191-D3F866BA66FD}" name="pot"/>
     <tableColumn id="4" xr3:uid="{8A11EADE-C65F-784E-81F3-F09F807476AD}" name="notes"/>
     <tableColumn id="5" xr3:uid="{51033E0C-19D6-5D44-8021-28156160EB71}" name="282_alive"/>
     <tableColumn id="6" xr3:uid="{B3DB47D5-3D79-8044-9F36-AA1442CFD021}" name="282_dead"/>
@@ -458,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:G212"/>
+  <dimension ref="B2:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,7 +501,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -482,16 +512,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -501,8 +534,11 @@
       <c r="D3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -512,8 +548,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -523,8 +562,11 @@
       <c r="D5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -534,8 +576,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -545,8 +590,11 @@
       <c r="D7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -556,8 +604,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -567,8 +618,11 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -578,8 +632,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -589,8 +646,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -600,8 +660,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -611,8 +674,11 @@
       <c r="D13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -622,8 +688,11 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -633,8 +702,12 @@
       <c r="D15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="2">
+        <f>E3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -644,8 +717,12 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <f>E4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -655,8 +732,12 @@
       <c r="D17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <f>E5+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -666,8 +747,12 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <f>E6+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -677,8 +762,12 @@
       <c r="D19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
+        <f>E7+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -688,8 +777,12 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <f>E8+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -699,8 +792,11 @@
       <c r="D21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -710,8 +806,12 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>E10+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -721,8 +821,12 @@
       <c r="D23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f>E11+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -732,8 +836,12 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <f>E12+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -743,8 +851,12 @@
       <c r="D25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <f>E13+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -754,8 +866,12 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <f>E14+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -765,8 +881,12 @@
       <c r="D27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="2">
+        <f>E15+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -776,8 +896,12 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="1">
+        <f>E16+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -787,8 +911,12 @@
       <c r="D29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
+        <f>E17+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -798,8 +926,12 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="1">
+        <f>E18+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -809,8 +941,12 @@
       <c r="D31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="2">
+        <f>E19+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -820,8 +956,12 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <f>E20+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -831,8 +971,12 @@
       <c r="D33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <f>E21+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -842,8 +986,12 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <f>E22+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -853,8 +1001,12 @@
       <c r="D35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <f>E23+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -864,8 +1016,12 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <f>E24+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -875,8 +1031,12 @@
       <c r="D37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f>E25+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -886,8 +1046,12 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <f>E26+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -897,8 +1061,12 @@
       <c r="D39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
+        <f>E27+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -908,8 +1076,12 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="1">
+        <f>E28+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -919,8 +1091,12 @@
       <c r="D41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="2">
+        <f>E29+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -930,8 +1106,12 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="1">
+        <f>E30+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -941,8 +1121,12 @@
       <c r="D43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="2">
+        <f>E31+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -952,8 +1136,12 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="1">
+        <f>E32+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -963,8 +1151,12 @@
       <c r="D45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <f>E33+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -974,8 +1166,12 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <f>E34+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -985,8 +1181,12 @@
       <c r="D47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <f>E35+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1196,12 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <f>E36+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1007,8 +1211,12 @@
       <c r="D49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <f>E37+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1018,8 +1226,12 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <f>E38+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1241,12 @@
       <c r="D51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="2">
+        <f>E39+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1256,12 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="1">
+        <f>E40+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1051,8 +1271,12 @@
       <c r="D53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="2">
+        <f>E41+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1062,8 +1286,12 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="1">
+        <f>E42+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1073,8 +1301,12 @@
       <c r="D55">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="2">
+        <f>E43+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -1084,8 +1316,12 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="1">
+        <f>E44+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1095,8 +1331,12 @@
       <c r="D57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <f>E45+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -1106,8 +1346,12 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <f>E46+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -1117,8 +1361,12 @@
       <c r="D59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <f>E47+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1376,12 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <f>E48+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -1139,8 +1391,12 @@
       <c r="D61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <f>E49+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -1150,8 +1406,12 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <f>E50+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1161,8 +1421,12 @@
       <c r="D63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="2">
+        <f>E51+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1172,8 +1436,12 @@
       <c r="D64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="1">
+        <f>E52+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1451,12 @@
       <c r="D65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="2">
+        <f>E53+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -1194,8 +1466,12 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <f>E54+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -1205,8 +1481,12 @@
       <c r="D67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="2">
+        <f>E55+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -1216,8 +1496,12 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="1">
+        <f>E56+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -1227,8 +1511,12 @@
       <c r="D69">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <f>E57+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -1238,8 +1526,12 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <f>E58+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -1249,8 +1541,12 @@
       <c r="D71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <f>E59+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -1260,8 +1556,12 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <f>E60+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -1271,8 +1571,12 @@
       <c r="D73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <f>E61+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -1282,8 +1586,12 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <f>E62+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1601,12 @@
       <c r="D75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="2">
+        <f>E63+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1616,12 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="1">
+        <f>E64+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -1315,8 +1631,12 @@
       <c r="D77">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="2">
+        <f>E65+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -1326,8 +1646,12 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="1">
+        <f>E66+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -1337,8 +1661,12 @@
       <c r="D79">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="2">
+        <f>E67+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -1348,8 +1676,12 @@
       <c r="D80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="1">
+        <f>E68+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -1359,8 +1691,12 @@
       <c r="D81">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <f>E69+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -1370,8 +1706,12 @@
       <c r="D82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <f>E70+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -1381,8 +1721,12 @@
       <c r="D83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <f>E71+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -1392,8 +1736,12 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <f>E72+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -1403,8 +1751,12 @@
       <c r="D85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <f>E73+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -1414,8 +1766,12 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <f>E74+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -1425,8 +1781,12 @@
       <c r="D87">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="2">
+        <f>E75+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -1436,8 +1796,12 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="1">
+        <f>E76+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -1447,8 +1811,12 @@
       <c r="D89">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="2">
+        <f>E77+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -1458,8 +1826,12 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="1">
+        <f>E78+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -1469,8 +1841,12 @@
       <c r="D91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="2">
+        <f>E79+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -1480,8 +1856,12 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="1">
+        <f>E80+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -1491,8 +1871,12 @@
       <c r="D93">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <f>E81+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -1502,8 +1886,12 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <f>E82+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -1513,8 +1901,12 @@
       <c r="D95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <f>E83+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -1524,8 +1916,12 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <f>E84+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -1535,8 +1931,12 @@
       <c r="D97">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <f>E85+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -1546,8 +1946,12 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <f>E86+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -1557,8 +1961,12 @@
       <c r="D99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="2">
+        <f>E87+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -1568,8 +1976,12 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="1">
+        <f>E88+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -1579,8 +1991,12 @@
       <c r="D101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="2">
+        <f>E89+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +2006,12 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="1">
+        <f>E90+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -1601,8 +2021,12 @@
       <c r="D103">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="2">
+        <f>E91+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -1612,8 +2036,12 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="1">
+        <f>E92+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -1623,8 +2051,12 @@
       <c r="D105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E105">
+        <f>E93+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -1634,8 +2066,12 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E106">
+        <f>E94+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -1645,8 +2081,12 @@
       <c r="D107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E107">
+        <f>E95+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -1656,8 +2096,12 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E108">
+        <f>E96+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -1667,8 +2111,12 @@
       <c r="D109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E109">
+        <f>E97+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -1678,8 +2126,12 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E110">
+        <f>E98+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -1689,8 +2141,12 @@
       <c r="D111">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="2">
+        <f>E99+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +2156,12 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="1">
+        <f>E100+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -1711,8 +2171,12 @@
       <c r="D113">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="2">
+        <f>E101+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -1722,8 +2186,12 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="1">
+        <f>E102+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -1733,8 +2201,12 @@
       <c r="D115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="2">
+        <f>E103+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -1744,8 +2216,12 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="1">
+        <f>E104+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -1755,8 +2231,12 @@
       <c r="D117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E117">
+        <f>E105+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -1766,8 +2246,12 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E118">
+        <f>E106+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -1777,8 +2261,12 @@
       <c r="D119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <f>E107+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -1788,8 +2276,12 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E120">
+        <f>E108+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -1799,8 +2291,12 @@
       <c r="D121">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E121">
+        <f>E109+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -1810,8 +2306,12 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <f>E110+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -1821,8 +2321,12 @@
       <c r="D123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="2">
+        <f>E111+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +2336,12 @@
       <c r="D124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="1">
+        <f>E112+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +2351,12 @@
       <c r="D125">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="2">
+        <f>E113+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -1854,8 +2366,12 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="1">
+        <f>E114+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -1865,8 +2381,12 @@
       <c r="D127">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="2">
+        <f>E115+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -1876,8 +2396,12 @@
       <c r="D128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="1">
+        <f>E116+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -1887,8 +2411,12 @@
       <c r="D129">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E129">
+        <f>E117+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -1898,8 +2426,12 @@
       <c r="D130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E130">
+        <f>E118+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -1909,8 +2441,12 @@
       <c r="D131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E131">
+        <f>E119+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -1920,8 +2456,12 @@
       <c r="D132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <f>E120+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -1931,8 +2471,12 @@
       <c r="D133">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E133">
+        <f>E121+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -1942,8 +2486,12 @@
       <c r="D134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E134">
+        <f>E122+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -1953,8 +2501,12 @@
       <c r="D135">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="2">
+        <f>E123+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -1964,8 +2516,12 @@
       <c r="D136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="1">
+        <f>E124+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -1975,8 +2531,12 @@
       <c r="D137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="2">
+        <f>E125+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2546,12 @@
       <c r="D138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="1">
+        <f>E126+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -1997,8 +2561,12 @@
       <c r="D139">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="2">
+        <f>E127+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -2008,8 +2576,12 @@
       <c r="D140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="1">
+        <f>E128+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -2019,8 +2591,12 @@
       <c r="D141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E141">
+        <f>E129+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -2030,8 +2606,12 @@
       <c r="D142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E142">
+        <f>E130+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -2041,8 +2621,12 @@
       <c r="D143">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E143">
+        <f>E131+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -2052,8 +2636,12 @@
       <c r="D144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E144">
+        <f>E132+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -2063,8 +2651,12 @@
       <c r="D145">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E145">
+        <f>E133+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -2074,8 +2666,12 @@
       <c r="D146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E146">
+        <f>E134+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -2085,8 +2681,12 @@
       <c r="D147">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="2">
+        <f>E135+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2696,12 @@
       <c r="D148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="1">
+        <f>E136+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -2107,8 +2711,12 @@
       <c r="D149">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="2">
+        <f>E137+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -2118,8 +2726,12 @@
       <c r="D150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="1">
+        <f>E138+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -2129,8 +2741,12 @@
       <c r="D151">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="2">
+        <f>E139+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -2140,8 +2756,12 @@
       <c r="D152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="1">
+        <f>E140+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -2151,8 +2771,12 @@
       <c r="D153">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E153">
+        <f>E141+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -2162,8 +2786,12 @@
       <c r="D154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E154">
+        <f>E142+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -2173,8 +2801,12 @@
       <c r="D155">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E155">
+        <f>E143+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -2184,8 +2816,12 @@
       <c r="D156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E156">
+        <f>E144+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2831,12 @@
       <c r="D157">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E157">
+        <f>E145+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -2206,8 +2846,12 @@
       <c r="D158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E158">
+        <f>E146+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -2217,8 +2861,12 @@
       <c r="D159">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="2">
+        <f>E147+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2876,12 @@
       <c r="D160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="1">
+        <f>E148+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2891,12 @@
       <c r="D161">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="2">
+        <f>E149+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2906,12 @@
       <c r="D162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="1">
+        <f>E150+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -2261,8 +2921,12 @@
       <c r="D163">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="2">
+        <f>E151+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -2272,8 +2936,12 @@
       <c r="D164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="1">
+        <f>E152+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -2283,8 +2951,12 @@
       <c r="D165">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E165">
+        <f>E153+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -2294,8 +2966,12 @@
       <c r="D166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E166">
+        <f>E154+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -2305,8 +2981,12 @@
       <c r="D167">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E167">
+        <f>E155+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -2316,8 +2996,12 @@
       <c r="D168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E168">
+        <f>E156+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -2327,8 +3011,12 @@
       <c r="D169">
         <v>10</v>
       </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E169">
+        <f>E157+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -2338,8 +3026,12 @@
       <c r="D170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E170">
+        <f>E158+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -2349,8 +3041,12 @@
       <c r="D171">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="2">
+        <f>E159+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -2360,8 +3056,12 @@
       <c r="D172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="1">
+        <f>E160+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +3071,12 @@
       <c r="D173">
         <v>10</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="2">
+        <f>E161+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -2382,8 +3086,12 @@
       <c r="D174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="1">
+        <f>E162+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -2393,8 +3101,12 @@
       <c r="D175">
         <v>10</v>
       </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="2">
+        <f>E163+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -2404,8 +3116,12 @@
       <c r="D176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="1">
+        <f>E164+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -2415,8 +3131,12 @@
       <c r="D177">
         <v>10</v>
       </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E177">
+        <f>E165+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -2426,8 +3146,12 @@
       <c r="D178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E178">
+        <f>E166+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -2437,8 +3161,12 @@
       <c r="D179">
         <v>10</v>
       </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E179">
+        <f>E167+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -2448,8 +3176,12 @@
       <c r="D180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E180">
+        <f>E168+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -2459,8 +3191,12 @@
       <c r="D181">
         <v>10</v>
       </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E181">
+        <f>E169+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -2470,8 +3206,12 @@
       <c r="D182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E182">
+        <f>E170+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +3221,11 @@
       <c r="D183">
         <v>25</v>
       </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -2492,8 +3235,11 @@
       <c r="D184">
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -2503,8 +3249,11 @@
       <c r="D185">
         <v>25</v>
       </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -2514,8 +3263,11 @@
       <c r="D186">
         <v>25</v>
       </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -2525,8 +3277,11 @@
       <c r="D187">
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -2536,8 +3291,11 @@
       <c r="D188">
         <v>25</v>
       </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +3305,11 @@
       <c r="D189">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -2558,8 +3319,11 @@
       <c r="D190">
         <v>25</v>
       </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -2569,8 +3333,11 @@
       <c r="D191">
         <v>25</v>
       </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -2580,8 +3347,11 @@
       <c r="D192">
         <v>25</v>
       </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -2591,8 +3361,11 @@
       <c r="D193">
         <v>25</v>
       </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -2602,8 +3375,11 @@
       <c r="D194">
         <v>25</v>
       </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -2613,8 +3389,11 @@
       <c r="D195">
         <v>25</v>
       </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -2624,8 +3403,11 @@
       <c r="D196">
         <v>25</v>
       </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -2635,8 +3417,11 @@
       <c r="D197">
         <v>25</v>
       </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -2646,8 +3431,11 @@
       <c r="D198">
         <v>25</v>
       </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -2657,8 +3445,11 @@
       <c r="D199">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -2668,8 +3459,11 @@
       <c r="D200">
         <v>25</v>
       </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -2679,8 +3473,11 @@
       <c r="D201">
         <v>25</v>
       </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -2690,8 +3487,11 @@
       <c r="D202">
         <v>25</v>
       </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -2701,8 +3501,11 @@
       <c r="D203">
         <v>25</v>
       </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -2712,8 +3515,11 @@
       <c r="D204">
         <v>25</v>
       </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -2723,8 +3529,11 @@
       <c r="D205">
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -2734,8 +3543,11 @@
       <c r="D206">
         <v>25</v>
       </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -2745,8 +3557,11 @@
       <c r="D207">
         <v>25</v>
       </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -2756,8 +3571,11 @@
       <c r="D208">
         <v>25</v>
       </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +3585,11 @@
       <c r="D209">
         <v>25</v>
       </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -2778,8 +3599,11 @@
       <c r="D210">
         <v>25</v>
       </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -2789,8 +3613,11 @@
       <c r="D211">
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -2799,6 +3626,9 @@
       </c>
       <c r="D212">
         <v>25</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94036523-FBFD-A24D-9761-328E4CDF7FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E692B52-4B3E-314E-BD8C-299476E9E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="13">
   <si>
     <t>seed_species</t>
   </si>
@@ -62,13 +62,19 @@
     <t>inoculated_%</t>
   </si>
   <si>
-    <t>282_alive</t>
+    <t>pot</t>
   </si>
   <si>
-    <t>282_dead</t>
+    <t>296_alive</t>
   </si>
   <si>
-    <t>pot</t>
+    <t>296_dead</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil</t>
+  </si>
+  <si>
+    <t>doy296: less mold on soil</t>
   </si>
 </sst>
 </file>
@@ -157,15 +163,31 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:H212" totalsRowShown="0">
-  <autoFilter ref="B2:H212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
+  <autoFilter ref="B2:H212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="THPL"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TSHE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
     <tableColumn id="7" xr3:uid="{1DA27551-5E25-1241-A191-D3F866BA66FD}" name="pot"/>
     <tableColumn id="4" xr3:uid="{8A11EADE-C65F-784E-81F3-F09F807476AD}" name="notes"/>
-    <tableColumn id="5" xr3:uid="{51033E0C-19D6-5D44-8021-28156160EB71}" name="282_alive"/>
-    <tableColumn id="6" xr3:uid="{B3DB47D5-3D79-8044-9F36-AA1442CFD021}" name="282_dead"/>
+    <tableColumn id="5" xr3:uid="{51033E0C-19D6-5D44-8021-28156160EB71}" name="296_alive"/>
+    <tableColumn id="6" xr3:uid="{B3DB47D5-3D79-8044-9F36-AA1442CFD021}" name="296_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,7 +513,7 @@
   <dimension ref="B2:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -538,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -552,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -566,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -580,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -594,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -608,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -622,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -635,8 +657,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -647,6 +672,9 @@
         <v>10</v>
       </c>
       <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
@@ -663,8 +691,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -678,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -691,8 +722,11 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -703,11 +737,11 @@
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <f>E3+1</f>
+        <f t="shared" ref="E15:E20" si="0">E3+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -718,11 +752,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>E4+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -733,11 +767,11 @@
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f>E5+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -748,11 +782,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f>E6+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -763,11 +797,11 @@
         <v>10</v>
       </c>
       <c r="E19" s="2">
-        <f>E7+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -778,11 +812,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>E8+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -796,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -807,11 +841,14 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f>E10+1</f>
+        <f t="shared" ref="E22:E53" si="1">E10+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -822,11 +859,11 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <f>E11+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -837,11 +874,14 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f>E12+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -852,11 +892,11 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <f>E13+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -867,11 +907,14 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f>E14+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -882,11 +925,11 @@
         <v>10</v>
       </c>
       <c r="E27" s="2">
-        <f>E15+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -897,11 +940,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <f>E16+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -912,11 +955,11 @@
         <v>10</v>
       </c>
       <c r="E29" s="2">
-        <f>E17+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -927,11 +970,14 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <f>E18+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -942,11 +988,11 @@
         <v>10</v>
       </c>
       <c r="E31" s="2">
-        <f>E19+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -957,11 +1003,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <f>E20+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -972,11 +1018,11 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <f>E21+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -987,11 +1033,14 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f>E22+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1002,11 +1051,11 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <f>E23+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1017,11 +1066,14 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f>E24+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1032,11 +1084,11 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <f>E25+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1047,11 +1099,14 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>E26+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1062,11 +1117,11 @@
         <v>10</v>
       </c>
       <c r="E39" s="2">
-        <f>E27+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1077,11 +1132,11 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <f>E28+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1092,11 +1147,11 @@
         <v>10</v>
       </c>
       <c r="E41" s="2">
-        <f>E29+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1107,11 +1162,14 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <f>E30+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1122,11 +1180,11 @@
         <v>10</v>
       </c>
       <c r="E43" s="2">
-        <f>E31+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1137,11 +1195,11 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <f>E32+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1152,11 +1210,11 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <f>E33+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1167,11 +1225,14 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f>E34+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1182,11 +1243,11 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <f>E35+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1197,11 +1258,14 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f>E36+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1212,11 +1276,11 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <f>E37+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1227,11 +1291,14 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f>E38+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1242,11 +1309,11 @@
         <v>10</v>
       </c>
       <c r="E51" s="2">
-        <f>E39+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1257,11 +1324,11 @@
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <f>E40+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1272,11 +1339,11 @@
         <v>10</v>
       </c>
       <c r="E53" s="2">
-        <f>E41+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1287,11 +1354,11 @@
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <f>E42+1</f>
+        <f t="shared" ref="E54:E85" si="2">E42+1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1302,11 +1369,11 @@
         <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f>E43+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -1317,11 +1384,11 @@
         <v>0</v>
       </c>
       <c r="E56" s="1">
-        <f>E44+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1332,11 +1399,11 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <f>E45+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -1347,11 +1414,14 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <f>E46+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -1362,11 +1432,11 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <f>E47+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1377,11 +1447,14 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f>E48+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -1392,11 +1465,11 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <f>E49+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -1407,11 +1480,11 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f>E50+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1422,11 +1495,11 @@
         <v>10</v>
       </c>
       <c r="E63" s="2">
-        <f>E51+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1437,11 +1510,11 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <f>E52+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -1452,11 +1525,11 @@
         <v>10</v>
       </c>
       <c r="E65" s="2">
-        <f>E53+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -1467,11 +1540,11 @@
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <f>E54+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -1482,11 +1555,11 @@
         <v>10</v>
       </c>
       <c r="E67" s="2">
-        <f>E55+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -1497,11 +1570,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <f>E56+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -1512,11 +1585,11 @@
         <v>10</v>
       </c>
       <c r="E69">
-        <f>E57+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -1527,11 +1600,14 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <f>E58+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -1542,11 +1618,11 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <f>E59+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -1557,11 +1633,14 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <f>E60+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -1572,11 +1651,11 @@
         <v>10</v>
       </c>
       <c r="E73">
-        <f>E61+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -1587,11 +1666,14 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <f>E62+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -1602,11 +1684,11 @@
         <v>10</v>
       </c>
       <c r="E75" s="2">
-        <f>E63+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -1617,11 +1699,11 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f>E64+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -1632,11 +1714,11 @@
         <v>10</v>
       </c>
       <c r="E77" s="2">
-        <f>E65+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -1647,11 +1729,14 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f>E66+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -1662,11 +1747,11 @@
         <v>10</v>
       </c>
       <c r="E79" s="2">
-        <f>E67+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -1677,11 +1762,11 @@
         <v>0</v>
       </c>
       <c r="E80" s="1">
-        <f>E68+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -1692,11 +1777,11 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <f>E69+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -1707,11 +1792,14 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <f>E70+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -1722,11 +1810,11 @@
         <v>10</v>
       </c>
       <c r="E83">
-        <f>E71+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -1737,11 +1825,14 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <f>E72+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -1752,11 +1843,11 @@
         <v>10</v>
       </c>
       <c r="E85">
-        <f>E73+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -1767,11 +1858,14 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <f>E74+1</f>
+        <f t="shared" ref="E86:E117" si="3">E74+1</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -1782,11 +1876,11 @@
         <v>10</v>
       </c>
       <c r="E87" s="2">
-        <f>E75+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -1797,11 +1891,11 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <f>E76+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -1812,11 +1906,11 @@
         <v>10</v>
       </c>
       <c r="E89" s="2">
-        <f>E77+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -1827,11 +1921,11 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <f>E78+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -1842,11 +1936,11 @@
         <v>10</v>
       </c>
       <c r="E91" s="2">
-        <f>E79+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -1857,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <f>E80+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -1872,11 +1966,11 @@
         <v>10</v>
       </c>
       <c r="E93">
-        <f>E81+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -1887,11 +1981,14 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <f>E82+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -1902,11 +1999,11 @@
         <v>10</v>
       </c>
       <c r="E95">
-        <f>E83+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -1917,11 +2014,14 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <f>E84+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -1932,11 +2032,11 @@
         <v>10</v>
       </c>
       <c r="E97">
-        <f>E85+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -1947,11 +2047,14 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <f>E86+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -1962,11 +2065,11 @@
         <v>10</v>
       </c>
       <c r="E99" s="2">
-        <f>E87+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -1977,11 +2080,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f>E88+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -1992,11 +2095,11 @@
         <v>10</v>
       </c>
       <c r="E101" s="2">
-        <f>E89+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -2007,11 +2110,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <f>E90+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -2022,11 +2125,11 @@
         <v>10</v>
       </c>
       <c r="E103" s="2">
-        <f>E91+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -2037,11 +2140,11 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <f>E92+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -2052,11 +2155,11 @@
         <v>10</v>
       </c>
       <c r="E105">
-        <f>E93+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -2067,11 +2170,14 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <f>E94+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -2082,11 +2188,11 @@
         <v>10</v>
       </c>
       <c r="E107">
-        <f>E95+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -2097,11 +2203,14 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <f>E96+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -2112,11 +2221,11 @@
         <v>10</v>
       </c>
       <c r="E109">
-        <f>E97+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -2127,11 +2236,14 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <f>E98+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -2142,11 +2254,14 @@
         <v>10</v>
       </c>
       <c r="E111" s="2">
-        <f>E99+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -2157,11 +2272,11 @@
         <v>0</v>
       </c>
       <c r="E112" s="1">
-        <f>E100+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -2172,11 +2287,11 @@
         <v>10</v>
       </c>
       <c r="E113" s="2">
-        <f>E101+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -2187,11 +2302,11 @@
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <f>E102+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -2202,11 +2317,11 @@
         <v>10</v>
       </c>
       <c r="E115" s="2">
-        <f>E103+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -2217,11 +2332,11 @@
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <f>E104+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -2232,11 +2347,11 @@
         <v>10</v>
       </c>
       <c r="E117">
-        <f>E105+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -2247,11 +2362,12 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <f>E106+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" ref="E118:E149" si="4">E106+1</f>
+        <v>10</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -2262,11 +2378,11 @@
         <v>10</v>
       </c>
       <c r="E119">
-        <f>E107+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -2277,11 +2393,14 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <f>E108+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -2292,11 +2411,11 @@
         <v>10</v>
       </c>
       <c r="E121">
-        <f>E109+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -2307,11 +2426,14 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <f>E110+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -2322,11 +2444,11 @@
         <v>10</v>
       </c>
       <c r="E123" s="2">
-        <f>E111+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -2337,11 +2459,11 @@
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <f>E112+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -2352,11 +2474,11 @@
         <v>10</v>
       </c>
       <c r="E125" s="2">
-        <f>E113+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -2367,11 +2489,11 @@
         <v>0</v>
       </c>
       <c r="E126" s="1">
-        <f>E114+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -2382,11 +2504,11 @@
         <v>10</v>
       </c>
       <c r="E127" s="2">
-        <f>E115+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -2397,11 +2519,11 @@
         <v>0</v>
       </c>
       <c r="E128" s="1">
-        <f>E116+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -2412,11 +2534,11 @@
         <v>10</v>
       </c>
       <c r="E129">
-        <f>E117+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -2427,11 +2549,14 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <f>E118+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -2442,11 +2567,11 @@
         <v>10</v>
       </c>
       <c r="E131">
-        <f>E119+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -2457,11 +2582,14 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <f>E120+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -2472,11 +2600,11 @@
         <v>10</v>
       </c>
       <c r="E133">
-        <f>E121+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -2487,11 +2615,14 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <f>E122+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -2502,11 +2633,11 @@
         <v>10</v>
       </c>
       <c r="E135" s="2">
-        <f>E123+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -2517,11 +2648,11 @@
         <v>0</v>
       </c>
       <c r="E136" s="1">
-        <f>E124+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -2532,11 +2663,11 @@
         <v>10</v>
       </c>
       <c r="E137" s="2">
-        <f>E125+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -2547,11 +2678,11 @@
         <v>0</v>
       </c>
       <c r="E138" s="1">
-        <f>E126+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -2562,11 +2693,11 @@
         <v>10</v>
       </c>
       <c r="E139" s="2">
-        <f>E127+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -2577,11 +2708,11 @@
         <v>0</v>
       </c>
       <c r="E140" s="1">
-        <f>E128+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -2592,11 +2723,11 @@
         <v>10</v>
       </c>
       <c r="E141">
-        <f>E129+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -2607,11 +2738,14 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <f>E130+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -2622,11 +2756,11 @@
         <v>10</v>
       </c>
       <c r="E143">
-        <f>E131+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -2637,11 +2771,14 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <f>E132+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -2652,11 +2789,11 @@
         <v>10</v>
       </c>
       <c r="E145">
-        <f>E133+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -2667,11 +2804,14 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <f>E134+1</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -2682,11 +2822,11 @@
         <v>10</v>
       </c>
       <c r="E147" s="2">
-        <f>E135+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -2697,11 +2837,11 @@
         <v>0</v>
       </c>
       <c r="E148" s="1">
-        <f>E136+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -2712,11 +2852,11 @@
         <v>10</v>
       </c>
       <c r="E149" s="2">
-        <f>E137+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -2727,11 +2867,14 @@
         <v>0</v>
       </c>
       <c r="E150" s="1">
-        <f>E138+1</f>
+        <f t="shared" ref="E150:E181" si="5">E138+1</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -2742,11 +2885,11 @@
         <v>10</v>
       </c>
       <c r="E151" s="2">
-        <f>E139+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -2757,11 +2900,11 @@
         <v>0</v>
       </c>
       <c r="E152" s="1">
-        <f>E140+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -2772,11 +2915,11 @@
         <v>10</v>
       </c>
       <c r="E153">
-        <f>E141+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -2787,11 +2930,14 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <f>E142+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -2802,11 +2948,11 @@
         <v>10</v>
       </c>
       <c r="E155">
-        <f>E143+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -2817,11 +2963,14 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <f>E144+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -2832,11 +2981,11 @@
         <v>10</v>
       </c>
       <c r="E157">
-        <f>E145+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -2847,11 +2996,14 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <f>E146+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -2862,11 +3014,11 @@
         <v>10</v>
       </c>
       <c r="E159" s="2">
-        <f>E147+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -2877,11 +3029,11 @@
         <v>0</v>
       </c>
       <c r="E160" s="1">
-        <f>E148+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -2892,11 +3044,11 @@
         <v>10</v>
       </c>
       <c r="E161" s="2">
-        <f>E149+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -2907,11 +3059,11 @@
         <v>0</v>
       </c>
       <c r="E162" s="1">
-        <f>E150+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -2922,11 +3074,11 @@
         <v>10</v>
       </c>
       <c r="E163" s="2">
-        <f>E151+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -2937,11 +3089,11 @@
         <v>0</v>
       </c>
       <c r="E164" s="1">
-        <f>E152+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -2952,11 +3104,11 @@
         <v>10</v>
       </c>
       <c r="E165">
-        <f>E153+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -2967,11 +3119,14 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <f>E154+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -2982,11 +3137,11 @@
         <v>10</v>
       </c>
       <c r="E167">
-        <f>E155+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -2997,11 +3152,14 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <f>E156+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -3012,11 +3170,11 @@
         <v>10</v>
       </c>
       <c r="E169">
-        <f>E157+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -3027,11 +3185,11 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <f>E158+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -3042,11 +3200,11 @@
         <v>10</v>
       </c>
       <c r="E171" s="2">
-        <f>E159+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -3057,11 +3215,11 @@
         <v>0</v>
       </c>
       <c r="E172" s="1">
-        <f>E160+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -3072,11 +3230,11 @@
         <v>10</v>
       </c>
       <c r="E173" s="2">
-        <f>E161+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -3087,11 +3245,11 @@
         <v>0</v>
       </c>
       <c r="E174" s="1">
-        <f>E162+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -3102,11 +3260,11 @@
         <v>10</v>
       </c>
       <c r="E175" s="2">
-        <f>E163+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -3117,11 +3275,11 @@
         <v>0</v>
       </c>
       <c r="E176" s="1">
-        <f>E164+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -3132,11 +3290,11 @@
         <v>10</v>
       </c>
       <c r="E177">
-        <f>E165+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -3147,11 +3305,14 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <f>E166+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F178" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -3162,11 +3323,11 @@
         <v>10</v>
       </c>
       <c r="E179">
-        <f>E167+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -3177,11 +3338,14 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <f>E168+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -3192,11 +3356,11 @@
         <v>10</v>
       </c>
       <c r="E181">
-        <f>E169+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -3207,11 +3371,11 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <f>E170+1</f>
+        <f t="shared" ref="E182:E213" si="6">E170+1</f>
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -3225,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -3239,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -3253,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -3267,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -3281,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -3295,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -3309,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -3323,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -3351,7 +3515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -3365,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -3379,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -3407,7 +3571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -3421,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -3435,7 +3599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -3463,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -3491,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -3505,7 +3669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -3519,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -3533,7 +3697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -3547,7 +3711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -3561,7 +3725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -3575,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -3589,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -3617,7 +3781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E692B52-4B3E-314E-BD8C-299476E9E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC032358-49F2-334E-88FA-ED05A9F1C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="16">
   <si>
     <t>seed_species</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>doy296: less mold on soil</t>
+  </si>
+  <si>
+    <t>300_alive</t>
+  </si>
+  <si>
+    <t>300_dead</t>
+  </si>
+  <si>
+    <t>doy300: doy 296 germinant invalid, herbaceous species</t>
   </si>
 </sst>
 </file>
@@ -162,25 +171,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:H212" totalsRowShown="0">
-  <autoFilter ref="B2:H212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="THPL"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TSHE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-      </filters>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:J212" totalsRowShown="0">
+  <autoFilter ref="B2:J212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="7">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -188,6 +187,8 @@
     <tableColumn id="4" xr3:uid="{8A11EADE-C65F-784E-81F3-F09F807476AD}" name="notes"/>
     <tableColumn id="5" xr3:uid="{51033E0C-19D6-5D44-8021-28156160EB71}" name="296_alive"/>
     <tableColumn id="6" xr3:uid="{B3DB47D5-3D79-8044-9F36-AA1442CFD021}" name="296_dead"/>
+    <tableColumn id="8" xr3:uid="{6AB95F0A-5A2E-FF46-A343-7D50DF72F94E}" name="300_alive"/>
+    <tableColumn id="9" xr3:uid="{FB75E928-E3BE-CA47-8231-5372EDF3FFC9}" name="300_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -510,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:H212"/>
+  <dimension ref="B2:J212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,7 +524,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -545,8 +546,14 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -560,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -574,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -588,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -602,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -616,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -630,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -644,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -661,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -674,11 +681,14 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -695,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -709,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -726,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -741,7 +751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -756,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -771,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -786,7 +796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -801,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -816,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -830,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -848,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -863,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -881,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -896,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -929,7 +942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -944,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -959,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -977,7 +990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -992,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1007,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1022,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1039,8 +1052,11 @@
       <c r="F34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1073,7 +1089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1168,8 +1184,11 @@
       <c r="F42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1213,8 +1232,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1297,8 +1319,11 @@
       <c r="F50" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1313,7 +1338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1373,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -1388,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -1421,7 +1446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -1529,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -1589,7 +1614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -1606,8 +1631,11 @@
       <c r="F70" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -1622,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -1655,7 +1683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -1672,8 +1700,11 @@
       <c r="F74" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -1688,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -1718,7 +1749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -1799,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -1847,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -1864,8 +1895,11 @@
       <c r="F86" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -1880,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -1895,7 +1929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -1925,7 +1959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -1955,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -1970,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +2022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -2243,7 +2277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -2257,6 +2291,9 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
       <c r="G111">
         <v>1</v>
       </c>
@@ -2276,7 +2313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -2291,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -2306,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -2321,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -2366,8 +2403,11 @@
         <v>10</v>
       </c>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -2415,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -2448,7 +2488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -2463,7 +2503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -2478,7 +2518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -2493,7 +2533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -2508,7 +2548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -2604,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -2621,8 +2661,11 @@
       <c r="F134" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +2695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -2682,7 +2725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -2697,7 +2740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -2712,7 +2755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -2727,7 +2770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -2745,7 +2788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -2760,7 +2803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -2778,7 +2821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -2793,7 +2836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -2810,8 +2853,11 @@
       <c r="F146" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -2826,7 +2872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -2841,7 +2887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -2856,7 +2902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -2874,7 +2920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -2889,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -2904,7 +2950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -2919,7 +2965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -2937,7 +2983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -2952,7 +2998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -2970,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -2985,7 +3031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -3002,8 +3048,11 @@
       <c r="F158" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -3018,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -3327,7 +3376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -3371,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" ref="E182:E213" si="6">E170+1</f>
+        <f t="shared" ref="E182" si="6">E170+1</f>
         <v>15</v>
       </c>
     </row>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC032358-49F2-334E-88FA-ED05A9F1C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95353D15-67C0-744B-8905-08D4EF461FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="19">
   <si>
     <t>seed_species</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>doy300: doy 296 germinant invalid, herbaceous species</t>
+  </si>
+  <si>
+    <t>303_alive</t>
+  </si>
+  <si>
+    <t>303_dead</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy303: no obvious signs of mold on soil</t>
   </si>
 </sst>
 </file>
@@ -171,15 +180,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:J212" totalsRowShown="0">
-  <autoFilter ref="B2:J212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:L212" totalsRowShown="0">
+  <autoFilter ref="B2:L212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PSME"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PSME"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="9">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -189,6 +208,8 @@
     <tableColumn id="6" xr3:uid="{B3DB47D5-3D79-8044-9F36-AA1442CFD021}" name="296_dead"/>
     <tableColumn id="8" xr3:uid="{6AB95F0A-5A2E-FF46-A343-7D50DF72F94E}" name="300_alive"/>
     <tableColumn id="9" xr3:uid="{FB75E928-E3BE-CA47-8231-5372EDF3FFC9}" name="300_dead"/>
+    <tableColumn id="10" xr3:uid="{F1C5180A-2066-7C43-816B-87800E51FCAF}" name="303_alive"/>
+    <tableColumn id="11" xr3:uid="{AF7B9155-7566-4B4D-964E-640A950B8121}" name="303_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:J212"/>
+  <dimension ref="B2:L212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+      <selection activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +545,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -552,8 +573,14 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -581,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -595,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -608,8 +635,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -623,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -637,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -650,8 +680,11 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -667,8 +700,11 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -688,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -705,7 +741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -718,8 +754,11 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -733,10 +772,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -751,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -766,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -780,8 +822,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -796,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -811,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -826,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -840,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -857,8 +902,11 @@
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -872,8 +920,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -891,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -905,8 +956,11 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -921,13 +975,16 @@
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -942,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -957,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -972,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1046,11 @@
       <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1020,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1034,8 +1094,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1055,8 +1118,11 @@
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1071,7 +1137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1119,10 +1185,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1137,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1256,11 @@
       <c r="I42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1235,8 +1307,11 @@
       <c r="I45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1253,8 +1328,11 @@
       <c r="F46" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1269,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +1365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +1380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1317,13 +1395,16 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1353,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1368,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1382,8 +1463,11 @@
         <f t="shared" ref="E54:E85" si="2">E42+1</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1398,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -1413,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -1445,8 +1529,11 @@
       <c r="F58" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -1461,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -1494,7 +1581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -1508,8 +1595,14 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -1554,7 +1647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -1599,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -1634,8 +1727,11 @@
       <c r="I70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -1698,13 +1794,16 @@
         <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -1719,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -1748,8 +1847,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -1767,7 +1869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -1797,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -1811,8 +1913,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -1829,8 +1934,11 @@
       <c r="F82" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +1971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +1986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -1893,13 +2001,16 @@
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -1914,7 +2025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -1929,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2054,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -1958,8 +2072,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +2091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -1989,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -2003,8 +2120,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -2021,8 +2141,11 @@
       <c r="F94" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -2070,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -2085,10 +2208,13 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -2103,7 +2229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -2133,7 +2259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -2147,8 +2273,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -2193,7 +2322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -2210,8 +2339,11 @@
       <c r="F106" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -2244,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -2274,10 +2406,13 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -2298,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -2342,8 +2477,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -2358,7 +2496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -2373,7 +2511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -2406,8 +2544,11 @@
       <c r="I118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +2563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -2455,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -2470,10 +2611,13 @@
         <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -2488,7 +2632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -2503,7 +2647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -2532,8 +2676,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -2563,7 +2710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -2577,8 +2724,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -2595,8 +2745,11 @@
       <c r="F130" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -2629,7 +2782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -2659,13 +2812,16 @@
         <v>11</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -2680,7 +2836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2865,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2883,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -2740,7 +2902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +2917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -2769,8 +2931,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -2787,8 +2952,11 @@
       <c r="F142" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -2803,7 +2971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -2821,7 +2989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -2835,8 +3003,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -2851,13 +3022,16 @@
         <v>12</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -2872,7 +3046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -2887,7 +3061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -2902,7 +3076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -2919,8 +3093,11 @@
       <c r="F150" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -2935,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -2950,7 +3127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -2965,7 +3142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="F154" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -2998,7 +3178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -3046,13 +3226,16 @@
         <v>13</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -3067,7 +3250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="2:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -3082,7 +3265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -3097,7 +3280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -3111,8 +3294,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -3127,7 +3313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -3142,7 +3328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -3174,8 +3360,11 @@
       <c r="F166" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -3190,7 +3379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -3208,7 +3397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -3223,7 +3412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -3237,8 +3426,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -3253,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -3283,7 +3475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3489,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -3328,7 +3523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -3343,7 +3538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -3360,8 +3555,11 @@
       <c r="F178" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +3574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -3394,7 +3592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -3409,7 +3607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -3423,8 +3621,11 @@
         <f t="shared" ref="E182" si="6">E170+1</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -3438,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -3452,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -3480,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -3494,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -3508,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -3522,7 +3723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -3536,7 +3737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3750,11 @@
       <c r="E191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -3564,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -3578,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -3591,8 +3795,11 @@
       <c r="E194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -3606,7 +3813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -3619,8 +3826,11 @@
       <c r="E196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -3634,7 +3844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -3648,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -3662,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -3675,8 +3885,11 @@
       <c r="E200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -3690,7 +3903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -3718,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -3732,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -3746,7 +3959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -3760,7 +3973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -3774,7 +3987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95353D15-67C0-744B-8905-08D4EF461FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56663813-5448-AC46-B5B9-74DB3CAA7800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="26">
   <si>
     <t>seed_species</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>doy296: mold on soil; doy303: no obvious signs of mold on soil</t>
+  </si>
+  <si>
+    <t>307_alive</t>
+  </si>
+  <si>
+    <t>307_dead</t>
+  </si>
+  <si>
+    <t>doy307: one germinant looking unhealthy, long and not opened</t>
+  </si>
+  <si>
+    <t>doy307: herbaceous germinant found</t>
+  </si>
+  <si>
+    <t>doy307: one germinant looking unhealthy, one dead</t>
+  </si>
+  <si>
+    <t>doy307: one germinant looking unhealthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doy 296 germinant invalid, herbaceous species</t>
   </si>
 </sst>
 </file>
@@ -180,25 +201,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:L212" totalsRowShown="0">
-  <autoFilter ref="B2:L212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="PSME"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PSME"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:N213" totalsRowShown="0">
+  <autoFilter ref="B2:N213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -210,6 +215,8 @@
     <tableColumn id="9" xr3:uid="{FB75E928-E3BE-CA47-8231-5372EDF3FFC9}" name="300_dead"/>
     <tableColumn id="10" xr3:uid="{F1C5180A-2066-7C43-816B-87800E51FCAF}" name="303_alive"/>
     <tableColumn id="11" xr3:uid="{AF7B9155-7566-4B4D-964E-640A950B8121}" name="303_dead"/>
+    <tableColumn id="12" xr3:uid="{FF961331-BB70-F748-B2D8-8758B74111F1}" name="307_alive"/>
+    <tableColumn id="13" xr3:uid="{F54096F7-8245-934E-86A0-6F0E698FAA54}" name="307_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:L212"/>
+  <dimension ref="B2:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="K166" sqref="K166"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="139" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +552,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -579,8 +586,14 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -593,8 +606,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -607,8 +623,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -621,8 +640,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -638,8 +660,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -653,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -667,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -683,8 +708,11 @@
       <c r="K9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -703,8 +731,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -718,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -741,7 +772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -757,8 +788,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -777,8 +811,14 @@
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -792,8 +832,11 @@
         <f t="shared" ref="E15:E20" si="0">E3+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -807,8 +850,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -825,8 +871,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -840,8 +889,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -856,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -871,7 +923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -884,8 +936,11 @@
       <c r="E21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -905,8 +960,11 @@
       <c r="K22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -924,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -941,8 +999,11 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -959,8 +1020,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -983,8 +1047,14 @@
       <c r="K26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -998,8 +1068,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1013,8 +1086,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1104,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1049,8 +1128,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1097,8 +1179,11 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1121,8 +1206,11 @@
       <c r="K34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1169,8 +1257,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1190,8 +1281,14 @@
       <c r="K38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1205,8 +1302,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1320,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1235,8 +1338,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1365,11 @@
       <c r="K42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1304,14 +1413,23 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="K45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1331,8 +1449,11 @@
       <c r="K46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1364,8 +1485,11 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1379,8 +1503,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1403,8 +1530,14 @@
       <c r="K50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1418,8 +1551,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1433,8 +1569,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1448,8 +1587,11 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1466,8 +1608,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1511,8 +1656,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -1532,8 +1680,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -1580,8 +1731,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -1601,8 +1755,14 @@
       <c r="K62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1776,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1631,8 +1794,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1812,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1830,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -1692,7 +1864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -1706,8 +1878,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -1730,8 +1905,11 @@
       <c r="K70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +1924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -1778,8 +1956,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -1802,8 +1983,11 @@
       <c r="K74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +2001,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +2019,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -1850,8 +2040,11 @@
       <c r="K77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +2061,11 @@
       <c r="F78" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -1883,8 +2079,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +2098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -1913,11 +2112,17 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
       <c r="K81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -1937,8 +2142,11 @@
       <c r="K82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -1953,7 +2161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +2179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -1985,8 +2193,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -2009,8 +2220,11 @@
       <c r="K86">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -2024,8 +2238,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -2039,8 +2256,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -2057,8 +2277,11 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -2075,8 +2298,11 @@
       <c r="K90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -2090,8 +2316,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -2106,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -2123,8 +2352,11 @@
       <c r="K93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -2144,8 +2376,11 @@
       <c r="K94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -2192,8 +2427,14 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -2213,8 +2454,11 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -2229,7 +2473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -2243,8 +2487,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -2258,8 +2505,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -2276,8 +2526,11 @@
       <c r="K102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -2292,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -2321,8 +2574,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -2342,8 +2598,11 @@
       <c r="K106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -2358,7 +2617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -2376,7 +2635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -2390,8 +2649,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -2411,8 +2673,14 @@
       <c r="K110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M110">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -2433,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -2447,8 +2715,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -2462,8 +2733,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2754,11 @@
       <c r="K114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -2496,7 +2773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -2511,7 +2788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -2525,8 +2802,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -2547,8 +2827,11 @@
       <c r="K118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -2563,7 +2846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -2581,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -2595,8 +2878,11 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -2616,8 +2902,11 @@
       <c r="K122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -2631,8 +2920,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -2646,8 +2938,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2956,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -2679,8 +2977,11 @@
       <c r="K126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +2996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -2710,7 +3011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -2727,8 +3028,11 @@
       <c r="K129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -2748,8 +3052,11 @@
       <c r="K130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -2764,7 +3071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -2782,7 +3089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -2796,8 +3103,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -2820,8 +3130,11 @@
       <c r="K134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3148,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="136" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -2850,8 +3166,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -2868,8 +3187,11 @@
       <c r="K137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -2886,8 +3208,11 @@
       <c r="K138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -2902,7 +3227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +3242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -2931,11 +3256,17 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -2955,8 +3286,11 @@
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +3305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +3323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -3006,8 +3340,11 @@
       <c r="K145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -3030,8 +3367,14 @@
       <c r="K146">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M146">
+        <v>6</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -3046,7 +3389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3403,11 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="149" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -3075,8 +3421,11 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="150" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3445,11 @@
       <c r="K150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -3112,7 +3464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -3127,7 +3479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -3141,8 +3493,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -3162,8 +3517,11 @@
       <c r="K154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -3178,7 +3536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -3196,7 +3554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -3210,8 +3568,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -3234,8 +3595,11 @@
       <c r="K158">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -3250,7 +3614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3628,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="161" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -3279,8 +3646,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="162" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3667,11 @@
       <c r="K162">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -3313,7 +3686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -3328,7 +3701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -3342,8 +3715,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -3363,8 +3739,11 @@
       <c r="K166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -3379,7 +3758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -3397,7 +3776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -3411,8 +3790,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -3429,8 +3811,11 @@
       <c r="K170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -3445,7 +3830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -3459,8 +3844,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3862,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3883,11 @@
       <c r="K174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -3508,7 +3902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -3537,8 +3931,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -3558,8 +3955,11 @@
       <c r="K178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -3574,7 +3974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -3592,7 +3992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -3606,8 +4006,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="182" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -3624,8 +4027,11 @@
       <c r="K182">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -3639,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -3652,8 +4058,11 @@
       <c r="E184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -3666,8 +4075,11 @@
       <c r="E185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -3680,8 +4092,11 @@
       <c r="E186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -3695,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -3708,8 +4123,11 @@
       <c r="E188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -3723,7 +4141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -3736,8 +4154,11 @@
       <c r="E190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -3753,8 +4174,11 @@
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -3767,8 +4191,11 @@
       <c r="E192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -3782,7 +4209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -3798,8 +4225,11 @@
       <c r="K194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -3813,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -3829,8 +4259,11 @@
       <c r="K196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +4276,11 @@
       <c r="E197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -3857,8 +4293,11 @@
       <c r="E198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -3872,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -3888,8 +4327,11 @@
       <c r="K200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -3903,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -3916,8 +4358,11 @@
       <c r="E202">
         <v>4</v>
       </c>
-    </row>
-    <row r="203" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -3930,8 +4375,11 @@
       <c r="E203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -3944,8 +4392,11 @@
       <c r="E204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -3959,7 +4410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -3972,8 +4423,11 @@
       <c r="E206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +4441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -4000,8 +4454,11 @@
       <c r="E208">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -4014,8 +4471,11 @@
       <c r="E209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -4028,8 +4488,11 @@
       <c r="E210">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -4043,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -4055,6 +4518,9 @@
       </c>
       <c r="E212">
         <v>5</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56663813-5448-AC46-B5B9-74DB3CAA7800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206F45BA-2034-9B45-A6DB-28682F32757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="31">
   <si>
     <t>seed_species</t>
   </si>
@@ -101,9 +101,6 @@
     <t>307_dead</t>
   </si>
   <si>
-    <t>doy307: one germinant looking unhealthy, long and not opened</t>
-  </si>
-  <si>
     <t>doy307: herbaceous germinant found</t>
   </si>
   <si>
@@ -114,6 +111,24 @@
   </si>
   <si>
     <t xml:space="preserve"> doy 296 germinant invalid, herbaceous species</t>
+  </si>
+  <si>
+    <t>310_alive</t>
+  </si>
+  <si>
+    <t>310_dead</t>
+  </si>
+  <si>
+    <t>doy307: one germinant looking unhealthy, long and not opened; doy310: long germinant still alive but uprooted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doy296: mold on soil; doy303: no obvious signs of mold on soil; doy310: germinant not dead but unhealthy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">doy296: mold on soil; doy303: no obvious signs of mold on soil; </t>
+  </si>
+  <si>
+    <t>doy310: one germinant alive but uprooted</t>
   </si>
 </sst>
 </file>
@@ -201,9 +216,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:N213" totalsRowShown="0">
-  <autoFilter ref="B2:N213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:P213" totalsRowShown="0">
+  <autoFilter ref="B2:P213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TSHE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TSHE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -217,6 +248,8 @@
     <tableColumn id="11" xr3:uid="{AF7B9155-7566-4B4D-964E-640A950B8121}" name="303_dead"/>
     <tableColumn id="12" xr3:uid="{FF961331-BB70-F748-B2D8-8758B74111F1}" name="307_alive"/>
     <tableColumn id="13" xr3:uid="{F54096F7-8245-934E-86A0-6F0E698FAA54}" name="307_dead"/>
+    <tableColumn id="14" xr3:uid="{CB213D8E-3305-D040-90CC-DE1DDB3275C4}" name="310_alive"/>
+    <tableColumn id="15" xr3:uid="{4AC10E25-3833-6A46-9112-7B9EE97738A4}" name="310_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -539,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:N212"/>
+  <dimension ref="B2:P213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="139" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="O214" sqref="O214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,7 +585,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -592,8 +625,14 @@
       <c r="N2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -609,8 +648,11 @@
       <c r="M3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -626,8 +668,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -643,8 +688,11 @@
       <c r="M5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -663,8 +711,11 @@
       <c r="M6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -677,8 +728,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -692,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -711,8 +765,11 @@
       <c r="M9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -734,8 +791,11 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -749,13 +809,16 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -771,8 +834,11 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -791,8 +857,11 @@
       <c r="M13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -806,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -817,8 +886,14 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -835,8 +910,11 @@
       <c r="M15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -853,8 +931,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -874,8 +955,11 @@
       <c r="M17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -893,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -908,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -923,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -939,8 +1023,11 @@
       <c r="M21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -964,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1053,8 +1140,14 @@
       <c r="N26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1164,11 @@
       <c r="M27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1089,8 +1185,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1206,11 @@
       <c r="M29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1131,8 +1233,11 @@
       <c r="M30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1146,8 +1251,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1182,8 +1290,11 @@
       <c r="M33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1209,8 +1320,11 @@
       <c r="M34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1224,8 +1338,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1242,8 +1359,11 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1260,8 +1380,11 @@
       <c r="M37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1287,8 +1410,14 @@
       <c r="N38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1434,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1455,11 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1341,8 +1476,11 @@
       <c r="M41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1368,8 +1506,11 @@
       <c r="M42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1383,8 +1524,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -1428,8 +1572,14 @@
       <c r="N45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>6</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1452,8 +1602,11 @@
       <c r="M46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1467,8 +1620,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1488,8 +1644,11 @@
       <c r="M48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1506,8 +1665,11 @@
       <c r="M49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1536,8 +1698,14 @@
       <c r="N50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>5</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1554,8 +1722,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1572,8 +1743,11 @@
       <c r="M52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1764,11 @@
       <c r="M53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1611,8 +1788,11 @@
       <c r="M54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1626,8 +1806,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1659,8 +1842,11 @@
       <c r="M57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -1683,8 +1869,11 @@
       <c r="M58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -1698,8 +1887,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1716,8 +1908,11 @@
       <c r="F60" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -1734,8 +1929,11 @@
       <c r="M61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -1761,8 +1959,14 @@
       <c r="N62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1779,8 +1983,11 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -1797,8 +2004,11 @@
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -1815,8 +2025,11 @@
       <c r="M65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -1833,8 +2046,11 @@
       <c r="M66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -1848,8 +2064,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -1864,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -1881,8 +2100,11 @@
       <c r="M69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -1908,8 +2130,11 @@
       <c r="M70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -1923,8 +2148,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -1941,8 +2169,11 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -1959,8 +2190,11 @@
       <c r="M73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -1986,8 +2220,11 @@
       <c r="M74">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2241,11 @@
       <c r="M75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2262,11 @@
       <c r="M76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +2286,11 @@
       <c r="M77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -2064,8 +2310,11 @@
       <c r="M78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -2082,8 +2331,11 @@
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -2098,7 +2350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2365,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K81">
         <v>4</v>
@@ -2121,8 +2373,11 @@
       <c r="M81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -2145,8 +2400,11 @@
       <c r="M82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -2160,8 +2418,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -2178,8 +2439,11 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -2196,8 +2460,11 @@
       <c r="M85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -2223,8 +2490,11 @@
       <c r="M86">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2511,11 @@
       <c r="M87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2532,11 @@
       <c r="M88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2556,11 @@
       <c r="M89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -2301,8 +2580,11 @@
       <c r="M90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -2319,8 +2601,11 @@
       <c r="M91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -2335,7 +2620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -2355,8 +2640,11 @@
       <c r="M93">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -2379,8 +2667,11 @@
       <c r="M94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -2394,8 +2685,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -2412,8 +2706,11 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -2428,13 +2725,16 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -2457,8 +2757,11 @@
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -2472,8 +2775,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2796,11 @@
       <c r="M100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2817,11 @@
       <c r="M101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2841,11 @@
       <c r="M102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -2545,7 +2860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -2560,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -2577,8 +2892,11 @@
       <c r="M105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -2601,8 +2919,11 @@
       <c r="M106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -2617,7 +2938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -2635,7 +2956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -2652,8 +2973,11 @@
       <c r="M109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2992,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -2679,8 +3003,11 @@
       <c r="N110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -2700,8 +3027,11 @@
       <c r="G111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +3048,11 @@
       <c r="M112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +3069,11 @@
       <c r="M113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -2757,8 +3093,11 @@
       <c r="M114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -2772,8 +3111,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -2788,7 +3130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -2805,8 +3147,11 @@
       <c r="M117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -2830,8 +3175,11 @@
       <c r="M118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -2845,8 +3193,11 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -2863,8 +3214,11 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -2881,8 +3235,11 @@
       <c r="M121">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -2905,8 +3262,11 @@
       <c r="M122">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -2923,8 +3283,11 @@
       <c r="M123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -2938,11 +3301,17 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
       <c r="M124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -2959,8 +3328,11 @@
       <c r="M125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -2980,8 +3352,11 @@
       <c r="M126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -2996,7 +3371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -3011,7 +3386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -3031,8 +3406,11 @@
       <c r="M129">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -3055,8 +3433,11 @@
       <c r="M130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -3071,7 +3452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -3089,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -3106,8 +3487,11 @@
       <c r="M133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -3133,8 +3517,11 @@
       <c r="M134">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -3151,8 +3538,11 @@
       <c r="M135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -3169,8 +3559,11 @@
       <c r="M136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -3190,8 +3583,11 @@
       <c r="M137">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3607,11 @@
       <c r="M138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -3227,7 +3626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -3242,7 +3641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -3257,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -3265,8 +3664,11 @@
       <c r="M141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -3289,8 +3691,11 @@
       <c r="M142">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -3305,7 +3710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -3323,7 +3728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -3343,8 +3748,11 @@
       <c r="M145">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -3368,13 +3776,13 @@
         <v>4</v>
       </c>
       <c r="M146">
-        <v>6</v>
-      </c>
-      <c r="N146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="O146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -3388,8 +3796,11 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -3406,8 +3817,11 @@
       <c r="M148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -3424,8 +3838,11 @@
       <c r="M149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -3448,8 +3865,11 @@
       <c r="M150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -3464,7 +3884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -3479,7 +3899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -3496,8 +3916,11 @@
       <c r="M153">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -3520,8 +3943,11 @@
       <c r="M154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -3536,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -3553,8 +3979,11 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -3571,8 +4000,11 @@
       <c r="M157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -3598,8 +4030,11 @@
       <c r="M158">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +4048,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -3631,8 +4069,11 @@
       <c r="M160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +4090,11 @@
       <c r="M161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +4114,11 @@
       <c r="M162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -3686,7 +4133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -3701,7 +4148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -3718,8 +4165,11 @@
       <c r="M165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -3742,8 +4192,11 @@
       <c r="M166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -3758,7 +4211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -3775,8 +4228,11 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -3793,8 +4249,11 @@
       <c r="M169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -3814,8 +4273,11 @@
       <c r="M170">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +4291,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4312,11 @@
       <c r="M172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +4333,11 @@
       <c r="M173">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -3886,8 +4357,11 @@
       <c r="M174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -3902,7 +4376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -3917,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -3934,8 +4408,11 @@
       <c r="M177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -3958,8 +4435,11 @@
       <c r="M178">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +4454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -3991,8 +4471,11 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -4009,8 +4492,11 @@
       <c r="M181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -4030,8 +4516,11 @@
       <c r="M182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -4044,8 +4533,11 @@
       <c r="E183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -4061,8 +4553,11 @@
       <c r="M184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -4078,8 +4573,11 @@
       <c r="M185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -4095,8 +4593,11 @@
       <c r="M186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -4109,8 +4610,11 @@
       <c r="E187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -4126,8 +4630,11 @@
       <c r="M188">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -4140,8 +4647,11 @@
       <c r="E189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -4157,8 +4667,11 @@
       <c r="M190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -4177,8 +4690,11 @@
       <c r="M191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -4194,8 +4710,11 @@
       <c r="M192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -4208,8 +4727,11 @@
       <c r="E193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -4228,8 +4750,11 @@
       <c r="M194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -4242,8 +4767,11 @@
       <c r="E195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -4262,8 +4790,11 @@
       <c r="M196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -4279,8 +4810,11 @@
       <c r="M197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -4296,8 +4830,11 @@
       <c r="M198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -4310,8 +4847,11 @@
       <c r="E199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -4330,8 +4870,11 @@
       <c r="M200">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4887,11 @@
       <c r="E201">
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -4361,8 +4907,11 @@
       <c r="M202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -4378,8 +4927,11 @@
       <c r="M203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -4395,8 +4947,11 @@
       <c r="M204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -4409,8 +4964,11 @@
       <c r="E205">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -4426,8 +4984,11 @@
       <c r="M206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -4440,8 +5001,11 @@
       <c r="E207">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -4457,8 +5021,11 @@
       <c r="M208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -4474,8 +5041,11 @@
       <c r="M209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -4491,8 +5061,11 @@
       <c r="M210">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -4505,8 +5078,11 @@
       <c r="E211">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -4522,7 +5098,11 @@
       <c r="M212">
         <v>1</v>
       </c>
-    </row>
+      <c r="O212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="2:15" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206F45BA-2034-9B45-A6DB-28682F32757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FD187-D84F-44EC-90FB-C3A5D7404ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="760" windowWidth="18080" windowHeight="17140" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="33">
   <si>
     <t>seed_species</t>
   </si>
@@ -130,6 +130,14 @@
   <si>
     <t>doy310: one germinant alive but uprooted</t>
   </si>
+  <si>
+    <t>314_alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314_dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -139,20 +147,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,25 +224,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:P213" totalsRowShown="0">
-  <autoFilter ref="B2:P213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TSHE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TSHE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:R213" totalsRowShown="0">
+  <autoFilter ref="B2:R213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -250,6 +242,8 @@
     <tableColumn id="13" xr3:uid="{F54096F7-8245-934E-86A0-6F0E698FAA54}" name="307_dead"/>
     <tableColumn id="14" xr3:uid="{CB213D8E-3305-D040-90CC-DE1DDB3275C4}" name="310_alive"/>
     <tableColumn id="15" xr3:uid="{4AC10E25-3833-6A46-9112-7B9EE97738A4}" name="310_dead"/>
+    <tableColumn id="16" xr3:uid="{61FD7D15-B811-4B50-B1A4-3307C6CFBD54}" name="314_alive"/>
+    <tableColumn id="17" xr3:uid="{D3CF8275-7C0E-40DB-8D90-3B1CFB4C2521}" name="314_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,20 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:P213"/>
+  <dimension ref="B2:R212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="O214" sqref="O214"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" customWidth="1"/>
+    <col min="4" max="4" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -631,8 +625,14 @@
       <c r="P2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -651,8 +651,11 @@
       <c r="O3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -691,8 +697,11 @@
       <c r="O5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -714,8 +723,11 @@
       <c r="O6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -731,8 +743,11 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -745,8 +760,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -768,8 +786,11 @@
       <c r="O9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -794,8 +815,11 @@
       <c r="O10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -817,8 +841,11 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -837,8 +864,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -860,8 +890,11 @@
       <c r="O13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -892,8 +925,14 @@
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -913,8 +952,11 @@
       <c r="O15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -934,8 +976,11 @@
       <c r="O16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -958,8 +1003,11 @@
       <c r="O17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -976,8 +1024,11 @@
       <c r="M18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -991,8 +1042,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1006,8 +1060,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1026,8 +1083,11 @@
       <c r="O21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1050,8 +1110,11 @@
       <c r="M22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1068,8 +1131,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1089,8 +1155,11 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1110,8 +1179,11 @@
       <c r="M25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1146,8 +1218,14 @@
       <c r="P26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1167,8 +1245,11 @@
       <c r="O27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1188,8 +1269,11 @@
       <c r="O28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1209,8 +1293,11 @@
       <c r="O29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1236,8 +1323,11 @@
       <c r="O30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1254,8 +1344,11 @@
       <c r="O31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1269,8 +1362,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1293,8 +1389,11 @@
       <c r="O33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1323,8 +1422,11 @@
       <c r="O34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1341,8 +1443,11 @@
       <c r="O35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1362,8 +1467,11 @@
       <c r="O36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1383,8 +1491,11 @@
       <c r="O37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1416,8 +1527,14 @@
       <c r="P38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1437,8 +1554,11 @@
       <c r="O39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1458,8 +1578,14 @@
       <c r="O40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1479,8 +1605,11 @@
       <c r="O41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1509,8 +1638,11 @@
       <c r="O42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1527,8 +1659,11 @@
       <c r="O43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1542,8 +1677,11 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1578,8 +1716,14 @@
       <c r="P45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1605,8 +1749,11 @@
       <c r="O46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1623,8 +1770,11 @@
       <c r="O47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1647,8 +1797,11 @@
       <c r="O48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1668,8 +1821,11 @@
       <c r="O49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1704,8 +1860,14 @@
       <c r="P50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1725,8 +1887,11 @@
       <c r="O51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1746,8 +1911,11 @@
       <c r="O52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1767,8 +1935,11 @@
       <c r="O53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1962,11 @@
       <c r="O54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1809,8 +1983,11 @@
       <c r="O55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -1824,8 +2001,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -1845,8 +2025,11 @@
       <c r="O57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -1872,8 +2055,11 @@
       <c r="O58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -1890,8 +2076,11 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -1911,8 +2100,11 @@
       <c r="O60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -1932,8 +2124,11 @@
       <c r="O61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -1965,8 +2160,14 @@
       <c r="P62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2187,11 @@
       <c r="O63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2211,14 @@
       <c r="O64">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q64">
+        <v>4</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -2028,8 +2238,11 @@
       <c r="O65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -2049,8 +2262,11 @@
       <c r="O66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -2067,8 +2283,11 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -2082,8 +2301,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -2103,8 +2325,11 @@
       <c r="O69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -2133,8 +2358,11 @@
       <c r="O70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -2151,8 +2379,11 @@
       <c r="O71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -2172,8 +2403,11 @@
       <c r="O72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2193,8 +2427,11 @@
       <c r="O73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -2223,8 +2460,11 @@
       <c r="O74">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -2244,8 +2484,11 @@
       <c r="O75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -2265,8 +2508,11 @@
       <c r="O76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2535,11 @@
       <c r="O77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -2313,8 +2562,11 @@
       <c r="O78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -2334,8 +2586,11 @@
       <c r="O79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -2349,8 +2604,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -2376,8 +2634,11 @@
       <c r="O81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -2403,8 +2664,11 @@
       <c r="O82">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -2421,8 +2685,11 @@
       <c r="O83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -2442,8 +2709,11 @@
       <c r="O84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -2463,8 +2733,11 @@
       <c r="O85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -2493,8 +2766,11 @@
       <c r="O86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -2514,8 +2790,11 @@
       <c r="O87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -2535,8 +2814,11 @@
       <c r="O88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -2559,8 +2841,11 @@
       <c r="O89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2868,11 @@
       <c r="O90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -2604,8 +2892,11 @@
       <c r="O91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -2619,8 +2910,11 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -2643,8 +2937,11 @@
       <c r="O93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -2670,8 +2967,11 @@
       <c r="O94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -2688,8 +2988,11 @@
       <c r="O95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -2709,8 +3012,11 @@
       <c r="O96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -2733,8 +3039,11 @@
       <c r="O97">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -2760,8 +3069,11 @@
       <c r="O98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -2778,8 +3090,11 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -2799,8 +3114,11 @@
       <c r="O100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -2820,8 +3138,11 @@
       <c r="O101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -2844,8 +3165,11 @@
       <c r="O102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -2859,8 +3183,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -2874,8 +3201,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -2895,8 +3225,11 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -2922,8 +3255,11 @@
       <c r="O106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -2937,8 +3273,11 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -2955,8 +3294,11 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -2976,8 +3318,11 @@
       <c r="O109">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -3006,8 +3351,11 @@
       <c r="O110">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3378,11 @@
       <c r="O111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -3051,8 +3402,11 @@
       <c r="O112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -3072,8 +3426,11 @@
       <c r="O113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3453,11 @@
       <c r="O114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -3114,8 +3474,11 @@
       <c r="O115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -3129,8 +3492,11 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -3150,8 +3516,11 @@
       <c r="O117">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -3178,8 +3547,11 @@
       <c r="O118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -3196,8 +3568,11 @@
       <c r="O119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -3217,8 +3592,11 @@
       <c r="O120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -3238,8 +3616,11 @@
       <c r="O121">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -3265,8 +3646,11 @@
       <c r="O122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -3286,8 +3670,11 @@
       <c r="O123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -3310,8 +3697,11 @@
       <c r="O124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3721,11 @@
       <c r="O125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3748,11 @@
       <c r="O126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -3370,8 +3766,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -3385,8 +3784,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -3409,8 +3811,14 @@
       <c r="O129">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q129">
+        <v>5</v>
+      </c>
+      <c r="R129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -3436,8 +3844,11 @@
       <c r="O130">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -3451,8 +3862,11 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -3469,8 +3883,11 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -3490,8 +3907,11 @@
       <c r="O133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -3520,8 +3940,11 @@
       <c r="O134">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3964,11 @@
       <c r="O135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -3562,8 +3988,11 @@
       <c r="O136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -3586,8 +4015,11 @@
       <c r="O137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +4042,11 @@
       <c r="O138">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -3625,8 +4060,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -3640,8 +4078,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -3667,8 +4108,14 @@
       <c r="O141">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q141">
+        <v>6</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -3694,8 +4141,11 @@
       <c r="O142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -3709,8 +4159,11 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -3727,8 +4180,11 @@
       <c r="F144" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -3751,8 +4207,11 @@
       <c r="O145">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -3781,8 +4240,11 @@
       <c r="O146">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -3799,8 +4261,11 @@
       <c r="O147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -3820,8 +4285,11 @@
       <c r="O148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -3841,8 +4309,11 @@
       <c r="O149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4339,11 @@
       <c r="O150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -3883,8 +4357,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -3898,8 +4375,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -3919,8 +4399,11 @@
       <c r="O153">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -3946,8 +4429,14 @@
       <c r="O154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -3961,8 +4450,11 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -3982,8 +4474,11 @@
       <c r="O156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -4003,8 +4498,11 @@
       <c r="O157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -4033,8 +4531,11 @@
       <c r="O158">
         <v>6</v>
       </c>
-    </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -4051,8 +4552,11 @@
       <c r="O159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4576,11 @@
       <c r="O160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -4093,8 +4600,11 @@
       <c r="O161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4627,11 @@
       <c r="O162">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -4132,8 +4645,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -4147,8 +4663,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="165" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -4168,8 +4687,11 @@
       <c r="O165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -4195,8 +4717,11 @@
       <c r="O166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -4210,8 +4735,11 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -4231,8 +4759,11 @@
       <c r="O168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -4252,8 +4783,11 @@
       <c r="O169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -4276,8 +4810,11 @@
       <c r="O170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -4294,8 +4831,11 @@
       <c r="O171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -4315,8 +4855,11 @@
       <c r="O172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -4336,8 +4879,11 @@
       <c r="O173">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4906,11 @@
       <c r="O174">
         <v>6</v>
       </c>
-    </row>
-    <row r="175" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q174">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -4375,8 +4924,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -4390,8 +4942,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -4411,8 +4966,11 @@
       <c r="O177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -4438,8 +4996,11 @@
       <c r="O178">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -4453,8 +5014,11 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="180" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -4474,8 +5038,11 @@
       <c r="O180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -4495,8 +5062,11 @@
       <c r="O181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -4519,8 +5089,11 @@
       <c r="O182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -4536,8 +5109,11 @@
       <c r="O183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -4556,8 +5132,11 @@
       <c r="O184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -4576,8 +5155,11 @@
       <c r="O185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -4596,8 +5178,11 @@
       <c r="O186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -4613,8 +5198,11 @@
       <c r="O187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -4633,8 +5221,11 @@
       <c r="O188">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -4650,8 +5241,11 @@
       <c r="O189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -4670,8 +5264,11 @@
       <c r="O190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -4693,8 +5290,11 @@
       <c r="O191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -4713,8 +5313,11 @@
       <c r="O192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -4730,8 +5333,11 @@
       <c r="O193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -4753,8 +5359,11 @@
       <c r="O194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -4770,8 +5379,11 @@
       <c r="O195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -4793,8 +5405,11 @@
       <c r="O196">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5428,11 @@
       <c r="O197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -4833,8 +5451,11 @@
       <c r="O198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -4850,8 +5471,11 @@
       <c r="O199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -4873,8 +5497,11 @@
       <c r="O200">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -4890,8 +5517,11 @@
       <c r="O201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -4910,8 +5540,11 @@
       <c r="O202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -4930,8 +5563,11 @@
       <c r="O203">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -4950,8 +5586,11 @@
       <c r="O204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -4967,8 +5606,11 @@
       <c r="O205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -4987,8 +5629,11 @@
       <c r="O206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -5004,8 +5649,11 @@
       <c r="O207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -5024,8 +5672,11 @@
       <c r="O208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -5044,8 +5695,11 @@
       <c r="O209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -5064,8 +5718,11 @@
       <c r="O210">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -5081,8 +5738,11 @@
       <c r="O211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Q211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -5101,13 +5761,16 @@
       <c r="O212">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="2:15" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="Q212">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FD187-D84F-44EC-90FB-C3A5D7404ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C300123-DC78-5443-BEEC-68453B6506F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="37">
   <si>
     <t>seed_species</t>
   </si>
@@ -138,6 +138,18 @@
     <t>314_dead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>317_alive</t>
+  </si>
+  <si>
+    <t>317_dead</t>
+  </si>
+  <si>
+    <t>doy317: some germinants showing browning on leaves</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy317: one germinant had mold on seed part</t>
+  </si>
 </sst>
 </file>
 
@@ -147,20 +159,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,9 +236,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:R213" totalsRowShown="0">
-  <autoFilter ref="B2:R213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:T213" totalsRowShown="0">
+  <autoFilter ref="B2:T213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="17">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -244,6 +260,8 @@
     <tableColumn id="15" xr3:uid="{4AC10E25-3833-6A46-9112-7B9EE97738A4}" name="310_dead"/>
     <tableColumn id="16" xr3:uid="{61FD7D15-B811-4B50-B1A4-3307C6CFBD54}" name="314_alive"/>
     <tableColumn id="17" xr3:uid="{D3CF8275-7C0E-40DB-8D90-3B1CFB4C2521}" name="314_dead"/>
+    <tableColumn id="18" xr3:uid="{D3B13650-B4B7-D144-AC83-5542385538AB}" name="317_alive"/>
+    <tableColumn id="19" xr3:uid="{C784263E-A95D-9340-B0F0-8E7647302CE7}" name="317_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,20 +584,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:R212"/>
+  <dimension ref="B2:T212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="S214" sqref="S214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.15234375" customWidth="1"/>
-    <col min="4" max="4" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -631,8 +649,14 @@
       <c r="R2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -654,8 +678,11 @@
       <c r="Q3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -677,8 +704,11 @@
       <c r="Q4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -700,8 +730,11 @@
       <c r="Q5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -726,8 +759,11 @@
       <c r="Q6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -746,8 +782,11 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -763,8 +802,11 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -789,8 +831,11 @@
       <c r="Q9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -818,8 +863,11 @@
       <c r="Q10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -844,8 +892,11 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -867,8 +918,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -893,8 +950,11 @@
       <c r="Q13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -931,8 +991,14 @@
       <c r="R14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -955,8 +1021,11 @@
       <c r="Q15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -979,8 +1048,11 @@
       <c r="Q16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1078,11 @@
       <c r="Q17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1102,11 @@
       <c r="Q18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1045,8 +1123,11 @@
       <c r="Q19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1063,8 +1144,11 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1086,8 +1170,11 @@
       <c r="Q21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1113,8 +1200,11 @@
       <c r="Q22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1134,8 +1224,11 @@
       <c r="Q23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1158,8 +1251,11 @@
       <c r="Q24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1182,8 +1278,11 @@
       <c r="Q25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1224,8 +1323,14 @@
       <c r="R26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1248,8 +1353,11 @@
       <c r="Q27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1272,8 +1380,11 @@
       <c r="Q28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1407,11 @@
       <c r="Q29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1326,8 +1440,11 @@
       <c r="Q30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1347,8 +1464,11 @@
       <c r="Q31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1365,8 +1485,11 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1392,8 +1515,11 @@
       <c r="Q33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1425,8 +1551,11 @@
       <c r="Q34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1446,8 +1575,11 @@
       <c r="Q35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1470,8 +1602,11 @@
       <c r="Q36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1494,8 +1629,11 @@
       <c r="Q37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1533,8 +1671,11 @@
       <c r="R38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1557,8 +1698,11 @@
       <c r="Q39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1584,8 +1728,14 @@
       <c r="R40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1608,8 +1758,11 @@
       <c r="Q41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1794,11 @@
       <c r="Q42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1662,8 +1818,11 @@
       <c r="Q43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1680,8 +1839,11 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1722,8 +1884,14 @@
       <c r="R45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1752,8 +1920,11 @@
       <c r="Q46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1773,8 +1944,11 @@
       <c r="Q47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1800,8 +1974,14 @@
       <c r="Q48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -1824,8 +2004,11 @@
       <c r="Q49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -1866,8 +2049,14 @@
       <c r="R50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -1890,8 +2079,11 @@
       <c r="Q51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2106,11 @@
       <c r="Q52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2133,11 @@
       <c r="Q53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1965,8 +2163,11 @@
       <c r="Q54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -1986,8 +2187,11 @@
       <c r="Q55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -2004,8 +2208,11 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -2028,8 +2235,11 @@
       <c r="Q57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -2058,8 +2268,11 @@
       <c r="Q58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -2079,8 +2292,11 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -2103,8 +2319,11 @@
       <c r="Q60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -2127,8 +2346,11 @@
       <c r="Q61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -2166,8 +2388,14 @@
       <c r="R62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2418,11 @@
       <c r="Q63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -2217,8 +2448,11 @@
       <c r="R64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2475,11 @@
       <c r="Q65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -2265,8 +2502,11 @@
       <c r="Q66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -2286,8 +2526,11 @@
       <c r="Q67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -2304,8 +2547,11 @@
       <c r="Q68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -2328,8 +2574,11 @@
       <c r="Q69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -2361,8 +2610,11 @@
       <c r="Q70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -2382,8 +2634,11 @@
       <c r="Q71">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -2406,8 +2661,11 @@
       <c r="Q72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2430,8 +2688,11 @@
       <c r="Q73">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -2463,8 +2724,11 @@
       <c r="Q74">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -2487,8 +2751,11 @@
       <c r="Q75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -2511,8 +2778,14 @@
       <c r="Q76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S76">
+        <v>4</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2811,11 @@
       <c r="Q77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -2565,8 +2841,11 @@
       <c r="Q78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -2589,8 +2868,11 @@
       <c r="Q79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -2607,8 +2889,11 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -2637,8 +2922,11 @@
       <c r="Q81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -2653,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -2667,8 +2955,11 @@
       <c r="Q82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -2688,8 +2979,11 @@
       <c r="Q83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +3006,11 @@
       <c r="Q84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -2736,8 +3033,11 @@
       <c r="Q85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -2769,8 +3069,11 @@
       <c r="Q86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +3096,11 @@
       <c r="Q87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3123,11 @@
       <c r="Q88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -2844,8 +3153,11 @@
       <c r="Q89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -2871,8 +3183,11 @@
       <c r="Q90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -2895,8 +3210,11 @@
       <c r="Q91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -2913,8 +3231,11 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -2940,8 +3261,11 @@
       <c r="Q93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -2970,8 +3294,11 @@
       <c r="Q94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -2991,8 +3318,11 @@
       <c r="Q95">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -3015,8 +3345,11 @@
       <c r="Q96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -3042,8 +3375,11 @@
       <c r="Q97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -3072,8 +3408,11 @@
       <c r="Q98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3432,11 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3459,11 @@
       <c r="Q100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -3141,8 +3486,11 @@
       <c r="Q101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -3168,8 +3516,11 @@
       <c r="Q102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -3186,8 +3537,11 @@
       <c r="Q103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -3204,8 +3558,11 @@
       <c r="Q104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -3228,8 +3585,11 @@
       <c r="Q105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -3258,8 +3618,11 @@
       <c r="Q106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -3276,8 +3639,11 @@
       <c r="Q107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3663,11 @@
       <c r="Q108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -3321,8 +3690,11 @@
       <c r="Q109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -3354,8 +3726,14 @@
       <c r="Q110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3759,11 @@
       <c r="Q111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -3405,8 +3786,11 @@
       <c r="Q112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3813,11 @@
       <c r="Q113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -3456,8 +3843,11 @@
       <c r="Q114">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -3477,8 +3867,11 @@
       <c r="Q115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -3495,8 +3888,11 @@
       <c r="Q116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -3519,8 +3915,11 @@
       <c r="Q117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -3550,8 +3949,11 @@
       <c r="Q118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -3571,8 +3973,11 @@
       <c r="Q119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -3595,8 +4000,11 @@
       <c r="Q120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -3619,8 +4027,11 @@
       <c r="Q121">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -3649,8 +4060,11 @@
       <c r="Q122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -3673,8 +4087,11 @@
       <c r="Q123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +4117,14 @@
       <c r="Q124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S124">
+        <v>5</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -3715,6 +4138,9 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="F125" t="s">
+        <v>35</v>
+      </c>
       <c r="M125">
         <v>2</v>
       </c>
@@ -3724,8 +4150,14 @@
       <c r="Q125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S125">
+        <v>5</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -3751,8 +4183,11 @@
       <c r="Q126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -3769,8 +4204,11 @@
       <c r="Q127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -3787,8 +4225,11 @@
       <c r="Q128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -3817,8 +4258,11 @@
       <c r="R129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -3847,8 +4291,11 @@
       <c r="Q130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -3865,8 +4312,11 @@
       <c r="Q131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -3886,8 +4336,11 @@
       <c r="Q132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -3910,8 +4363,11 @@
       <c r="Q133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -3943,8 +4399,11 @@
       <c r="Q134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -3967,8 +4426,11 @@
       <c r="Q135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -3991,8 +4453,11 @@
       <c r="Q136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -4018,8 +4483,11 @@
       <c r="Q137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -4045,8 +4513,11 @@
       <c r="Q138">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -4063,8 +4534,11 @@
       <c r="Q139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -4081,8 +4555,11 @@
       <c r="Q140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -4114,8 +4591,14 @@
       <c r="R141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S141">
+        <v>6</v>
+      </c>
+      <c r="T141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -4144,8 +4627,11 @@
       <c r="Q142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -4162,8 +4648,11 @@
       <c r="Q143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -4183,8 +4672,11 @@
       <c r="Q144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -4210,8 +4702,11 @@
       <c r="Q145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -4243,8 +4738,14 @@
       <c r="Q146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S146">
+        <v>8</v>
+      </c>
+      <c r="T146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -4264,8 +4765,14 @@
       <c r="Q147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S147">
+        <v>1</v>
+      </c>
+      <c r="T147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -4288,8 +4795,11 @@
       <c r="Q148">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -4312,8 +4822,11 @@
       <c r="Q149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -4342,8 +4855,11 @@
       <c r="Q150">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -4360,8 +4876,11 @@
       <c r="Q151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -4378,8 +4897,11 @@
       <c r="Q152">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -4402,8 +4924,11 @@
       <c r="Q153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -4435,8 +4960,14 @@
       <c r="R154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S154">
+        <v>1</v>
+      </c>
+      <c r="T154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -4453,8 +4984,11 @@
       <c r="Q155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -4477,8 +5011,11 @@
       <c r="Q156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -4501,8 +5038,11 @@
       <c r="Q157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -4534,8 +5074,11 @@
       <c r="Q158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -4555,8 +5098,11 @@
       <c r="Q159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -4579,8 +5125,11 @@
       <c r="Q160">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +5152,14 @@
       <c r="Q161">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S161">
+        <v>5</v>
+      </c>
+      <c r="T161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -4630,8 +5185,11 @@
       <c r="Q162">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -4648,8 +5206,11 @@
       <c r="Q163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -4666,8 +5227,11 @@
       <c r="Q164">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -4690,8 +5254,11 @@
       <c r="Q165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -4720,8 +5287,11 @@
       <c r="Q166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -4738,8 +5308,11 @@
       <c r="Q167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -4762,8 +5335,11 @@
       <c r="Q168">
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -4786,8 +5362,11 @@
       <c r="Q169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -4813,8 +5392,11 @@
       <c r="Q170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -4834,8 +5416,11 @@
       <c r="Q171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -4858,8 +5443,11 @@
       <c r="Q172">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -4882,8 +5470,11 @@
       <c r="Q173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -4909,8 +5500,11 @@
       <c r="Q174">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -4927,8 +5521,11 @@
       <c r="Q175">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -4945,8 +5542,11 @@
       <c r="Q176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -4969,8 +5569,11 @@
       <c r="Q177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -4999,8 +5602,11 @@
       <c r="Q178">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -5017,8 +5623,11 @@
       <c r="Q179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -5041,8 +5650,11 @@
       <c r="Q180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -5065,8 +5677,11 @@
       <c r="Q181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -5092,8 +5707,11 @@
       <c r="Q182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5730,11 @@
       <c r="Q183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -5135,8 +5756,11 @@
       <c r="Q184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -5158,8 +5782,11 @@
       <c r="Q185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -5181,8 +5808,11 @@
       <c r="Q186">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -5201,8 +5831,11 @@
       <c r="Q187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -5224,8 +5857,11 @@
       <c r="Q188">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -5244,8 +5880,11 @@
       <c r="Q189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -5267,8 +5906,11 @@
       <c r="Q190">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -5293,8 +5935,11 @@
       <c r="Q191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -5316,8 +5961,11 @@
       <c r="Q192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -5336,8 +5984,11 @@
       <c r="Q193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -5362,8 +6013,11 @@
       <c r="Q194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -5382,8 +6036,11 @@
       <c r="Q195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -5408,8 +6065,11 @@
       <c r="Q196">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -5431,8 +6091,11 @@
       <c r="Q197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -5454,8 +6117,11 @@
       <c r="Q198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -5474,8 +6140,11 @@
       <c r="Q199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -5500,8 +6169,11 @@
       <c r="Q200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -5520,8 +6192,11 @@
       <c r="Q201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -5543,8 +6218,14 @@
       <c r="Q202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S202">
+        <v>1</v>
+      </c>
+      <c r="T202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -5566,8 +6247,11 @@
       <c r="Q203">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -5589,8 +6273,11 @@
       <c r="Q204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -5609,8 +6296,14 @@
       <c r="Q205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S205">
+        <v>6</v>
+      </c>
+      <c r="T205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -5632,8 +6325,11 @@
       <c r="Q206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -5652,8 +6348,11 @@
       <c r="Q207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -5675,8 +6374,11 @@
       <c r="Q208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -5698,8 +6400,11 @@
       <c r="Q209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -5721,8 +6426,11 @@
       <c r="Q210">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -5741,8 +6449,11 @@
       <c r="Q211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -5762,6 +6473,9 @@
         <v>3</v>
       </c>
       <c r="Q212">
+        <v>4</v>
+      </c>
+      <c r="S212">
         <v>4</v>
       </c>
     </row>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C300123-DC78-5443-BEEC-68453B6506F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA22993-C1F7-DA4C-A613-65160BDDA9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17260" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="42">
   <si>
     <t>seed_species</t>
   </si>
@@ -145,10 +145,25 @@
     <t>317_dead</t>
   </si>
   <si>
-    <t>doy317: some germinants showing browning on leaves</t>
+    <t>doy296: mold on soil; doy317: one germinant had mold on seed part</t>
   </si>
   <si>
-    <t>doy296: mold on soil; doy317: one germinant had mold on seed part</t>
+    <t>321_alive</t>
+  </si>
+  <si>
+    <t>321_dead</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy321: previous count invalid, germinants not dead</t>
+  </si>
+  <si>
+    <t>doy317: some germinants showing browning on leaves; doy321: browning worse, one seed has green mold</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy321: mold on some germinants</t>
+  </si>
+  <si>
+    <t>doy321: germinant covered in mold</t>
   </si>
 </sst>
 </file>
@@ -236,13 +251,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:T213" totalsRowShown="0">
-  <autoFilter ref="B2:T213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
-    <filterColumn colId="17">
-      <filters blank="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:V213" totalsRowShown="0">
+  <autoFilter ref="B2:V213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TSHE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TSHE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="25"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -262,6 +289,8 @@
     <tableColumn id="17" xr3:uid="{D3CF8275-7C0E-40DB-8D90-3B1CFB4C2521}" name="314_dead"/>
     <tableColumn id="18" xr3:uid="{D3B13650-B4B7-D144-AC83-5542385538AB}" name="317_alive"/>
     <tableColumn id="19" xr3:uid="{C784263E-A95D-9340-B0F0-8E7647302CE7}" name="317_dead"/>
+    <tableColumn id="20" xr3:uid="{1E485AB0-969C-B94F-B834-93EBEAEE292F}" name="321_alive"/>
+    <tableColumn id="21" xr3:uid="{268B660E-2033-7E46-B0F5-0869E1771FFA}" name="321_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:T212"/>
+  <dimension ref="B2:V213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="S214" sqref="S214"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="U214" sqref="U214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,7 +626,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -655,8 +684,14 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -681,8 +716,14 @@
       <c r="S3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -707,8 +748,11 @@
       <c r="S4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -733,8 +777,14 @@
       <c r="S5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -762,8 +812,11 @@
       <c r="S6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -785,8 +838,11 @@
       <c r="S7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -805,8 +861,14 @@
       <c r="S8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -834,8 +896,11 @@
       <c r="S9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -866,8 +931,11 @@
       <c r="S10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -895,8 +963,11 @@
       <c r="S11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -924,8 +995,14 @@
       <c r="T12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -953,8 +1030,11 @@
       <c r="S13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -997,8 +1077,14 @@
       <c r="T14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1110,11 @@
       <c r="S15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1051,8 +1140,14 @@
       <c r="S16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1081,8 +1176,11 @@
       <c r="S17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1203,11 @@
       <c r="S18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1126,8 +1227,11 @@
       <c r="S19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1147,8 +1251,11 @@
       <c r="S20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1173,8 +1280,11 @@
       <c r="S21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1203,8 +1313,11 @@
       <c r="S22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1340,11 @@
       <c r="S23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1254,8 +1370,11 @@
       <c r="S24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1281,8 +1400,11 @@
       <c r="S25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1329,8 +1451,14 @@
       <c r="T26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U26">
+        <v>7</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1356,8 +1484,11 @@
       <c r="S27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1514,14 @@
       <c r="S28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1547,11 @@
       <c r="S29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1583,11 @@
       <c r="S30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1467,8 +1610,14 @@
       <c r="S31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1488,8 +1637,11 @@
       <c r="S32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1518,8 +1670,11 @@
       <c r="S33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1534,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1554,8 +1709,11 @@
       <c r="S34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1578,8 +1736,11 @@
       <c r="S35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1605,8 +1766,14 @@
       <c r="S36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U36">
+        <v>7</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1632,8 +1799,11 @@
       <c r="S37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1674,8 +1844,14 @@
       <c r="S38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1877,11 @@
       <c r="S39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1734,8 +1913,14 @@
       <c r="T40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1946,11 @@
       <c r="S41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1797,8 +1985,11 @@
       <c r="S42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -1821,8 +2012,11 @@
       <c r="S43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -1842,8 +2036,11 @@
       <c r="S44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -1890,8 +2087,14 @@
       <c r="T45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U45">
+        <v>6</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -1923,8 +2126,11 @@
       <c r="S46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -1947,8 +2153,11 @@
       <c r="S47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -1980,8 +2189,14 @@
       <c r="T48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U48">
+        <v>4</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -2007,8 +2222,11 @@
       <c r="S49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2055,8 +2273,14 @@
       <c r="T50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U50">
+        <v>5</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2306,11 @@
       <c r="S51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -2109,8 +2336,11 @@
       <c r="S52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2366,11 @@
       <c r="S53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -2166,8 +2399,11 @@
       <c r="S54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -2190,8 +2426,11 @@
       <c r="S55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -2211,8 +2450,11 @@
       <c r="S56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -2238,8 +2480,11 @@
       <c r="S57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -2271,8 +2516,11 @@
       <c r="S58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -2295,8 +2543,11 @@
       <c r="S59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -2322,8 +2573,11 @@
       <c r="S60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -2349,8 +2603,11 @@
       <c r="S61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -2365,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2394,8 +2651,14 @@
       <c r="T62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U62">
+        <v>4</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -2421,8 +2684,11 @@
       <c r="S63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2717,11 @@
       <c r="S64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -2478,8 +2747,11 @@
       <c r="S65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -2505,8 +2777,11 @@
       <c r="S66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -2529,8 +2804,14 @@
       <c r="S67">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U67">
+        <v>8</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -2550,8 +2831,11 @@
       <c r="S68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -2577,8 +2861,11 @@
       <c r="S69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -2613,8 +2900,11 @@
       <c r="S70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -2637,8 +2927,11 @@
       <c r="S71">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -2664,8 +2957,14 @@
       <c r="S72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U72">
+        <v>7</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2691,8 +2990,11 @@
       <c r="S73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -2727,8 +3029,11 @@
       <c r="S74">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +3059,11 @@
       <c r="S75">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -2784,8 +3092,14 @@
       <c r="T76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U76">
+        <v>4</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -2814,8 +3128,11 @@
       <c r="S77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -2844,8 +3161,11 @@
       <c r="S78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -2871,8 +3191,14 @@
       <c r="S79">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U79">
+        <v>7</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -2892,8 +3218,11 @@
       <c r="S80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -2925,8 +3254,11 @@
       <c r="S81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -2958,8 +3290,11 @@
       <c r="S82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -2982,8 +3317,14 @@
       <c r="S83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U83">
+        <v>4</v>
+      </c>
+      <c r="V83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -3009,8 +3350,14 @@
       <c r="S84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U84">
+        <v>5</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -3036,8 +3383,11 @@
       <c r="S85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -3072,8 +3422,11 @@
       <c r="S86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -3087,6 +3440,9 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
       <c r="M87">
         <v>2</v>
       </c>
@@ -3099,8 +3455,14 @@
       <c r="S87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U87">
+        <v>6</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -3126,8 +3488,11 @@
       <c r="S88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -3156,8 +3521,11 @@
       <c r="S89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -3186,8 +3554,11 @@
       <c r="S90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -3213,8 +3584,11 @@
       <c r="S91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -3234,8 +3608,11 @@
       <c r="S92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -3264,8 +3641,11 @@
       <c r="S93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -3297,8 +3677,11 @@
       <c r="S94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -3321,8 +3704,11 @@
       <c r="S95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -3348,8 +3734,11 @@
       <c r="S96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -3378,8 +3767,11 @@
       <c r="S97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -3411,8 +3803,14 @@
       <c r="S98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U98">
+        <v>4</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -3435,8 +3833,11 @@
       <c r="S99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -3462,8 +3863,11 @@
       <c r="S100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -3489,8 +3893,11 @@
       <c r="S101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -3519,8 +3926,11 @@
       <c r="S102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -3540,8 +3950,11 @@
       <c r="S103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -3561,8 +3974,11 @@
       <c r="S104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -3588,8 +4004,11 @@
       <c r="S105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -3621,8 +4040,11 @@
       <c r="S106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -3642,8 +4064,11 @@
       <c r="S107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -3666,8 +4091,11 @@
       <c r="S108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -3693,8 +4121,11 @@
       <c r="S109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -3732,8 +4163,14 @@
       <c r="T110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U110">
+        <v>6</v>
+      </c>
+      <c r="V110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -3762,8 +4199,11 @@
       <c r="S111">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -3789,8 +4229,11 @@
       <c r="S112">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -3816,8 +4259,11 @@
       <c r="S113">
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +4292,11 @@
       <c r="S114">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -3870,8 +4319,14 @@
       <c r="S115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U115">
+        <v>3</v>
+      </c>
+      <c r="V115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -3891,8 +4346,11 @@
       <c r="S116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -3918,8 +4376,11 @@
       <c r="S117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -3952,8 +4413,11 @@
       <c r="S118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -3976,8 +4440,11 @@
       <c r="S119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -4003,8 +4470,11 @@
       <c r="S120">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -4030,8 +4500,11 @@
       <c r="S121">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -4063,8 +4536,11 @@
       <c r="S122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -4090,8 +4566,11 @@
       <c r="S123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -4123,8 +4602,14 @@
       <c r="T124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U124">
+        <v>8</v>
+      </c>
+      <c r="V124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -4139,7 +4624,7 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M125">
         <v>2</v>
@@ -4156,8 +4641,14 @@
       <c r="T125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -4186,8 +4677,11 @@
       <c r="S126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -4207,8 +4701,11 @@
       <c r="S127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -4228,8 +4725,11 @@
       <c r="S128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -4261,8 +4761,11 @@
       <c r="S129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -4294,8 +4797,11 @@
       <c r="S130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -4315,8 +4821,11 @@
       <c r="S131">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -4339,8 +4848,11 @@
       <c r="S132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -4366,8 +4878,11 @@
       <c r="S133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -4402,8 +4917,11 @@
       <c r="S134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -4429,8 +4947,11 @@
       <c r="S135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -4456,8 +4977,11 @@
       <c r="S136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -4486,8 +5010,11 @@
       <c r="S137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -4516,8 +5043,11 @@
       <c r="S138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -4537,8 +5067,11 @@
       <c r="S139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -4558,8 +5091,11 @@
       <c r="S140">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -4597,8 +5133,14 @@
       <c r="T141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U141">
+        <v>6</v>
+      </c>
+      <c r="V141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -4630,8 +5172,14 @@
       <c r="S142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U142">
+        <v>5</v>
+      </c>
+      <c r="V142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -4651,8 +5199,11 @@
       <c r="S143">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -4675,8 +5226,11 @@
       <c r="S144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -4705,8 +5259,11 @@
       <c r="S145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -4744,8 +5301,14 @@
       <c r="T146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U146">
+        <v>8</v>
+      </c>
+      <c r="V146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -4768,11 +5331,11 @@
       <c r="S147">
         <v>1</v>
       </c>
-      <c r="T147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -4798,8 +5361,11 @@
       <c r="S148">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +5391,11 @@
       <c r="S149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -4858,8 +5427,11 @@
       <c r="S150">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -4879,8 +5451,11 @@
       <c r="S151">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -4900,8 +5475,11 @@
       <c r="S152">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -4927,8 +5505,11 @@
       <c r="S153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -4966,8 +5547,14 @@
       <c r="T154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U154">
+        <v>1</v>
+      </c>
+      <c r="V154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -4987,8 +5574,11 @@
       <c r="S155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -5014,8 +5604,11 @@
       <c r="S156">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -5041,8 +5634,11 @@
       <c r="S157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -5077,8 +5673,11 @@
       <c r="S158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -5101,8 +5700,11 @@
       <c r="S159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -5128,8 +5730,11 @@
       <c r="S160">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -5158,8 +5763,14 @@
       <c r="T161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U161">
+        <v>5</v>
+      </c>
+      <c r="V161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -5188,8 +5799,11 @@
       <c r="S162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -5209,8 +5823,11 @@
       <c r="S163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -5230,8 +5847,11 @@
       <c r="S164">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -5257,8 +5877,11 @@
       <c r="S165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -5290,8 +5913,11 @@
       <c r="S166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -5311,8 +5937,11 @@
       <c r="S167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -5338,8 +5967,14 @@
       <c r="S168">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U168">
+        <v>7</v>
+      </c>
+      <c r="V168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -5365,8 +6000,11 @@
       <c r="S169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -5395,8 +6033,11 @@
       <c r="S170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -5419,8 +6060,11 @@
       <c r="S171">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -5446,8 +6090,11 @@
       <c r="S172">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -5473,8 +6120,11 @@
       <c r="S173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -5503,8 +6153,11 @@
       <c r="S174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -5524,8 +6177,11 @@
       <c r="S175">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -5545,8 +6201,11 @@
       <c r="S176">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -5572,8 +6231,11 @@
       <c r="S177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -5605,8 +6267,11 @@
       <c r="S178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -5626,8 +6291,11 @@
       <c r="S179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -5653,8 +6321,11 @@
       <c r="S180">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -5680,8 +6351,11 @@
       <c r="S181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -5710,8 +6384,11 @@
       <c r="S182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -5733,8 +6410,11 @@
       <c r="S183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -5759,8 +6439,11 @@
       <c r="S184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -5785,8 +6468,11 @@
       <c r="S185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -5811,8 +6497,11 @@
       <c r="S186">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -5834,8 +6523,11 @@
       <c r="S187">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -5860,8 +6552,11 @@
       <c r="S188">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -5883,8 +6578,14 @@
       <c r="S189">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U189">
+        <v>1</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -5909,8 +6610,11 @@
       <c r="S190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -5938,8 +6642,11 @@
       <c r="S191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -5964,8 +6671,11 @@
       <c r="S192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -5987,8 +6697,14 @@
       <c r="S193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -6016,8 +6732,11 @@
       <c r="S194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -6039,8 +6758,11 @@
       <c r="S195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -6068,8 +6790,11 @@
       <c r="S196">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U196">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -6094,8 +6819,11 @@
       <c r="S197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -6120,8 +6848,11 @@
       <c r="S198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -6143,8 +6874,11 @@
       <c r="S199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -6172,8 +6906,11 @@
       <c r="S200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -6195,8 +6932,11 @@
       <c r="S201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -6224,8 +6964,14 @@
       <c r="T202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U202">
+        <v>1</v>
+      </c>
+      <c r="V202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -6250,8 +6996,11 @@
       <c r="S203">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -6276,8 +7025,11 @@
       <c r="S204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -6302,8 +7054,14 @@
       <c r="T205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U205">
+        <v>6</v>
+      </c>
+      <c r="V205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -6328,8 +7086,11 @@
       <c r="S206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -6351,8 +7112,11 @@
       <c r="S207">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="2:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -6377,8 +7141,11 @@
       <c r="S208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -6403,8 +7170,11 @@
       <c r="S209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -6429,8 +7199,11 @@
       <c r="S210">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -6452,8 +7225,11 @@
       <c r="S211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="U211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -6478,7 +7254,11 @@
       <c r="S212">
         <v>4</v>
       </c>
-    </row>
+      <c r="U212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:21" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA22993-C1F7-DA4C-A613-65160BDDA9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843AA76-08FC-4B41-9ABA-B3D438A3312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17260" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="44">
   <si>
     <t>seed_species</t>
   </si>
@@ -165,6 +165,12 @@
   <si>
     <t>doy321: germinant covered in mold</t>
   </si>
+  <si>
+    <t>324_alive</t>
+  </si>
+  <si>
+    <t>324_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -251,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:V213" totalsRowShown="0">
-  <autoFilter ref="B2:V213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:X213" totalsRowShown="0">
+  <autoFilter ref="B2:X213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="TSHE"/>
@@ -269,7 +275,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="21">
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -291,6 +297,8 @@
     <tableColumn id="19" xr3:uid="{C784263E-A95D-9340-B0F0-8E7647302CE7}" name="317_dead"/>
     <tableColumn id="20" xr3:uid="{1E485AB0-969C-B94F-B834-93EBEAEE292F}" name="321_alive"/>
     <tableColumn id="21" xr3:uid="{268B660E-2033-7E46-B0F5-0869E1771FFA}" name="321_dead"/>
+    <tableColumn id="22" xr3:uid="{E7717C67-3B72-3A4D-84BC-D4E943DD006F}" name="324_alive"/>
+    <tableColumn id="23" xr3:uid="{6A45F1D6-27FA-434C-BDA9-7C1FE332C716}" name="324_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:V213"/>
+  <dimension ref="B2:X213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="U214" sqref="U214"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="W214" sqref="W214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +634,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -690,8 +698,14 @@
       <c r="V2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -722,8 +736,14 @@
       <c r="V3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -751,8 +771,11 @@
       <c r="U4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -783,8 +806,14 @@
       <c r="V5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -815,8 +844,11 @@
       <c r="U6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -841,8 +873,11 @@
       <c r="U7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -867,8 +902,14 @@
       <c r="V8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -899,8 +940,14 @@
       <c r="U9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -934,8 +981,11 @@
       <c r="U10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -966,8 +1016,11 @@
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1001,8 +1054,14 @@
       <c r="V12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1033,8 +1092,11 @@
       <c r="U13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1145,14 @@
       <c r="V14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>6</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1181,11 @@
       <c r="U15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1217,14 @@
       <c r="V16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1179,8 +1256,11 @@
       <c r="U17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1206,8 +1286,11 @@
       <c r="U18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1230,8 +1313,11 @@
       <c r="U19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1254,8 +1340,11 @@
       <c r="U20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1283,8 +1372,11 @@
       <c r="U21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1316,8 +1408,11 @@
       <c r="U22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1343,8 +1438,11 @@
       <c r="U23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1373,8 +1471,11 @@
       <c r="U24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1403,8 +1504,11 @@
       <c r="U25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1457,8 +1561,14 @@
       <c r="V26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>7</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1597,11 @@
       <c r="U27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1520,8 +1633,14 @@
       <c r="V28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1550,8 +1669,11 @@
       <c r="U29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1708,11 @@
       <c r="U30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1616,8 +1741,14 @@
       <c r="V31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W31">
+        <v>4</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1640,8 +1771,14 @@
       <c r="U32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1673,8 +1810,11 @@
       <c r="U33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1712,8 +1852,11 @@
       <c r="U34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1739,8 +1882,11 @@
       <c r="U35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1772,8 +1918,14 @@
       <c r="V36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W36">
+        <v>7</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1802,8 +1954,11 @@
       <c r="U37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -1850,8 +2005,14 @@
       <c r="V38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W38">
+        <v>3</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2041,14 @@
       <c r="U39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2086,14 @@
       <c r="V40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1949,8 +2122,11 @@
       <c r="U41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -1988,8 +2164,11 @@
       <c r="U42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -2015,8 +2194,14 @@
       <c r="U43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W43">
+        <v>4</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -2039,8 +2224,11 @@
       <c r="U44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -2093,8 +2281,14 @@
       <c r="V45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W45">
+        <v>6</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -2129,8 +2323,11 @@
       <c r="U46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -2156,8 +2353,11 @@
       <c r="U47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2395,14 @@
       <c r="V48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -2225,8 +2431,11 @@
       <c r="U49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2279,8 +2488,14 @@
       <c r="V50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W50">
+        <v>5</v>
+      </c>
+      <c r="X50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2524,11 @@
       <c r="U51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -2339,8 +2557,11 @@
       <c r="U52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2590,11 @@
       <c r="U53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -2402,8 +2626,11 @@
       <c r="U54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -2429,8 +2656,11 @@
       <c r="U55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -2453,8 +2683,11 @@
       <c r="U56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -2483,8 +2716,11 @@
       <c r="U57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -2519,8 +2755,11 @@
       <c r="U58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -2546,8 +2785,11 @@
       <c r="U59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -2576,8 +2818,11 @@
       <c r="U60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -2606,8 +2851,11 @@
       <c r="U61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -2657,8 +2905,14 @@
       <c r="V62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W62">
+        <v>4</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -2687,8 +2941,11 @@
       <c r="U63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -2720,8 +2977,11 @@
       <c r="U64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +3010,11 @@
       <c r="U65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -2780,8 +3043,11 @@
       <c r="U66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -2810,8 +3076,14 @@
       <c r="V67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W67">
+        <v>8</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -2834,8 +3106,11 @@
       <c r="U68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -2864,8 +3139,11 @@
       <c r="U69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -2903,8 +3181,11 @@
       <c r="U70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -2930,8 +3211,11 @@
       <c r="U71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -2963,8 +3247,14 @@
       <c r="V72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W72">
+        <v>6</v>
+      </c>
+      <c r="X72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -2993,8 +3283,11 @@
       <c r="U73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -3032,8 +3325,11 @@
       <c r="U74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3358,11 @@
       <c r="U75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3397,14 @@
       <c r="V76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W76">
+        <v>5</v>
+      </c>
+      <c r="X76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -3131,8 +3436,11 @@
       <c r="U77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -3164,8 +3472,11 @@
       <c r="U78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -3197,8 +3508,14 @@
       <c r="V79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W79">
+        <v>8</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -3221,8 +3538,11 @@
       <c r="U80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -3257,8 +3577,11 @@
       <c r="U81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -3293,8 +3616,14 @@
       <c r="U82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W82">
+        <v>6</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -3323,8 +3652,14 @@
       <c r="V83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W83">
+        <v>5</v>
+      </c>
+      <c r="X83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -3356,8 +3691,14 @@
       <c r="V84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W84">
+        <v>7</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -3386,8 +3727,11 @@
       <c r="U85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -3425,8 +3769,11 @@
       <c r="U86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -3461,8 +3808,14 @@
       <c r="V87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <v>6</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -3491,8 +3844,11 @@
       <c r="U88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -3524,8 +3880,11 @@
       <c r="U89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -3557,8 +3916,11 @@
       <c r="U90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -3587,8 +3949,14 @@
       <c r="U91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W91">
+        <v>6</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -3611,8 +3979,11 @@
       <c r="U92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -3644,8 +4015,11 @@
       <c r="U93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -3680,8 +4054,11 @@
       <c r="U94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -3707,8 +4084,11 @@
       <c r="U95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -3737,8 +4117,14 @@
       <c r="U96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W96">
+        <v>6</v>
+      </c>
+      <c r="X96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -3770,8 +4156,11 @@
       <c r="U97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -3809,8 +4198,14 @@
       <c r="V98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W98">
+        <v>4</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -3836,8 +4231,11 @@
       <c r="U99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +4264,11 @@
       <c r="U100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4297,11 @@
       <c r="U101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -3929,8 +4333,11 @@
       <c r="U102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -3953,8 +4360,11 @@
       <c r="U103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -3977,8 +4387,11 @@
       <c r="U104">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -4007,8 +4420,11 @@
       <c r="U105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -4043,8 +4459,11 @@
       <c r="U106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -4067,8 +4486,11 @@
       <c r="U107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -4094,8 +4516,11 @@
       <c r="U108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -4124,8 +4549,11 @@
       <c r="U109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -4169,8 +4597,14 @@
       <c r="V110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W110">
+        <v>6</v>
+      </c>
+      <c r="X110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4636,11 @@
       <c r="U111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -4232,8 +4669,11 @@
       <c r="U112">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -4262,8 +4702,14 @@
       <c r="U113">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W113">
+        <v>4</v>
+      </c>
+      <c r="X113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -4295,8 +4741,11 @@
       <c r="U114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -4325,8 +4774,14 @@
       <c r="V115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W115">
+        <v>3</v>
+      </c>
+      <c r="X115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -4349,8 +4804,11 @@
       <c r="U116">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -4379,8 +4837,11 @@
       <c r="U117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -4416,8 +4877,11 @@
       <c r="U118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -4443,8 +4907,11 @@
       <c r="U119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -4473,8 +4940,11 @@
       <c r="U120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -4503,8 +4973,11 @@
       <c r="U121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -4539,8 +5012,11 @@
       <c r="U122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -4569,8 +5045,11 @@
       <c r="U123">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -4608,8 +5087,14 @@
       <c r="V124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W124">
+        <v>8</v>
+      </c>
+      <c r="X124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -4647,8 +5132,14 @@
       <c r="V125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W125">
+        <v>3</v>
+      </c>
+      <c r="X125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -4680,8 +5171,11 @@
       <c r="U126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -4704,8 +5198,11 @@
       <c r="U127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -4728,8 +5225,11 @@
       <c r="U128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -4764,8 +5264,11 @@
       <c r="U129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -4800,8 +5303,11 @@
       <c r="U130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -4824,8 +5330,11 @@
       <c r="U131">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -4851,8 +5360,11 @@
       <c r="U132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -4881,8 +5393,11 @@
       <c r="U133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -4920,8 +5435,11 @@
       <c r="U134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -4950,8 +5468,11 @@
       <c r="U135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -4980,8 +5501,11 @@
       <c r="U136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -5013,8 +5537,11 @@
       <c r="U137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -5046,8 +5573,11 @@
       <c r="U138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -5070,8 +5600,11 @@
       <c r="U139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -5094,8 +5627,11 @@
       <c r="U140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -5139,8 +5675,14 @@
       <c r="V141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <v>6</v>
+      </c>
+      <c r="X141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -5178,8 +5720,14 @@
       <c r="V142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <v>5</v>
+      </c>
+      <c r="X142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -5202,8 +5750,11 @@
       <c r="U143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -5229,8 +5780,11 @@
       <c r="U144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -5262,8 +5816,11 @@
       <c r="U145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -5307,8 +5864,14 @@
       <c r="V146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W146">
+        <v>8</v>
+      </c>
+      <c r="X146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -5334,8 +5897,11 @@
       <c r="U147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -5364,8 +5930,11 @@
       <c r="U148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -5394,8 +5963,11 @@
       <c r="U149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -5430,8 +6002,14 @@
       <c r="U150">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W150">
+        <v>6</v>
+      </c>
+      <c r="X150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -5454,8 +6032,11 @@
       <c r="U151">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -5478,8 +6059,11 @@
       <c r="U152">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -5508,8 +6092,11 @@
       <c r="U153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -5553,8 +6140,14 @@
       <c r="V154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W154">
+        <v>1</v>
+      </c>
+      <c r="X154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -5577,8 +6170,11 @@
       <c r="U155">
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -5607,8 +6203,11 @@
       <c r="U156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -5637,8 +6236,11 @@
       <c r="U157">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -5676,8 +6278,11 @@
       <c r="U158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -5703,8 +6308,11 @@
       <c r="U159">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -5733,8 +6341,11 @@
       <c r="U160">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -5769,8 +6380,14 @@
       <c r="V161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W161">
+        <v>5</v>
+      </c>
+      <c r="X161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -5802,8 +6419,11 @@
       <c r="U162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -5826,8 +6446,11 @@
       <c r="U163">
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -5850,8 +6473,11 @@
       <c r="U164">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -5880,8 +6506,11 @@
       <c r="U165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -5916,8 +6545,11 @@
       <c r="U166">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -5940,8 +6572,11 @@
       <c r="U167">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -5973,8 +6608,14 @@
       <c r="V168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W168">
+        <v>7</v>
+      </c>
+      <c r="X168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -6003,8 +6644,11 @@
       <c r="U169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -6036,8 +6680,11 @@
       <c r="U170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -6063,8 +6710,11 @@
       <c r="U171">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -6093,8 +6743,11 @@
       <c r="U172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -6123,8 +6776,11 @@
       <c r="U173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -6156,8 +6812,11 @@
       <c r="U174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -6180,8 +6839,11 @@
       <c r="U175">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -6204,8 +6866,11 @@
       <c r="U176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -6234,8 +6899,11 @@
       <c r="U177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -6270,8 +6938,11 @@
       <c r="U178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -6294,8 +6965,11 @@
       <c r="U179">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -6324,8 +6998,11 @@
       <c r="U180">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -6354,8 +7031,11 @@
       <c r="U181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -6387,8 +7067,11 @@
       <c r="U182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -6413,8 +7096,11 @@
       <c r="U183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -6442,8 +7128,11 @@
       <c r="U184">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -6471,8 +7160,11 @@
       <c r="U185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -6500,8 +7192,11 @@
       <c r="U186">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -6526,8 +7221,11 @@
       <c r="U187">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -6555,8 +7253,11 @@
       <c r="U188">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -6584,8 +7285,14 @@
       <c r="V189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W189">
+        <v>1</v>
+      </c>
+      <c r="X189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -6613,8 +7320,11 @@
       <c r="U190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -6645,8 +7355,11 @@
       <c r="U191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -6674,8 +7387,11 @@
       <c r="U192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -6703,8 +7419,14 @@
       <c r="V193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W193">
+        <v>5</v>
+      </c>
+      <c r="X193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -6735,8 +7457,11 @@
       <c r="U194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -6761,8 +7486,14 @@
       <c r="U195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W195">
+        <v>2</v>
+      </c>
+      <c r="X195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -6793,8 +7524,14 @@
       <c r="U196">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W196">
+        <v>6</v>
+      </c>
+      <c r="X196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -6822,8 +7559,11 @@
       <c r="U197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -6851,8 +7591,11 @@
       <c r="U198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -6877,8 +7620,11 @@
       <c r="U199">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -6909,8 +7655,11 @@
       <c r="U200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -6935,8 +7684,11 @@
       <c r="U201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -6970,8 +7722,11 @@
       <c r="V202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -6999,8 +7754,11 @@
       <c r="U203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -7028,8 +7786,11 @@
       <c r="U204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -7060,8 +7821,14 @@
       <c r="V205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W205">
+        <v>8</v>
+      </c>
+      <c r="X205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -7089,8 +7856,11 @@
       <c r="U206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -7115,8 +7885,11 @@
       <c r="U207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -7144,8 +7917,11 @@
       <c r="U208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -7173,8 +7949,11 @@
       <c r="U209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -7202,8 +7981,14 @@
       <c r="U210">
         <v>5</v>
       </c>
-    </row>
-    <row r="211" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W210">
+        <v>4</v>
+      </c>
+      <c r="X210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -7228,8 +8013,11 @@
       <c r="U211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="2:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -7257,8 +8045,11 @@
       <c r="U212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:21" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="W212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:24" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843AA76-08FC-4B41-9ABA-B3D438A3312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4520ED-565A-2740-994B-63571FF7539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="50">
   <si>
     <t>seed_species</t>
   </si>
@@ -122,12 +122,6 @@
     <t>doy307: one germinant looking unhealthy, long and not opened; doy310: long germinant still alive but uprooted</t>
   </si>
   <si>
-    <t xml:space="preserve">doy296: mold on soil; doy303: no obvious signs of mold on soil; doy310: germinant not dead but unhealthy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">doy296: mold on soil; doy303: no obvious signs of mold on soil; </t>
-  </si>
-  <si>
     <t>doy310: one germinant alive but uprooted</t>
   </si>
   <si>
@@ -170,6 +164,30 @@
   </si>
   <si>
     <t>324_dead</t>
+  </si>
+  <si>
+    <t>328_alive</t>
+  </si>
+  <si>
+    <t>328_dead</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy328: previously dead germinant is still quite green, so marking as alive this week</t>
+  </si>
+  <si>
+    <t>doy328: could not find dead germinant, but assumed its there since all 3 look healthy</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy310: germinant not dead but unhealthy; doy328: dead germinant appears to still be alive, very green</t>
+  </si>
+  <si>
+    <t>doy328: could not find dead germinant, but assumed its there since all 5 look healthy</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy328: could not find dead germinants, but they were assumed</t>
+  </si>
+  <si>
+    <t>doy328: dead germinants very hard to see</t>
   </si>
 </sst>
 </file>
@@ -257,25 +275,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:X213" totalsRowShown="0">
-  <autoFilter ref="B2:X213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TSHE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TSHE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="25"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:Z213" totalsRowShown="0">
+  <autoFilter ref="B2:Z213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -299,6 +301,8 @@
     <tableColumn id="21" xr3:uid="{268B660E-2033-7E46-B0F5-0869E1771FFA}" name="321_dead"/>
     <tableColumn id="22" xr3:uid="{E7717C67-3B72-3A4D-84BC-D4E943DD006F}" name="324_alive"/>
     <tableColumn id="23" xr3:uid="{6A45F1D6-27FA-434C-BDA9-7C1FE332C716}" name="324_dead"/>
+    <tableColumn id="24" xr3:uid="{F6A2BD70-50DB-C843-B34F-4466731FB2B6}" name="328_alive"/>
+    <tableColumn id="25" xr3:uid="{FDBC4E8D-F899-3B4E-8CFA-FEC654F98EAD}" name="328_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:X213"/>
+  <dimension ref="B2:Z212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="W214" sqref="W214"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="Y213" sqref="Y213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +638,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -681,31 +685,37 @@
         <v>26</v>
       </c>
       <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -742,8 +752,14 @@
       <c r="X3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -774,8 +790,11 @@
       <c r="W4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -812,8 +831,14 @@
       <c r="X5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -847,8 +872,11 @@
       <c r="W6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -876,8 +904,11 @@
       <c r="W7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -908,8 +939,14 @@
       <c r="X8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -946,8 +983,14 @@
       <c r="X9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -984,8 +1027,11 @@
       <c r="W10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1019,8 +1065,11 @@
       <c r="W11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1109,14 @@
       <c r="X12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1095,8 +1150,11 @@
       <c r="W13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1151,8 +1209,11 @@
       <c r="X14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1245,11 @@
       <c r="W15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1287,14 @@
       <c r="X16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y16">
+        <v>7</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1329,11 @@
       <c r="W17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1362,11 @@
       <c r="W18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1316,8 +1392,14 @@
       <c r="W19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1343,8 +1425,11 @@
       <c r="W20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1375,8 +1460,11 @@
       <c r="W21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1411,8 +1499,11 @@
       <c r="W22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1441,8 +1532,11 @@
       <c r="W23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1474,8 +1568,11 @@
       <c r="W24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1507,8 +1604,11 @@
       <c r="W25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1567,8 +1667,14 @@
       <c r="X26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y26">
+        <v>8</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1600,8 +1706,11 @@
       <c r="W27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1748,14 @@
       <c r="X28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y28">
+        <v>8</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1787,11 @@
       <c r="W29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1711,8 +1829,11 @@
       <c r="W30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1747,8 +1868,14 @@
       <c r="X31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1772,13 +1899,13 @@
         <v>5</v>
       </c>
       <c r="W32">
-        <v>5</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="Y32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1813,8 +1940,11 @@
       <c r="W33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1855,8 +1985,14 @@
       <c r="W34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y34">
+        <v>5</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -1885,8 +2021,11 @@
       <c r="W35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -1924,8 +2063,14 @@
       <c r="X36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y36">
+        <v>8</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -1957,8 +2102,11 @@
       <c r="W37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -2011,8 +2159,14 @@
       <c r="X38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2047,8 +2201,14 @@
       <c r="X39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y39">
+        <v>4</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2092,8 +2252,14 @@
       <c r="X40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y40">
+        <v>4</v>
+      </c>
+      <c r="Z40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2291,11 @@
       <c r="W41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -2167,8 +2336,11 @@
       <c r="W42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -2200,8 +2372,14 @@
       <c r="X43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y43">
+        <v>7</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -2227,8 +2405,11 @@
       <c r="W44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -2287,8 +2468,14 @@
       <c r="X45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y45">
+        <v>6</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -2326,8 +2513,11 @@
       <c r="W46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -2356,8 +2546,11 @@
       <c r="W47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -2401,8 +2594,14 @@
       <c r="X48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y48">
+        <v>8</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -2434,8 +2633,11 @@
       <c r="W49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2494,8 +2696,14 @@
       <c r="X50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y50">
+        <v>5</v>
+      </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2735,11 @@
       <c r="W51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -2560,8 +2771,11 @@
       <c r="W52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -2593,8 +2807,11 @@
       <c r="W53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -2629,8 +2846,11 @@
       <c r="W54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -2659,8 +2879,11 @@
       <c r="W55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -2686,8 +2909,11 @@
       <c r="W56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -2719,8 +2945,11 @@
       <c r="W57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -2758,8 +2987,11 @@
       <c r="W58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -2788,8 +3020,11 @@
       <c r="W59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -2821,8 +3056,11 @@
       <c r="W60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -2854,8 +3092,11 @@
       <c r="W61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -2870,7 +3111,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -2911,8 +3152,14 @@
       <c r="X62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y62">
+        <v>4</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3191,11 @@
       <c r="W63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -2980,8 +3230,11 @@
       <c r="W64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -3013,8 +3266,11 @@
       <c r="W65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3302,11 @@
       <c r="W66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -3082,8 +3341,14 @@
       <c r="X67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -3109,8 +3374,11 @@
       <c r="W68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -3142,8 +3410,11 @@
       <c r="W69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -3184,8 +3455,11 @@
       <c r="W70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -3214,8 +3488,11 @@
       <c r="W71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -3230,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="O72">
         <v>2</v>
@@ -3253,8 +3530,11 @@
       <c r="X72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -3286,8 +3566,11 @@
       <c r="W73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -3328,8 +3611,11 @@
       <c r="W74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -3361,8 +3647,11 @@
       <c r="W75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -3398,13 +3687,19 @@
         <v>1</v>
       </c>
       <c r="W76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>6</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -3439,8 +3734,11 @@
       <c r="W77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3773,11 @@
       <c r="W78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -3514,8 +3815,14 @@
       <c r="X79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y79">
+        <v>8</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -3541,8 +3848,11 @@
       <c r="W80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -3580,8 +3890,11 @@
       <c r="W81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -3596,7 +3909,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -3622,8 +3935,14 @@
       <c r="X82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y82">
+        <v>6</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -3637,6 +3956,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="F83" t="s">
+        <v>47</v>
+      </c>
       <c r="O83">
         <v>2</v>
       </c>
@@ -3658,8 +3980,14 @@
       <c r="X83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y83">
+        <v>5</v>
+      </c>
+      <c r="Z83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -3697,8 +4025,14 @@
       <c r="X84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y84">
+        <v>7</v>
+      </c>
+      <c r="Z84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -3730,8 +4064,14 @@
       <c r="W85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y85">
+        <v>5</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -3772,8 +4112,11 @@
       <c r="W86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -3788,7 +4131,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -3814,8 +4157,14 @@
       <c r="X87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y87">
+        <v>5</v>
+      </c>
+      <c r="Z87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4196,11 @@
       <c r="W88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -3883,8 +4235,11 @@
       <c r="W89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -3919,8 +4274,11 @@
       <c r="W90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -3955,8 +4313,14 @@
       <c r="X91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y91">
+        <v>6</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -3982,8 +4346,11 @@
       <c r="W92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -4018,8 +4385,11 @@
       <c r="W93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -4057,8 +4427,11 @@
       <c r="W94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -4087,8 +4460,11 @@
       <c r="W95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -4123,8 +4499,14 @@
       <c r="X96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y96">
+        <v>6</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -4159,8 +4541,11 @@
       <c r="W97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -4204,8 +4589,14 @@
       <c r="X98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y98">
+        <v>4</v>
+      </c>
+      <c r="Z98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -4234,8 +4625,11 @@
       <c r="W99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -4267,8 +4661,11 @@
       <c r="W100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -4300,8 +4697,11 @@
       <c r="W101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -4336,8 +4736,11 @@
       <c r="W102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -4363,8 +4766,14 @@
       <c r="W103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y103">
+        <v>5</v>
+      </c>
+      <c r="Z103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -4390,8 +4799,11 @@
       <c r="W104">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -4423,8 +4835,11 @@
       <c r="W105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -4462,8 +4877,11 @@
       <c r="W106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -4489,8 +4907,14 @@
       <c r="W107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y107">
+        <v>4</v>
+      </c>
+      <c r="Z107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -4519,8 +4943,11 @@
       <c r="W108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -4552,8 +4979,11 @@
       <c r="W109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -4568,7 +4998,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -4603,8 +5033,11 @@
       <c r="X110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -4639,8 +5072,11 @@
       <c r="W111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -4672,8 +5108,11 @@
       <c r="W112">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -4708,8 +5147,14 @@
       <c r="X113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y113">
+        <v>4</v>
+      </c>
+      <c r="Z113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -4744,8 +5189,11 @@
       <c r="W114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -4759,6 +5207,9 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
+      <c r="F115" t="s">
+        <v>45</v>
+      </c>
       <c r="O115">
         <v>2</v>
       </c>
@@ -4780,8 +5231,14 @@
       <c r="X115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y115">
+        <v>3</v>
+      </c>
+      <c r="Z115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -4807,8 +5264,11 @@
       <c r="W116">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -4840,8 +5300,11 @@
       <c r="W117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -4880,8 +5343,11 @@
       <c r="W118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -4910,8 +5376,11 @@
       <c r="W119">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -4943,8 +5412,11 @@
       <c r="W120">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -4976,8 +5448,11 @@
       <c r="W121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -5015,8 +5490,11 @@
       <c r="W122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -5048,8 +5526,11 @@
       <c r="W123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -5064,7 +5545,7 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -5093,8 +5574,14 @@
       <c r="X124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y124">
+        <v>8</v>
+      </c>
+      <c r="Z124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -5109,7 +5596,7 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M125">
         <v>2</v>
@@ -5138,8 +5625,14 @@
       <c r="X125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y125">
+        <v>2</v>
+      </c>
+      <c r="Z125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -5174,8 +5667,11 @@
       <c r="W126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -5201,8 +5697,11 @@
       <c r="W127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -5228,8 +5727,11 @@
       <c r="W128">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -5267,8 +5769,11 @@
       <c r="W129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -5306,8 +5811,11 @@
       <c r="W130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -5333,8 +5841,11 @@
       <c r="W131">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -5363,8 +5874,11 @@
       <c r="W132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -5396,8 +5910,11 @@
       <c r="W133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -5438,8 +5955,11 @@
       <c r="W134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -5471,8 +5991,11 @@
       <c r="W135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -5504,8 +6027,11 @@
       <c r="W136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -5540,8 +6066,11 @@
       <c r="W137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -5576,8 +6105,11 @@
       <c r="W138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -5603,8 +6135,11 @@
       <c r="W139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -5630,8 +6165,11 @@
       <c r="W140">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -5681,8 +6219,14 @@
       <c r="X141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y141">
+        <v>6</v>
+      </c>
+      <c r="Z141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -5726,8 +6270,14 @@
       <c r="X142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y142">
+        <v>5</v>
+      </c>
+      <c r="Z142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -5753,8 +6303,11 @@
       <c r="W143">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -5783,8 +6336,11 @@
       <c r="W144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -5819,8 +6375,11 @@
       <c r="W145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -5870,8 +6429,14 @@
       <c r="X146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y146">
+        <v>8</v>
+      </c>
+      <c r="Z146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -5900,8 +6465,11 @@
       <c r="W147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -5933,8 +6501,11 @@
       <c r="W148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -5966,8 +6537,11 @@
       <c r="W149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -6008,8 +6582,14 @@
       <c r="X150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y150">
+        <v>6</v>
+      </c>
+      <c r="Z150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -6035,8 +6615,11 @@
       <c r="W151">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -6062,8 +6645,11 @@
       <c r="W152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -6095,8 +6681,11 @@
       <c r="W153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -6146,8 +6735,14 @@
       <c r="X154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y154">
+        <v>1</v>
+      </c>
+      <c r="Z154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -6173,8 +6768,11 @@
       <c r="W155">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -6206,8 +6804,11 @@
       <c r="W156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -6239,8 +6840,11 @@
       <c r="W157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -6281,8 +6885,11 @@
       <c r="W158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -6311,8 +6918,11 @@
       <c r="W159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -6344,8 +6954,11 @@
       <c r="W160">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -6386,8 +6999,14 @@
       <c r="X161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y161">
+        <v>5</v>
+      </c>
+      <c r="Z161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -6422,8 +7041,11 @@
       <c r="W162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -6449,8 +7071,11 @@
       <c r="W163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -6476,8 +7101,11 @@
       <c r="W164">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -6509,8 +7137,11 @@
       <c r="W165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -6548,8 +7179,11 @@
       <c r="W166">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -6575,8 +7209,11 @@
       <c r="W167">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -6614,8 +7251,11 @@
       <c r="X168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y168">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -6647,8 +7287,11 @@
       <c r="W169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -6683,8 +7326,11 @@
       <c r="W170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -6713,8 +7359,11 @@
       <c r="W171">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -6746,8 +7395,11 @@
       <c r="W172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -6779,8 +7431,11 @@
       <c r="W173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -6815,8 +7470,11 @@
       <c r="W174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -6842,8 +7500,11 @@
       <c r="W175">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -6869,8 +7530,11 @@
       <c r="W176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -6902,8 +7566,11 @@
       <c r="W177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -6941,8 +7608,11 @@
       <c r="W178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -6968,8 +7638,11 @@
       <c r="W179">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -7001,8 +7674,11 @@
       <c r="W180">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -7034,8 +7710,11 @@
       <c r="W181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -7070,8 +7749,11 @@
       <c r="W182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -7084,6 +7766,9 @@
       <c r="E183">
         <v>1</v>
       </c>
+      <c r="F183" t="s">
+        <v>49</v>
+      </c>
       <c r="O183">
         <v>0</v>
       </c>
@@ -7099,8 +7784,14 @@
       <c r="W183">
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y183">
+        <v>4</v>
+      </c>
+      <c r="Z183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -7131,8 +7822,11 @@
       <c r="W184">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -7163,8 +7857,11 @@
       <c r="W185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -7195,8 +7892,11 @@
       <c r="W186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -7224,8 +7924,11 @@
       <c r="W187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -7256,8 +7959,11 @@
       <c r="W188">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -7291,8 +7997,14 @@
       <c r="X189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y189">
+        <v>2</v>
+      </c>
+      <c r="Z189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -7323,8 +8035,11 @@
       <c r="W190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -7358,8 +8073,11 @@
       <c r="W191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -7390,8 +8108,11 @@
       <c r="W192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -7425,8 +8146,14 @@
       <c r="X193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y193">
+        <v>6</v>
+      </c>
+      <c r="Z193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -7460,8 +8187,11 @@
       <c r="W194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -7492,8 +8222,14 @@
       <c r="X195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y195">
+        <v>2</v>
+      </c>
+      <c r="Z195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -7530,8 +8266,14 @@
       <c r="X196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y196">
+        <v>6</v>
+      </c>
+      <c r="Z196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -7562,8 +8304,14 @@
       <c r="W197">
         <v>6</v>
       </c>
-    </row>
-    <row r="198" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y197">
+        <v>5</v>
+      </c>
+      <c r="Z197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -7594,8 +8342,11 @@
       <c r="W198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -7623,8 +8374,11 @@
       <c r="W199">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -7658,8 +8412,11 @@
       <c r="W200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -7687,8 +8444,11 @@
       <c r="W201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -7725,8 +8485,11 @@
       <c r="W202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -7757,8 +8520,11 @@
       <c r="W203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -7789,8 +8555,11 @@
       <c r="W204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -7827,8 +8596,14 @@
       <c r="X205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y205">
+        <v>8</v>
+      </c>
+      <c r="Z205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -7859,8 +8634,11 @@
       <c r="W206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -7888,8 +8666,11 @@
       <c r="W207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -7920,8 +8701,11 @@
       <c r="W208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -7952,8 +8736,11 @@
       <c r="W209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -7987,8 +8774,14 @@
       <c r="X210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y210">
+        <v>4</v>
+      </c>
+      <c r="Z210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -8016,8 +8809,11 @@
       <c r="W211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Y211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -8048,8 +8844,10 @@
       <c r="W212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:24" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="Y212">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4520ED-565A-2740-994B-63571FF7539E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCB4B7-FB08-DA47-B026-0CF062768C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="52">
   <si>
     <t>seed_species</t>
   </si>
@@ -189,6 +189,12 @@
   <si>
     <t>doy328: dead germinants very hard to see</t>
   </si>
+  <si>
+    <t>331_alive</t>
+  </si>
+  <si>
+    <t>331_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -275,9 +281,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:Z213" totalsRowShown="0">
-  <autoFilter ref="B2:Z213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
-  <tableColumns count="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AB213" totalsRowShown="0">
+  <autoFilter ref="B2:AB213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TSHE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TSHE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="25"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -303,6 +325,8 @@
     <tableColumn id="23" xr3:uid="{6A45F1D6-27FA-434C-BDA9-7C1FE332C716}" name="324_dead"/>
     <tableColumn id="24" xr3:uid="{F6A2BD70-50DB-C843-B34F-4466731FB2B6}" name="328_alive"/>
     <tableColumn id="25" xr3:uid="{FDBC4E8D-F899-3B4E-8CFA-FEC654F98EAD}" name="328_dead"/>
+    <tableColumn id="26" xr3:uid="{BDAED71A-3095-E946-87D1-93E29A61BDBC}" name="331_alive"/>
+    <tableColumn id="27" xr3:uid="{F029AC3A-6516-F442-99AB-0461C5FA585D}" name="331_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:Z212"/>
+  <dimension ref="B2:AB213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="Y213" sqref="Y213"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="AA214" sqref="AA214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,7 +662,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -714,8 +738,14 @@
       <c r="Z2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -758,8 +788,14 @@
       <c r="Z3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -793,8 +829,11 @@
       <c r="Y4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -837,8 +876,14 @@
       <c r="Z5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -875,8 +920,11 @@
       <c r="Y6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -907,8 +955,11 @@
       <c r="Y7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -945,8 +996,14 @@
       <c r="Z8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -989,8 +1046,14 @@
       <c r="Z9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1030,8 +1093,11 @@
       <c r="Y10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1068,8 +1134,14 @@
       <c r="Y11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1115,8 +1187,14 @@
       <c r="Z12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1153,8 +1231,11 @@
       <c r="Y13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1212,8 +1293,11 @@
       <c r="Y14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1248,8 +1332,11 @@
       <c r="Y15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1380,14 @@
       <c r="Z16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA16">
+        <v>7</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1332,8 +1425,11 @@
       <c r="Y17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1365,8 +1461,11 @@
       <c r="Y18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1398,8 +1497,14 @@
       <c r="Z19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1428,8 +1533,11 @@
       <c r="Y20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1463,8 +1571,11 @@
       <c r="Y21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1502,8 +1613,11 @@
       <c r="Y22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1535,8 +1649,11 @@
       <c r="Y23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1571,8 +1688,11 @@
       <c r="Y24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1607,8 +1727,11 @@
       <c r="Y25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1673,8 +1796,14 @@
       <c r="Z26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA26">
+        <v>8</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1709,8 +1838,11 @@
       <c r="Y27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1754,8 +1886,14 @@
       <c r="Z28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA28">
+        <v>8</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1928,11 @@
       <c r="Y29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +1973,11 @@
       <c r="Y30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -1874,8 +2018,14 @@
       <c r="Z31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1904,8 +2054,11 @@
       <c r="Y32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1943,8 +2096,11 @@
       <c r="Y33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -1991,8 +2147,14 @@
       <c r="Z34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2024,8 +2186,11 @@
       <c r="Y35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -2069,8 +2234,14 @@
       <c r="Z36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA36">
+        <v>8</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -2105,8 +2276,11 @@
       <c r="Y37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -2165,8 +2339,14 @@
       <c r="Z38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2387,14 @@
       <c r="Z39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39">
+        <v>4</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2258,8 +2444,14 @@
       <c r="Z40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40">
+        <v>4</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -2294,8 +2486,11 @@
       <c r="Y41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -2339,8 +2534,11 @@
       <c r="Y42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -2378,8 +2576,14 @@
       <c r="Z43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43">
+        <v>7</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -2408,8 +2612,11 @@
       <c r="Y44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -2474,8 +2681,14 @@
       <c r="Z45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45">
+        <v>6</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -2516,8 +2729,11 @@
       <c r="Y46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -2549,8 +2765,11 @@
       <c r="Y47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -2600,8 +2819,14 @@
       <c r="Z48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -2636,8 +2861,11 @@
       <c r="Y49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2702,8 +2930,14 @@
       <c r="Z50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA50">
+        <v>5</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2972,14 @@
       <c r="Y51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AB51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -2774,8 +3014,11 @@
       <c r="Y52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -2810,8 +3053,11 @@
       <c r="Y53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -2849,8 +3095,11 @@
       <c r="Y54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -2882,8 +3131,11 @@
       <c r="Y55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -2912,8 +3164,11 @@
       <c r="Y56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -2948,8 +3203,11 @@
       <c r="Y57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -2990,8 +3248,11 @@
       <c r="Y58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -3023,8 +3284,11 @@
       <c r="Y59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -3059,8 +3323,11 @@
       <c r="Y60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -3095,8 +3362,11 @@
       <c r="Y61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -3158,8 +3428,14 @@
       <c r="Z62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA62">
+        <v>4</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -3194,8 +3470,11 @@
       <c r="Y63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -3233,8 +3512,11 @@
       <c r="Y64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3551,11 @@
       <c r="Y65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -3305,8 +3590,11 @@
       <c r="Y66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -3347,8 +3635,14 @@
       <c r="Z67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67">
+        <v>8</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -3377,8 +3671,11 @@
       <c r="Y68">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -3413,8 +3710,11 @@
       <c r="Y69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -3458,8 +3758,11 @@
       <c r="Y70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -3491,8 +3794,11 @@
       <c r="Y71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -3533,8 +3839,11 @@
       <c r="Y72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -3569,8 +3878,11 @@
       <c r="Y73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -3614,8 +3926,11 @@
       <c r="Y74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3965,11 @@
       <c r="Y75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -3698,8 +4016,14 @@
       <c r="Z76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76">
+        <v>6</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -3737,8 +4061,11 @@
       <c r="Y77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +4103,11 @@
       <c r="Y78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -3821,8 +4151,14 @@
       <c r="Z79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA79">
+        <v>8</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -3851,8 +4187,11 @@
       <c r="Y80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -3893,8 +4232,11 @@
       <c r="Y81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -3941,8 +4283,14 @@
       <c r="Z82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA82">
+        <v>6</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -3986,8 +4334,14 @@
       <c r="Z83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA83">
+        <v>5</v>
+      </c>
+      <c r="AB83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -4031,8 +4385,14 @@
       <c r="Z84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA84">
+        <v>7</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -4070,8 +4430,14 @@
       <c r="Z85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA85">
+        <v>5</v>
+      </c>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -4115,8 +4481,11 @@
       <c r="Y86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -4163,8 +4532,14 @@
       <c r="Z87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA87">
+        <v>5</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -4199,8 +4574,11 @@
       <c r="Y88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -4238,8 +4616,11 @@
       <c r="Y89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -4277,8 +4658,11 @@
       <c r="Y90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -4319,8 +4703,14 @@
       <c r="Z91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA91">
+        <v>6</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -4349,8 +4739,11 @@
       <c r="Y92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -4388,8 +4781,11 @@
       <c r="Y93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -4430,8 +4826,11 @@
       <c r="Y94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -4463,8 +4862,11 @@
       <c r="Y95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -4505,8 +4907,11 @@
       <c r="Z96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -4544,8 +4949,11 @@
       <c r="Y97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -4595,8 +5003,11 @@
       <c r="Z98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -4628,8 +5039,11 @@
       <c r="Y99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -4664,8 +5078,11 @@
       <c r="Y100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -4700,8 +5117,11 @@
       <c r="Y101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -4739,8 +5159,11 @@
       <c r="Y102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -4772,8 +5195,14 @@
       <c r="Z103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA103">
+        <v>5</v>
+      </c>
+      <c r="AB103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -4802,8 +5231,11 @@
       <c r="Y104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -4838,8 +5270,11 @@
       <c r="Y105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -4880,8 +5315,14 @@
       <c r="Y106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA106">
+        <v>4</v>
+      </c>
+      <c r="AB106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -4913,8 +5354,14 @@
       <c r="Z107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA107">
+        <v>4</v>
+      </c>
+      <c r="AB107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -4946,8 +5393,11 @@
       <c r="Y108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -4982,8 +5432,11 @@
       <c r="Y109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -5036,8 +5489,11 @@
       <c r="Y110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -5075,8 +5531,11 @@
       <c r="Y111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -5111,8 +5570,11 @@
       <c r="Y112">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -5153,8 +5615,14 @@
       <c r="Z113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA113">
+        <v>4</v>
+      </c>
+      <c r="AB113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -5192,8 +5660,11 @@
       <c r="Y114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -5237,8 +5708,14 @@
       <c r="Z115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA115">
+        <v>3</v>
+      </c>
+      <c r="AB115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -5267,8 +5744,11 @@
       <c r="Y116">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -5303,8 +5783,11 @@
       <c r="Y117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -5346,8 +5829,11 @@
       <c r="Y118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -5379,8 +5865,11 @@
       <c r="Y119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -5415,8 +5904,11 @@
       <c r="Y120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -5451,8 +5943,11 @@
       <c r="Y121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -5493,8 +5988,11 @@
       <c r="Y122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -5529,8 +6027,11 @@
       <c r="Y123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -5580,8 +6081,14 @@
       <c r="Z124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA124">
+        <v>8</v>
+      </c>
+      <c r="AB124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -5631,8 +6138,14 @@
       <c r="Z125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA125">
+        <v>2</v>
+      </c>
+      <c r="AB125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -5670,8 +6183,11 @@
       <c r="Y126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -5700,8 +6216,11 @@
       <c r="Y127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -5730,8 +6249,11 @@
       <c r="Y128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -5772,8 +6294,11 @@
       <c r="Y129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -5814,8 +6339,11 @@
       <c r="Y130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -5844,8 +6372,11 @@
       <c r="Y131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -5877,8 +6408,11 @@
       <c r="Y132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -5913,8 +6447,11 @@
       <c r="Y133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -5958,8 +6495,11 @@
       <c r="Y134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -5994,8 +6534,11 @@
       <c r="Y135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -6030,8 +6573,11 @@
       <c r="Y136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -6069,8 +6615,11 @@
       <c r="Y137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -6108,8 +6657,11 @@
       <c r="Y138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -6138,8 +6690,11 @@
       <c r="Y139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -6168,8 +6723,11 @@
       <c r="Y140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -6225,8 +6783,14 @@
       <c r="Z141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA141">
+        <v>6</v>
+      </c>
+      <c r="AB141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -6276,8 +6840,14 @@
       <c r="Z142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA142">
+        <v>5</v>
+      </c>
+      <c r="AB142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -6306,8 +6876,11 @@
       <c r="Y143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -6339,8 +6912,11 @@
       <c r="Y144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -6378,8 +6954,11 @@
       <c r="Y145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -6435,8 +7014,11 @@
       <c r="Z146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -6468,8 +7050,14 @@
       <c r="Y147">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA147">
+        <v>2</v>
+      </c>
+      <c r="AB147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -6504,8 +7092,11 @@
       <c r="Y148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -6540,8 +7131,11 @@
       <c r="Y149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -6588,8 +7182,14 @@
       <c r="Z150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -6618,8 +7218,11 @@
       <c r="Y151">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -6648,8 +7251,11 @@
       <c r="Y152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -6684,8 +7290,11 @@
       <c r="Y153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -6741,8 +7350,14 @@
       <c r="Z154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA154">
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -6771,8 +7386,11 @@
       <c r="Y155">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -6807,8 +7425,11 @@
       <c r="Y156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -6843,8 +7464,11 @@
       <c r="Y157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -6888,8 +7512,11 @@
       <c r="Y158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -6921,8 +7548,11 @@
       <c r="Y159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -6957,8 +7587,11 @@
       <c r="Y160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -7005,8 +7638,14 @@
       <c r="Z161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA161">
+        <v>5</v>
+      </c>
+      <c r="AB161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -7044,8 +7683,11 @@
       <c r="Y162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -7074,8 +7716,11 @@
       <c r="Y163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -7104,8 +7749,11 @@
       <c r="Y164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -7140,8 +7788,11 @@
       <c r="Y165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -7182,8 +7833,14 @@
       <c r="Y166">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA166">
+        <v>4</v>
+      </c>
+      <c r="AB166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -7212,8 +7869,11 @@
       <c r="Y167">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -7254,8 +7914,11 @@
       <c r="Y168">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA168">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -7290,8 +7953,11 @@
       <c r="Y169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -7329,8 +7995,11 @@
       <c r="Y170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -7362,8 +8031,11 @@
       <c r="Y171">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA171">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -7398,8 +8070,11 @@
       <c r="Y172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -7434,8 +8109,11 @@
       <c r="Y173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -7473,8 +8151,11 @@
       <c r="Y174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -7503,8 +8184,11 @@
       <c r="Y175">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -7533,8 +8217,11 @@
       <c r="Y176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -7569,8 +8256,11 @@
       <c r="Y177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -7611,8 +8301,11 @@
       <c r="Y178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -7641,8 +8334,11 @@
       <c r="Y179">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -7677,8 +8373,11 @@
       <c r="Y180">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA180">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -7713,8 +8412,11 @@
       <c r="Y181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -7752,8 +8454,11 @@
       <c r="Y182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -7790,8 +8495,14 @@
       <c r="Z183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA183">
+        <v>4</v>
+      </c>
+      <c r="AB183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -7825,8 +8536,11 @@
       <c r="Y184">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -7860,8 +8574,11 @@
       <c r="Y185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -7895,8 +8612,11 @@
       <c r="Y186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -7927,8 +8647,11 @@
       <c r="Y187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -7962,8 +8685,11 @@
       <c r="Y188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -8003,8 +8729,14 @@
       <c r="Z189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA189">
+        <v>2</v>
+      </c>
+      <c r="AB189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -8038,8 +8770,11 @@
       <c r="Y190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -8076,8 +8811,11 @@
       <c r="Y191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -8111,8 +8849,11 @@
       <c r="Y192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -8152,8 +8893,14 @@
       <c r="Z193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA193">
+        <v>6</v>
+      </c>
+      <c r="AB193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -8190,8 +8937,11 @@
       <c r="Y194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -8228,8 +8978,14 @@
       <c r="Z195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA195">
+        <v>2</v>
+      </c>
+      <c r="AB195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -8272,8 +9028,14 @@
       <c r="Z196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA196">
+        <v>6</v>
+      </c>
+      <c r="AB196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -8310,8 +9072,14 @@
       <c r="Z197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA197">
+        <v>5</v>
+      </c>
+      <c r="AB197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -8345,8 +9113,11 @@
       <c r="Y198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -8377,8 +9148,11 @@
       <c r="Y199">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -8415,8 +9189,11 @@
       <c r="Y200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -8447,8 +9224,11 @@
       <c r="Y201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -8488,8 +9268,11 @@
       <c r="Y202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -8523,8 +9306,11 @@
       <c r="Y203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -8558,8 +9344,11 @@
       <c r="Y204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -8602,8 +9391,14 @@
       <c r="Z205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA205">
+        <v>8</v>
+      </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -8637,8 +9432,11 @@
       <c r="Y206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -8669,8 +9467,11 @@
       <c r="Y207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -8704,8 +9505,14 @@
       <c r="Y208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA208">
+        <v>2</v>
+      </c>
+      <c r="AB208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -8739,8 +9546,11 @@
       <c r="Y209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -8780,8 +9590,14 @@
       <c r="Z210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA210">
+        <v>4</v>
+      </c>
+      <c r="AB210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -8812,8 +9628,11 @@
       <c r="Y211">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -8847,7 +9666,11 @@
       <c r="Y212">
         <v>5</v>
       </c>
-    </row>
+      <c r="AA212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:28" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCB4B7-FB08-DA47-B026-0CF062768C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF99DBA-15CC-2241-A9D4-AEAB50531E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="55">
   <si>
     <t>seed_species</t>
   </si>
@@ -148,9 +148,6 @@
     <t>321_dead</t>
   </si>
   <si>
-    <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy321: previous count invalid, germinants not dead</t>
-  </si>
-  <si>
     <t>doy317: some germinants showing browning on leaves; doy321: browning worse, one seed has green mold</t>
   </si>
   <si>
@@ -194,6 +191,18 @@
   </si>
   <si>
     <t>331_dead</t>
+  </si>
+  <si>
+    <t>335_alive</t>
+  </si>
+  <si>
+    <t>335_dead</t>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy321: previous count invalid, germinants not dead; doy335: previously thought dead germinant seems to be alive, just sideways</t>
+  </si>
+  <si>
+    <t>doy335: one of germinants on 331 was not focal species</t>
   </si>
 </sst>
 </file>
@@ -281,8 +290,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AB213" totalsRowShown="0">
-  <autoFilter ref="B2:AB213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AD213" totalsRowShown="0">
+  <autoFilter ref="B2:AD213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="TSHE"/>
@@ -295,11 +304,11 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="25"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="27">
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -327,6 +336,8 @@
     <tableColumn id="25" xr3:uid="{FDBC4E8D-F899-3B4E-8CFA-FEC654F98EAD}" name="328_dead"/>
     <tableColumn id="26" xr3:uid="{BDAED71A-3095-E946-87D1-93E29A61BDBC}" name="331_alive"/>
     <tableColumn id="27" xr3:uid="{F029AC3A-6516-F442-99AB-0461C5FA585D}" name="331_dead"/>
+    <tableColumn id="28" xr3:uid="{9A3D7753-985D-A844-B7D3-37B245AEAF6A}" name="335_alive"/>
+    <tableColumn id="29" xr3:uid="{88490240-5241-1849-AF5E-DCB5C6C42080}" name="335_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -649,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AB213"/>
+  <dimension ref="B2:AD213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="AA214" sqref="AA214"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="AC214" sqref="AC214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +673,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -727,25 +738,31 @@
         <v>35</v>
       </c>
       <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
       <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AD2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -794,8 +811,14 @@
       <c r="AB3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -832,8 +855,11 @@
       <c r="AA4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -882,8 +908,14 @@
       <c r="AB5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -923,8 +955,11 @@
       <c r="AA6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -958,8 +993,11 @@
       <c r="AA7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1002,8 +1040,14 @@
       <c r="AB8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1052,8 +1096,14 @@
       <c r="AB9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1096,8 +1146,11 @@
       <c r="AA10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1140,8 +1193,14 @@
       <c r="AB11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1193,8 +1252,14 @@
       <c r="AB12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1299,11 @@
       <c r="AA13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1296,8 +1364,11 @@
       <c r="AA14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1335,8 +1406,11 @@
       <c r="AA15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1386,8 +1460,14 @@
       <c r="AB16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC16">
+        <v>7</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1428,8 +1508,11 @@
       <c r="AA17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1464,8 +1547,11 @@
       <c r="AA18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1503,8 +1589,14 @@
       <c r="AB19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1536,8 +1628,11 @@
       <c r="AA20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1574,8 +1669,11 @@
       <c r="AA21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1616,8 +1714,11 @@
       <c r="AA22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1652,8 +1753,11 @@
       <c r="AA23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1691,8 +1795,11 @@
       <c r="AA24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1730,8 +1837,11 @@
       <c r="AA25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1802,8 +1912,14 @@
       <c r="AB26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1841,8 +1957,11 @@
       <c r="AA27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1892,8 +2011,14 @@
       <c r="AB28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC28">
+        <v>8</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -1931,8 +2056,11 @@
       <c r="AA29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -1976,8 +2104,11 @@
       <c r="AA30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2024,8 +2155,14 @@
       <c r="AB31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC31">
+        <v>4</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2057,8 +2194,11 @@
       <c r="AA32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -2099,8 +2239,11 @@
       <c r="AA33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2153,8 +2296,14 @@
       <c r="AB34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC34">
+        <v>5</v>
+      </c>
+      <c r="AD34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2189,8 +2338,11 @@
       <c r="AA35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -2240,8 +2392,14 @@
       <c r="AB36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC36">
+        <v>8</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -2279,8 +2437,11 @@
       <c r="AA37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -2345,8 +2506,14 @@
       <c r="AB38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2560,14 @@
       <c r="AB39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC39">
+        <v>4</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2623,14 @@
       <c r="AB40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC40">
+        <v>5</v>
+      </c>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -2489,8 +2668,11 @@
       <c r="AA41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -2537,8 +2719,11 @@
       <c r="AA42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -2582,8 +2767,14 @@
       <c r="AB43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC43">
+        <v>7</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -2615,8 +2806,11 @@
       <c r="AA44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -2687,8 +2881,14 @@
       <c r="AB45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC45">
+        <v>6</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -2732,8 +2932,11 @@
       <c r="AA46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -2768,8 +2971,11 @@
       <c r="AA47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -2825,8 +3031,14 @@
       <c r="AB48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC48">
+        <v>8</v>
+      </c>
+      <c r="AD48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -2864,8 +3076,11 @@
       <c r="AA49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -2936,8 +3151,14 @@
       <c r="AB50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC50">
+        <v>7</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -2978,8 +3199,14 @@
       <c r="AB51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC51">
+        <v>4</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3244,11 @@
       <c r="AA52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3286,11 @@
       <c r="AA53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3331,11 @@
       <c r="AA54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -3134,8 +3370,11 @@
       <c r="AA55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -3167,8 +3406,11 @@
       <c r="AA56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -3206,8 +3448,11 @@
       <c r="AA57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -3251,8 +3496,11 @@
       <c r="AA58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -3287,8 +3535,11 @@
       <c r="AA59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -3326,8 +3577,11 @@
       <c r="AA60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -3365,8 +3619,11 @@
       <c r="AA61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -3381,7 +3638,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -3434,8 +3691,14 @@
       <c r="AB62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC62">
+        <v>5</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -3449,6 +3712,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="F63" t="s">
+        <v>54</v>
+      </c>
       <c r="M63">
         <v>1</v>
       </c>
@@ -3473,8 +3739,11 @@
       <c r="AA63">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -3515,8 +3784,11 @@
       <c r="AA64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -3554,8 +3826,11 @@
       <c r="AA65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -3593,8 +3868,11 @@
       <c r="AA66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -3641,8 +3919,14 @@
       <c r="AB67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC67">
+        <v>9</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -3674,8 +3958,11 @@
       <c r="AA68">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -3713,8 +4000,11 @@
       <c r="AA69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -3761,8 +4051,11 @@
       <c r="AA70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -3797,8 +4090,11 @@
       <c r="AA71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -3813,7 +4109,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O72">
         <v>2</v>
@@ -3842,8 +4138,11 @@
       <c r="AA72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -3881,8 +4180,11 @@
       <c r="AA73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -3929,8 +4231,11 @@
       <c r="AA74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -3968,8 +4273,11 @@
       <c r="AA75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4330,14 @@
       <c r="AB76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC76">
+        <v>6</v>
+      </c>
+      <c r="AD76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -4064,8 +4378,11 @@
       <c r="AA77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -4106,8 +4423,11 @@
       <c r="AA78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -4157,8 +4477,14 @@
       <c r="AB79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC79">
+        <v>8</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -4190,8 +4516,11 @@
       <c r="AA80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -4235,8 +4564,11 @@
       <c r="AA81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -4289,8 +4621,14 @@
       <c r="AB82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC82">
+        <v>7</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4643,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O83">
         <v>2</v>
@@ -4340,8 +4678,14 @@
       <c r="AB83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC83">
+        <v>5</v>
+      </c>
+      <c r="AD83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -4391,8 +4735,14 @@
       <c r="AB84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC84">
+        <v>7</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -4436,8 +4786,14 @@
       <c r="AB85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC85">
+        <v>5</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -4484,8 +4840,11 @@
       <c r="AA86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -4500,7 +4859,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -4538,8 +4897,14 @@
       <c r="AB87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC87">
+        <v>5</v>
+      </c>
+      <c r="AD87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -4577,8 +4942,11 @@
       <c r="AA88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -4619,8 +4987,11 @@
       <c r="AA89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -4661,8 +5032,11 @@
       <c r="AA90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -4709,8 +5083,14 @@
       <c r="AB91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC91">
+        <v>6</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -4742,8 +5122,11 @@
       <c r="AA92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -4784,8 +5167,11 @@
       <c r="AA93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -4829,8 +5215,11 @@
       <c r="AA94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -4865,8 +5254,11 @@
       <c r="AA95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -4910,8 +5302,11 @@
       <c r="AA96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -4952,8 +5347,11 @@
       <c r="AA97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -5006,8 +5404,11 @@
       <c r="AA98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -5042,8 +5443,11 @@
       <c r="AA99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -5081,8 +5485,11 @@
       <c r="AA100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -5120,8 +5527,11 @@
       <c r="AA101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -5162,8 +5572,11 @@
       <c r="AA102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -5201,8 +5614,14 @@
       <c r="AB103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC103">
+        <v>4</v>
+      </c>
+      <c r="AD103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -5234,8 +5653,11 @@
       <c r="AA104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -5273,8 +5695,11 @@
       <c r="AA105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -5321,8 +5746,14 @@
       <c r="AB106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC106">
+        <v>4</v>
+      </c>
+      <c r="AD106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -5360,8 +5791,14 @@
       <c r="AB107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC107">
+        <v>4</v>
+      </c>
+      <c r="AD107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -5396,8 +5833,11 @@
       <c r="AA108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -5435,8 +5875,11 @@
       <c r="AA109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -5451,7 +5894,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -5492,8 +5935,11 @@
       <c r="AA110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -5534,8 +5980,11 @@
       <c r="AA111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -5573,8 +6022,11 @@
       <c r="AA112">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -5621,8 +6073,14 @@
       <c r="AB113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC113">
+        <v>4</v>
+      </c>
+      <c r="AD113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -5663,8 +6121,11 @@
       <c r="AA114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -5679,7 +6140,7 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O115">
         <v>2</v>
@@ -5714,8 +6175,14 @@
       <c r="AB115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC115">
+        <v>3</v>
+      </c>
+      <c r="AD115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -5747,8 +6214,11 @@
       <c r="AA116">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -5786,8 +6256,11 @@
       <c r="AA117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -5832,8 +6305,11 @@
       <c r="AA118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -5868,8 +6344,11 @@
       <c r="AA119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -5907,8 +6386,11 @@
       <c r="AA120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -5946,8 +6428,11 @@
       <c r="AA121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -5991,8 +6476,11 @@
       <c r="AA122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -6030,8 +6518,11 @@
       <c r="AA123">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -6087,8 +6578,14 @@
       <c r="AB124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC124">
+        <v>8</v>
+      </c>
+      <c r="AD124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -6103,7 +6600,7 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M125">
         <v>2</v>
@@ -6144,8 +6641,14 @@
       <c r="AB125">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC125">
+        <v>1</v>
+      </c>
+      <c r="AD125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -6186,8 +6689,11 @@
       <c r="AA126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -6219,8 +6725,14 @@
       <c r="AA127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC127">
+        <v>2</v>
+      </c>
+      <c r="AD127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -6252,8 +6764,11 @@
       <c r="AA128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -6297,8 +6812,11 @@
       <c r="AA129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -6342,8 +6860,11 @@
       <c r="AA130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -6375,8 +6896,11 @@
       <c r="AA131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -6411,8 +6935,11 @@
       <c r="AA132">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -6450,8 +6977,11 @@
       <c r="AA133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -6498,8 +7028,11 @@
       <c r="AA134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -6537,8 +7070,11 @@
       <c r="AA135">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -6576,8 +7112,11 @@
       <c r="AA136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -6618,8 +7157,11 @@
       <c r="AA137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -6660,8 +7202,11 @@
       <c r="AA138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -6693,8 +7238,11 @@
       <c r="AA139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -6726,8 +7274,11 @@
       <c r="AA140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -6789,8 +7340,14 @@
       <c r="AB141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC141">
+        <v>7</v>
+      </c>
+      <c r="AD141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -6846,8 +7403,14 @@
       <c r="AB142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC142">
+        <v>5</v>
+      </c>
+      <c r="AD142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -6879,8 +7442,11 @@
       <c r="AA143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -6915,8 +7481,11 @@
       <c r="AA144">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -6957,8 +7526,11 @@
       <c r="AA145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -7017,8 +7589,11 @@
       <c r="AA146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -7056,8 +7631,14 @@
       <c r="AB147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC147">
+        <v>2</v>
+      </c>
+      <c r="AD147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -7095,8 +7676,11 @@
       <c r="AA148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -7134,8 +7718,11 @@
       <c r="AA149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -7188,8 +7775,14 @@
       <c r="AB150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC150">
+        <v>6</v>
+      </c>
+      <c r="AD150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -7221,8 +7814,11 @@
       <c r="AA151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -7254,8 +7850,11 @@
       <c r="AA152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -7293,8 +7892,11 @@
       <c r="AA153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -7356,8 +7958,14 @@
       <c r="AB154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC154">
+        <v>3</v>
+      </c>
+      <c r="AD154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -7389,8 +7997,11 @@
       <c r="AA155">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -7428,8 +8039,11 @@
       <c r="AA156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -7467,8 +8081,11 @@
       <c r="AA157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -7515,8 +8132,11 @@
       <c r="AA158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -7551,8 +8171,11 @@
       <c r="AA159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -7590,8 +8213,11 @@
       <c r="AA160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -7644,8 +8270,14 @@
       <c r="AB161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC161">
+        <v>5</v>
+      </c>
+      <c r="AD161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -7686,8 +8318,11 @@
       <c r="AA162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -7719,8 +8354,11 @@
       <c r="AA163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -7752,8 +8390,11 @@
       <c r="AA164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -7791,8 +8432,11 @@
       <c r="AA165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -7839,8 +8483,14 @@
       <c r="AB166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC166">
+        <v>4</v>
+      </c>
+      <c r="AD166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -7872,8 +8522,11 @@
       <c r="AA167">
         <v>6</v>
       </c>
-    </row>
-    <row r="168" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -7917,8 +8570,11 @@
       <c r="AA168">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -7956,8 +8612,11 @@
       <c r="AA169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -7998,8 +8657,11 @@
       <c r="AA170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -8034,8 +8696,14 @@
       <c r="AA171">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC171">
+        <v>6</v>
+      </c>
+      <c r="AD171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -8073,8 +8741,11 @@
       <c r="AA172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -8112,8 +8783,11 @@
       <c r="AA173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -8154,8 +8828,11 @@
       <c r="AA174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -8187,8 +8864,11 @@
       <c r="AA175">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -8220,8 +8900,11 @@
       <c r="AA176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -8259,8 +8942,11 @@
       <c r="AA177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -8304,8 +8990,11 @@
       <c r="AA178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -8337,8 +9026,11 @@
       <c r="AA179">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -8376,8 +9068,11 @@
       <c r="AA180">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -8415,8 +9110,11 @@
       <c r="AA181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -8457,8 +9155,11 @@
       <c r="AA182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -8472,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -8501,8 +9202,14 @@
       <c r="AB183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC183">
+        <v>5</v>
+      </c>
+      <c r="AD183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -8539,8 +9246,11 @@
       <c r="AA184">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -8577,8 +9287,11 @@
       <c r="AA185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -8615,8 +9328,11 @@
       <c r="AA186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -8650,8 +9366,11 @@
       <c r="AA187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -8688,8 +9407,11 @@
       <c r="AA188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -8735,8 +9457,14 @@
       <c r="AB189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC189">
+        <v>2</v>
+      </c>
+      <c r="AD189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -8773,8 +9501,14 @@
       <c r="AA190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC190">
+        <v>4</v>
+      </c>
+      <c r="AD190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -8814,8 +9548,11 @@
       <c r="AA191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -8852,8 +9589,11 @@
       <c r="AA192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -8899,8 +9639,14 @@
       <c r="AB193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC193">
+        <v>6</v>
+      </c>
+      <c r="AD193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -8940,8 +9686,11 @@
       <c r="AA194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -8984,8 +9733,14 @@
       <c r="AB195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC195">
+        <v>2</v>
+      </c>
+      <c r="AD195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -9034,8 +9789,14 @@
       <c r="AB196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC196">
+        <v>5</v>
+      </c>
+      <c r="AD196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -9078,8 +9839,14 @@
       <c r="AB197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC197">
+        <v>5</v>
+      </c>
+      <c r="AD197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -9116,8 +9883,11 @@
       <c r="AA198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -9151,8 +9921,11 @@
       <c r="AA199">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -9192,8 +9965,11 @@
       <c r="AA200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -9227,8 +10003,14 @@
       <c r="AA201">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC201">
+        <v>3</v>
+      </c>
+      <c r="AD201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -9271,8 +10053,14 @@
       <c r="AA202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC202">
+        <v>0</v>
+      </c>
+      <c r="AD202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -9309,8 +10097,11 @@
       <c r="AA203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -9347,8 +10138,11 @@
       <c r="AA204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -9397,8 +10191,14 @@
       <c r="AB205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC205">
+        <v>9</v>
+      </c>
+      <c r="AD205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -9435,8 +10235,11 @@
       <c r="AA206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -9470,8 +10273,11 @@
       <c r="AA207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -9511,8 +10317,14 @@
       <c r="AB208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC208">
+        <v>2</v>
+      </c>
+      <c r="AD208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -9549,8 +10361,11 @@
       <c r="AA209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -9596,8 +10411,14 @@
       <c r="AB210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC210">
+        <v>4</v>
+      </c>
+      <c r="AD210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -9631,8 +10452,11 @@
       <c r="AA211">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="2:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -9669,8 +10493,11 @@
       <c r="AA212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:28" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="AC212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:30" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF99DBA-15CC-2241-A9D4-AEAB50531E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F1C8E-A2A6-5649-87CB-22A9D1E818E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="57">
   <si>
     <t>seed_species</t>
   </si>
@@ -204,6 +204,12 @@
   <si>
     <t>doy335: one of germinants on 331 was not focal species</t>
   </si>
+  <si>
+    <t>338_alive</t>
+  </si>
+  <si>
+    <t>338_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -290,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AD213" totalsRowShown="0">
-  <autoFilter ref="B2:AD213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AF213" totalsRowShown="0">
+  <autoFilter ref="B2:AF213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="TSHE"/>
@@ -308,7 +314,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="29">
+  <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -338,6 +344,8 @@
     <tableColumn id="27" xr3:uid="{F029AC3A-6516-F442-99AB-0461C5FA585D}" name="331_dead"/>
     <tableColumn id="28" xr3:uid="{9A3D7753-985D-A844-B7D3-37B245AEAF6A}" name="335_alive"/>
     <tableColumn id="29" xr3:uid="{88490240-5241-1849-AF5E-DCB5C6C42080}" name="335_dead"/>
+    <tableColumn id="30" xr3:uid="{BC96B0BB-C3E5-FE4B-8127-5DCEB943F999}" name="338_alive"/>
+    <tableColumn id="31" xr3:uid="{E9829AF1-0D6D-3441-B96A-A9B1D0C1991E}" name="338_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AD213"/>
+  <dimension ref="B2:AF213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="AC214" sqref="AC214"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="AE214" sqref="AE214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +681,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -761,8 +769,14 @@
       <c r="AD2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -817,8 +831,14 @@
       <c r="AD3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -858,8 +878,11 @@
       <c r="AC4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -914,8 +937,14 @@
       <c r="AD5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE5">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -958,8 +987,11 @@
       <c r="AC6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -996,8 +1028,11 @@
       <c r="AC7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1046,8 +1081,14 @@
       <c r="AD8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1102,8 +1143,14 @@
       <c r="AD9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1149,8 +1196,11 @@
       <c r="AC10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1199,8 +1249,14 @@
       <c r="AD11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1258,8 +1314,14 @@
       <c r="AD12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1302,8 +1364,11 @@
       <c r="AC13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1367,8 +1432,11 @@
       <c r="AC14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1409,8 +1477,11 @@
       <c r="AC15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1466,8 +1537,11 @@
       <c r="AD16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1511,8 +1585,14 @@
       <c r="AC17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE17">
+        <v>7</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1550,8 +1630,11 @@
       <c r="AC18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1595,8 +1678,14 @@
       <c r="AD19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1631,8 +1720,11 @@
       <c r="AC20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1672,8 +1764,11 @@
       <c r="AC21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1717,8 +1812,11 @@
       <c r="AC22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1756,8 +1854,11 @@
       <c r="AC23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1798,8 +1899,11 @@
       <c r="AC24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1840,8 +1944,11 @@
       <c r="AC25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -1918,8 +2025,14 @@
       <c r="AD26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE26">
+        <v>8</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1960,8 +2073,11 @@
       <c r="AC27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2133,14 @@
       <c r="AD28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE28">
+        <v>8</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2059,8 +2181,11 @@
       <c r="AC29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2107,8 +2232,11 @@
       <c r="AC30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2161,8 +2289,14 @@
       <c r="AD31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE31">
+        <v>4</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2197,8 +2331,11 @@
       <c r="AC32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -2242,8 +2379,11 @@
       <c r="AC33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -2302,8 +2442,14 @@
       <c r="AD34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE34">
+        <v>5</v>
+      </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2341,8 +2487,11 @@
       <c r="AC35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -2398,8 +2547,11 @@
       <c r="AD36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -2440,8 +2592,11 @@
       <c r="AC37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -2512,8 +2667,14 @@
       <c r="AD38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2566,8 +2727,14 @@
       <c r="AD39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39">
+        <v>4</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2629,8 +2796,14 @@
       <c r="AD40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE40">
+        <v>5</v>
+      </c>
+      <c r="AF40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -2671,8 +2844,11 @@
       <c r="AC41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -2722,8 +2898,11 @@
       <c r="AC42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -2773,8 +2952,14 @@
       <c r="AD43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE43">
+        <v>7</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -2809,8 +2994,11 @@
       <c r="AC44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -2887,8 +3075,14 @@
       <c r="AD45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE45">
+        <v>6</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -2935,8 +3129,11 @@
       <c r="AC46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -2974,8 +3171,11 @@
       <c r="AC47">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -3037,8 +3237,14 @@
       <c r="AD48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE48">
+        <v>8</v>
+      </c>
+      <c r="AF48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -3079,8 +3285,11 @@
       <c r="AC49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -3157,8 +3366,14 @@
       <c r="AD50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE50">
+        <v>7</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -3205,8 +3420,14 @@
       <c r="AD51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE51">
+        <v>4</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -3247,8 +3468,11 @@
       <c r="AC52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -3289,8 +3513,14 @@
       <c r="AC53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE53">
+        <v>2</v>
+      </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -3334,8 +3564,11 @@
       <c r="AC54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -3373,8 +3606,11 @@
       <c r="AC55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -3409,8 +3645,11 @@
       <c r="AC56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -3451,8 +3690,11 @@
       <c r="AC57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -3499,8 +3741,11 @@
       <c r="AC58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -3538,8 +3783,11 @@
       <c r="AC59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -3580,8 +3828,11 @@
       <c r="AC60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -3622,8 +3873,11 @@
       <c r="AC61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -3697,8 +3951,11 @@
       <c r="AD62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3999,14 @@
       <c r="AC63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE63">
+        <v>6</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -3787,8 +4050,11 @@
       <c r="AC64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +4095,11 @@
       <c r="AC65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4140,11 @@
       <c r="AC66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -3925,8 +4197,14 @@
       <c r="AD67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE67">
+        <v>9</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -3961,8 +4239,11 @@
       <c r="AC68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -4003,8 +4284,11 @@
       <c r="AC69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -4054,8 +4338,11 @@
       <c r="AC70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -4093,8 +4380,11 @@
       <c r="AC71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -4141,8 +4431,11 @@
       <c r="AC72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -4183,8 +4476,11 @@
       <c r="AC73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -4234,8 +4530,11 @@
       <c r="AC74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4575,11 @@
       <c r="AC75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -4336,8 +4638,14 @@
       <c r="AD76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE76">
+        <v>7</v>
+      </c>
+      <c r="AF76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -4381,8 +4689,11 @@
       <c r="AC77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -4426,8 +4737,11 @@
       <c r="AC78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -4483,8 +4797,14 @@
       <c r="AD79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE79">
+        <v>8</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -4519,8 +4839,11 @@
       <c r="AC80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -4567,8 +4890,11 @@
       <c r="AC81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -4627,8 +4953,14 @@
       <c r="AD82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE82">
+        <v>7</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -4684,8 +5016,14 @@
       <c r="AD83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE83">
+        <v>5</v>
+      </c>
+      <c r="AF83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -4741,8 +5079,14 @@
       <c r="AD84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE84">
+        <v>7</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -4792,8 +5136,14 @@
       <c r="AD85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE85">
+        <v>5</v>
+      </c>
+      <c r="AF85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -4843,8 +5193,11 @@
       <c r="AC86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -4903,8 +5256,14 @@
       <c r="AD87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE87">
+        <v>5</v>
+      </c>
+      <c r="AF87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -4945,8 +5304,14 @@
       <c r="AC88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE88">
+        <v>7</v>
+      </c>
+      <c r="AF88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -4990,8 +5355,11 @@
       <c r="AC89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -5035,8 +5403,11 @@
       <c r="AC90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -5089,8 +5460,14 @@
       <c r="AD91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE91">
+        <v>6</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -5125,8 +5502,11 @@
       <c r="AC92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -5170,8 +5550,11 @@
       <c r="AC93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -5218,8 +5601,11 @@
       <c r="AC94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -5257,8 +5643,11 @@
       <c r="AC95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -5305,8 +5694,11 @@
       <c r="AC96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -5350,8 +5742,11 @@
       <c r="AC97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -5407,8 +5802,11 @@
       <c r="AC98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -5446,8 +5844,11 @@
       <c r="AC99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -5488,8 +5889,11 @@
       <c r="AC100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -5530,8 +5934,11 @@
       <c r="AC101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -5575,8 +5982,11 @@
       <c r="AC102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -5620,8 +6030,14 @@
       <c r="AD103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE103">
+        <v>4</v>
+      </c>
+      <c r="AF103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -5656,8 +6072,11 @@
       <c r="AC104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -5698,8 +6117,11 @@
       <c r="AC105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -5752,8 +6174,14 @@
       <c r="AD106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE106">
+        <v>4</v>
+      </c>
+      <c r="AF106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -5797,8 +6225,14 @@
       <c r="AD107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE107">
+        <v>4</v>
+      </c>
+      <c r="AF107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -5836,8 +6270,11 @@
       <c r="AC108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -5878,8 +6315,11 @@
       <c r="AC109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -5938,8 +6378,11 @@
       <c r="AC110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -5983,8 +6426,11 @@
       <c r="AC111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -6025,8 +6471,11 @@
       <c r="AC112">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -6079,8 +6528,14 @@
       <c r="AD113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE113">
+        <v>4</v>
+      </c>
+      <c r="AF113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -6124,8 +6579,11 @@
       <c r="AC114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -6181,8 +6639,14 @@
       <c r="AD115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE115">
+        <v>3</v>
+      </c>
+      <c r="AF115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -6217,8 +6681,11 @@
       <c r="AC116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -6259,8 +6726,11 @@
       <c r="AC117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -6308,8 +6778,11 @@
       <c r="AC118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -6347,8 +6820,11 @@
       <c r="AC119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -6389,8 +6865,11 @@
       <c r="AC120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -6431,8 +6910,11 @@
       <c r="AC121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -6479,8 +6961,11 @@
       <c r="AC122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -6521,8 +7006,11 @@
       <c r="AC123">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -6584,8 +7072,14 @@
       <c r="AD124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE124">
+        <v>8</v>
+      </c>
+      <c r="AF124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -6647,8 +7141,14 @@
       <c r="AD125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE125">
+        <v>1</v>
+      </c>
+      <c r="AF125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -6692,8 +7192,11 @@
       <c r="AC126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -6731,8 +7234,14 @@
       <c r="AD127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE127">
+        <v>2</v>
+      </c>
+      <c r="AF127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -6767,8 +7276,11 @@
       <c r="AC128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -6815,8 +7327,11 @@
       <c r="AC129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -6863,8 +7378,11 @@
       <c r="AC130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -6899,8 +7417,11 @@
       <c r="AC131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -6938,8 +7459,11 @@
       <c r="AC132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -6980,8 +7504,11 @@
       <c r="AC133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -7031,8 +7558,11 @@
       <c r="AC134">
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -7073,8 +7603,11 @@
       <c r="AC135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -7115,8 +7648,11 @@
       <c r="AC136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -7160,8 +7696,11 @@
       <c r="AC137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -7205,8 +7744,14 @@
       <c r="AC138">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE138">
+        <v>7</v>
+      </c>
+      <c r="AF138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -7241,8 +7786,11 @@
       <c r="AC139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -7277,8 +7825,11 @@
       <c r="AC140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -7346,8 +7897,11 @@
       <c r="AD141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -7409,8 +7963,14 @@
       <c r="AD142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE142">
+        <v>5</v>
+      </c>
+      <c r="AF142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -7445,8 +8005,11 @@
       <c r="AC143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -7484,8 +8047,11 @@
       <c r="AC144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -7529,8 +8095,11 @@
       <c r="AC145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -7592,8 +8161,11 @@
       <c r="AC146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -7637,8 +8209,14 @@
       <c r="AD147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE147">
+        <v>2</v>
+      </c>
+      <c r="AF147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -7679,8 +8257,11 @@
       <c r="AC148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -7721,8 +8302,11 @@
       <c r="AC149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -7781,8 +8365,14 @@
       <c r="AD150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE150">
+        <v>6</v>
+      </c>
+      <c r="AF150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -7817,8 +8407,11 @@
       <c r="AC151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -7853,8 +8446,11 @@
       <c r="AC152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -7895,8 +8491,11 @@
       <c r="AC153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -7964,8 +8563,14 @@
       <c r="AD154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE154">
+        <v>2</v>
+      </c>
+      <c r="AF154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -8000,8 +8605,14 @@
       <c r="AC155">
         <v>9</v>
       </c>
-    </row>
-    <row r="156" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE155">
+        <v>8</v>
+      </c>
+      <c r="AF155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -8042,8 +8653,11 @@
       <c r="AC156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -8084,8 +8698,11 @@
       <c r="AC157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -8135,8 +8752,11 @@
       <c r="AC158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -8174,8 +8794,11 @@
       <c r="AC159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -8216,8 +8839,11 @@
       <c r="AC160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -8276,8 +8902,14 @@
       <c r="AD161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE161">
+        <v>3</v>
+      </c>
+      <c r="AF161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -8321,8 +8953,11 @@
       <c r="AC162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -8357,8 +8992,11 @@
       <c r="AC163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -8393,8 +9031,11 @@
       <c r="AC164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -8435,8 +9076,11 @@
       <c r="AC165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -8489,8 +9133,14 @@
       <c r="AD166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE166">
+        <v>3</v>
+      </c>
+      <c r="AF166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -8525,8 +9175,11 @@
       <c r="AC167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -8573,8 +9226,11 @@
       <c r="AC168">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -8615,8 +9271,11 @@
       <c r="AC169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -8660,8 +9319,11 @@
       <c r="AC170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -8702,8 +9364,14 @@
       <c r="AD171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE171">
+        <v>6</v>
+      </c>
+      <c r="AF171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -8744,8 +9412,11 @@
       <c r="AC172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -8786,8 +9457,11 @@
       <c r="AC173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -8831,8 +9505,11 @@
       <c r="AC174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -8867,8 +9544,11 @@
       <c r="AC175">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE175">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -8903,8 +9583,11 @@
       <c r="AC176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -8945,8 +9628,11 @@
       <c r="AC177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -8993,8 +9679,11 @@
       <c r="AC178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -9029,8 +9718,14 @@
       <c r="AC179">
         <v>9</v>
       </c>
-    </row>
-    <row r="180" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE179">
+        <v>8</v>
+      </c>
+      <c r="AF179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -9071,8 +9766,11 @@
       <c r="AC180">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -9113,8 +9811,11 @@
       <c r="AC181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -9158,8 +9859,11 @@
       <c r="AC182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -9208,8 +9912,14 @@
       <c r="AD183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE183">
+        <v>5</v>
+      </c>
+      <c r="AF183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -9249,8 +9959,11 @@
       <c r="AC184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -9290,8 +10003,11 @@
       <c r="AC185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -9331,8 +10047,11 @@
       <c r="AC186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -9369,8 +10088,11 @@
       <c r="AC187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -9410,8 +10132,11 @@
       <c r="AC188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -9463,8 +10188,14 @@
       <c r="AD189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE189">
+        <v>2</v>
+      </c>
+      <c r="AF189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -9507,8 +10238,14 @@
       <c r="AD190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE190">
+        <v>4</v>
+      </c>
+      <c r="AF190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -9551,8 +10288,14 @@
       <c r="AC191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE191">
+        <v>4</v>
+      </c>
+      <c r="AF191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -9592,8 +10335,11 @@
       <c r="AC192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -9645,8 +10391,14 @@
       <c r="AD193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE193">
+        <v>6</v>
+      </c>
+      <c r="AF193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -9689,8 +10441,11 @@
       <c r="AC194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -9739,8 +10494,14 @@
       <c r="AD195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE195">
+        <v>2</v>
+      </c>
+      <c r="AF195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -9795,8 +10556,14 @@
       <c r="AD196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE196">
+        <v>5</v>
+      </c>
+      <c r="AF196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -9845,8 +10612,11 @@
       <c r="AD197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -9886,8 +10656,11 @@
       <c r="AC198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -9924,8 +10697,14 @@
       <c r="AC199">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE199">
+        <v>5</v>
+      </c>
+      <c r="AF199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -9968,8 +10747,11 @@
       <c r="AC200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -10009,8 +10791,14 @@
       <c r="AD201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE201">
+        <v>3</v>
+      </c>
+      <c r="AF201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -10059,8 +10847,14 @@
       <c r="AD202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE202">
+        <v>0</v>
+      </c>
+      <c r="AF202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -10100,8 +10894,11 @@
       <c r="AC203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -10141,8 +10938,11 @@
       <c r="AC204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -10197,8 +10997,14 @@
       <c r="AD205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE205">
+        <v>9</v>
+      </c>
+      <c r="AF205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -10238,8 +11044,11 @@
       <c r="AC206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -10276,8 +11085,11 @@
       <c r="AC207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -10323,8 +11135,14 @@
       <c r="AD208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE208">
+        <v>2</v>
+      </c>
+      <c r="AF208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -10364,8 +11182,11 @@
       <c r="AC209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -10417,8 +11238,14 @@
       <c r="AD210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE210">
+        <v>4</v>
+      </c>
+      <c r="AF210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -10455,8 +11282,11 @@
       <c r="AC211">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AE211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -10496,8 +11326,11 @@
       <c r="AC212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:30" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="AE212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:32" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199F1C8E-A2A6-5649-87CB-22A9D1E818E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E37C3-67A5-0F47-8319-71CE2476BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="59">
   <si>
     <t>seed_species</t>
   </si>
@@ -210,6 +210,12 @@
   <si>
     <t>338_dead</t>
   </si>
+  <si>
+    <t>342_alive</t>
+  </si>
+  <si>
+    <t>342_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -296,25 +302,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AF213" totalsRowShown="0">
-  <autoFilter ref="B2:AF213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AH213" totalsRowShown="0">
+  <autoFilter ref="B2:AH213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
-        <filter val="TSHE"/>
+        <filter val="THPL"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="TSHE"/>
+        <filter val="PSME"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="0"/>
+        <filter val="25"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="31">
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -346,6 +352,8 @@
     <tableColumn id="29" xr3:uid="{88490240-5241-1849-AF5E-DCB5C6C42080}" name="335_dead"/>
     <tableColumn id="30" xr3:uid="{BC96B0BB-C3E5-FE4B-8127-5DCEB943F999}" name="338_alive"/>
     <tableColumn id="31" xr3:uid="{E9829AF1-0D6D-3441-B96A-A9B1D0C1991E}" name="338_dead"/>
+    <tableColumn id="32" xr3:uid="{790E4FCE-95FB-D842-89B6-1200A62C6D3B}" name="342_alive"/>
+    <tableColumn id="33" xr3:uid="{ACEF41BE-89B0-5A4A-B6F5-0CCC540F81A1}" name="342_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AF213"/>
+  <dimension ref="B2:AH213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="AE214" sqref="AE214"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="AG214" sqref="AG214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,7 +689,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="AF2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +851,14 @@
       <c r="AF3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -881,8 +901,11 @@
       <c r="AE4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -943,8 +966,14 @@
       <c r="AF5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -990,8 +1019,11 @@
       <c r="AE6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1031,8 +1063,11 @@
       <c r="AE7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1087,8 +1122,14 @@
       <c r="AF8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG8">
+        <v>6</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1149,8 +1190,14 @@
       <c r="AF9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG9">
+        <v>6</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1199,8 +1246,11 @@
       <c r="AE10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1255,8 +1305,14 @@
       <c r="AF11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG11">
+        <v>7</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1320,8 +1376,14 @@
       <c r="AF12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1367,8 +1429,11 @@
       <c r="AE13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1435,8 +1500,11 @@
       <c r="AE14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1480,8 +1548,11 @@
       <c r="AE15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1540,8 +1611,11 @@
       <c r="AE16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1665,14 @@
       <c r="AF17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG17">
+        <v>7</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1633,8 +1713,11 @@
       <c r="AE18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1684,8 +1767,14 @@
       <c r="AF19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1723,8 +1812,11 @@
       <c r="AE20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1767,8 +1859,11 @@
       <c r="AE21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1815,8 +1910,11 @@
       <c r="AE22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1857,8 +1955,11 @@
       <c r="AE23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -1902,8 +2003,11 @@
       <c r="AE24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1947,8 +2051,11 @@
       <c r="AE25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2031,8 +2138,14 @@
       <c r="AF26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG26">
+        <v>8</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2076,8 +2189,11 @@
       <c r="AE27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2255,14 @@
       <c r="AF28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG28">
+        <v>8</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2306,11 @@
       <c r="AE29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2235,8 +2360,11 @@
       <c r="AE30">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2295,8 +2423,14 @@
       <c r="AF31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG31">
+        <v>4</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2334,8 +2468,11 @@
       <c r="AE32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -2382,8 +2519,11 @@
       <c r="AE33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -2448,8 +2588,14 @@
       <c r="AF34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG34">
+        <v>5</v>
+      </c>
+      <c r="AH34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2490,8 +2636,11 @@
       <c r="AE35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -2550,8 +2699,11 @@
       <c r="AE36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -2595,8 +2747,11 @@
       <c r="AE37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -2673,8 +2828,14 @@
       <c r="AF38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG38">
+        <v>4</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2894,14 @@
       <c r="AF39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39">
+        <v>4</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2802,8 +2969,14 @@
       <c r="AF40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG40">
+        <v>5</v>
+      </c>
+      <c r="AH40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -2847,8 +3020,11 @@
       <c r="AE41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -2901,8 +3077,11 @@
       <c r="AE42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -2958,8 +3137,14 @@
       <c r="AF43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG43">
+        <v>8</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -2997,8 +3182,11 @@
       <c r="AE44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -3081,8 +3269,14 @@
       <c r="AF45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG45">
+        <v>6</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -3132,8 +3326,11 @@
       <c r="AE46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -3174,8 +3371,11 @@
       <c r="AE47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -3243,8 +3443,14 @@
       <c r="AF48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG48">
+        <v>8</v>
+      </c>
+      <c r="AH48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -3288,8 +3494,11 @@
       <c r="AE49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -3372,8 +3581,14 @@
       <c r="AF50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG50">
+        <v>7</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -3426,8 +3641,14 @@
       <c r="AF51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG51">
+        <v>4</v>
+      </c>
+      <c r="AH51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3692,11 @@
       <c r="AE52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -3519,8 +3743,14 @@
       <c r="AF53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG53">
+        <v>2</v>
+      </c>
+      <c r="AH53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -3567,8 +3797,11 @@
       <c r="AE54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -3609,8 +3842,14 @@
       <c r="AE55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG55">
+        <v>5</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -3648,8 +3887,11 @@
       <c r="AE56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -3693,8 +3935,11 @@
       <c r="AE57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -3744,8 +3989,11 @@
       <c r="AE58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -3786,8 +4034,11 @@
       <c r="AE59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -3831,8 +4082,11 @@
       <c r="AE60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -3876,8 +4130,11 @@
       <c r="AE61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -3954,8 +4211,11 @@
       <c r="AE62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -4005,8 +4265,14 @@
       <c r="AF63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG63">
+        <v>6</v>
+      </c>
+      <c r="AH63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -4053,8 +4319,11 @@
       <c r="AE64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -4098,8 +4367,11 @@
       <c r="AE65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -4143,8 +4415,11 @@
       <c r="AE66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -4203,8 +4478,14 @@
       <c r="AF67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG67">
+        <v>9</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -4242,8 +4523,11 @@
       <c r="AE68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -4287,8 +4571,11 @@
       <c r="AE69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -4341,8 +4628,11 @@
       <c r="AE70">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -4383,8 +4673,11 @@
       <c r="AE71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -4434,8 +4727,14 @@
       <c r="AE72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG72">
+        <v>6</v>
+      </c>
+      <c r="AH72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -4479,8 +4778,11 @@
       <c r="AE73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -4533,8 +4835,11 @@
       <c r="AE74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -4578,8 +4883,11 @@
       <c r="AE75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -4644,8 +4952,14 @@
       <c r="AF76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG76">
+        <v>7</v>
+      </c>
+      <c r="AH76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -4692,8 +5006,11 @@
       <c r="AE77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -4740,8 +5057,11 @@
       <c r="AE78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -4803,8 +5123,14 @@
       <c r="AF79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG79">
+        <v>7</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -4842,8 +5168,11 @@
       <c r="AE80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -4893,8 +5222,11 @@
       <c r="AE81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -4959,8 +5291,14 @@
       <c r="AF82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG82">
+        <v>7</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -5022,8 +5360,14 @@
       <c r="AF83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG83">
+        <v>5</v>
+      </c>
+      <c r="AH83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -5085,8 +5429,14 @@
       <c r="AF84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG84">
+        <v>8</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -5142,8 +5492,14 @@
       <c r="AF85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG85">
+        <v>5</v>
+      </c>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -5196,8 +5552,11 @@
       <c r="AE86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -5262,8 +5621,14 @@
       <c r="AF87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG87">
+        <v>5</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -5310,8 +5675,14 @@
       <c r="AF88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG88">
+        <v>6</v>
+      </c>
+      <c r="AH88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +5729,11 @@
       <c r="AE89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -5406,8 +5780,11 @@
       <c r="AE90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -5466,8 +5843,14 @@
       <c r="AF91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG91">
+        <v>6</v>
+      </c>
+      <c r="AH91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -5505,8 +5888,14 @@
       <c r="AE92">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG92">
+        <v>5</v>
+      </c>
+      <c r="AH92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -5553,8 +5942,11 @@
       <c r="AE93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -5604,8 +5996,11 @@
       <c r="AE94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -5646,8 +6041,11 @@
       <c r="AE95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -5697,8 +6095,11 @@
       <c r="AE96">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -5745,8 +6146,11 @@
       <c r="AE97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -5805,8 +6209,11 @@
       <c r="AE98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -5847,8 +6254,11 @@
       <c r="AE99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -5892,8 +6302,11 @@
       <c r="AE100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -5937,8 +6350,11 @@
       <c r="AE101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -5985,8 +6401,11 @@
       <c r="AE102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -6036,8 +6455,14 @@
       <c r="AF103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG103">
+        <v>4</v>
+      </c>
+      <c r="AH103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -6075,8 +6500,11 @@
       <c r="AE104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -6120,8 +6548,11 @@
       <c r="AE105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -6180,8 +6611,14 @@
       <c r="AF106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG106">
+        <v>4</v>
+      </c>
+      <c r="AH106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -6231,8 +6668,14 @@
       <c r="AF107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG107">
+        <v>4</v>
+      </c>
+      <c r="AH107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -6273,8 +6716,11 @@
       <c r="AE108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -6318,8 +6764,11 @@
       <c r="AE109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -6381,8 +6830,11 @@
       <c r="AE110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -6429,8 +6881,11 @@
       <c r="AE111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -6474,8 +6929,14 @@
       <c r="AE112">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG112">
+        <v>7</v>
+      </c>
+      <c r="AH112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -6534,8 +6995,14 @@
       <c r="AF113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG113">
+        <v>4</v>
+      </c>
+      <c r="AH113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -6582,8 +7049,11 @@
       <c r="AE114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -6645,8 +7115,14 @@
       <c r="AF115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG115">
+        <v>2</v>
+      </c>
+      <c r="AH115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -6684,8 +7160,11 @@
       <c r="AE116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -6729,8 +7208,11 @@
       <c r="AE117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -6781,8 +7263,11 @@
       <c r="AE118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -6823,8 +7308,11 @@
       <c r="AE119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -6868,8 +7356,11 @@
       <c r="AE120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -6913,8 +7404,11 @@
       <c r="AE121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -6964,8 +7458,11 @@
       <c r="AE122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -7009,8 +7506,11 @@
       <c r="AE123">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -7078,8 +7578,14 @@
       <c r="AF124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG124">
+        <v>8</v>
+      </c>
+      <c r="AH124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -7147,8 +7653,14 @@
       <c r="AF125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG125">
+        <v>1</v>
+      </c>
+      <c r="AH125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -7195,8 +7707,14 @@
       <c r="AE126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG126">
+        <v>5</v>
+      </c>
+      <c r="AH126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -7240,8 +7758,14 @@
       <c r="AF127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG127">
+        <v>2</v>
+      </c>
+      <c r="AH127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -7279,8 +7803,11 @@
       <c r="AE128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -7330,8 +7857,11 @@
       <c r="AE129">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -7381,8 +7911,11 @@
       <c r="AE130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -7420,8 +7953,11 @@
       <c r="AE131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -7462,8 +7998,11 @@
       <c r="AE132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -7507,8 +8046,11 @@
       <c r="AE133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -7561,8 +8103,11 @@
       <c r="AE134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -7606,8 +8151,11 @@
       <c r="AE135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -7651,8 +8199,11 @@
       <c r="AE136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -7699,8 +8250,11 @@
       <c r="AE137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -7750,8 +8304,14 @@
       <c r="AF138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG138">
+        <v>7</v>
+      </c>
+      <c r="AH138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -7789,8 +8349,11 @@
       <c r="AE139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -7828,8 +8391,11 @@
       <c r="AE140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -7900,8 +8466,14 @@
       <c r="AE141">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG141">
+        <v>7</v>
+      </c>
+      <c r="AH141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -7969,8 +8541,14 @@
       <c r="AF142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG142">
+        <v>6</v>
+      </c>
+      <c r="AH142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -8008,8 +8586,11 @@
       <c r="AE143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -8050,8 +8631,11 @@
       <c r="AE144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -8098,8 +8682,11 @@
       <c r="AE145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -8164,8 +8751,11 @@
       <c r="AE146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -8215,8 +8805,14 @@
       <c r="AF147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG147">
+        <v>2</v>
+      </c>
+      <c r="AH147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -8260,8 +8856,11 @@
       <c r="AE148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -8305,8 +8904,14 @@
       <c r="AE149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG149">
+        <v>3</v>
+      </c>
+      <c r="AH149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -8371,8 +8976,14 @@
       <c r="AF150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG150">
+        <v>8</v>
+      </c>
+      <c r="AH150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -8410,8 +9021,11 @@
       <c r="AE151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -8449,8 +9063,11 @@
       <c r="AE152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -8494,8 +9111,11 @@
       <c r="AE153">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -8569,8 +9189,14 @@
       <c r="AF154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG154">
+        <v>2</v>
+      </c>
+      <c r="AH154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -8611,8 +9237,14 @@
       <c r="AF155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG155">
+        <v>8</v>
+      </c>
+      <c r="AH155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -8656,8 +9288,11 @@
       <c r="AE156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -8701,8 +9336,11 @@
       <c r="AE157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -8755,8 +9393,11 @@
       <c r="AE158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -8797,8 +9438,14 @@
       <c r="AE159">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG159">
+        <v>5</v>
+      </c>
+      <c r="AH159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -8842,8 +9489,11 @@
       <c r="AE160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -8908,8 +9558,14 @@
       <c r="AF161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG161">
+        <v>3</v>
+      </c>
+      <c r="AH161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -8956,8 +9612,11 @@
       <c r="AE162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -8995,8 +9654,14 @@
       <c r="AE163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG163">
+        <v>4</v>
+      </c>
+      <c r="AH163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -9034,8 +9699,11 @@
       <c r="AE164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -9079,8 +9747,11 @@
       <c r="AE165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -9139,8 +9810,14 @@
       <c r="AF166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG166">
+        <v>3</v>
+      </c>
+      <c r="AH166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -9178,8 +9855,11 @@
       <c r="AE167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -9229,8 +9909,11 @@
       <c r="AE168">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -9274,8 +9957,11 @@
       <c r="AE169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -9322,8 +10008,11 @@
       <c r="AE170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -9370,8 +10059,14 @@
       <c r="AF171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG171">
+        <v>6</v>
+      </c>
+      <c r="AH171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -9415,8 +10110,11 @@
       <c r="AE172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -9460,8 +10158,11 @@
       <c r="AE173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -9508,8 +10209,11 @@
       <c r="AE174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -9547,8 +10251,14 @@
       <c r="AE175">
         <v>9</v>
       </c>
-    </row>
-    <row r="176" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG175">
+        <v>8</v>
+      </c>
+      <c r="AH175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -9586,8 +10296,11 @@
       <c r="AE176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -9631,8 +10344,11 @@
       <c r="AE177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -9682,8 +10398,11 @@
       <c r="AE178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -9724,8 +10443,14 @@
       <c r="AF179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG179">
+        <v>8</v>
+      </c>
+      <c r="AH179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -9769,8 +10494,11 @@
       <c r="AE180">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -9814,8 +10542,11 @@
       <c r="AE181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -9862,8 +10593,11 @@
       <c r="AE182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -9918,8 +10652,14 @@
       <c r="AF183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG183">
+        <v>5</v>
+      </c>
+      <c r="AH183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -9962,8 +10702,11 @@
       <c r="AE184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -10006,8 +10749,11 @@
       <c r="AE185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -10050,8 +10796,11 @@
       <c r="AE186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -10091,8 +10840,11 @@
       <c r="AE187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -10135,8 +10887,11 @@
       <c r="AE188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -10194,8 +10949,14 @@
       <c r="AF189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG189">
+        <v>2</v>
+      </c>
+      <c r="AH189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -10244,8 +11005,14 @@
       <c r="AF190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG190">
+        <v>4</v>
+      </c>
+      <c r="AH190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -10294,8 +11061,14 @@
       <c r="AF191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG191">
+        <v>3</v>
+      </c>
+      <c r="AH191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -10338,8 +11111,11 @@
       <c r="AE192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -10397,8 +11173,14 @@
       <c r="AF193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG193">
+        <v>7</v>
+      </c>
+      <c r="AH193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -10444,8 +11226,11 @@
       <c r="AE194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -10500,8 +11285,14 @@
       <c r="AF195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG195">
+        <v>2</v>
+      </c>
+      <c r="AH195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -10562,8 +11353,14 @@
       <c r="AF196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG196">
+        <v>5</v>
+      </c>
+      <c r="AH196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -10615,8 +11412,11 @@
       <c r="AE197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -10659,8 +11459,11 @@
       <c r="AE198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -10703,8 +11506,14 @@
       <c r="AF199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG199">
+        <v>5</v>
+      </c>
+      <c r="AH199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -10750,8 +11559,11 @@
       <c r="AE200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -10797,8 +11609,14 @@
       <c r="AF201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG201">
+        <v>4</v>
+      </c>
+      <c r="AH201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -10853,8 +11671,14 @@
       <c r="AF202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG202">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -10897,8 +11721,14 @@
       <c r="AE203">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG203">
+        <v>3</v>
+      </c>
+      <c r="AH203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -10941,8 +11771,11 @@
       <c r="AE204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -11003,8 +11836,14 @@
       <c r="AF205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG205">
+        <v>9</v>
+      </c>
+      <c r="AH205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -11047,8 +11886,11 @@
       <c r="AE206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -11088,8 +11930,11 @@
       <c r="AE207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -11141,8 +11986,14 @@
       <c r="AF208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG208">
+        <v>2</v>
+      </c>
+      <c r="AH208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -11185,8 +12036,11 @@
       <c r="AE209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -11244,8 +12098,14 @@
       <c r="AF210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG210">
+        <v>4</v>
+      </c>
+      <c r="AH210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -11285,8 +12145,11 @@
       <c r="AE211">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="2:32" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AG211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -11329,8 +12192,11 @@
       <c r="AE212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:32" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="AG212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:34" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E37C3-67A5-0F47-8319-71CE2476BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0342E-3429-CD41-A965-980DFEB39417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="61">
   <si>
     <t>seed_species</t>
   </si>
@@ -216,6 +216,12 @@
   <si>
     <t>342_dead</t>
   </si>
+  <si>
+    <t>346_alive</t>
+  </si>
+  <si>
+    <t>346_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -302,25 +308,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AH213" totalsRowShown="0">
-  <autoFilter ref="B2:AH213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AJ213" totalsRowShown="0">
+  <autoFilter ref="B2:AJ213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
-        <filter val="THPL"/>
+        <filter val="TSHE"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="PSME"/>
+        <filter val="TSHE"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="25"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="33">
+  <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -354,6 +360,8 @@
     <tableColumn id="31" xr3:uid="{E9829AF1-0D6D-3441-B96A-A9B1D0C1991E}" name="338_dead"/>
     <tableColumn id="32" xr3:uid="{790E4FCE-95FB-D842-89B6-1200A62C6D3B}" name="342_alive"/>
     <tableColumn id="33" xr3:uid="{ACEF41BE-89B0-5A4A-B6F5-0CCC540F81A1}" name="342_dead"/>
+    <tableColumn id="34" xr3:uid="{203A86FF-9E5C-384E-AC11-B6CFB0054DB3}" name="346_alive"/>
+    <tableColumn id="35" xr3:uid="{DA827A40-0005-6749-8CFC-10F8ED8DF6F0}" name="346_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AH213"/>
+  <dimension ref="B2:AJ213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="AG214" sqref="AG214"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="AI214" sqref="AI214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +697,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -789,8 +797,14 @@
       <c r="AH2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -857,8 +871,14 @@
       <c r="AH3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI3">
+        <v>3</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -904,8 +924,11 @@
       <c r="AG4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -972,8 +995,14 @@
       <c r="AH5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1022,8 +1051,11 @@
       <c r="AG6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1066,8 +1098,11 @@
       <c r="AG7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1128,8 +1163,14 @@
       <c r="AH8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI8">
+        <v>6</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1196,8 +1237,14 @@
       <c r="AH9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI9">
+        <v>6</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1249,8 +1296,11 @@
       <c r="AG10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1311,8 +1361,14 @@
       <c r="AH11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI11">
+        <v>7</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1382,8 +1438,14 @@
       <c r="AH12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI12">
+        <v>6</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1432,8 +1494,11 @@
       <c r="AG13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1503,8 +1568,11 @@
       <c r="AG14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1619,11 @@
       <c r="AG15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1614,8 +1685,11 @@
       <c r="AG16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1671,8 +1745,14 @@
       <c r="AH17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI17">
+        <v>7</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1796,11 @@
       <c r="AG18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1773,8 +1856,14 @@
       <c r="AH19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1815,8 +1904,11 @@
       <c r="AG20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1862,8 +1954,11 @@
       <c r="AG21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1913,8 +2008,11 @@
       <c r="AG22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -1958,8 +2056,11 @@
       <c r="AG23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2006,8 +2107,11 @@
       <c r="AG24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2054,8 +2158,11 @@
       <c r="AG25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2144,8 +2251,14 @@
       <c r="AH26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI26">
+        <v>8</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2305,11 @@
       <c r="AG27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2377,14 @@
       <c r="AH28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI28">
+        <v>8</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2431,11 @@
       <c r="AG29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2363,8 +2488,11 @@
       <c r="AG30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2429,8 +2557,14 @@
       <c r="AH31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI31">
+        <v>4</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2471,8 +2605,11 @@
       <c r="AG32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -2522,8 +2659,11 @@
       <c r="AG33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -2594,8 +2734,14 @@
       <c r="AH34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI34">
+        <v>5</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2639,8 +2785,11 @@
       <c r="AG35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -2702,8 +2851,11 @@
       <c r="AG36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -2750,8 +2902,11 @@
       <c r="AG37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -2834,8 +2989,14 @@
       <c r="AH38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI38">
+        <v>5</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -2900,8 +3061,14 @@
       <c r="AH39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI39">
+        <v>4</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -2975,8 +3142,14 @@
       <c r="AH40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI40">
+        <v>5</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -3023,8 +3196,11 @@
       <c r="AG41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3256,11 @@
       <c r="AG42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -3143,8 +3322,14 @@
       <c r="AH43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI43">
+        <v>8</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -3185,8 +3370,11 @@
       <c r="AG44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -3275,8 +3463,14 @@
       <c r="AH45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI45">
+        <v>6</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -3329,8 +3523,11 @@
       <c r="AG46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -3374,8 +3571,11 @@
       <c r="AG47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -3449,8 +3649,14 @@
       <c r="AH48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI48">
+        <v>8</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -3497,8 +3703,11 @@
       <c r="AG49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -3587,8 +3796,14 @@
       <c r="AH50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI50">
+        <v>7</v>
+      </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3862,14 @@
       <c r="AH51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI51">
+        <v>4</v>
+      </c>
+      <c r="AJ51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -3695,8 +3916,11 @@
       <c r="AG52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -3749,8 +3973,14 @@
       <c r="AH53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI53">
+        <v>2</v>
+      </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -3800,8 +4030,11 @@
       <c r="AG54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -3848,8 +4081,14 @@
       <c r="AH55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI55">
+        <v>5</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -3890,8 +4129,11 @@
       <c r="AG56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -3938,8 +4180,11 @@
       <c r="AG57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -3992,8 +4237,11 @@
       <c r="AG58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -4037,8 +4285,11 @@
       <c r="AG59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -4085,8 +4336,14 @@
       <c r="AG60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI60">
+        <v>8</v>
+      </c>
+      <c r="AJ60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -4133,8 +4390,11 @@
       <c r="AG61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -4214,8 +4474,11 @@
       <c r="AG62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -4271,8 +4534,14 @@
       <c r="AH63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI63">
+        <v>6</v>
+      </c>
+      <c r="AJ63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -4322,8 +4591,11 @@
       <c r="AG64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -4370,8 +4642,11 @@
       <c r="AG65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -4418,8 +4693,11 @@
       <c r="AG66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -4484,8 +4762,14 @@
       <c r="AH67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI67">
+        <v>9</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -4526,8 +4810,11 @@
       <c r="AG68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -4574,8 +4861,11 @@
       <c r="AG69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -4631,8 +4921,11 @@
       <c r="AG70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -4676,8 +4969,11 @@
       <c r="AG71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -4733,8 +5029,14 @@
       <c r="AH72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI72">
+        <v>6</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -4781,8 +5083,11 @@
       <c r="AG73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -4838,8 +5143,11 @@
       <c r="AG74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5194,11 @@
       <c r="AG75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -4958,8 +5269,14 @@
       <c r="AH76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI76">
+        <v>7</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -5009,8 +5326,11 @@
       <c r="AG77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5380,11 @@
       <c r="AG78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -5129,8 +5452,14 @@
       <c r="AH79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI79">
+        <v>7</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -5171,8 +5500,11 @@
       <c r="AG80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -5225,8 +5557,11 @@
       <c r="AG81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -5297,8 +5632,14 @@
       <c r="AH82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI82">
+        <v>7</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -5366,8 +5707,14 @@
       <c r="AH83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI83">
+        <v>5</v>
+      </c>
+      <c r="AJ83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -5435,8 +5782,14 @@
       <c r="AH84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI84">
+        <v>8</v>
+      </c>
+      <c r="AJ84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AH85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI85">
+        <v>5</v>
+      </c>
+      <c r="AJ85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -5555,8 +5914,11 @@
       <c r="AG86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -5627,8 +5989,14 @@
       <c r="AH87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI87">
+        <v>5</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -5681,8 +6049,14 @@
       <c r="AH88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI88">
+        <v>5</v>
+      </c>
+      <c r="AJ88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -5732,8 +6106,11 @@
       <c r="AG89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -5783,8 +6160,11 @@
       <c r="AG90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -5849,8 +6229,14 @@
       <c r="AH91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI91">
+        <v>6</v>
+      </c>
+      <c r="AJ91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -5894,8 +6280,14 @@
       <c r="AH92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI92">
+        <v>5</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -5945,8 +6337,11 @@
       <c r="AG93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -5999,8 +6394,11 @@
       <c r="AG94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -6044,8 +6442,11 @@
       <c r="AG95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -6098,8 +6499,11 @@
       <c r="AG96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -6149,8 +6553,11 @@
       <c r="AG97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -6212,8 +6619,11 @@
       <c r="AG98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -6257,8 +6667,11 @@
       <c r="AG99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -6305,8 +6718,11 @@
       <c r="AG100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -6353,8 +6769,11 @@
       <c r="AG101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -6404,8 +6823,11 @@
       <c r="AG102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -6461,8 +6883,14 @@
       <c r="AH103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI103">
+        <v>4</v>
+      </c>
+      <c r="AJ103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -6503,8 +6931,11 @@
       <c r="AG104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -6551,8 +6982,11 @@
       <c r="AG105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -6617,8 +7051,14 @@
       <c r="AH106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI106">
+        <v>4</v>
+      </c>
+      <c r="AJ106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -6674,8 +7114,14 @@
       <c r="AH107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI107">
+        <v>4</v>
+      </c>
+      <c r="AJ107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -6719,8 +7165,11 @@
       <c r="AG108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -6767,8 +7216,11 @@
       <c r="AG109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -6833,8 +7285,11 @@
       <c r="AG110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -6884,8 +7339,11 @@
       <c r="AG111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -6935,8 +7393,14 @@
       <c r="AH112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI112">
+        <v>7</v>
+      </c>
+      <c r="AJ112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -7001,8 +7465,14 @@
       <c r="AH113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI113">
+        <v>4</v>
+      </c>
+      <c r="AJ113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -7052,8 +7522,11 @@
       <c r="AG114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -7121,8 +7594,14 @@
       <c r="AH115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI115">
+        <v>2</v>
+      </c>
+      <c r="AJ115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -7163,8 +7642,11 @@
       <c r="AG116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -7211,8 +7693,11 @@
       <c r="AG117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -7266,8 +7751,11 @@
       <c r="AG118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -7311,8 +7799,11 @@
       <c r="AG119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -7359,8 +7850,11 @@
       <c r="AG120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -7407,8 +7901,11 @@
       <c r="AG121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -7461,8 +7958,11 @@
       <c r="AG122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -7509,8 +8009,14 @@
       <c r="AG123">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI123">
+        <v>4</v>
+      </c>
+      <c r="AJ123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -7584,8 +8090,14 @@
       <c r="AH124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI124">
+        <v>8</v>
+      </c>
+      <c r="AJ124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -7659,8 +8171,14 @@
       <c r="AH125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI125">
+        <v>1</v>
+      </c>
+      <c r="AJ125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -7713,8 +8231,14 @@
       <c r="AH126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI126">
+        <v>5</v>
+      </c>
+      <c r="AJ126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -7764,8 +8288,14 @@
       <c r="AH127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI127">
+        <v>2</v>
+      </c>
+      <c r="AJ127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -7806,8 +8336,11 @@
       <c r="AG128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -7860,8 +8393,11 @@
       <c r="AG129">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -7914,8 +8450,11 @@
       <c r="AG130">
         <v>5</v>
       </c>
-    </row>
-    <row r="131" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -7956,8 +8495,11 @@
       <c r="AG131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -8001,8 +8543,11 @@
       <c r="AG132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -8049,8 +8594,11 @@
       <c r="AG133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -8106,8 +8654,11 @@
       <c r="AG134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -8154,8 +8705,11 @@
       <c r="AG135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -8202,8 +8756,11 @@
       <c r="AG136">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -8253,8 +8810,11 @@
       <c r="AG137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -8310,8 +8870,14 @@
       <c r="AH138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI138">
+        <v>7</v>
+      </c>
+      <c r="AJ138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -8352,8 +8918,11 @@
       <c r="AG139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -8394,8 +8963,11 @@
       <c r="AG140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -8472,8 +9044,14 @@
       <c r="AH141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI141">
+        <v>7</v>
+      </c>
+      <c r="AJ141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -8547,8 +9125,14 @@
       <c r="AH142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI142">
+        <v>6</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -8589,8 +9173,11 @@
       <c r="AG143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -8634,8 +9221,11 @@
       <c r="AG144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -8685,8 +9275,11 @@
       <c r="AG145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -8754,8 +9347,11 @@
       <c r="AG146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -8811,8 +9407,14 @@
       <c r="AH147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI147">
+        <v>2</v>
+      </c>
+      <c r="AJ147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -8859,8 +9461,11 @@
       <c r="AG148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -8910,8 +9515,14 @@
       <c r="AH149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI149">
+        <v>3</v>
+      </c>
+      <c r="AJ149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -8982,8 +9593,14 @@
       <c r="AH150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI150">
+        <v>8</v>
+      </c>
+      <c r="AJ150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -9024,8 +9641,11 @@
       <c r="AG151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -9066,8 +9686,11 @@
       <c r="AG152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -9114,8 +9737,11 @@
       <c r="AG153">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -9195,8 +9821,14 @@
       <c r="AH154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI154">
+        <v>4</v>
+      </c>
+      <c r="AJ154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -9243,8 +9875,14 @@
       <c r="AH155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI155">
+        <v>7</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -9291,8 +9929,11 @@
       <c r="AG156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -9339,8 +9980,11 @@
       <c r="AG157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -9396,8 +10040,11 @@
       <c r="AG158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -9444,8 +10091,14 @@
       <c r="AH159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI159">
+        <v>4</v>
+      </c>
+      <c r="AJ159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -9492,8 +10145,11 @@
       <c r="AG160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -9564,8 +10220,14 @@
       <c r="AH161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI161">
+        <v>3</v>
+      </c>
+      <c r="AJ161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -9615,8 +10277,11 @@
       <c r="AG162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -9660,8 +10325,14 @@
       <c r="AH163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI163">
+        <v>4</v>
+      </c>
+      <c r="AJ163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -9702,8 +10373,11 @@
       <c r="AG164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -9750,8 +10424,11 @@
       <c r="AG165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -9816,8 +10493,14 @@
       <c r="AH166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI166">
+        <v>3</v>
+      </c>
+      <c r="AJ166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -9858,8 +10541,11 @@
       <c r="AG167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -9912,8 +10598,11 @@
       <c r="AG168">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -9960,8 +10649,11 @@
       <c r="AG169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -10011,8 +10703,11 @@
       <c r="AG170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -10065,8 +10760,14 @@
       <c r="AH171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI171">
+        <v>6</v>
+      </c>
+      <c r="AJ171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -10113,8 +10814,11 @@
       <c r="AG172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -10161,8 +10865,11 @@
       <c r="AG173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -10212,8 +10919,11 @@
       <c r="AG174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -10257,8 +10967,14 @@
       <c r="AH175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI175">
+        <v>8</v>
+      </c>
+      <c r="AJ175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -10299,8 +11015,11 @@
       <c r="AG176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -10347,8 +11066,11 @@
       <c r="AG177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -10401,8 +11123,11 @@
       <c r="AG178">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -10449,8 +11174,14 @@
       <c r="AH179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI179">
+        <v>8</v>
+      </c>
+      <c r="AJ179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -10497,8 +11228,11 @@
       <c r="AG180">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -10545,8 +11279,11 @@
       <c r="AG181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -10596,8 +11333,11 @@
       <c r="AG182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -10658,8 +11398,14 @@
       <c r="AH183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI183">
+        <v>5</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -10705,8 +11451,11 @@
       <c r="AG184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -10752,8 +11501,11 @@
       <c r="AG185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -10799,8 +11551,11 @@
       <c r="AG186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -10843,8 +11598,11 @@
       <c r="AG187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -10890,8 +11648,11 @@
       <c r="AG188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -10955,8 +11716,14 @@
       <c r="AH189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI189">
+        <v>2</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -11011,8 +11778,14 @@
       <c r="AH190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI190">
+        <v>3</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -11067,8 +11840,14 @@
       <c r="AH191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI191">
+        <v>3</v>
+      </c>
+      <c r="AJ191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -11114,8 +11893,11 @@
       <c r="AG192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -11179,8 +11961,14 @@
       <c r="AH193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI193">
+        <v>7</v>
+      </c>
+      <c r="AJ193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -11229,8 +12017,11 @@
       <c r="AG194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -11291,8 +12082,14 @@
       <c r="AH195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI195">
+        <v>2</v>
+      </c>
+      <c r="AJ195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -11359,8 +12156,14 @@
       <c r="AH196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI196">
+        <v>6</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -11415,8 +12218,11 @@
       <c r="AG197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -11462,8 +12268,11 @@
       <c r="AG198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -11512,8 +12321,14 @@
       <c r="AH199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI199">
+        <v>5</v>
+      </c>
+      <c r="AJ199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -11562,8 +12377,11 @@
       <c r="AG200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -11615,8 +12433,14 @@
       <c r="AH201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI201">
+        <v>3</v>
+      </c>
+      <c r="AJ201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -11677,8 +12501,14 @@
       <c r="AH202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI202">
+        <v>0</v>
+      </c>
+      <c r="AJ202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -11727,8 +12557,14 @@
       <c r="AH203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI203">
+        <v>3</v>
+      </c>
+      <c r="AJ203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -11774,8 +12610,11 @@
       <c r="AG204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -11842,8 +12681,14 @@
       <c r="AH205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI205">
+        <v>9</v>
+      </c>
+      <c r="AJ205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -11889,8 +12734,11 @@
       <c r="AG206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -11933,8 +12781,11 @@
       <c r="AG207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -11992,8 +12843,14 @@
       <c r="AH208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI208">
+        <v>2</v>
+      </c>
+      <c r="AJ208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -12039,8 +12896,11 @@
       <c r="AG209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -12104,8 +12964,14 @@
       <c r="AH210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AI210">
+        <v>4</v>
+      </c>
+      <c r="AJ210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -12148,8 +13014,11 @@
       <c r="AG211">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -12195,8 +13064,11 @@
       <c r="AG212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:34" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="AI212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:36" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0342E-3429-CD41-A965-980DFEB39417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E72474-8722-4AE6-A3CF-B637CA5E8092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="63">
   <si>
     <t>seed_species</t>
   </si>
@@ -222,6 +222,14 @@
   <si>
     <t>346_dead</t>
   </si>
+  <si>
+    <t>351_alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>351_dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -231,20 +239,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -308,11 +316,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AJ213" totalsRowShown="0">
-  <autoFilter ref="B2:AJ213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AL213" totalsRowShown="0">
+  <autoFilter ref="B2:AL213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
-        <filter val="TSHE"/>
+        <filter val="THPL"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
@@ -322,11 +330,11 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="0"/>
+        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="35">
+  <tableColumns count="37">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -362,6 +370,8 @@
     <tableColumn id="33" xr3:uid="{ACEF41BE-89B0-5A4A-B6F5-0CCC540F81A1}" name="342_dead"/>
     <tableColumn id="34" xr3:uid="{203A86FF-9E5C-384E-AC11-B6CFB0054DB3}" name="346_alive"/>
     <tableColumn id="35" xr3:uid="{DA827A40-0005-6749-8CFC-10F8ED8DF6F0}" name="346_dead"/>
+    <tableColumn id="36" xr3:uid="{FD8B1013-17A7-4553-A22E-DA149A479E2B}" name="351_alive"/>
+    <tableColumn id="37" xr3:uid="{4E0CF983-5E89-48E7-8FEE-EC7F374187C4}" name="351_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -684,20 +694,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AJ213"/>
+  <dimension ref="B2:AL213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="AI214" sqref="AI214"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AL179" sqref="AL179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" customWidth="1"/>
+    <col min="4" max="4" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -803,8 +813,14 @@
       <c r="AJ2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -877,8 +893,14 @@
       <c r="AJ3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="AI4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1026,14 @@
       <c r="AJ5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK5">
+        <v>6</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1054,8 +1085,11 @@
       <c r="AI6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1101,8 +1135,11 @@
       <c r="AI7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1169,8 +1206,14 @@
       <c r="AJ8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK8">
+        <v>6</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1243,8 +1286,14 @@
       <c r="AJ9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK9">
+        <v>6</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1299,8 +1348,11 @@
       <c r="AI10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1367,8 +1419,14 @@
       <c r="AJ11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK11">
+        <v>6</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1444,8 +1502,14 @@
       <c r="AJ12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1497,8 +1561,11 @@
       <c r="AI13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1571,8 +1638,11 @@
       <c r="AI14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1622,8 +1692,14 @@
       <c r="AI15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK15">
+        <v>7</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1688,8 +1764,11 @@
       <c r="AI16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1751,8 +1830,14 @@
       <c r="AJ17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK17">
+        <v>7</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1799,8 +1884,11 @@
       <c r="AI18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1862,8 +1950,14 @@
       <c r="AJ19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK19">
+        <v>4</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1907,8 +2001,11 @@
       <c r="AI20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -1957,8 +2054,11 @@
       <c r="AI21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2011,8 +2111,11 @@
       <c r="AI22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2059,8 +2162,11 @@
       <c r="AI23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2110,8 +2216,11 @@
       <c r="AI24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2161,8 +2270,11 @@
       <c r="AI25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2257,8 +2369,14 @@
       <c r="AJ26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK26">
+        <v>6</v>
+      </c>
+      <c r="AL26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2308,8 +2426,11 @@
       <c r="AI27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AJ28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK28">
+        <v>8</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2561,11 @@
       <c r="AI29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2491,8 +2621,11 @@
       <c r="AI30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2563,8 +2696,14 @@
       <c r="AJ31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK31">
+        <v>4</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2608,8 +2747,11 @@
       <c r="AI32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -2662,8 +2804,11 @@
       <c r="AI33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -2740,8 +2885,14 @@
       <c r="AJ34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK34">
+        <v>5</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2788,8 +2939,14 @@
       <c r="AI35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK35">
+        <v>5</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -2854,8 +3011,14 @@
       <c r="AI36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK36">
+        <v>7</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -2905,8 +3068,11 @@
       <c r="AI37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -2995,8 +3161,14 @@
       <c r="AJ38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK38">
+        <v>4</v>
+      </c>
+      <c r="AL38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3239,14 @@
       <c r="AJ39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK39">
+        <v>2</v>
+      </c>
+      <c r="AL39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3148,8 +3326,14 @@
       <c r="AJ40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK40">
+        <v>5</v>
+      </c>
+      <c r="AL40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -3199,8 +3383,14 @@
       <c r="AI41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK41">
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -3259,8 +3449,11 @@
       <c r="AI42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -3328,8 +3521,14 @@
       <c r="AJ43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK43">
+        <v>7</v>
+      </c>
+      <c r="AL43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -3373,8 +3572,11 @@
       <c r="AI44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -3469,8 +3671,14 @@
       <c r="AJ45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK45">
+        <v>6</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -3526,8 +3734,11 @@
       <c r="AI46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -3574,8 +3785,11 @@
       <c r="AI47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -3655,8 +3869,14 @@
       <c r="AJ48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK48">
+        <v>7</v>
+      </c>
+      <c r="AL48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -3706,8 +3926,11 @@
       <c r="AI49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -3802,8 +4025,14 @@
       <c r="AJ50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK50">
+        <v>7</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4097,14 @@
       <c r="AJ51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK51">
+        <v>4</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -3919,8 +4154,11 @@
       <c r="AI52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -3979,8 +4217,14 @@
       <c r="AJ53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK53">
+        <v>2</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -4033,8 +4277,11 @@
       <c r="AI54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -4087,8 +4334,14 @@
       <c r="AJ55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK55">
+        <v>4</v>
+      </c>
+      <c r="AL55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -4132,8 +4385,11 @@
       <c r="AI56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -4183,8 +4439,11 @@
       <c r="AI57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -4240,8 +4499,11 @@
       <c r="AI58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -4288,8 +4550,11 @@
       <c r="AI59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -4342,8 +4607,14 @@
       <c r="AJ60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK60">
+        <v>8</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -4393,8 +4664,11 @@
       <c r="AI61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -4477,8 +4751,14 @@
       <c r="AI62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK62">
+        <v>3</v>
+      </c>
+      <c r="AL62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -4540,8 +4820,14 @@
       <c r="AJ63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK63">
+        <v>6</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4880,11 @@
       <c r="AI64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -4645,8 +4934,11 @@
       <c r="AI65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -4696,8 +4988,11 @@
       <c r="AI66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -4768,8 +5063,14 @@
       <c r="AJ67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK67">
+        <v>9</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -4813,8 +5114,11 @@
       <c r="AI68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -4864,8 +5168,11 @@
       <c r="AI69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -4924,8 +5231,11 @@
       <c r="AI70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -4972,8 +5282,14 @@
       <c r="AI71">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK71">
+        <v>9</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -5035,8 +5351,14 @@
       <c r="AJ72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK72">
+        <v>6</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -5086,8 +5408,14 @@
       <c r="AI73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK73">
+        <v>7</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -5146,8 +5474,11 @@
       <c r="AI74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -5197,8 +5528,14 @@
       <c r="AI75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK75">
+        <v>6</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -5275,8 +5612,14 @@
       <c r="AJ76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK76">
+        <v>7</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -5329,8 +5672,11 @@
       <c r="AI77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -5383,8 +5729,11 @@
       <c r="AI78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -5458,8 +5807,14 @@
       <c r="AJ79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK79">
+        <v>7</v>
+      </c>
+      <c r="AL79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -5503,8 +5858,14 @@
       <c r="AI80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK80">
+        <v>9</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -5560,8 +5921,14 @@
       <c r="AI81">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK81">
+        <v>5</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -5638,8 +6005,14 @@
       <c r="AJ82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK82">
+        <v>6</v>
+      </c>
+      <c r="AL82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -5713,8 +6086,14 @@
       <c r="AJ83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK83">
+        <v>5</v>
+      </c>
+      <c r="AL83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -5788,8 +6167,14 @@
       <c r="AJ84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK84">
+        <v>7</v>
+      </c>
+      <c r="AL84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -5857,8 +6242,14 @@
       <c r="AJ85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK85">
+        <v>4</v>
+      </c>
+      <c r="AL85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -5917,8 +6308,11 @@
       <c r="AI86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -5995,8 +6389,14 @@
       <c r="AJ87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK87">
+        <v>5</v>
+      </c>
+      <c r="AL87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -6055,8 +6455,14 @@
       <c r="AJ88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK88">
+        <v>5</v>
+      </c>
+      <c r="AL88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -6109,8 +6515,11 @@
       <c r="AI89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -6163,8 +6572,11 @@
       <c r="AI90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -6235,8 +6647,14 @@
       <c r="AJ91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK91">
+        <v>5</v>
+      </c>
+      <c r="AL91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -6286,8 +6704,14 @@
       <c r="AJ92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK92">
+        <v>5</v>
+      </c>
+      <c r="AL92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -6340,8 +6764,11 @@
       <c r="AI93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -6397,8 +6824,11 @@
       <c r="AI94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -6445,8 +6875,11 @@
       <c r="AI95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -6502,8 +6935,14 @@
       <c r="AI96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK96">
+        <v>8</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -6556,8 +6995,11 @@
       <c r="AI97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -6622,8 +7064,14 @@
       <c r="AI98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK98">
+        <v>4</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -6670,8 +7118,11 @@
       <c r="AI99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -6721,8 +7172,11 @@
       <c r="AI100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -6772,8 +7226,11 @@
       <c r="AI101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -6826,8 +7283,11 @@
       <c r="AI102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -6889,8 +7349,14 @@
       <c r="AJ103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK103">
+        <v>4</v>
+      </c>
+      <c r="AL103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -6934,8 +7400,11 @@
       <c r="AI104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -6985,8 +7454,14 @@
       <c r="AI105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK105">
+        <v>4</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -7057,8 +7532,14 @@
       <c r="AJ106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK106">
+        <v>5</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -7120,8 +7601,14 @@
       <c r="AJ107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK107">
+        <v>4</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -7168,8 +7655,11 @@
       <c r="AI108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -7219,8 +7709,14 @@
       <c r="AI109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK109">
+        <v>7</v>
+      </c>
+      <c r="AL109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -7288,8 +7784,11 @@
       <c r="AI110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -7342,8 +7841,11 @@
       <c r="AI111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -7399,8 +7901,14 @@
       <c r="AJ112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK112">
+        <v>7</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -7471,8 +7979,11 @@
       <c r="AJ113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -7525,8 +8036,14 @@
       <c r="AI114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK114">
+        <v>6</v>
+      </c>
+      <c r="AL114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -7600,8 +8117,14 @@
       <c r="AJ115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK115">
+        <v>2</v>
+      </c>
+      <c r="AL115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -7645,8 +8168,11 @@
       <c r="AI116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -7696,8 +8222,14 @@
       <c r="AI117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK117">
+        <v>3</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -7754,8 +8286,11 @@
       <c r="AI118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -7802,8 +8337,11 @@
       <c r="AI119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -7853,8 +8391,11 @@
       <c r="AI120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -7904,8 +8445,11 @@
       <c r="AI121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -7961,8 +8505,11 @@
       <c r="AI122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -8015,8 +8562,14 @@
       <c r="AJ123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK123">
+        <v>4</v>
+      </c>
+      <c r="AL123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -8096,8 +8649,14 @@
       <c r="AJ124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK124">
+        <v>7</v>
+      </c>
+      <c r="AL124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -8177,8 +8736,14 @@
       <c r="AJ125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -8237,8 +8802,14 @@
       <c r="AJ126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK126">
+        <v>5</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -8294,8 +8865,14 @@
       <c r="AJ127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK127">
+        <v>2</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -8339,8 +8916,11 @@
       <c r="AI128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -8396,8 +8976,14 @@
       <c r="AI129">
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK129">
+        <v>4</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -8453,8 +9039,11 @@
       <c r="AI130">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -8498,8 +9087,14 @@
       <c r="AI131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK131">
+        <v>6</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -8546,8 +9141,11 @@
       <c r="AI132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -8597,8 +9195,14 @@
       <c r="AI133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK133">
+        <v>5</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -8657,8 +9261,11 @@
       <c r="AI134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -8708,8 +9315,11 @@
       <c r="AI135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -8759,8 +9369,11 @@
       <c r="AI136">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -8813,8 +9426,14 @@
       <c r="AI137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK137">
+        <v>4</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -8876,8 +9495,14 @@
       <c r="AJ138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK138">
+        <v>7</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -8921,8 +9546,14 @@
       <c r="AI139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK139">
+        <v>5</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -8966,8 +9597,11 @@
       <c r="AI140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -9050,8 +9684,14 @@
       <c r="AJ141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK141">
+        <v>4</v>
+      </c>
+      <c r="AL141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -9131,8 +9771,14 @@
       <c r="AJ142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK142">
+        <v>6</v>
+      </c>
+      <c r="AL142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -9176,8 +9822,11 @@
       <c r="AI143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -9224,8 +9873,11 @@
       <c r="AI144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -9278,8 +9930,11 @@
       <c r="AI145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -9350,8 +10005,14 @@
       <c r="AI146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK146">
+        <v>8</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -9413,8 +10074,14 @@
       <c r="AJ147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK147">
+        <v>1</v>
+      </c>
+      <c r="AL147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -9464,8 +10131,11 @@
       <c r="AI148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -9521,8 +10191,14 @@
       <c r="AJ149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK149">
+        <v>3</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -9599,8 +10275,14 @@
       <c r="AJ150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK150">
+        <v>8</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -9644,8 +10326,11 @@
       <c r="AI151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -9689,8 +10374,11 @@
       <c r="AI152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -9740,8 +10428,14 @@
       <c r="AI153">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK153">
+        <v>5</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -9827,8 +10521,14 @@
       <c r="AJ154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK154">
+        <v>4</v>
+      </c>
+      <c r="AL154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -9881,8 +10581,14 @@
       <c r="AJ155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK155">
+        <v>7</v>
+      </c>
+      <c r="AL155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -9932,8 +10638,11 @@
       <c r="AI156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -9983,8 +10692,14 @@
       <c r="AI157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK157">
+        <v>4</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -10043,8 +10758,11 @@
       <c r="AI158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -10097,8 +10815,14 @@
       <c r="AJ159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK159">
+        <v>4</v>
+      </c>
+      <c r="AL159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -10148,8 +10872,11 @@
       <c r="AI160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -10226,8 +10953,14 @@
       <c r="AJ161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK161">
+        <v>2</v>
+      </c>
+      <c r="AL161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -10280,8 +11013,11 @@
       <c r="AI162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -10331,8 +11067,14 @@
       <c r="AJ163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK163">
+        <v>4</v>
+      </c>
+      <c r="AL163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -10376,8 +11118,11 @@
       <c r="AI164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -10427,8 +11172,14 @@
       <c r="AI165">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK165">
+        <v>4</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -10499,8 +11250,14 @@
       <c r="AJ166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK166">
+        <v>3</v>
+      </c>
+      <c r="AL166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -10544,8 +11301,11 @@
       <c r="AI167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -10601,8 +11361,14 @@
       <c r="AI168">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK168">
+        <v>9</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -10652,8 +11418,11 @@
       <c r="AI169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -10706,8 +11475,11 @@
       <c r="AI170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -10766,8 +11538,14 @@
       <c r="AJ171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AK171">
+        <v>5</v>
+      </c>
+      <c r="AL171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -10817,8 +11595,11 @@
       <c r="AI172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -10868,8 +11649,11 @@
       <c r="AI173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -10922,8 +11706,11 @@
       <c r="AI174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -10973,8 +11760,14 @@
       <c r="AJ175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK175">
+        <v>8</v>
+      </c>
+      <c r="AL175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -11018,8 +11811,11 @@
       <c r="AI176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -11069,8 +11865,11 @@
       <c r="AI177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -11126,8 +11925,11 @@
       <c r="AI178">
         <v>6</v>
       </c>
-    </row>
-    <row r="179" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -11180,8 +11982,14 @@
       <c r="AJ179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK179">
+        <v>7</v>
+      </c>
+      <c r="AL179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -11231,8 +12039,11 @@
       <c r="AI180">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -11282,8 +12093,14 @@
       <c r="AI181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK181">
+        <v>5</v>
+      </c>
+      <c r="AL181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -11336,8 +12153,11 @@
       <c r="AI182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -11404,8 +12224,14 @@
       <c r="AJ183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK183">
+        <v>5</v>
+      </c>
+      <c r="AL183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -11454,8 +12280,11 @@
       <c r="AI184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -11504,8 +12333,14 @@
       <c r="AI185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK185">
+        <v>3</v>
+      </c>
+      <c r="AL185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -11554,8 +12389,11 @@
       <c r="AI186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -11601,8 +12439,11 @@
       <c r="AI187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -11651,8 +12492,14 @@
       <c r="AI188">
         <v>10</v>
       </c>
-    </row>
-    <row r="189" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK188">
+        <v>9</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -11722,8 +12569,14 @@
       <c r="AJ189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK189">
+        <v>2</v>
+      </c>
+      <c r="AL189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -11784,8 +12637,14 @@
       <c r="AJ190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK190">
+        <v>3</v>
+      </c>
+      <c r="AL190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -11846,8 +12705,14 @@
       <c r="AJ191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK191">
+        <v>1</v>
+      </c>
+      <c r="AL191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -11896,8 +12761,14 @@
       <c r="AI192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK192">
+        <v>1</v>
+      </c>
+      <c r="AL192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -11967,8 +12838,14 @@
       <c r="AJ193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK193">
+        <v>6</v>
+      </c>
+      <c r="AL193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -12020,8 +12897,11 @@
       <c r="AI194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -12088,8 +12968,14 @@
       <c r="AJ195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK195">
+        <v>2</v>
+      </c>
+      <c r="AL195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -12162,8 +13048,14 @@
       <c r="AJ196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK196">
+        <v>5</v>
+      </c>
+      <c r="AL196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -12221,8 +13113,11 @@
       <c r="AI197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -12271,8 +13166,11 @@
       <c r="AI198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -12327,8 +13225,14 @@
       <c r="AJ199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK199">
+        <v>5</v>
+      </c>
+      <c r="AL199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -12380,8 +13284,11 @@
       <c r="AI200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -12439,8 +13346,14 @@
       <c r="AJ201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK201">
+        <v>3</v>
+      </c>
+      <c r="AL201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -12507,8 +13420,14 @@
       <c r="AJ202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK202">
+        <v>0</v>
+      </c>
+      <c r="AL202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -12563,8 +13482,14 @@
       <c r="AJ203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK203">
+        <v>3</v>
+      </c>
+      <c r="AL203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -12613,8 +13538,11 @@
       <c r="AI204">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -12687,8 +13615,14 @@
       <c r="AJ205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK205">
+        <v>9</v>
+      </c>
+      <c r="AL205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -12737,8 +13671,11 @@
       <c r="AI206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -12784,8 +13721,11 @@
       <c r="AI207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -12849,8 +13789,14 @@
       <c r="AJ208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK208">
+        <v>2</v>
+      </c>
+      <c r="AL208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -12899,8 +13845,14 @@
       <c r="AI209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK209">
+        <v>4</v>
+      </c>
+      <c r="AL209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -12970,8 +13922,14 @@
       <c r="AJ210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK210">
+        <v>4</v>
+      </c>
+      <c r="AL210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -13017,8 +13975,14 @@
       <c r="AI211">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="2:36" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AK211">
+        <v>4</v>
+      </c>
+      <c r="AL211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -13067,8 +14031,14 @@
       <c r="AI212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:36" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="AK212">
+        <v>4</v>
+      </c>
+      <c r="AL212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:38" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E72474-8722-4AE6-A3CF-B637CA5E8092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DBB32C-43A4-4D03-823A-A9DCF38990C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="69">
   <si>
     <t>seed_species</t>
   </si>
@@ -148,13 +148,7 @@
     <t>321_dead</t>
   </si>
   <si>
-    <t>doy317: some germinants showing browning on leaves; doy321: browning worse, one seed has green mold</t>
-  </si>
-  <si>
     <t>doy296: mold on soil; doy321: mold on some germinants</t>
-  </si>
-  <si>
-    <t>doy321: germinant covered in mold</t>
   </si>
   <si>
     <t>324_alive</t>
@@ -172,19 +166,10 @@
     <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy328: previously dead germinant is still quite green, so marking as alive this week</t>
   </si>
   <si>
-    <t>doy328: could not find dead germinant, but assumed its there since all 3 look healthy</t>
-  </si>
-  <si>
     <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy310: germinant not dead but unhealthy; doy328: dead germinant appears to still be alive, very green</t>
   </si>
   <si>
     <t>doy328: could not find dead germinant, but assumed its there since all 5 look healthy</t>
-  </si>
-  <si>
-    <t>doy296: mold on soil; doy328: could not find dead germinants, but they were assumed</t>
-  </si>
-  <si>
-    <t>doy328: dead germinants very hard to see</t>
   </si>
   <si>
     <t>331_alive</t>
@@ -200,9 +185,6 @@
   </si>
   <si>
     <t>doy296: mold on soil; doy303: no obvious signs of mold on soil; doy321: previous count invalid, germinants not dead; doy335: previously thought dead germinant seems to be alive, just sideways</t>
-  </si>
-  <si>
-    <t>doy335: one of germinants on 331 was not focal species</t>
   </si>
   <si>
     <t>338_alive</t>
@@ -228,6 +210,54 @@
   </si>
   <si>
     <t>351_dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>358_dead2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>358_alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy335: one of germinants on 331 was not focal species; doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy321: germinant covered in mold; doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy296: less mold on soil; doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy296: mold on soil; doy328: could not find dead germinants, but they were assumed; doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy328: could not find dead germinant, but assumed its there since all 3 look healthy; doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy317: some germinants showing browning on leaves; doy321: browning worse, one seed has green mold; doy 358: green moss?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy328: dead germinants very hard to see; doy 358: green moss?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AL213" totalsRowShown="0">
-  <autoFilter ref="B2:AL213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AN213" totalsRowShown="0">
+  <autoFilter ref="B2:AN213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="THPL"/>
@@ -334,7 +364,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="37">
+  <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -372,6 +402,8 @@
     <tableColumn id="35" xr3:uid="{DA827A40-0005-6749-8CFC-10F8ED8DF6F0}" name="346_dead"/>
     <tableColumn id="36" xr3:uid="{FD8B1013-17A7-4553-A22E-DA149A479E2B}" name="351_alive"/>
     <tableColumn id="37" xr3:uid="{4E0CF983-5E89-48E7-8FEE-EC7F374187C4}" name="351_dead"/>
+    <tableColumn id="38" xr3:uid="{24DFCEB5-9EBF-4889-BF53-BBA7F1ED10C8}" name="358_alive"/>
+    <tableColumn id="39" xr3:uid="{26B0383B-95B6-4DD5-B7B4-685313FCC697}" name="358_dead2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -694,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AL213"/>
+  <dimension ref="B2:AN213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AL179" sqref="AL179"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -707,7 +739,7 @@
     <col min="4" max="4" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -772,55 +804,61 @@
         <v>35</v>
       </c>
       <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
       <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AL2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AM2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +937,14 @@
       <c r="AL3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -913,6 +957,9 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
       <c r="M4">
         <v>1</v>
       </c>
@@ -952,8 +999,11 @@
       <c r="AK4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1032,8 +1082,14 @@
       <c r="AL5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1088,8 +1144,11 @@
       <c r="AK6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1138,8 +1197,11 @@
       <c r="AK7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1212,8 +1274,14 @@
       <c r="AL8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM8">
+        <v>6</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1292,8 +1360,14 @@
       <c r="AL9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM9">
+        <v>6</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1351,8 +1425,11 @@
       <c r="AK10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1502,14 @@
       <c r="AL11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM11">
+        <v>6</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1508,8 +1591,14 @@
       <c r="AL12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM12">
+        <v>5</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1564,8 +1653,11 @@
       <c r="AK13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1641,8 +1733,11 @@
       <c r="AK14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1656,6 +1751,9 @@
         <f t="shared" ref="E15:E20" si="0">E3+1</f>
         <v>2</v>
       </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
       <c r="M15">
         <v>2</v>
       </c>
@@ -1698,8 +1796,14 @@
       <c r="AL15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM15">
+        <v>7</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1767,8 +1871,11 @@
       <c r="AK16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1836,8 +1943,14 @@
       <c r="AL17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM17">
+        <v>7</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -1887,8 +2000,11 @@
       <c r="AK18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1902,6 +2018,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
       <c r="Q19">
         <v>4</v>
       </c>
@@ -1956,8 +2075,14 @@
       <c r="AL19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM19">
+        <v>4</v>
+      </c>
+      <c r="AN19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2004,8 +2129,11 @@
       <c r="AK20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2057,8 +2185,11 @@
       <c r="AK21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2114,8 +2245,11 @@
       <c r="AK22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2165,8 +2299,11 @@
       <c r="AK23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2219,8 +2356,11 @@
       <c r="AK24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2273,8 +2413,11 @@
       <c r="AK25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2370,13 +2513,16 @@
         <v>1</v>
       </c>
       <c r="AK26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2390,6 +2536,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
       <c r="M27">
         <v>4</v>
       </c>
@@ -2429,8 +2578,11 @@
       <c r="AK27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2662,14 @@
       <c r="AL28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM28">
+        <v>8</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2564,8 +2722,11 @@
       <c r="AK29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2624,8 +2785,11 @@
       <c r="AK30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2702,8 +2866,14 @@
       <c r="AL31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2750,8 +2920,11 @@
       <c r="AK32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -2807,8 +2980,11 @@
       <c r="AK33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2891,8 +3067,11 @@
       <c r="AL34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -2906,6 +3085,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
       <c r="O35">
         <v>2</v>
       </c>
@@ -2940,13 +3122,19 @@
         <v>7</v>
       </c>
       <c r="AK35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>7</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -2961,7 +3149,7 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3012,13 +3200,13 @@
         <v>8</v>
       </c>
       <c r="AK36">
-        <v>7</v>
-      </c>
-      <c r="AL36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="AM36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3071,8 +3259,11 @@
       <c r="AK37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3167,8 +3358,14 @@
       <c r="AL38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM38">
+        <v>4</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3240,13 +3437,19 @@
         <v>1</v>
       </c>
       <c r="AK39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AM39">
+        <v>4</v>
+      </c>
+      <c r="AN39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3260,6 +3463,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
       <c r="M40">
         <v>1</v>
       </c>
@@ -3332,8 +3538,14 @@
       <c r="AL40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM40">
+        <v>7</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -3389,8 +3601,14 @@
       <c r="AL41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM41">
+        <v>5</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -3452,8 +3670,11 @@
       <c r="AK42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -3527,8 +3748,14 @@
       <c r="AL43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM43">
+        <v>7</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -3575,8 +3802,11 @@
       <c r="AK44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -3677,8 +3907,14 @@
       <c r="AL45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM45">
+        <v>7</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -3737,8 +3973,11 @@
       <c r="AK46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -3752,6 +3991,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
       <c r="O47">
         <v>1</v>
       </c>
@@ -3788,8 +4030,11 @@
       <c r="AK47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -3875,8 +4120,14 @@
       <c r="AL48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM48">
+        <v>7</v>
+      </c>
+      <c r="AN48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -3929,8 +4180,11 @@
       <c r="AK49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -4031,8 +4285,14 @@
       <c r="AL50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM50">
+        <v>7</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -4046,6 +4306,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
       <c r="M51">
         <v>0</v>
       </c>
@@ -4103,8 +4366,14 @@
       <c r="AL51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM51">
+        <v>4</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -4157,8 +4426,11 @@
       <c r="AK52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -4223,8 +4495,14 @@
       <c r="AL53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM53">
+        <v>2</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -4280,8 +4558,11 @@
       <c r="AK54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -4340,8 +4621,14 @@
       <c r="AL55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM55">
+        <v>4</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -4388,8 +4675,11 @@
       <c r="AK56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -4442,8 +4732,11 @@
       <c r="AK57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -4502,8 +4795,11 @@
       <c r="AK58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -4553,8 +4849,11 @@
       <c r="AK59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -4613,8 +4912,14 @@
       <c r="AL60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM60">
+        <v>7</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -4667,8 +4972,11 @@
       <c r="AK61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -4683,7 +4991,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -4757,8 +5065,14 @@
       <c r="AL62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM62">
+        <v>3</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -4773,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -4826,8 +5140,14 @@
       <c r="AL63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM63">
+        <v>6</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -4883,8 +5203,11 @@
       <c r="AK64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -4937,8 +5260,11 @@
       <c r="AK65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -4991,8 +5317,11 @@
       <c r="AK66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -5069,8 +5398,14 @@
       <c r="AL67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM67">
+        <v>8</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -5117,8 +5452,11 @@
       <c r="AK68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -5171,8 +5509,11 @@
       <c r="AK69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -5234,8 +5575,11 @@
       <c r="AK70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -5249,6 +5593,9 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="F71" t="s">
+        <v>59</v>
+      </c>
       <c r="O71">
         <v>4</v>
       </c>
@@ -5288,8 +5635,14 @@
       <c r="AL71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM71">
+        <v>9</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -5304,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O72">
         <v>2</v>
@@ -5357,8 +5710,14 @@
       <c r="AL72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM72">
+        <v>6</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -5409,13 +5768,13 @@
         <v>8</v>
       </c>
       <c r="AK73">
-        <v>7</v>
-      </c>
-      <c r="AL73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="AM73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -5477,8 +5836,11 @@
       <c r="AK74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -5492,6 +5854,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="F75" t="s">
+        <v>59</v>
+      </c>
       <c r="M75">
         <v>1</v>
       </c>
@@ -5529,13 +5894,13 @@
         <v>7</v>
       </c>
       <c r="AK75">
-        <v>6</v>
-      </c>
-      <c r="AL75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="AM75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -5549,6 +5914,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="F76" t="s">
+        <v>59</v>
+      </c>
       <c r="M76">
         <v>1</v>
       </c>
@@ -5618,8 +5986,14 @@
       <c r="AL76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM76">
+        <v>7</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -5675,8 +6049,11 @@
       <c r="AK77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -5732,8 +6109,11 @@
       <c r="AK78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -5813,8 +6193,14 @@
       <c r="AL79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM79">
+        <v>7</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -5864,8 +6250,14 @@
       <c r="AL80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM80">
+        <v>9</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -5927,8 +6319,14 @@
       <c r="AL81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM81">
+        <v>5</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -6011,8 +6409,14 @@
       <c r="AL82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM82">
+        <v>7</v>
+      </c>
+      <c r="AN82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -6027,7 +6431,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O83">
         <v>2</v>
@@ -6092,8 +6496,14 @@
       <c r="AL83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM83">
+        <v>5</v>
+      </c>
+      <c r="AN83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -6108,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="O84">
         <v>2</v>
@@ -6173,8 +6583,14 @@
       <c r="AL84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM84">
+        <v>7</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -6188,6 +6604,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="F85" t="s">
+        <v>59</v>
+      </c>
       <c r="M85">
         <v>3</v>
       </c>
@@ -6243,13 +6662,19 @@
         <v>1</v>
       </c>
       <c r="AK85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AM85">
+        <v>5</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -6311,8 +6736,11 @@
       <c r="AK86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -6327,7 +6755,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -6395,8 +6823,14 @@
       <c r="AL87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM87">
+        <v>5</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -6410,6 +6844,9 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
+      <c r="F88" t="s">
+        <v>59</v>
+      </c>
       <c r="M88">
         <v>0</v>
       </c>
@@ -6461,8 +6898,14 @@
       <c r="AL88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM88">
+        <v>5</v>
+      </c>
+      <c r="AN88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -6518,8 +6961,11 @@
       <c r="AK89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -6575,8 +7021,11 @@
       <c r="AK90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -6653,8 +7102,14 @@
       <c r="AL91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM91">
+        <v>6</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -6710,8 +7165,14 @@
       <c r="AL92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM92">
+        <v>5</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -6767,8 +7228,11 @@
       <c r="AK93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -6827,8 +7291,11 @@
       <c r="AK94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -6842,6 +7309,9 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
+      <c r="F95" t="s">
+        <v>59</v>
+      </c>
       <c r="O95">
         <v>2</v>
       </c>
@@ -6878,8 +7348,11 @@
       <c r="AK95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -6894,7 +7367,7 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -6941,8 +7414,14 @@
       <c r="AL96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM96">
+        <v>8</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -6998,8 +7477,11 @@
       <c r="AK97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -7065,13 +7547,13 @@
         <v>5</v>
       </c>
       <c r="AK98">
-        <v>4</v>
-      </c>
-      <c r="AL98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="AM98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -7121,8 +7603,11 @@
       <c r="AK99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -7175,8 +7660,11 @@
       <c r="AK100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -7190,6 +7678,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
+      <c r="F101" t="s">
+        <v>59</v>
+      </c>
       <c r="M101">
         <v>1</v>
       </c>
@@ -7229,8 +7720,11 @@
       <c r="AK101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -7286,8 +7780,11 @@
       <c r="AK102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -7301,6 +7798,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
+      <c r="F103" t="s">
+        <v>59</v>
+      </c>
       <c r="Q103">
         <v>1</v>
       </c>
@@ -7355,8 +7855,14 @@
       <c r="AL103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM103">
+        <v>4</v>
+      </c>
+      <c r="AN103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -7403,8 +7909,11 @@
       <c r="AK104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -7460,8 +7969,14 @@
       <c r="AL105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM105">
+        <v>4</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -7538,8 +8053,14 @@
       <c r="AL106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM106">
+        <v>5</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -7607,8 +8128,14 @@
       <c r="AL107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM107">
+        <v>4</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -7658,8 +8185,11 @@
       <c r="AK108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -7715,8 +8245,14 @@
       <c r="AL109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM109">
+        <v>7</v>
+      </c>
+      <c r="AN109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -7731,7 +8267,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -7787,8 +8323,11 @@
       <c r="AK110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -7844,8 +8383,11 @@
       <c r="AK111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -7907,8 +8449,14 @@
       <c r="AL112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM112">
+        <v>7</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -7982,8 +8530,17 @@
       <c r="AK113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AL113">
+        <v>2</v>
+      </c>
+      <c r="AM113">
+        <v>4</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -8037,13 +8594,13 @@
         <v>8</v>
       </c>
       <c r="AK114">
-        <v>6</v>
-      </c>
-      <c r="AL114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="AM114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -8058,7 +8615,7 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="O115">
         <v>2</v>
@@ -8123,8 +8680,14 @@
       <c r="AL115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM115">
+        <v>2</v>
+      </c>
+      <c r="AN115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -8171,8 +8734,11 @@
       <c r="AK116">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -8228,8 +8794,14 @@
       <c r="AL117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM117">
+        <v>2</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -8289,8 +8861,11 @@
       <c r="AK118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -8340,8 +8915,11 @@
       <c r="AK119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -8394,8 +8972,11 @@
       <c r="AK120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -8409,6 +8990,9 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="F121" t="s">
+        <v>60</v>
+      </c>
       <c r="M121">
         <v>3</v>
       </c>
@@ -8448,8 +9032,11 @@
       <c r="AK121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -8508,8 +9095,11 @@
       <c r="AK122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -8568,8 +9158,14 @@
       <c r="AL123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM123">
+        <v>4</v>
+      </c>
+      <c r="AN123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -8655,8 +9251,14 @@
       <c r="AL124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM124">
+        <v>7</v>
+      </c>
+      <c r="AN124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -8671,7 +9273,7 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M125">
         <v>2</v>
@@ -8742,8 +9344,14 @@
       <c r="AL125">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -8808,8 +9416,14 @@
       <c r="AL126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM126">
+        <v>5</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -8871,8 +9485,14 @@
       <c r="AL127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -8919,8 +9539,11 @@
       <c r="AK128">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -8982,8 +9605,14 @@
       <c r="AL129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM129">
+        <v>4</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -9042,8 +9671,11 @@
       <c r="AK130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -9057,6 +9689,9 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="F131" t="s">
+        <v>59</v>
+      </c>
       <c r="Q131">
         <v>2</v>
       </c>
@@ -9093,8 +9728,14 @@
       <c r="AL131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM131">
+        <v>7</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -9144,8 +9785,11 @@
       <c r="AK132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -9196,13 +9840,13 @@
         <v>6</v>
       </c>
       <c r="AK133">
-        <v>5</v>
-      </c>
-      <c r="AL133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="AM133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -9264,8 +9908,11 @@
       <c r="AK134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -9318,8 +9965,11 @@
       <c r="AK135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -9372,8 +10022,11 @@
       <c r="AK136">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -9427,13 +10080,13 @@
         <v>5</v>
       </c>
       <c r="AK137">
-        <v>4</v>
-      </c>
-      <c r="AL137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="AM137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -9501,8 +10154,14 @@
       <c r="AL138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM138">
+        <v>7</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -9552,8 +10211,14 @@
       <c r="AL139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM139">
+        <v>5</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -9600,8 +10265,11 @@
       <c r="AK140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -9685,13 +10353,19 @@
         <v>1</v>
       </c>
       <c r="AK141">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL141">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AM141">
+        <v>6</v>
+      </c>
+      <c r="AN141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -9777,8 +10451,14 @@
       <c r="AL142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM142">
+        <v>6</v>
+      </c>
+      <c r="AN142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -9825,8 +10505,11 @@
       <c r="AK143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -9876,8 +10559,11 @@
       <c r="AK144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -9933,8 +10619,11 @@
       <c r="AK145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -10011,8 +10700,14 @@
       <c r="AL146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM146">
+        <v>9</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -10026,6 +10721,9 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
+      <c r="F147" t="s">
+        <v>59</v>
+      </c>
       <c r="O147">
         <v>0</v>
       </c>
@@ -10075,13 +10773,19 @@
         <v>1</v>
       </c>
       <c r="AK147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AM147">
+        <v>2</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -10134,8 +10838,11 @@
       <c r="AK148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -10197,8 +10904,14 @@
       <c r="AL149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM149">
+        <v>3</v>
+      </c>
+      <c r="AN149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -10281,8 +10994,14 @@
       <c r="AL150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM150">
+        <v>8</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -10296,6 +11015,9 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
+      <c r="F151" t="s">
+        <v>59</v>
+      </c>
       <c r="Q151">
         <v>1</v>
       </c>
@@ -10329,8 +11051,11 @@
       <c r="AK151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -10377,8 +11102,11 @@
       <c r="AK152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -10429,13 +11157,19 @@
         <v>6</v>
       </c>
       <c r="AK153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AM153">
+        <v>6</v>
+      </c>
+      <c r="AN153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -10450,7 +11184,7 @@
         <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -10527,8 +11261,14 @@
       <c r="AL154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM154">
+        <v>4</v>
+      </c>
+      <c r="AN154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -10587,8 +11327,14 @@
       <c r="AL155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM155">
+        <v>7</v>
+      </c>
+      <c r="AN155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -10641,8 +11387,11 @@
       <c r="AK156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -10656,6 +11405,9 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
+      <c r="F157" t="s">
+        <v>59</v>
+      </c>
       <c r="M157">
         <v>3</v>
       </c>
@@ -10693,13 +11445,13 @@
         <v>5</v>
       </c>
       <c r="AK157">
-        <v>4</v>
-      </c>
-      <c r="AL157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="AM157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -10761,8 +11513,11 @@
       <c r="AK158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -10821,8 +11576,14 @@
       <c r="AL159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM159">
+        <v>4</v>
+      </c>
+      <c r="AN159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -10875,8 +11636,11 @@
       <c r="AK160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -10954,13 +11718,19 @@
         <v>3</v>
       </c>
       <c r="AK161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="AM161">
+        <v>3</v>
+      </c>
+      <c r="AN161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -11016,8 +11786,11 @@
       <c r="AK162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -11073,8 +11846,14 @@
       <c r="AL163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM163">
+        <v>5</v>
+      </c>
+      <c r="AN163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -11121,8 +11900,11 @@
       <c r="AK164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -11178,8 +11960,14 @@
       <c r="AL165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM165">
+        <v>4</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -11256,8 +12044,14 @@
       <c r="AL166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM166">
+        <v>5</v>
+      </c>
+      <c r="AN166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -11304,8 +12098,11 @@
       <c r="AK167">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -11367,8 +12164,14 @@
       <c r="AL168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM168">
+        <v>9</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -11382,6 +12185,9 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
+      <c r="F169" t="s">
+        <v>59</v>
+      </c>
       <c r="M169">
         <v>2</v>
       </c>
@@ -11421,8 +12227,11 @@
       <c r="AK169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -11478,8 +12287,11 @@
       <c r="AK170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -11493,6 +12305,9 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
+      <c r="F171" t="s">
+        <v>59</v>
+      </c>
       <c r="O171">
         <v>2</v>
       </c>
@@ -11544,8 +12359,14 @@
       <c r="AL171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM171">
+        <v>5</v>
+      </c>
+      <c r="AN171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -11598,8 +12419,11 @@
       <c r="AK172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -11652,8 +12476,11 @@
       <c r="AK173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -11709,8 +12536,11 @@
       <c r="AK174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -11766,8 +12596,14 @@
       <c r="AL175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM175">
+        <v>8</v>
+      </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -11814,8 +12650,11 @@
       <c r="AK176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -11868,8 +12707,11 @@
       <c r="AK177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -11884,7 +12726,7 @@
         <v>15</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="K178">
         <v>1</v>
@@ -11928,8 +12770,11 @@
       <c r="AK178">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AM178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -11988,8 +12833,14 @@
       <c r="AL179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM179">
+        <v>7</v>
+      </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -12042,8 +12893,14 @@
       <c r="AK180">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM180">
+        <v>7</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -12094,13 +12951,13 @@
         <v>7</v>
       </c>
       <c r="AK181">
-        <v>5</v>
-      </c>
-      <c r="AL181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="AM181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -12156,8 +13013,11 @@
       <c r="AK182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -12171,7 +13031,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -12230,8 +13090,14 @@
       <c r="AL183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM183">
+        <v>5</v>
+      </c>
+      <c r="AN183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -12283,8 +13149,11 @@
       <c r="AK184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -12334,13 +13203,13 @@
         <v>5</v>
       </c>
       <c r="AK185">
-        <v>3</v>
-      </c>
-      <c r="AL185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="AM185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -12392,8 +13261,14 @@
       <c r="AK186">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM186">
+        <v>6</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -12442,8 +13317,11 @@
       <c r="AK187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -12498,8 +13376,14 @@
       <c r="AL188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM188">
+        <v>9</v>
+      </c>
+      <c r="AN188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -12512,6 +13396,9 @@
       <c r="E189">
         <v>2</v>
       </c>
+      <c r="F189" t="s">
+        <v>59</v>
+      </c>
       <c r="O189">
         <v>0</v>
       </c>
@@ -12575,8 +13462,14 @@
       <c r="AL189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM189">
+        <v>2</v>
+      </c>
+      <c r="AN189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -12589,6 +13482,9 @@
       <c r="E190">
         <v>2</v>
       </c>
+      <c r="F190" t="s">
+        <v>59</v>
+      </c>
       <c r="M190">
         <v>0</v>
       </c>
@@ -12643,8 +13539,14 @@
       <c r="AL190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM190">
+        <v>3</v>
+      </c>
+      <c r="AN190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -12657,6 +13559,9 @@
       <c r="E191">
         <v>2</v>
       </c>
+      <c r="F191" t="s">
+        <v>59</v>
+      </c>
       <c r="K191">
         <v>1</v>
       </c>
@@ -12706,13 +13611,19 @@
         <v>2</v>
       </c>
       <c r="AK191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL191">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="AM191">
+        <v>3</v>
+      </c>
+      <c r="AN191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -12767,8 +13678,14 @@
       <c r="AL192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM192">
+        <v>1</v>
+      </c>
+      <c r="AN192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -12844,8 +13761,14 @@
       <c r="AL193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM193">
+        <v>6</v>
+      </c>
+      <c r="AN193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -12900,8 +13823,11 @@
       <c r="AK194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -12914,6 +13840,9 @@
       <c r="E195">
         <v>3</v>
       </c>
+      <c r="F195" t="s">
+        <v>59</v>
+      </c>
       <c r="O195">
         <v>0</v>
       </c>
@@ -12974,8 +13903,14 @@
       <c r="AL195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM195">
+        <v>2</v>
+      </c>
+      <c r="AN195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -12988,6 +13923,9 @@
       <c r="E196">
         <v>3</v>
       </c>
+      <c r="F196" t="s">
+        <v>59</v>
+      </c>
       <c r="K196">
         <v>1</v>
       </c>
@@ -13054,8 +13992,14 @@
       <c r="AL196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM196">
+        <v>5</v>
+      </c>
+      <c r="AN196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -13116,8 +14060,11 @@
       <c r="AK197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -13169,8 +14116,11 @@
       <c r="AK198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -13231,8 +14181,14 @@
       <c r="AL199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM199">
+        <v>5</v>
+      </c>
+      <c r="AN199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -13287,8 +14243,11 @@
       <c r="AK200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -13301,6 +14260,9 @@
       <c r="E201">
         <v>4</v>
       </c>
+      <c r="F201" t="s">
+        <v>59</v>
+      </c>
       <c r="O201">
         <v>0</v>
       </c>
@@ -13352,8 +14314,14 @@
       <c r="AL201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM201">
+        <v>3</v>
+      </c>
+      <c r="AN201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -13366,6 +14334,9 @@
       <c r="E202">
         <v>4</v>
       </c>
+      <c r="F202" t="s">
+        <v>59</v>
+      </c>
       <c r="M202">
         <v>0</v>
       </c>
@@ -13426,8 +14397,14 @@
       <c r="AL202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM202">
+        <v>0</v>
+      </c>
+      <c r="AN202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -13488,8 +14465,14 @@
       <c r="AL203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM203">
+        <v>3</v>
+      </c>
+      <c r="AN203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -13541,8 +14524,11 @@
       <c r="AK204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -13621,8 +14607,14 @@
       <c r="AL205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM205">
+        <v>9</v>
+      </c>
+      <c r="AN205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -13674,8 +14666,11 @@
       <c r="AK206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -13688,6 +14683,9 @@
       <c r="E207">
         <v>5</v>
       </c>
+      <c r="F207" t="s">
+        <v>59</v>
+      </c>
       <c r="O207">
         <v>1</v>
       </c>
@@ -13724,8 +14722,11 @@
       <c r="AK207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -13795,8 +14796,14 @@
       <c r="AL208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM208">
+        <v>2</v>
+      </c>
+      <c r="AN208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -13809,6 +14816,9 @@
       <c r="E209">
         <v>5</v>
       </c>
+      <c r="F209" t="s">
+        <v>59</v>
+      </c>
       <c r="M209">
         <v>1</v>
       </c>
@@ -13846,13 +14856,13 @@
         <v>5</v>
       </c>
       <c r="AK209">
-        <v>4</v>
-      </c>
-      <c r="AL209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="AM209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -13928,8 +14938,14 @@
       <c r="AL210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM210">
+        <v>4</v>
+      </c>
+      <c r="AN210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -13981,8 +14997,14 @@
       <c r="AL211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="2:38" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AM211">
+        <v>4</v>
+      </c>
+      <c r="AN211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -14032,13 +15054,13 @@
         <v>5</v>
       </c>
       <c r="AK212">
-        <v>4</v>
-      </c>
-      <c r="AL212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="2:38" hidden="1" x14ac:dyDescent="0.35"/>
+        <v>5</v>
+      </c>
+      <c r="AM212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:40" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DBB32C-43A4-4D03-823A-A9DCF38990C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4C972F-59D2-4E48-B228-A858BA21171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="71">
   <si>
     <t>seed_species</t>
   </si>
@@ -260,6 +260,14 @@
     <t>doy328: dead germinants very hard to see; doy 358: green moss?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>365_alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365_dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -346,8 +354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AN213" totalsRowShown="0">
-  <autoFilter ref="B2:AN213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AP213" totalsRowShown="0">
+  <autoFilter ref="B2:AP213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="THPL"/>
@@ -355,16 +363,16 @@
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="TSHE"/>
+        <filter val="PSME"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="10"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="39">
+  <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -404,6 +412,8 @@
     <tableColumn id="37" xr3:uid="{4E0CF983-5E89-48E7-8FEE-EC7F374187C4}" name="351_dead"/>
     <tableColumn id="38" xr3:uid="{24DFCEB5-9EBF-4889-BF53-BBA7F1ED10C8}" name="358_alive"/>
     <tableColumn id="39" xr3:uid="{26B0383B-95B6-4DD5-B7B4-685313FCC697}" name="358_dead2"/>
+    <tableColumn id="40" xr3:uid="{77E0EA7E-1234-4ADB-9C12-30309866C064}" name="365_alive"/>
+    <tableColumn id="41" xr3:uid="{B72A1CA6-FECC-4A5F-8AE4-79F078A65708}" name="365_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -726,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AN213"/>
+  <dimension ref="B2:AP213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AO146" sqref="AO146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -739,7 +749,7 @@
     <col min="4" max="4" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -857,8 +867,14 @@
       <c r="AN2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -943,8 +959,14 @@
       <c r="AN3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO3">
+        <v>3</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1024,11 @@
       <c r="AM4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1088,8 +1113,14 @@
       <c r="AN5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO5">
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1178,11 @@
       <c r="AM6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1200,8 +1234,14 @@
       <c r="AM7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO7">
+        <v>5</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1280,8 +1320,14 @@
       <c r="AN8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO8">
+        <v>6</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AN9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO9">
+        <v>6</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1428,8 +1480,11 @@
       <c r="AM10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1508,8 +1563,14 @@
       <c r="AN11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO11">
+        <v>6</v>
+      </c>
+      <c r="AP11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1597,8 +1658,11 @@
       <c r="AN12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1656,8 +1720,14 @@
       <c r="AM13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO13">
+        <v>5</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1736,8 +1806,11 @@
       <c r="AM14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1802,8 +1875,14 @@
       <c r="AN15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO15">
+        <v>7</v>
+      </c>
+      <c r="AP15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1953,11 @@
       <c r="AM16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -1949,8 +2031,14 @@
       <c r="AN17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO17">
+        <v>7</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2091,11 @@
       <c r="AM18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2081,8 +2172,14 @@
       <c r="AN19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2132,8 +2229,14 @@
       <c r="AM20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO20">
+        <v>13</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2188,8 +2291,14 @@
       <c r="AM21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO21">
+        <v>5</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2248,8 +2357,11 @@
       <c r="AM22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2302,8 +2414,11 @@
       <c r="AM23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2359,8 +2474,14 @@
       <c r="AM24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO24">
+        <v>9</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2416,8 +2537,11 @@
       <c r="AM25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2521,8 +2645,11 @@
       <c r="AM26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2708,11 @@
       <c r="AM27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2668,8 +2798,14 @@
       <c r="AN28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO28">
+        <v>7</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2725,8 +2861,11 @@
       <c r="AM29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2788,8 +2927,11 @@
       <c r="AM30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2872,8 +3014,14 @@
       <c r="AN31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO31">
+        <v>4</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2923,8 +3071,11 @@
       <c r="AM32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -2983,8 +3134,11 @@
       <c r="AM33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -3070,8 +3224,11 @@
       <c r="AM34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3133,8 +3290,14 @@
       <c r="AN35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO35">
+        <v>6</v>
+      </c>
+      <c r="AP35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3205,8 +3368,11 @@
       <c r="AM36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3262,8 +3428,11 @@
       <c r="AM37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3364,8 +3533,14 @@
       <c r="AN38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO38">
+        <v>4</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3448,8 +3623,14 @@
       <c r="AN39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO39">
+        <v>3</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3544,8 +3725,14 @@
       <c r="AN40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO40">
+        <v>5</v>
+      </c>
+      <c r="AP40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3794,14 @@
       <c r="AN41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO41">
+        <v>5</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -3673,8 +3866,11 @@
       <c r="AM42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -3754,8 +3950,14 @@
       <c r="AN43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO43">
+        <v>7</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -3805,8 +4007,11 @@
       <c r="AM44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -3913,8 +4118,14 @@
       <c r="AN45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO45">
+        <v>7</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -3976,8 +4187,11 @@
       <c r="AM46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -4033,8 +4247,11 @@
       <c r="AM47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -4126,8 +4343,14 @@
       <c r="AN48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO48">
+        <v>7</v>
+      </c>
+      <c r="AP48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -4183,8 +4406,11 @@
       <c r="AM49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -4291,8 +4517,14 @@
       <c r="AN50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO50">
+        <v>7</v>
+      </c>
+      <c r="AP50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -4372,8 +4604,14 @@
       <c r="AN51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO51">
+        <v>4</v>
+      </c>
+      <c r="AP51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -4429,8 +4667,11 @@
       <c r="AM52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -4501,8 +4742,14 @@
       <c r="AN53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO53">
+        <v>2</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -4561,8 +4808,11 @@
       <c r="AM54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -4627,8 +4877,14 @@
       <c r="AN55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO55">
+        <v>4</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -4678,8 +4934,11 @@
       <c r="AM56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -4735,8 +4994,11 @@
       <c r="AM57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -4798,8 +5060,11 @@
       <c r="AM58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -4852,8 +5117,11 @@
       <c r="AM59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -4918,8 +5186,14 @@
       <c r="AN60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO60">
+        <v>7</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -4975,8 +5249,11 @@
       <c r="AM61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -5071,8 +5348,14 @@
       <c r="AN62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO62">
+        <v>3</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -5146,8 +5429,14 @@
       <c r="AN63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO63">
+        <v>6</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -5206,8 +5495,11 @@
       <c r="AM64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -5263,8 +5555,11 @@
       <c r="AM65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -5320,8 +5615,11 @@
       <c r="AM66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -5404,8 +5702,14 @@
       <c r="AN67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO67">
+        <v>7</v>
+      </c>
+      <c r="AP67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -5455,8 +5759,11 @@
       <c r="AM68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -5512,8 +5819,11 @@
       <c r="AM69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -5578,8 +5888,11 @@
       <c r="AM70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -5641,8 +5954,14 @@
       <c r="AN71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO71">
+        <v>9</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -5716,8 +6035,14 @@
       <c r="AN72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO72">
+        <v>6</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -5773,8 +6098,11 @@
       <c r="AM73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -5839,8 +6167,11 @@
       <c r="AM74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -5899,8 +6230,14 @@
       <c r="AM75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO75">
+        <v>6</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -5992,8 +6329,14 @@
       <c r="AN76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO76">
+        <v>7</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -6052,8 +6395,11 @@
       <c r="AM77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -6112,8 +6458,11 @@
       <c r="AM78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -6199,8 +6548,14 @@
       <c r="AN79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO79">
+        <v>7</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -6256,8 +6611,14 @@
       <c r="AN80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO80">
+        <v>9</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -6325,8 +6686,14 @@
       <c r="AN81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO81">
+        <v>5</v>
+      </c>
+      <c r="AP81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -6415,8 +6782,14 @@
       <c r="AN82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO82">
+        <v>7</v>
+      </c>
+      <c r="AP82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -6502,8 +6875,14 @@
       <c r="AN83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO83">
+        <v>5</v>
+      </c>
+      <c r="AP83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -6589,8 +6968,14 @@
       <c r="AN84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO84">
+        <v>7</v>
+      </c>
+      <c r="AP84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -6673,8 +7058,14 @@
       <c r="AN85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO85">
+        <v>4</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -6739,8 +7130,14 @@
       <c r="AM86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO86">
+        <v>7</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -6829,8 +7226,14 @@
       <c r="AN87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO87">
+        <v>5</v>
+      </c>
+      <c r="AP87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -6904,8 +7307,14 @@
       <c r="AN88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO88">
+        <v>5</v>
+      </c>
+      <c r="AP88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -6964,8 +7373,11 @@
       <c r="AM89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -7024,8 +7436,11 @@
       <c r="AM90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -7108,8 +7523,14 @@
       <c r="AN91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO91">
+        <v>5</v>
+      </c>
+      <c r="AP91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -7171,8 +7592,14 @@
       <c r="AN92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO92">
+        <v>5</v>
+      </c>
+      <c r="AP92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -7231,8 +7658,11 @@
       <c r="AM93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -7294,8 +7724,11 @@
       <c r="AM94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -7351,8 +7784,11 @@
       <c r="AM95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -7420,8 +7856,14 @@
       <c r="AN96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO96">
+        <v>9</v>
+      </c>
+      <c r="AP96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -7480,8 +7922,11 @@
       <c r="AM97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -7552,8 +7997,11 @@
       <c r="AM98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -7606,8 +8054,11 @@
       <c r="AM99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -7663,8 +8114,11 @@
       <c r="AM100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -7723,8 +8177,11 @@
       <c r="AM101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -7783,8 +8240,11 @@
       <c r="AM102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -7861,8 +8321,14 @@
       <c r="AN103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO103">
+        <v>4</v>
+      </c>
+      <c r="AP103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -7912,8 +8378,14 @@
       <c r="AM104">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO104">
+        <v>7</v>
+      </c>
+      <c r="AP104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -7975,8 +8447,14 @@
       <c r="AN105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO105">
+        <v>4</v>
+      </c>
+      <c r="AP105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -8059,8 +8537,14 @@
       <c r="AN106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO106">
+        <v>6</v>
+      </c>
+      <c r="AP106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -8134,8 +8618,14 @@
       <c r="AN107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO107">
+        <v>4</v>
+      </c>
+      <c r="AP107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -8188,8 +8678,11 @@
       <c r="AM108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -8251,8 +8744,14 @@
       <c r="AN109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO109">
+        <v>7</v>
+      </c>
+      <c r="AP109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -8326,8 +8825,14 @@
       <c r="AM110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO110">
+        <v>6</v>
+      </c>
+      <c r="AP110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -8386,8 +8891,11 @@
       <c r="AM111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -8455,8 +8963,14 @@
       <c r="AN112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO112">
+        <v>7</v>
+      </c>
+      <c r="AP112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -8539,8 +9053,14 @@
       <c r="AN113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO113">
+        <v>4</v>
+      </c>
+      <c r="AP113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -8599,8 +9119,11 @@
       <c r="AM114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -8686,8 +9209,14 @@
       <c r="AN115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO115">
+        <v>2</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -8737,8 +9266,14 @@
       <c r="AM116">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO116">
+        <v>7</v>
+      </c>
+      <c r="AP116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -8800,8 +9335,14 @@
       <c r="AN117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO117">
+        <v>2</v>
+      </c>
+      <c r="AP117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -8864,8 +9405,11 @@
       <c r="AM118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -8918,8 +9462,11 @@
       <c r="AM119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -8975,8 +9522,11 @@
       <c r="AM120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -9035,8 +9585,11 @@
       <c r="AM121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -9098,8 +9651,11 @@
       <c r="AM122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -9164,8 +9720,14 @@
       <c r="AN123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO123">
+        <v>4</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -9257,8 +9819,14 @@
       <c r="AN124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO124">
+        <v>7</v>
+      </c>
+      <c r="AP124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -9350,8 +9918,14 @@
       <c r="AN125">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -9422,8 +9996,14 @@
       <c r="AN126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO126">
+        <v>5</v>
+      </c>
+      <c r="AP126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -9491,8 +10071,14 @@
       <c r="AN127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO127">
+        <v>2</v>
+      </c>
+      <c r="AP127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -9542,8 +10128,11 @@
       <c r="AM128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -9611,8 +10200,14 @@
       <c r="AN129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO129">
+        <v>4</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -9674,8 +10269,11 @@
       <c r="AM130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -9734,8 +10332,14 @@
       <c r="AN131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO131">
+        <v>6</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -9788,8 +10392,11 @@
       <c r="AM132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -9845,8 +10452,11 @@
       <c r="AM133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -9911,8 +10521,11 @@
       <c r="AM134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -9968,8 +10581,11 @@
       <c r="AM135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -10025,8 +10641,11 @@
       <c r="AM136">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -10085,8 +10704,11 @@
       <c r="AM137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -10160,8 +10782,14 @@
       <c r="AN138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO138">
+        <v>7</v>
+      </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -10217,8 +10845,14 @@
       <c r="AN139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO139">
+        <v>5</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -10268,8 +10902,11 @@
       <c r="AM140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -10364,8 +11001,14 @@
       <c r="AN141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO141">
+        <v>6</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -10457,8 +11100,14 @@
       <c r="AN142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO142">
+        <v>6</v>
+      </c>
+      <c r="AP142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -10508,8 +11157,11 @@
       <c r="AM143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -10562,8 +11214,11 @@
       <c r="AM144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -10622,8 +11277,11 @@
       <c r="AM145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -10706,8 +11364,14 @@
       <c r="AN146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO146">
+        <v>8</v>
+      </c>
+      <c r="AP146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -10784,8 +11448,14 @@
       <c r="AN147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO147">
+        <v>2</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -10841,8 +11511,11 @@
       <c r="AM148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -10910,8 +11583,14 @@
       <c r="AN149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO149">
+        <v>3</v>
+      </c>
+      <c r="AP149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -11000,8 +11679,14 @@
       <c r="AN150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO150">
+        <v>8</v>
+      </c>
+      <c r="AP150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -11054,8 +11739,11 @@
       <c r="AM151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -11105,8 +11793,11 @@
       <c r="AM152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -11168,8 +11859,11 @@
       <c r="AN153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -11267,8 +11961,14 @@
       <c r="AN154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO154">
+        <v>4</v>
+      </c>
+      <c r="AP154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -11333,8 +12033,14 @@
       <c r="AN155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO155">
+        <v>6</v>
+      </c>
+      <c r="AP155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -11390,8 +12096,11 @@
       <c r="AM156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -11450,8 +12159,11 @@
       <c r="AM157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -11516,8 +12228,11 @@
       <c r="AM158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -11582,8 +12297,14 @@
       <c r="AN159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO159">
+        <v>4</v>
+      </c>
+      <c r="AP159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -11639,8 +12360,11 @@
       <c r="AM160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -11729,8 +12453,14 @@
       <c r="AN161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO161">
+        <v>3</v>
+      </c>
+      <c r="AP161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -11789,8 +12519,11 @@
       <c r="AM162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -11852,8 +12585,14 @@
       <c r="AN163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO163">
+        <v>4</v>
+      </c>
+      <c r="AP163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -11903,8 +12642,11 @@
       <c r="AM164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -11966,8 +12708,14 @@
       <c r="AN165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO165">
+        <v>4</v>
+      </c>
+      <c r="AP165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -12050,8 +12798,14 @@
       <c r="AN166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO166">
+        <v>5</v>
+      </c>
+      <c r="AP166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -12101,8 +12855,14 @@
       <c r="AM167">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO167">
+        <v>7</v>
+      </c>
+      <c r="AP167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -12170,8 +12930,14 @@
       <c r="AN168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO168">
+        <v>9</v>
+      </c>
+      <c r="AP168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -12230,8 +12996,11 @@
       <c r="AM169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -12290,8 +13059,11 @@
       <c r="AM170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -12365,8 +13137,14 @@
       <c r="AN171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO171">
+        <v>5</v>
+      </c>
+      <c r="AP171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -12422,8 +13200,11 @@
       <c r="AM172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -12479,8 +13260,11 @@
       <c r="AM173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -12539,8 +13323,11 @@
       <c r="AM174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -12602,8 +13389,14 @@
       <c r="AN175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO175">
+        <v>8</v>
+      </c>
+      <c r="AP175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -12653,8 +13446,11 @@
       <c r="AM176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -12710,8 +13506,11 @@
       <c r="AM177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -12773,8 +13572,11 @@
       <c r="AM178">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="AO178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -12839,8 +13641,14 @@
       <c r="AN179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO179">
+        <v>6</v>
+      </c>
+      <c r="AP179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -12899,8 +13707,14 @@
       <c r="AN180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO180">
+        <v>7</v>
+      </c>
+      <c r="AP180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -12956,8 +13770,11 @@
       <c r="AM181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -13016,8 +13833,11 @@
       <c r="AM182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -13096,8 +13916,14 @@
       <c r="AN183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO183">
+        <v>5</v>
+      </c>
+      <c r="AP183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -13152,8 +13978,11 @@
       <c r="AM184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -13208,8 +14037,11 @@
       <c r="AM185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -13267,8 +14099,14 @@
       <c r="AN186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO186">
+        <v>6</v>
+      </c>
+      <c r="AP186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -13320,8 +14158,11 @@
       <c r="AM187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -13382,8 +14223,14 @@
       <c r="AN188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO188">
+        <v>8</v>
+      </c>
+      <c r="AP188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -13468,8 +14315,14 @@
       <c r="AN189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO189">
+        <v>2</v>
+      </c>
+      <c r="AP189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -13545,8 +14398,14 @@
       <c r="AN190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO190">
+        <v>3</v>
+      </c>
+      <c r="AP190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -13622,8 +14481,14 @@
       <c r="AN191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO191">
+        <v>3</v>
+      </c>
+      <c r="AP191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -13684,8 +14549,14 @@
       <c r="AN192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -13767,8 +14638,14 @@
       <c r="AN193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO193">
+        <v>5</v>
+      </c>
+      <c r="AP193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -13826,8 +14703,14 @@
       <c r="AM194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO194">
+        <v>4</v>
+      </c>
+      <c r="AP194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -13909,8 +14792,14 @@
       <c r="AN195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO195">
+        <v>2</v>
+      </c>
+      <c r="AP195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -13998,8 +14887,14 @@
       <c r="AN196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO196">
+        <v>5</v>
+      </c>
+      <c r="AP196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -14063,8 +14958,11 @@
       <c r="AM197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -14119,8 +15017,11 @@
       <c r="AM198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -14187,8 +15088,14 @@
       <c r="AN199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO199">
+        <v>5</v>
+      </c>
+      <c r="AP199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -14246,8 +15153,11 @@
       <c r="AM200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -14320,8 +15230,14 @@
       <c r="AN201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO201">
+        <v>3</v>
+      </c>
+      <c r="AP201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -14403,8 +15319,14 @@
       <c r="AN202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO202">
+        <v>0</v>
+      </c>
+      <c r="AP202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -14471,8 +15393,14 @@
       <c r="AN203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO203">
+        <v>3</v>
+      </c>
+      <c r="AP203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -14527,8 +15455,11 @@
       <c r="AM204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -14613,8 +15544,14 @@
       <c r="AN205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO205">
+        <v>9</v>
+      </c>
+      <c r="AP205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -14669,8 +15606,11 @@
       <c r="AM206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -14725,8 +15665,11 @@
       <c r="AM207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -14802,8 +15745,14 @@
       <c r="AN208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO208">
+        <v>2</v>
+      </c>
+      <c r="AP208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -14861,8 +15810,14 @@
       <c r="AM209">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO209">
+        <v>4</v>
+      </c>
+      <c r="AP209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -14944,8 +15899,14 @@
       <c r="AN210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO210">
+        <v>4</v>
+      </c>
+      <c r="AP210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -15003,8 +15964,14 @@
       <c r="AN211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="2:40" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AO211">
+        <v>3</v>
+      </c>
+      <c r="AP211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -15059,8 +16026,11 @@
       <c r="AM212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:40" hidden="1" x14ac:dyDescent="0.35"/>
+      <c r="AO212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:42" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4C972F-59D2-4E48-B228-A858BA21171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DFA9B0-EBE9-CA41-82FE-659C76E1605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="70">
   <si>
     <t>seed_species</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSHE </t>
   </si>
   <si>
     <t>inoculated_%</t>
@@ -277,20 +274,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -354,21 +351,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AP213" totalsRowShown="0">
-  <autoFilter ref="B2:AP213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AP212" totalsRowShown="0">
+  <autoFilter ref="B2:AP212" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
-        <filter val="THPL"/>
+        <filter val="TSHE"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="PSME"/>
+        <filter val="TSHE"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="0"/>
+        <filter val="25"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -736,20 +733,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AP213"/>
+  <dimension ref="B2:AP212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AO146" sqref="AO146"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.15234375" customWidth="1"/>
-    <col min="4" max="4" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -757,992 +754,992 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
       <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
       <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
       <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
       <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>3</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>3</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>8</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AC4">
+        <v>9</v>
+      </c>
+      <c r="AE4">
+        <v>9</v>
+      </c>
+      <c r="AG4">
+        <v>9</v>
+      </c>
+      <c r="AI4">
+        <v>9</v>
+      </c>
+      <c r="AK4">
+        <v>9</v>
+      </c>
+      <c r="AM4">
+        <v>9</v>
+      </c>
+      <c r="AO4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>6</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>6</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>6</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
+      <c r="AG6">
+        <v>8</v>
+      </c>
+      <c r="AI6">
+        <v>8</v>
+      </c>
+      <c r="AK6">
+        <v>8</v>
+      </c>
+      <c r="AM6">
+        <v>8</v>
+      </c>
+      <c r="AO6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>6</v>
+      </c>
+      <c r="AG7">
+        <v>6</v>
+      </c>
+      <c r="AI7">
+        <v>6</v>
+      </c>
+      <c r="AK7">
+        <v>6</v>
+      </c>
+      <c r="AM7">
+        <v>6</v>
+      </c>
+      <c r="AO7">
+        <v>5</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>6</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>6</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>6</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>6</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>6</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>6</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>6</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>6</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>6</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>6</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>8</v>
+      </c>
+      <c r="AC10">
+        <v>8</v>
+      </c>
+      <c r="AE10">
+        <v>8</v>
+      </c>
+      <c r="AG10">
+        <v>8</v>
+      </c>
+      <c r="AI10">
+        <v>8</v>
+      </c>
+      <c r="AK10">
+        <v>8</v>
+      </c>
+      <c r="AM10">
+        <v>8</v>
+      </c>
+      <c r="AO10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>7</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>7</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>6</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>6</v>
+      </c>
+      <c r="AN11">
+        <v>2</v>
+      </c>
+      <c r="AO11">
+        <v>6</v>
+      </c>
+      <c r="AP11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>6</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>6</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AL12">
+        <v>2</v>
+      </c>
+      <c r="AM12">
+        <v>5</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>5</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AI13">
+        <v>5</v>
+      </c>
+      <c r="AK13">
+        <v>6</v>
+      </c>
+      <c r="AM13">
+        <v>6</v>
+      </c>
+      <c r="AO13">
+        <v>5</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>3</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>3</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>3</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>3</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>3</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>3</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <v>3</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>3</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
-      <c r="U4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>8</v>
-      </c>
-      <c r="Y4">
-        <v>8</v>
-      </c>
-      <c r="AA4">
-        <v>8</v>
-      </c>
-      <c r="AC4">
-        <v>9</v>
-      </c>
-      <c r="AE4">
-        <v>9</v>
-      </c>
-      <c r="AG4">
-        <v>9</v>
-      </c>
-      <c r="AI4">
-        <v>9</v>
-      </c>
-      <c r="AK4">
-        <v>9</v>
-      </c>
-      <c r="AM4">
-        <v>9</v>
-      </c>
-      <c r="AO4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>7</v>
-      </c>
-      <c r="U5">
-        <v>6</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>6</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>6</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>6</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>6</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>6</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>6</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>6</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>6</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>6</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>6</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
-      </c>
-      <c r="S6">
-        <v>7</v>
-      </c>
-      <c r="U6">
-        <v>7</v>
-      </c>
-      <c r="W6">
-        <v>8</v>
-      </c>
-      <c r="Y6">
-        <v>8</v>
-      </c>
-      <c r="AA6">
-        <v>8</v>
-      </c>
-      <c r="AC6">
-        <v>8</v>
-      </c>
-      <c r="AE6">
-        <v>8</v>
-      </c>
-      <c r="AG6">
-        <v>8</v>
-      </c>
-      <c r="AI6">
-        <v>8</v>
-      </c>
-      <c r="AK6">
-        <v>8</v>
-      </c>
-      <c r="AM6">
-        <v>8</v>
-      </c>
-      <c r="AO6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="Y7">
-        <v>3</v>
-      </c>
-      <c r="AA7">
-        <v>5</v>
-      </c>
-      <c r="AC7">
-        <v>6</v>
-      </c>
-      <c r="AE7">
-        <v>6</v>
-      </c>
-      <c r="AG7">
-        <v>6</v>
-      </c>
-      <c r="AI7">
-        <v>6</v>
-      </c>
-      <c r="AK7">
-        <v>6</v>
-      </c>
-      <c r="AM7">
-        <v>6</v>
-      </c>
-      <c r="AO7">
-        <v>5</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>5</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>6</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>6</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>6</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>6</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>6</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8">
-        <v>6</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>6</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="S9">
-        <v>6</v>
-      </c>
-      <c r="U9">
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <v>6</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>6</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>6</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>6</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>6</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>6</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>6</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>6</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>6</v>
-      </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
-      <c r="AO9">
-        <v>6</v>
-      </c>
-      <c r="AP9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="S10">
-        <v>6</v>
-      </c>
-      <c r="U10">
-        <v>8</v>
-      </c>
-      <c r="W10">
-        <v>8</v>
-      </c>
-      <c r="Y10">
-        <v>8</v>
-      </c>
-      <c r="AA10">
-        <v>8</v>
-      </c>
-      <c r="AC10">
-        <v>8</v>
-      </c>
-      <c r="AE10">
-        <v>8</v>
-      </c>
-      <c r="AG10">
-        <v>8</v>
-      </c>
-      <c r="AI10">
-        <v>8</v>
-      </c>
-      <c r="AK10">
-        <v>8</v>
-      </c>
-      <c r="AM10">
-        <v>8</v>
-      </c>
-      <c r="AO10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="Y11">
-        <v>7</v>
-      </c>
-      <c r="AA11">
-        <v>6</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>7</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>7</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <v>7</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <v>7</v>
-      </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
-      <c r="AK11">
-        <v>6</v>
-      </c>
-      <c r="AL11">
-        <v>2</v>
-      </c>
-      <c r="AM11">
-        <v>6</v>
-      </c>
-      <c r="AN11">
-        <v>2</v>
-      </c>
-      <c r="AO11">
-        <v>6</v>
-      </c>
-      <c r="AP11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>3</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <v>3</v>
-      </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-      <c r="AA12">
-        <v>3</v>
-      </c>
-      <c r="AB12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
-        <v>6</v>
-      </c>
-      <c r="AD12">
-        <v>1</v>
-      </c>
-      <c r="AE12">
-        <v>6</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>6</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <v>6</v>
-      </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
-      <c r="AK12">
-        <v>5</v>
-      </c>
-      <c r="AL12">
-        <v>2</v>
-      </c>
-      <c r="AM12">
-        <v>5</v>
-      </c>
-      <c r="AN12">
-        <v>2</v>
-      </c>
-      <c r="AO12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>6</v>
-      </c>
-      <c r="U13">
-        <v>5</v>
-      </c>
-      <c r="W13">
-        <v>5</v>
-      </c>
-      <c r="Y13">
-        <v>5</v>
-      </c>
-      <c r="AA13">
-        <v>5</v>
-      </c>
-      <c r="AC13">
-        <v>5</v>
-      </c>
-      <c r="AE13">
-        <v>5</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AI13">
-        <v>5</v>
-      </c>
-      <c r="AK13">
-        <v>6</v>
-      </c>
-      <c r="AM13">
-        <v>6</v>
-      </c>
-      <c r="AO13">
-        <v>5</v>
-      </c>
-      <c r="AP13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K14">
         <v>2</v>
       </c>
@@ -1810,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -1882,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1957,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2095,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -2179,7 +2176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2298,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2361,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2481,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2541,7 +2538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -2649,7 +2646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27">
         <v>4</v>
@@ -2712,7 +2709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2865,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2880,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2931,7 +2928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3021,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -3153,7 +3150,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3228,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3243,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O35">
         <v>2</v>
@@ -3297,7 +3294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3372,7 +3369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3432,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3447,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3540,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3645,7 +3642,7 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -3732,7 +3729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -3801,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -3870,7 +3867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -3957,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -4026,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -4125,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -4140,7 +4137,7 @@
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4191,7 +4188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -4251,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -4350,7 +4347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -4425,7 +4422,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4524,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -4539,7 +4536,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4611,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -4671,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -4749,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -4812,7 +4809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -4884,7 +4881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -4938,7 +4935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -4998,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>5</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5064,7 +5061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -5121,7 +5118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -5136,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -5193,7 +5190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -5253,7 +5250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -5268,7 +5265,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -5355,7 +5352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -5370,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -5436,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -5559,7 +5556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -5709,7 +5706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -5763,7 +5760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -5823,7 +5820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -5892,7 +5889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O71">
         <v>4</v>
@@ -5961,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -5976,7 +5973,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O72">
         <v>2</v>
@@ -6042,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -6171,7 +6168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -6186,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -6237,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -6336,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -6399,7 +6396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -6414,7 +6411,7 @@
         <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M78">
         <v>2</v>
@@ -6462,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -6555,7 +6552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -6618,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -6633,7 +6630,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K81">
         <v>4</v>
@@ -6693,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -6708,7 +6705,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -6789,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -6804,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O83">
         <v>2</v>
@@ -6882,7 +6879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -6897,7 +6894,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O84">
         <v>2</v>
@@ -6975,7 +6972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +6987,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M85">
         <v>3</v>
@@ -7065,7 +7062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -7080,7 +7077,7 @@
         <v>7</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I86">
         <v>2</v>
@@ -7137,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -7152,7 +7149,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -7233,7 +7230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -7314,7 +7311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -7377,7 +7374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -7530,7 +7527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -7599,7 +7596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -7662,7 +7659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -7677,7 +7674,7 @@
         <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -7728,7 +7725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -7743,7 +7740,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O95">
         <v>2</v>
@@ -7788,7 +7785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -7803,7 +7800,7 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -7863,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -7878,7 +7875,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M97">
         <v>4</v>
@@ -7926,7 +7923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -7941,7 +7938,7 @@
         <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -8001,7 +7998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -8058,7 +8055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -8118,7 +8115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -8133,7 +8130,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -8181,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -8244,7 +8241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -8259,7 +8256,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -8328,7 +8325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -8385,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -8454,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -8469,7 +8466,7 @@
         <v>9</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -8544,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -8625,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -8640,7 +8637,7 @@
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -8682,7 +8679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -8751,7 +8748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -8766,7 +8763,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -8832,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -8847,7 +8844,7 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -8895,7 +8892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -8970,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -9060,7 +9057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -9123,7 +9120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -9138,7 +9135,7 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O115">
         <v>2</v>
@@ -9216,7 +9213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -9273,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -9342,7 +9339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -9409,7 +9406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -9466,7 +9463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -9481,7 +9478,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -9526,7 +9523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -9541,7 +9538,7 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M121">
         <v>3</v>
@@ -9589,7 +9586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -9604,7 +9601,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -9655,7 +9652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -9727,7 +9724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -9826,7 +9823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -9841,7 +9838,7 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M125">
         <v>2</v>
@@ -9925,7 +9922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -10003,7 +10000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -10078,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -10132,7 +10129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -10207,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -10222,7 +10219,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -10273,7 +10270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -10288,7 +10285,7 @@
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -10339,7 +10336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -10354,7 +10351,7 @@
         <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q132">
         <v>0</v>
@@ -10396,7 +10393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -10456,7 +10453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -10471,7 +10468,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -10525,7 +10522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -10585,7 +10582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -10645,7 +10642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -10708,7 +10705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -10789,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -10852,7 +10849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -10906,7 +10903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -10921,7 +10918,7 @@
         <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K141">
         <v>1</v>
@@ -11008,7 +11005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -11023,7 +11020,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K142">
         <v>1</v>
@@ -11107,7 +11104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -11161,7 +11158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -11176,7 +11173,7 @@
         <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -11218,7 +11215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -11281,7 +11278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -11296,7 +11293,7 @@
         <v>12</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -11371,7 +11368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -11386,7 +11383,7 @@
         <v>13</v>
       </c>
       <c r="F147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -11455,7 +11452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -11515,7 +11512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -11590,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -11605,7 +11602,7 @@
         <v>13</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -11686,7 +11683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -11701,7 +11698,7 @@
         <v>13</v>
       </c>
       <c r="F151" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q151">
         <v>1</v>
@@ -11743,7 +11740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -11797,7 +11794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -11863,7 +11860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -11878,7 +11875,7 @@
         <v>13</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -11968,7 +11965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -12040,7 +12037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -12055,7 +12052,7 @@
         <v>13</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O156">
         <v>2</v>
@@ -12100,7 +12097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -12115,7 +12112,7 @@
         <v>13</v>
       </c>
       <c r="F157" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M157">
         <v>3</v>
@@ -12163,7 +12160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -12178,7 +12175,7 @@
         <v>13</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -12232,7 +12229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -12304,7 +12301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -12364,7 +12361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -12460,7 +12457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -12523,7 +12520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -12592,7 +12589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -12646,7 +12643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -12715,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -12730,7 +12727,7 @@
         <v>14</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -12805,7 +12802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -12862,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -12877,7 +12874,7 @@
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O168">
         <v>1</v>
@@ -12937,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -12952,7 +12949,7 @@
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M169">
         <v>2</v>
@@ -13000,7 +12997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -13063,7 +13060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -13078,7 +13075,7 @@
         <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O171">
         <v>2</v>
@@ -13144,7 +13141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -13204,7 +13201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -13264,7 +13261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -13327,7 +13324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -13396,7 +13393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -13450,7 +13447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -13510,7 +13507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -13525,7 +13522,7 @@
         <v>15</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K178">
         <v>1</v>
@@ -13576,7 +13573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -13648,7 +13645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -13663,7 +13660,7 @@
         <v>15</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O180">
         <v>1</v>
@@ -13714,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -13774,7 +13771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -13837,12 +13834,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D183">
         <v>25</v>
@@ -13851,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -13923,7 +13920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -13982,7 +13979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -14041,7 +14038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -14106,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -14162,7 +14159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -14230,12 +14227,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D189">
         <v>25</v>
@@ -14244,7 +14241,7 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O189">
         <v>0</v>
@@ -14322,7 +14319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -14336,7 +14333,7 @@
         <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -14405,7 +14402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -14419,7 +14416,7 @@
         <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K191">
         <v>1</v>
@@ -14488,7 +14485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -14556,7 +14553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -14645,7 +14642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -14710,12 +14707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D195">
         <v>25</v>
@@ -14724,7 +14721,7 @@
         <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O195">
         <v>0</v>
@@ -14799,7 +14796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -14813,7 +14810,7 @@
         <v>3</v>
       </c>
       <c r="F196" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K196">
         <v>1</v>
@@ -14894,7 +14891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -14962,7 +14959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -15021,7 +15018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -15095,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -15157,12 +15154,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D201">
         <v>25</v>
@@ -15171,7 +15168,7 @@
         <v>4</v>
       </c>
       <c r="F201" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O201">
         <v>0</v>
@@ -15237,7 +15234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -15251,7 +15248,7 @@
         <v>4</v>
       </c>
       <c r="F202" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -15326,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -15400,7 +15397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -15459,7 +15456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -15551,7 +15548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -15610,12 +15607,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D207">
         <v>25</v>
@@ -15624,7 +15621,7 @@
         <v>5</v>
       </c>
       <c r="F207" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O207">
         <v>1</v>
@@ -15669,7 +15666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -15752,7 +15749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -15766,7 +15763,7 @@
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -15817,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -15906,7 +15903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -15971,7 +15968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:42" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -16030,7 +16027,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="2:42" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4C972F-59D2-4E48-B228-A858BA21171B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D6A162-7A3F-4101-AFD9-20E0E85A76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,17 +358,17 @@
   <autoFilter ref="B2:AP213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
-        <filter val="THPL"/>
+        <filter val="PSME"/>
       </filters>
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="PSME"/>
+        <filter val="TSHE"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="0"/>
+        <filter val="10"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
   <dimension ref="B2:AP213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AO146" sqref="AO146"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1661,6 +1661,9 @@
       <c r="AO12">
         <v>4</v>
       </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -1727,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2408,14 +2411,26 @@
       <c r="AI23">
         <v>8</v>
       </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
       <c r="AK23">
         <v>8</v>
       </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
       <c r="AM23">
         <v>8</v>
       </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
       <c r="AO23">
         <v>8</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
@@ -2541,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2645,8 +2660,14 @@
       <c r="AM26">
         <v>8</v>
       </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
       <c r="AO26">
         <v>8</v>
+      </c>
+      <c r="AP26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
@@ -2931,7 +2952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3432,7 +3453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3870,7 +3891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -4410,7 +4431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -4812,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -5253,7 +5274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -5619,7 +5640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -6102,7 +6123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -6462,7 +6483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -7065,7 +7086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -7440,7 +7461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -7926,7 +7947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -8244,7 +8265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -8751,7 +8772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -9123,7 +9144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -9589,7 +9610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -10003,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -10456,7 +10477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -10789,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -11281,7 +11302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -11686,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -12163,7 +12184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -12523,7 +12544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -13000,7 +13021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -13327,7 +13348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -13774,7 +13795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>4</v>
       </c>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D6A162-7A3F-4101-AFD9-20E0E85A76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486557E8-FAC3-41E1-8E6A-4894F3140D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="73">
   <si>
     <t>seed_species</t>
   </si>
@@ -268,6 +268,14 @@
     <t>365_dead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>7_alive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_dead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -354,25 +362,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AP213" totalsRowShown="0">
-  <autoFilter ref="B2:AP213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="PSME"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TSHE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AR213" totalsRowShown="0">
+  <autoFilter ref="B2:AR213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
+  <tableColumns count="43">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -414,6 +406,8 @@
     <tableColumn id="39" xr3:uid="{26B0383B-95B6-4DD5-B7B4-685313FCC697}" name="358_dead2"/>
     <tableColumn id="40" xr3:uid="{77E0EA7E-1234-4ADB-9C12-30309866C064}" name="365_alive"/>
     <tableColumn id="41" xr3:uid="{B72A1CA6-FECC-4A5F-8AE4-79F078A65708}" name="365_dead"/>
+    <tableColumn id="42" xr3:uid="{76907406-3640-4FAB-BAFF-AC06D5B46E9A}" name="7_alive"/>
+    <tableColumn id="43" xr3:uid="{8D9570D3-D194-4003-B294-96403E3A2C6E}" name="7_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -736,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AP213"/>
+  <dimension ref="B2:AR212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AR1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AG109" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +743,7 @@
     <col min="4" max="4" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -873,8 +867,14 @@
       <c r="AP2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +965,14 @@
       <c r="AP3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1033,11 @@
       <c r="AO4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1119,8 +1128,14 @@
       <c r="AP5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ5">
+        <v>6</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1181,8 +1196,11 @@
       <c r="AO6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1240,8 +1258,14 @@
       <c r="AP7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ7">
+        <v>5</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1326,8 +1350,14 @@
       <c r="AP8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ8">
+        <v>6</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1418,8 +1448,14 @@
       <c r="AP9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ9">
+        <v>6</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1483,8 +1519,11 @@
       <c r="AO10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1569,8 +1608,14 @@
       <c r="AP11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ11">
+        <v>6</v>
+      </c>
+      <c r="AR11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1664,8 +1709,14 @@
       <c r="AP12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ12">
+        <v>4</v>
+      </c>
+      <c r="AR12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1729,8 +1780,14 @@
       <c r="AP13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ13">
+        <v>5</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1812,8 +1869,11 @@
       <c r="AO14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1884,8 +1944,14 @@
       <c r="AP15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ15">
+        <v>5</v>
+      </c>
+      <c r="AR15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -1959,8 +2025,11 @@
       <c r="AO16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2040,8 +2109,14 @@
       <c r="AP17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ17">
+        <v>6</v>
+      </c>
+      <c r="AR17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2172,11 @@
       <c r="AO18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2181,8 +2259,14 @@
       <c r="AP19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2238,8 +2322,14 @@
       <c r="AP20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ20">
+        <v>13</v>
+      </c>
+      <c r="AR20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2300,8 +2390,14 @@
       <c r="AP21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ21">
+        <v>5</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2363,8 +2459,11 @@
       <c r="AO22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2432,8 +2531,14 @@
       <c r="AP23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ23">
+        <v>8</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2495,8 +2600,14 @@
       <c r="AP24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ24">
+        <v>8</v>
+      </c>
+      <c r="AR24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2555,8 +2666,11 @@
       <c r="AO25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2669,8 +2783,14 @@
       <c r="AP26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ26">
+        <v>8</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2852,11 @@
       <c r="AO27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2825,8 +2948,14 @@
       <c r="AP28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ28">
+        <v>7</v>
+      </c>
+      <c r="AR28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2885,8 +3014,14 @@
       <c r="AO29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2951,8 +3086,11 @@
       <c r="AO30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3041,8 +3179,14 @@
       <c r="AP31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ31">
+        <v>4</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3095,8 +3239,14 @@
       <c r="AO32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ32">
+        <v>9</v>
+      </c>
+      <c r="AR32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3158,8 +3308,11 @@
       <c r="AO33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -3248,8 +3401,11 @@
       <c r="AO34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3317,8 +3473,14 @@
       <c r="AP35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ35">
+        <v>6</v>
+      </c>
+      <c r="AR35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3392,8 +3554,11 @@
       <c r="AO36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3452,8 +3617,11 @@
       <c r="AO37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3560,8 +3728,14 @@
       <c r="AP38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ38">
+        <v>5</v>
+      </c>
+      <c r="AR38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,14 @@
       <c r="AP39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3752,8 +3932,14 @@
       <c r="AP40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ40">
+        <v>6</v>
+      </c>
+      <c r="AR40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -3821,8 +4007,14 @@
       <c r="AP41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ41">
+        <v>4</v>
+      </c>
+      <c r="AR41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -3890,8 +4082,11 @@
       <c r="AO42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -3977,8 +4172,14 @@
       <c r="AP43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ43">
+        <v>7</v>
+      </c>
+      <c r="AR43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -4031,8 +4232,11 @@
       <c r="AO44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -4145,8 +4349,14 @@
       <c r="AP45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ45">
+        <v>7</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -4211,8 +4421,11 @@
       <c r="AO46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -4271,8 +4484,11 @@
       <c r="AO47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -4370,8 +4586,14 @@
       <c r="AP48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ48">
+        <v>7</v>
+      </c>
+      <c r="AR48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -4430,8 +4652,11 @@
       <c r="AO49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -4544,8 +4769,14 @@
       <c r="AP50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ50">
+        <v>7</v>
+      </c>
+      <c r="AR50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -4631,8 +4862,14 @@
       <c r="AP51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ51">
+        <v>4</v>
+      </c>
+      <c r="AR51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -4691,8 +4928,11 @@
       <c r="AO52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -4769,8 +5009,14 @@
       <c r="AP53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -4832,8 +5078,11 @@
       <c r="AO54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -4904,8 +5153,14 @@
       <c r="AP55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ55">
+        <v>4</v>
+      </c>
+      <c r="AR55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -4958,8 +5213,11 @@
       <c r="AO56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -5018,8 +5276,11 @@
       <c r="AO57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -5084,8 +5345,11 @@
       <c r="AO58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -5141,8 +5405,11 @@
       <c r="AO59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -5213,8 +5480,14 @@
       <c r="AP60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ60">
+        <v>7</v>
+      </c>
+      <c r="AR60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -5273,8 +5546,11 @@
       <c r="AO61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -5375,8 +5651,14 @@
       <c r="AP62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ62">
+        <v>3</v>
+      </c>
+      <c r="AR62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -5456,8 +5738,14 @@
       <c r="AP63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ63">
+        <v>6</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -5519,8 +5807,11 @@
       <c r="AO64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -5579,8 +5870,11 @@
       <c r="AO65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -5639,8 +5933,11 @@
       <c r="AO66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -5729,8 +6026,14 @@
       <c r="AP67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ67">
+        <v>7</v>
+      </c>
+      <c r="AR67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -5783,8 +6086,11 @@
       <c r="AO68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -5843,8 +6149,11 @@
       <c r="AO69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -5912,8 +6221,11 @@
       <c r="AO70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -5981,8 +6293,14 @@
       <c r="AP71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ71">
+        <v>8</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -6062,8 +6380,14 @@
       <c r="AP72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ72">
+        <v>6</v>
+      </c>
+      <c r="AR72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -6122,8 +6446,11 @@
       <c r="AO73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -6191,8 +6518,11 @@
       <c r="AO74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -6257,8 +6587,14 @@
       <c r="AP75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ75">
+        <v>6</v>
+      </c>
+      <c r="AR75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -6356,8 +6692,14 @@
       <c r="AP76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ76">
+        <v>7</v>
+      </c>
+      <c r="AR76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -6419,8 +6761,11 @@
       <c r="AO77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -6482,8 +6827,11 @@
       <c r="AO78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -6575,8 +6923,14 @@
       <c r="AP79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ79">
+        <v>7</v>
+      </c>
+      <c r="AR79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -6638,8 +6992,14 @@
       <c r="AP80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ80">
+        <v>9</v>
+      </c>
+      <c r="AR80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -6713,8 +7073,14 @@
       <c r="AP81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ81">
+        <v>4</v>
+      </c>
+      <c r="AR81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -6809,8 +7175,14 @@
       <c r="AP82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ82">
+        <v>7</v>
+      </c>
+      <c r="AR82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -6902,8 +7274,14 @@
       <c r="AP83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ83">
+        <v>5</v>
+      </c>
+      <c r="AR83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -6995,8 +7373,14 @@
       <c r="AP84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ84">
+        <v>7</v>
+      </c>
+      <c r="AR84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -7085,8 +7469,14 @@
       <c r="AP85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ85">
+        <v>4</v>
+      </c>
+      <c r="AR85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -7157,8 +7547,14 @@
       <c r="AP86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ86">
+        <v>7</v>
+      </c>
+      <c r="AR86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -7253,8 +7649,14 @@
       <c r="AP87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ87">
+        <v>5</v>
+      </c>
+      <c r="AR87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -7334,8 +7736,14 @@
       <c r="AP88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ88">
+        <v>6</v>
+      </c>
+      <c r="AR88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -7397,8 +7805,11 @@
       <c r="AO89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -7460,8 +7871,11 @@
       <c r="AO90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -7550,8 +7964,14 @@
       <c r="AP91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ91">
+        <v>5</v>
+      </c>
+      <c r="AR91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -7619,8 +8039,14 @@
       <c r="AP92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ92">
+        <v>5</v>
+      </c>
+      <c r="AR92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -7682,8 +8108,11 @@
       <c r="AO93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -7748,8 +8177,11 @@
       <c r="AO94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -7808,8 +8240,11 @@
       <c r="AO95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -7883,8 +8318,14 @@
       <c r="AP96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ96">
+        <v>9</v>
+      </c>
+      <c r="AR96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -7946,8 +8387,11 @@
       <c r="AO97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -8021,8 +8465,14 @@
       <c r="AO98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ98">
+        <v>6</v>
+      </c>
+      <c r="AR98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -8078,8 +8528,11 @@
       <c r="AO99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -8138,8 +8591,11 @@
       <c r="AO100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -8201,8 +8657,14 @@
       <c r="AO101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ101">
+        <v>2</v>
+      </c>
+      <c r="AR101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -8264,8 +8726,11 @@
       <c r="AO102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -8348,8 +8813,14 @@
       <c r="AP103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ103">
+        <v>4</v>
+      </c>
+      <c r="AR103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -8405,8 +8876,14 @@
       <c r="AP104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ104">
+        <v>7</v>
+      </c>
+      <c r="AR104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -8474,8 +8951,14 @@
       <c r="AP105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ105">
+        <v>4</v>
+      </c>
+      <c r="AR105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -8564,8 +9047,14 @@
       <c r="AP106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ106">
+        <v>6</v>
+      </c>
+      <c r="AR106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -8645,8 +9134,14 @@
       <c r="AP107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ107">
+        <v>4</v>
+      </c>
+      <c r="AR107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -8702,8 +9197,11 @@
       <c r="AO108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -8771,8 +9269,14 @@
       <c r="AP109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ109">
+        <v>1</v>
+      </c>
+      <c r="AR109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -8852,8 +9356,14 @@
       <c r="AP110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ110">
+        <v>6</v>
+      </c>
+      <c r="AR110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -8915,8 +9425,11 @@
       <c r="AO111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -8990,8 +9503,14 @@
       <c r="AP112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ112">
+        <v>7</v>
+      </c>
+      <c r="AR112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -9080,8 +9599,14 @@
       <c r="AP113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ113">
+        <v>4</v>
+      </c>
+      <c r="AR113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -9143,8 +9668,11 @@
       <c r="AO114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -9236,8 +9764,14 @@
       <c r="AP115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ115">
+        <v>2</v>
+      </c>
+      <c r="AR115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -9293,8 +9827,14 @@
       <c r="AP116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ116">
+        <v>8</v>
+      </c>
+      <c r="AR116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -9362,8 +9902,14 @@
       <c r="AP117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ117">
+        <v>1</v>
+      </c>
+      <c r="AR117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -9429,8 +9975,11 @@
       <c r="AO118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -9486,8 +10035,11 @@
       <c r="AO119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -9546,8 +10098,11 @@
       <c r="AO120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -9609,8 +10164,11 @@
       <c r="AO121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -9675,8 +10233,11 @@
       <c r="AO122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -9747,8 +10308,14 @@
       <c r="AP123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ123">
+        <v>3</v>
+      </c>
+      <c r="AR123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -9846,8 +10413,14 @@
       <c r="AP124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ124">
+        <v>7</v>
+      </c>
+      <c r="AR124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -9945,8 +10518,14 @@
       <c r="AP125">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ125">
+        <v>0</v>
+      </c>
+      <c r="AR125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -10023,8 +10602,14 @@
       <c r="AP126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ126">
+        <v>5</v>
+      </c>
+      <c r="AR126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -10098,8 +10683,14 @@
       <c r="AP127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ127">
+        <v>2</v>
+      </c>
+      <c r="AR127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -10152,8 +10743,11 @@
       <c r="AO128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -10227,8 +10821,14 @@
       <c r="AP129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ129">
+        <v>2</v>
+      </c>
+      <c r="AR129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -10293,8 +10893,11 @@
       <c r="AO130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -10359,8 +10962,14 @@
       <c r="AP131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ131">
+        <v>7</v>
+      </c>
+      <c r="AR131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -10416,8 +11025,11 @@
       <c r="AO132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -10476,8 +11088,11 @@
       <c r="AO133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -10545,8 +11160,11 @@
       <c r="AO134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -10605,8 +11223,11 @@
       <c r="AO135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -10665,8 +11286,11 @@
       <c r="AO136">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -10728,8 +11352,14 @@
       <c r="AO137">
         <v>5</v>
       </c>
-    </row>
-    <row r="138" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ137">
+        <v>3</v>
+      </c>
+      <c r="AR137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -10809,8 +11439,14 @@
       <c r="AP138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ138">
+        <v>7</v>
+      </c>
+      <c r="AR138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -10872,8 +11508,14 @@
       <c r="AP139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ139">
+        <v>5</v>
+      </c>
+      <c r="AR139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -10926,8 +11568,11 @@
       <c r="AO140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -11028,8 +11673,14 @@
       <c r="AP141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ141">
+        <v>4</v>
+      </c>
+      <c r="AR141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -11127,8 +11778,14 @@
       <c r="AP142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ142">
+        <v>6</v>
+      </c>
+      <c r="AR142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -11181,8 +11838,11 @@
       <c r="AO143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -11238,8 +11898,11 @@
       <c r="AO144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -11301,8 +11964,11 @@
       <c r="AO145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -11391,8 +12057,14 @@
       <c r="AP146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ146">
+        <v>8</v>
+      </c>
+      <c r="AR146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -11475,8 +12147,14 @@
       <c r="AP147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ147">
+        <v>2</v>
+      </c>
+      <c r="AR147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -11535,8 +12213,11 @@
       <c r="AO148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -11610,8 +12291,14 @@
       <c r="AP149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ149">
+        <v>2</v>
+      </c>
+      <c r="AR149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -11706,8 +12393,14 @@
       <c r="AP150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ150">
+        <v>8</v>
+      </c>
+      <c r="AR150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -11763,8 +12456,11 @@
       <c r="AO151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -11817,8 +12513,11 @@
       <c r="AO152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -11883,8 +12582,11 @@
       <c r="AO153">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -11988,8 +12690,14 @@
       <c r="AP154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ154">
+        <v>4</v>
+      </c>
+      <c r="AR154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -12060,8 +12768,14 @@
       <c r="AP155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ155">
+        <v>6</v>
+      </c>
+      <c r="AR155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -12120,8 +12834,11 @@
       <c r="AO156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -12183,8 +12900,11 @@
       <c r="AO157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -12252,8 +12972,11 @@
       <c r="AO158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -12324,8 +13047,14 @@
       <c r="AP159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ159">
+        <v>4</v>
+      </c>
+      <c r="AR159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -12384,8 +13113,11 @@
       <c r="AO160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -12480,8 +13212,14 @@
       <c r="AP161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ161">
+        <v>2</v>
+      </c>
+      <c r="AR161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -12543,8 +13281,11 @@
       <c r="AO162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -12612,8 +13353,14 @@
       <c r="AP163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ163">
+        <v>5</v>
+      </c>
+      <c r="AR163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -12666,8 +13413,11 @@
       <c r="AO164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -12735,8 +13485,14 @@
       <c r="AP165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ165">
+        <v>4</v>
+      </c>
+      <c r="AR165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -12825,8 +13581,14 @@
       <c r="AP166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ166">
+        <v>5</v>
+      </c>
+      <c r="AR166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -12882,8 +13644,14 @@
       <c r="AP167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ167">
+        <v>7</v>
+      </c>
+      <c r="AR167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -12957,8 +13725,14 @@
       <c r="AP168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ168">
+        <v>9</v>
+      </c>
+      <c r="AR168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -13020,8 +13794,11 @@
       <c r="AO169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -13083,8 +13860,11 @@
       <c r="AO170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -13164,8 +13944,14 @@
       <c r="AP171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ171">
+        <v>6</v>
+      </c>
+      <c r="AR171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -13224,8 +14010,11 @@
       <c r="AO172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -13284,8 +14073,11 @@
       <c r="AO173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -13347,8 +14139,11 @@
       <c r="AO174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AQ174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -13416,8 +14211,14 @@
       <c r="AP175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ175">
+        <v>8</v>
+      </c>
+      <c r="AR175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -13470,8 +14271,11 @@
       <c r="AO176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -13530,8 +14334,11 @@
       <c r="AO177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -13596,8 +14403,11 @@
       <c r="AO178">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -13668,8 +14478,14 @@
       <c r="AP179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ179">
+        <v>7</v>
+      </c>
+      <c r="AR179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -13734,8 +14550,14 @@
       <c r="AP180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ180">
+        <v>8</v>
+      </c>
+      <c r="AR180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -13794,8 +14616,14 @@
       <c r="AO181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ181">
+        <v>5</v>
+      </c>
+      <c r="AR181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -13857,8 +14685,11 @@
       <c r="AO182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -13943,8 +14774,14 @@
       <c r="AP183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ183">
+        <v>5</v>
+      </c>
+      <c r="AR183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -14002,8 +14839,11 @@
       <c r="AO184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -14061,8 +14901,14 @@
       <c r="AO185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ185">
+        <v>3</v>
+      </c>
+      <c r="AR185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -14126,8 +14972,14 @@
       <c r="AP186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ186">
+        <v>6</v>
+      </c>
+      <c r="AR186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -14182,8 +15034,11 @@
       <c r="AO187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -14250,8 +15105,14 @@
       <c r="AP188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ188">
+        <v>8</v>
+      </c>
+      <c r="AR188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -14342,8 +15203,14 @@
       <c r="AP189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ189">
+        <v>2</v>
+      </c>
+      <c r="AR189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -14425,8 +15292,14 @@
       <c r="AP190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ190">
+        <v>3</v>
+      </c>
+      <c r="AR190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -14508,8 +15381,14 @@
       <c r="AP191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ191">
+        <v>1</v>
+      </c>
+      <c r="AR191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -14576,8 +15455,14 @@
       <c r="AP192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -14665,8 +15550,14 @@
       <c r="AP193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ193">
+        <v>4</v>
+      </c>
+      <c r="AR193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -14730,8 +15621,14 @@
       <c r="AP194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ194">
+        <v>4</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -14819,8 +15716,14 @@
       <c r="AP195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ195">
+        <v>2</v>
+      </c>
+      <c r="AR195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -14914,8 +15817,14 @@
       <c r="AP196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ196">
+        <v>5</v>
+      </c>
+      <c r="AR196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -14982,8 +15891,14 @@
       <c r="AO197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ197">
+        <v>3</v>
+      </c>
+      <c r="AR197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -15041,8 +15956,11 @@
       <c r="AO198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -15115,8 +16033,14 @@
       <c r="AP199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ199">
+        <v>5</v>
+      </c>
+      <c r="AR199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -15177,8 +16101,11 @@
       <c r="AO200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -15257,8 +16184,14 @@
       <c r="AP201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ201">
+        <v>3</v>
+      </c>
+      <c r="AR201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -15346,8 +16279,14 @@
       <c r="AP202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ202">
+        <v>0</v>
+      </c>
+      <c r="AR202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -15420,8 +16359,14 @@
       <c r="AP203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ203">
+        <v>2</v>
+      </c>
+      <c r="AR203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -15479,8 +16424,11 @@
       <c r="AO204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -15571,8 +16519,14 @@
       <c r="AP205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ205">
+        <v>9</v>
+      </c>
+      <c r="AR205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -15630,8 +16584,11 @@
       <c r="AO206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -15689,8 +16646,11 @@
       <c r="AO207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -15772,8 +16732,14 @@
       <c r="AP208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ208">
+        <v>2</v>
+      </c>
+      <c r="AR208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -15837,8 +16803,14 @@
       <c r="AP209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ209">
+        <v>4</v>
+      </c>
+      <c r="AR209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -15926,8 +16898,14 @@
       <c r="AP210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ210">
+        <v>4</v>
+      </c>
+      <c r="AR210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -15991,8 +16969,14 @@
       <c r="AP211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="2:42" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AQ211">
+        <v>3</v>
+      </c>
+      <c r="AR211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -16050,8 +17034,13 @@
       <c r="AO212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="2:42" hidden="1" x14ac:dyDescent="0.35"/>
+      <c r="AQ212">
+        <v>4</v>
+      </c>
+      <c r="AR212">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\morasoilinoculation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486557E8-FAC3-41E1-8E6A-4894F3140D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C9110-3793-1A41-BD61-AEE3801457AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="75">
   <si>
     <t>seed_species</t>
   </si>
@@ -276,6 +276,12 @@
     <t>7_dead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>14_alive</t>
+  </si>
+  <si>
+    <t>14_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -285,20 +291,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -362,9 +368,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AR213" totalsRowShown="0">
-  <autoFilter ref="B2:AR213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}"/>
-  <tableColumns count="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AT213" totalsRowShown="0">
+  <autoFilter ref="B2:AT213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="THPL"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PSME"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="25"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -408,6 +430,8 @@
     <tableColumn id="41" xr3:uid="{B72A1CA6-FECC-4A5F-8AE4-79F078A65708}" name="365_dead"/>
     <tableColumn id="42" xr3:uid="{76907406-3640-4FAB-BAFF-AC06D5B46E9A}" name="7_alive"/>
     <tableColumn id="43" xr3:uid="{8D9570D3-D194-4003-B294-96403E3A2C6E}" name="7_dead"/>
+    <tableColumn id="44" xr3:uid="{982CF18F-623D-4441-BE27-AE136F35B860}" name="14_alive"/>
+    <tableColumn id="45" xr3:uid="{787FF129-C95D-824E-9097-BC65B3846FE1}" name="14_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,20 +754,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AR212"/>
+  <dimension ref="B2:AT213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG109" zoomScale="73" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AS10" sqref="AS10"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AS214" sqref="AS214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.15234375" customWidth="1"/>
-    <col min="4" max="4" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -873,8 +897,14 @@
       <c r="AR2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -971,8 +1001,14 @@
       <c r="AR3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1072,11 @@
       <c r="AQ4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1134,8 +1173,14 @@
       <c r="AR5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS5">
+        <v>6</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1199,8 +1244,11 @@
       <c r="AQ6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1264,8 +1312,14 @@
       <c r="AR7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1356,8 +1410,14 @@
       <c r="AR8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS8">
+        <v>6</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1454,8 +1514,14 @@
       <c r="AR9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS9">
+        <v>6</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1522,8 +1588,11 @@
       <c r="AQ10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1614,8 +1683,14 @@
       <c r="AR11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS11">
+        <v>6</v>
+      </c>
+      <c r="AT11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1715,8 +1790,14 @@
       <c r="AR12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS12">
+        <v>4</v>
+      </c>
+      <c r="AT12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1786,8 +1867,14 @@
       <c r="AR13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS13">
+        <v>5</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1872,8 +1959,11 @@
       <c r="AQ14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1950,8 +2040,14 @@
       <c r="AR15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS15">
+        <v>5</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2028,8 +2124,11 @@
       <c r="AQ16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2115,8 +2214,14 @@
       <c r="AR17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS17">
+        <v>6</v>
+      </c>
+      <c r="AT17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2175,8 +2280,11 @@
       <c r="AQ18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2265,8 +2373,14 @@
       <c r="AR19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS19">
+        <v>3</v>
+      </c>
+      <c r="AT19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2328,8 +2442,14 @@
       <c r="AR20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS20">
+        <v>13</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2396,8 +2516,14 @@
       <c r="AR21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS21">
+        <v>5</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2462,8 +2588,11 @@
       <c r="AQ22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2537,8 +2666,14 @@
       <c r="AR23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS23">
+        <v>8</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2606,8 +2741,14 @@
       <c r="AR24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS24">
+        <v>8</v>
+      </c>
+      <c r="AT24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2669,8 +2810,11 @@
       <c r="AQ25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2789,8 +2933,14 @@
       <c r="AR26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS26">
+        <v>7</v>
+      </c>
+      <c r="AT26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2855,8 +3005,11 @@
       <c r="AQ27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2954,8 +3107,14 @@
       <c r="AR28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS28">
+        <v>7</v>
+      </c>
+      <c r="AT28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -3020,8 +3179,14 @@
       <c r="AR29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS29">
+        <v>3</v>
+      </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -3089,8 +3254,11 @@
       <c r="AQ30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3185,8 +3353,14 @@
       <c r="AR31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS31">
+        <v>4</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3245,8 +3419,14 @@
       <c r="AR32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS32">
+        <v>9</v>
+      </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3311,8 +3491,11 @@
       <c r="AQ33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -3404,8 +3587,11 @@
       <c r="AQ34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3479,8 +3665,14 @@
       <c r="AR35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS35">
+        <v>6</v>
+      </c>
+      <c r="AT35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3557,8 +3749,11 @@
       <c r="AQ36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3620,8 +3815,11 @@
       <c r="AQ37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3734,8 +3932,14 @@
       <c r="AR38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS38">
+        <v>5</v>
+      </c>
+      <c r="AT38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -3830,8 +4034,14 @@
       <c r="AR39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS39">
+        <v>2</v>
+      </c>
+      <c r="AT39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -3938,8 +4148,14 @@
       <c r="AR40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS40">
+        <v>6</v>
+      </c>
+      <c r="AT40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -4013,8 +4229,14 @@
       <c r="AR41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS41">
+        <v>4</v>
+      </c>
+      <c r="AT41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -4085,8 +4307,11 @@
       <c r="AQ42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -4178,8 +4403,14 @@
       <c r="AR43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS43">
+        <v>7</v>
+      </c>
+      <c r="AT43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -4235,8 +4466,11 @@
       <c r="AQ44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -4355,8 +4589,14 @@
       <c r="AR45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS45">
+        <v>7</v>
+      </c>
+      <c r="AT45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -4424,8 +4664,11 @@
       <c r="AQ46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -4487,8 +4730,11 @@
       <c r="AQ47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -4592,8 +4838,14 @@
       <c r="AR48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS48">
+        <v>5</v>
+      </c>
+      <c r="AT48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -4655,8 +4907,11 @@
       <c r="AQ49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -4775,8 +5030,14 @@
       <c r="AR50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS50">
+        <v>7</v>
+      </c>
+      <c r="AT50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -4868,8 +5129,14 @@
       <c r="AR51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS51">
+        <v>4</v>
+      </c>
+      <c r="AT51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -4931,8 +5198,11 @@
       <c r="AQ52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -5015,8 +5285,14 @@
       <c r="AR53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS53">
+        <v>2</v>
+      </c>
+      <c r="AT53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -5081,8 +5357,11 @@
       <c r="AQ54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -5159,8 +5438,14 @@
       <c r="AR55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS55">
+        <v>4</v>
+      </c>
+      <c r="AT55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -5216,8 +5501,11 @@
       <c r="AQ56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -5279,8 +5567,11 @@
       <c r="AQ57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -5348,8 +5639,11 @@
       <c r="AQ58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -5408,8 +5702,11 @@
       <c r="AQ59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -5486,8 +5783,14 @@
       <c r="AR60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS60">
+        <v>7</v>
+      </c>
+      <c r="AT60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -5549,8 +5852,11 @@
       <c r="AQ61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -5657,8 +5963,14 @@
       <c r="AR62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS62">
+        <v>3</v>
+      </c>
+      <c r="AT62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -5744,8 +6056,14 @@
       <c r="AR63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS63">
+        <v>5</v>
+      </c>
+      <c r="AT63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -5810,8 +6128,11 @@
       <c r="AQ64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -5873,8 +6194,11 @@
       <c r="AQ65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -5936,8 +6260,11 @@
       <c r="AQ66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -6032,8 +6359,14 @@
       <c r="AR67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS67">
+        <v>7</v>
+      </c>
+      <c r="AT67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -6089,8 +6422,11 @@
       <c r="AQ68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -6152,8 +6488,11 @@
       <c r="AQ69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -6224,8 +6563,11 @@
       <c r="AQ70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -6299,8 +6641,14 @@
       <c r="AR71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS71">
+        <v>9</v>
+      </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -6386,8 +6734,14 @@
       <c r="AR72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS72">
+        <v>6</v>
+      </c>
+      <c r="AT72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -6449,8 +6803,11 @@
       <c r="AQ73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -6521,8 +6878,11 @@
       <c r="AQ74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -6593,8 +6953,14 @@
       <c r="AR75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS75">
+        <v>6</v>
+      </c>
+      <c r="AT75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -6698,8 +7064,14 @@
       <c r="AR76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS76">
+        <v>7</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -6764,8 +7136,11 @@
       <c r="AQ77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -6830,8 +7205,11 @@
       <c r="AQ78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -6929,8 +7307,14 @@
       <c r="AR79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS79">
+        <v>7</v>
+      </c>
+      <c r="AT79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -6998,8 +7382,14 @@
       <c r="AR80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS80">
+        <v>9</v>
+      </c>
+      <c r="AT80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -7079,8 +7469,14 @@
       <c r="AR81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS81">
+        <v>4</v>
+      </c>
+      <c r="AT81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -7181,8 +7577,14 @@
       <c r="AR82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS82">
+        <v>7</v>
+      </c>
+      <c r="AT82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -7280,8 +7682,14 @@
       <c r="AR83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS83">
+        <v>5</v>
+      </c>
+      <c r="AT83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -7379,8 +7787,14 @@
       <c r="AR84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS84">
+        <v>7</v>
+      </c>
+      <c r="AT84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -7475,8 +7889,14 @@
       <c r="AR85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS85">
+        <v>4</v>
+      </c>
+      <c r="AT85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -7553,8 +7973,14 @@
       <c r="AR86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS86">
+        <v>8</v>
+      </c>
+      <c r="AT86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -7655,8 +8081,14 @@
       <c r="AR87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS87">
+        <v>5</v>
+      </c>
+      <c r="AT87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -7742,8 +8174,14 @@
       <c r="AR88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS88">
+        <v>6</v>
+      </c>
+      <c r="AT88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -7808,8 +8246,14 @@
       <c r="AQ89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS89">
+        <v>4</v>
+      </c>
+      <c r="AT89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -7874,8 +8318,11 @@
       <c r="AQ90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -7970,8 +8417,14 @@
       <c r="AR91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS91">
+        <v>5</v>
+      </c>
+      <c r="AT91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -8045,8 +8498,14 @@
       <c r="AR92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS92">
+        <v>5</v>
+      </c>
+      <c r="AT92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -8111,8 +8570,11 @@
       <c r="AQ93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -8180,8 +8642,11 @@
       <c r="AQ94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -8243,8 +8708,11 @@
       <c r="AQ95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -8324,8 +8792,14 @@
       <c r="AR96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS96">
+        <v>8</v>
+      </c>
+      <c r="AT96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -8390,8 +8864,11 @@
       <c r="AQ97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -8471,8 +8948,14 @@
       <c r="AR98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS98">
+        <v>6</v>
+      </c>
+      <c r="AT98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -8531,8 +9014,11 @@
       <c r="AQ99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -8594,8 +9080,11 @@
       <c r="AQ100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -8663,8 +9152,14 @@
       <c r="AR101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS101">
+        <v>2</v>
+      </c>
+      <c r="AT101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -8729,8 +9224,11 @@
       <c r="AQ102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -8819,8 +9317,14 @@
       <c r="AR103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS103">
+        <v>4</v>
+      </c>
+      <c r="AT103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -8882,8 +9386,14 @@
       <c r="AR104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS104">
+        <v>8</v>
+      </c>
+      <c r="AT104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -8957,8 +9467,14 @@
       <c r="AR105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS105">
+        <v>3</v>
+      </c>
+      <c r="AT105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -9053,8 +9569,14 @@
       <c r="AR106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS106">
+        <v>6</v>
+      </c>
+      <c r="AT106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -9140,8 +9662,14 @@
       <c r="AR107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS107">
+        <v>4</v>
+      </c>
+      <c r="AT107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -9200,8 +9728,11 @@
       <c r="AQ108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -9275,8 +9806,14 @@
       <c r="AR109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS109">
+        <v>1</v>
+      </c>
+      <c r="AT109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -9362,8 +9899,14 @@
       <c r="AR110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS110">
+        <v>6</v>
+      </c>
+      <c r="AT110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -9428,8 +9971,11 @@
       <c r="AQ111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -9509,8 +10055,14 @@
       <c r="AR112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS112">
+        <v>6</v>
+      </c>
+      <c r="AT112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -9605,8 +10157,14 @@
       <c r="AR113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS113">
+        <v>4</v>
+      </c>
+      <c r="AT113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -9671,8 +10229,11 @@
       <c r="AQ114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -9770,8 +10331,14 @@
       <c r="AR115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS115">
+        <v>2</v>
+      </c>
+      <c r="AT115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -9833,8 +10400,14 @@
       <c r="AR116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS116">
+        <v>8</v>
+      </c>
+      <c r="AT116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -9908,8 +10481,14 @@
       <c r="AR117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS117">
+        <v>1</v>
+      </c>
+      <c r="AT117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -9978,8 +10557,11 @@
       <c r="AQ118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -10038,8 +10620,11 @@
       <c r="AQ119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -10101,8 +10686,11 @@
       <c r="AQ120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -10167,8 +10755,11 @@
       <c r="AQ121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -10236,8 +10827,11 @@
       <c r="AQ122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -10314,8 +10908,14 @@
       <c r="AR123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS123">
+        <v>3</v>
+      </c>
+      <c r="AT123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -10419,8 +11019,14 @@
       <c r="AR124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS124">
+        <v>7</v>
+      </c>
+      <c r="AT124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -10524,8 +11130,14 @@
       <c r="AR125">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS125">
+        <v>0</v>
+      </c>
+      <c r="AT125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -10608,8 +11220,14 @@
       <c r="AR126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS126">
+        <v>5</v>
+      </c>
+      <c r="AT126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -10689,8 +11307,14 @@
       <c r="AR127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS127">
+        <v>2</v>
+      </c>
+      <c r="AT127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -10746,8 +11370,11 @@
       <c r="AQ128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -10827,8 +11454,14 @@
       <c r="AR129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS129">
+        <v>2</v>
+      </c>
+      <c r="AT129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -10896,8 +11529,11 @@
       <c r="AQ130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -10968,8 +11604,14 @@
       <c r="AR131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS131">
+        <v>7</v>
+      </c>
+      <c r="AT131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -11028,8 +11670,11 @@
       <c r="AQ132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -11091,8 +11736,11 @@
       <c r="AQ133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -11163,8 +11811,11 @@
       <c r="AQ134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -11226,8 +11877,11 @@
       <c r="AQ135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -11289,8 +11943,14 @@
       <c r="AQ136">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS136">
+        <v>6</v>
+      </c>
+      <c r="AT136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -11358,8 +12018,14 @@
       <c r="AR137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS137">
+        <v>3</v>
+      </c>
+      <c r="AT137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -11445,8 +12111,14 @@
       <c r="AR138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS138">
+        <v>7</v>
+      </c>
+      <c r="AT138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -11514,8 +12186,14 @@
       <c r="AR139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS139">
+        <v>5</v>
+      </c>
+      <c r="AT139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -11571,8 +12249,11 @@
       <c r="AQ140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -11679,8 +12360,14 @@
       <c r="AR141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS141">
+        <v>4</v>
+      </c>
+      <c r="AT141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -11784,8 +12471,14 @@
       <c r="AR142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS142">
+        <v>6</v>
+      </c>
+      <c r="AT142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -11841,8 +12534,11 @@
       <c r="AQ143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -11901,8 +12597,11 @@
       <c r="AQ144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -11967,8 +12666,11 @@
       <c r="AQ145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -12063,8 +12765,14 @@
       <c r="AR146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS146">
+        <v>8</v>
+      </c>
+      <c r="AT146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -12153,8 +12861,14 @@
       <c r="AR147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS147">
+        <v>2</v>
+      </c>
+      <c r="AT147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -12216,8 +12930,11 @@
       <c r="AQ148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -12297,8 +13014,14 @@
       <c r="AR149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS149">
+        <v>2</v>
+      </c>
+      <c r="AT149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -12399,8 +13122,14 @@
       <c r="AR150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS150">
+        <v>8</v>
+      </c>
+      <c r="AT150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -12459,8 +13188,11 @@
       <c r="AQ151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -12516,8 +13248,11 @@
       <c r="AQ152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -12585,8 +13320,11 @@
       <c r="AQ153">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -12696,8 +13434,14 @@
       <c r="AR154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS154">
+        <v>4</v>
+      </c>
+      <c r="AT154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -12774,8 +13518,14 @@
       <c r="AR155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS155">
+        <v>6</v>
+      </c>
+      <c r="AT155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -12837,8 +13587,11 @@
       <c r="AQ156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -12903,8 +13656,11 @@
       <c r="AQ157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -12975,8 +13731,11 @@
       <c r="AQ158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -13053,8 +13812,14 @@
       <c r="AR159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS159">
+        <v>4</v>
+      </c>
+      <c r="AT159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -13116,8 +13881,11 @@
       <c r="AQ160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -13218,8 +13986,14 @@
       <c r="AR161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS161">
+        <v>2</v>
+      </c>
+      <c r="AT161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -13284,8 +14058,11 @@
       <c r="AQ162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -13359,8 +14136,14 @@
       <c r="AR163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS163">
+        <v>5</v>
+      </c>
+      <c r="AT163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -13416,8 +14199,11 @@
       <c r="AQ164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -13491,8 +14277,14 @@
       <c r="AR165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS165">
+        <v>4</v>
+      </c>
+      <c r="AT165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -13587,8 +14379,14 @@
       <c r="AR166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS166">
+        <v>5</v>
+      </c>
+      <c r="AT166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -13650,8 +14448,14 @@
       <c r="AR167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS167">
+        <v>7</v>
+      </c>
+      <c r="AT167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -13731,8 +14535,14 @@
       <c r="AR168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS168">
+        <v>9</v>
+      </c>
+      <c r="AT168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -13797,8 +14607,11 @@
       <c r="AQ169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -13863,8 +14676,11 @@
       <c r="AQ170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -13950,8 +14766,14 @@
       <c r="AR171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS171">
+        <v>5</v>
+      </c>
+      <c r="AT171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -14013,8 +14835,11 @@
       <c r="AQ172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -14076,8 +14901,11 @@
       <c r="AQ173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -14142,8 +14970,11 @@
       <c r="AQ174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -14217,8 +15048,14 @@
       <c r="AR175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS175">
+        <v>8</v>
+      </c>
+      <c r="AT175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -14274,8 +15111,11 @@
       <c r="AQ176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -14337,8 +15177,11 @@
       <c r="AQ177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -14406,8 +15249,11 @@
       <c r="AQ178">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -14484,8 +15330,14 @@
       <c r="AR179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS179">
+        <v>7</v>
+      </c>
+      <c r="AT179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -14556,8 +15408,14 @@
       <c r="AR180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS180">
+        <v>7</v>
+      </c>
+      <c r="AT180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -14622,8 +15480,14 @@
       <c r="AR181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS181">
+        <v>5</v>
+      </c>
+      <c r="AT181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -14688,8 +15552,11 @@
       <c r="AQ182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -14780,8 +15647,14 @@
       <c r="AR183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS183">
+        <v>5</v>
+      </c>
+      <c r="AT183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -14842,8 +15715,11 @@
       <c r="AQ184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -14907,8 +15783,14 @@
       <c r="AR185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS185">
+        <v>3</v>
+      </c>
+      <c r="AT185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -14978,8 +15860,14 @@
       <c r="AR186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS186">
+        <v>6</v>
+      </c>
+      <c r="AT186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -15037,8 +15925,11 @@
       <c r="AQ187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -15111,8 +16002,14 @@
       <c r="AR188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS188">
+        <v>6</v>
+      </c>
+      <c r="AT188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -15209,8 +16106,14 @@
       <c r="AR189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS189">
+        <v>2</v>
+      </c>
+      <c r="AT189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -15298,8 +16201,14 @@
       <c r="AR190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS190">
+        <v>3</v>
+      </c>
+      <c r="AT190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -15387,8 +16296,14 @@
       <c r="AR191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS191">
+        <v>1</v>
+      </c>
+      <c r="AT191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -15461,8 +16376,14 @@
       <c r="AR192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS192">
+        <v>1</v>
+      </c>
+      <c r="AT192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -15556,8 +16477,14 @@
       <c r="AR193">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS193">
+        <v>4</v>
+      </c>
+      <c r="AT193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -15627,8 +16554,14 @@
       <c r="AR194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS194">
+        <v>4</v>
+      </c>
+      <c r="AT194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -15722,8 +16655,14 @@
       <c r="AR195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS195">
+        <v>2</v>
+      </c>
+      <c r="AT195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -15823,8 +16762,14 @@
       <c r="AR196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS196">
+        <v>5</v>
+      </c>
+      <c r="AT196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -15897,8 +16842,14 @@
       <c r="AR197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS197">
+        <v>2</v>
+      </c>
+      <c r="AT197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -15959,8 +16910,11 @@
       <c r="AQ198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -16039,8 +16993,14 @@
       <c r="AR199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS199">
+        <v>5</v>
+      </c>
+      <c r="AT199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -16104,8 +17064,11 @@
       <c r="AQ200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -16190,8 +17153,14 @@
       <c r="AR201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS201">
+        <v>3</v>
+      </c>
+      <c r="AT201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -16285,8 +17254,14 @@
       <c r="AR202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS202">
+        <v>0</v>
+      </c>
+      <c r="AT202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -16365,8 +17340,14 @@
       <c r="AR203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS203">
+        <v>2</v>
+      </c>
+      <c r="AT203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -16427,8 +17408,11 @@
       <c r="AQ204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -16525,8 +17509,14 @@
       <c r="AR205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS205">
+        <v>9</v>
+      </c>
+      <c r="AT205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -16587,8 +17577,11 @@
       <c r="AQ206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -16649,8 +17642,11 @@
       <c r="AQ207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -16738,8 +17734,14 @@
       <c r="AR208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS208">
+        <v>2</v>
+      </c>
+      <c r="AT208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -16809,8 +17811,14 @@
       <c r="AR209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS209">
+        <v>3</v>
+      </c>
+      <c r="AT209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -16904,8 +17912,14 @@
       <c r="AR210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS210">
+        <v>4</v>
+      </c>
+      <c r="AT210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -16975,8 +17989,14 @@
       <c r="AR211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="AS211">
+        <v>3</v>
+      </c>
+      <c r="AT211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -17040,7 +18060,14 @@
       <c r="AR212">
         <v>1</v>
       </c>
-    </row>
+      <c r="AS212">
+        <v>4</v>
+      </c>
+      <c r="AT212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:46" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25C9110-3793-1A41-BD61-AEE3801457AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4297A7-EC42-AC4D-B54A-2ED91EE0A9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="77">
   <si>
     <t>seed_species</t>
   </si>
@@ -282,6 +282,12 @@
   <si>
     <t>14_dead</t>
   </si>
+  <si>
+    <t>21_alive</t>
+  </si>
+  <si>
+    <t>21_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -368,8 +374,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AT213" totalsRowShown="0">
-  <autoFilter ref="B2:AT213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AV213" totalsRowShown="0">
+  <autoFilter ref="B2:AV213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="THPL"/>
@@ -386,7 +392,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="45">
+  <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -432,6 +438,8 @@
     <tableColumn id="43" xr3:uid="{8D9570D3-D194-4003-B294-96403E3A2C6E}" name="7_dead"/>
     <tableColumn id="44" xr3:uid="{982CF18F-623D-4441-BE27-AE136F35B860}" name="14_alive"/>
     <tableColumn id="45" xr3:uid="{787FF129-C95D-824E-9097-BC65B3846FE1}" name="14_dead"/>
+    <tableColumn id="46" xr3:uid="{ECFA23DF-A6CF-3440-BD75-F96610D24011}" name="21_alive"/>
+    <tableColumn id="47" xr3:uid="{B0CAD71F-C03D-ED4A-BF76-64F0043A0743}" name="21_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AT213"/>
+  <dimension ref="B2:AV213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AS214" sqref="AS214"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AU214" sqref="AU214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,7 +775,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -903,8 +911,14 @@
       <c r="AT2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1007,8 +1021,14 @@
       <c r="AT3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU3">
+        <v>3</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1075,8 +1095,11 @@
       <c r="AS4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1179,8 +1202,14 @@
       <c r="AT5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1276,11 @@
       <c r="AS6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1318,8 +1350,14 @@
       <c r="AT7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1416,8 +1454,14 @@
       <c r="AT8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU8">
+        <v>6</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1520,8 +1564,14 @@
       <c r="AT9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1591,8 +1641,11 @@
       <c r="AS10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1689,8 +1742,14 @@
       <c r="AT11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1796,8 +1855,14 @@
       <c r="AT12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1873,8 +1938,14 @@
       <c r="AT13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -1962,8 +2033,11 @@
       <c r="AS14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2120,14 @@
       <c r="AT15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU15">
+        <v>5</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2207,11 @@
       <c r="AS16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2220,8 +2303,14 @@
       <c r="AT17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2283,8 +2372,11 @@
       <c r="AS18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2379,8 +2471,14 @@
       <c r="AT19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU19">
+        <v>2</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2448,8 +2546,14 @@
       <c r="AT20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU20">
+        <v>13</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2522,8 +2626,14 @@
       <c r="AT21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU21">
+        <v>5</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="AS22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2672,8 +2785,14 @@
       <c r="AT23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU23">
+        <v>8</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2747,8 +2866,14 @@
       <c r="AT24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU24">
+        <v>8</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2813,8 +2938,11 @@
       <c r="AS25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -2939,8 +3067,14 @@
       <c r="AT26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU26">
+        <v>7</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -3008,8 +3142,11 @@
       <c r="AS27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -3113,8 +3250,14 @@
       <c r="AT28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -3185,8 +3328,14 @@
       <c r="AT29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU29">
+        <v>3</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -3257,8 +3406,11 @@
       <c r="AS30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3359,8 +3511,14 @@
       <c r="AT31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU31">
+        <v>4</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3425,8 +3583,14 @@
       <c r="AT32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU32">
+        <v>9</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3494,8 +3658,11 @@
       <c r="AS33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -3590,8 +3757,11 @@
       <c r="AS34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3671,8 +3841,14 @@
       <c r="AT35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU35">
+        <v>6</v>
+      </c>
+      <c r="AV35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3752,8 +3928,11 @@
       <c r="AS36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -3818,8 +3997,11 @@
       <c r="AS37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -3938,8 +4120,14 @@
       <c r="AT38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU38">
+        <v>5</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4228,14 @@
       <c r="AT39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU39">
+        <v>2</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4348,14 @@
       <c r="AT40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -4235,8 +4435,14 @@
       <c r="AT41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -4310,8 +4516,11 @@
       <c r="AS42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -4409,8 +4618,14 @@
       <c r="AT43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU43">
+        <v>7</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -4469,8 +4684,11 @@
       <c r="AS44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -4595,8 +4813,14 @@
       <c r="AT45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -4667,8 +4891,11 @@
       <c r="AS46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -4733,8 +4960,11 @@
       <c r="AS47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -4844,8 +5074,14 @@
       <c r="AT48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -4910,8 +5146,11 @@
       <c r="AS49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -5036,8 +5275,14 @@
       <c r="AT50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU50">
+        <v>7</v>
+      </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -5135,8 +5380,14 @@
       <c r="AT51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -5201,8 +5452,11 @@
       <c r="AS52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -5291,8 +5545,14 @@
       <c r="AT53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU53">
+        <v>2</v>
+      </c>
+      <c r="AV53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5620,11 @@
       <c r="AS54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -5444,8 +5707,14 @@
       <c r="AT55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -5504,8 +5773,11 @@
       <c r="AS56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -5570,8 +5842,11 @@
       <c r="AS57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -5642,8 +5917,11 @@
       <c r="AS58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -5705,8 +5983,11 @@
       <c r="AS59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -5789,8 +6070,14 @@
       <c r="AT60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -5855,8 +6142,11 @@
       <c r="AS61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -5969,8 +6259,14 @@
       <c r="AT62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -6062,8 +6358,14 @@
       <c r="AT63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -6131,8 +6433,11 @@
       <c r="AS64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -6197,8 +6502,14 @@
       <c r="AS65">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -6263,8 +6574,11 @@
       <c r="AS66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -6365,8 +6679,14 @@
       <c r="AT67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -6425,8 +6745,11 @@
       <c r="AS68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -6491,8 +6814,11 @@
       <c r="AS69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -6566,8 +6892,11 @@
       <c r="AS70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -6647,8 +6976,14 @@
       <c r="AT71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU71">
+        <v>8</v>
+      </c>
+      <c r="AV71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -6740,8 +7075,14 @@
       <c r="AT72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -6806,8 +7147,11 @@
       <c r="AS73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -6881,8 +7225,11 @@
       <c r="AS74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -6959,8 +7306,14 @@
       <c r="AT75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AV75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -7070,8 +7423,14 @@
       <c r="AT76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU76">
+        <v>7</v>
+      </c>
+      <c r="AV76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -7139,8 +7498,11 @@
       <c r="AS77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -7208,8 +7570,11 @@
       <c r="AS78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -7313,8 +7678,14 @@
       <c r="AT79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -7388,8 +7759,14 @@
       <c r="AT80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU80">
+        <v>9</v>
+      </c>
+      <c r="AV80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -7475,8 +7852,14 @@
       <c r="AT81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -7583,8 +7966,14 @@
       <c r="AT82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -7688,8 +8077,14 @@
       <c r="AT83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -7793,8 +8188,14 @@
       <c r="AT84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU84">
+        <v>7</v>
+      </c>
+      <c r="AV84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -7895,8 +8296,14 @@
       <c r="AT85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -7979,8 +8386,14 @@
       <c r="AT86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU86">
+        <v>8</v>
+      </c>
+      <c r="AV86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -8087,8 +8500,14 @@
       <c r="AT87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -8180,8 +8599,14 @@
       <c r="AT88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU88">
+        <v>6</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -8252,8 +8677,14 @@
       <c r="AT89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -8321,8 +8752,11 @@
       <c r="AS90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -8423,8 +8857,14 @@
       <c r="AT91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU91">
+        <v>5</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -8504,8 +8944,14 @@
       <c r="AT92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -8573,8 +9019,11 @@
       <c r="AS93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -8645,8 +9094,11 @@
       <c r="AS94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -8711,8 +9163,11 @@
       <c r="AS95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -8798,8 +9253,14 @@
       <c r="AT96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU96">
+        <v>8</v>
+      </c>
+      <c r="AV96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -8867,8 +9328,11 @@
       <c r="AS97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -8954,8 +9418,14 @@
       <c r="AT98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU98">
+        <v>5</v>
+      </c>
+      <c r="AV98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -9017,8 +9487,11 @@
       <c r="AS99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -9083,8 +9556,11 @@
       <c r="AS100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -9158,8 +9634,14 @@
       <c r="AT101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU101">
+        <v>2</v>
+      </c>
+      <c r="AV101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -9227,8 +9709,11 @@
       <c r="AS102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -9323,8 +9808,14 @@
       <c r="AT103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -9392,8 +9883,14 @@
       <c r="AT104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU104">
+        <v>8</v>
+      </c>
+      <c r="AV104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -9473,8 +9970,14 @@
       <c r="AT105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU105">
+        <v>3</v>
+      </c>
+      <c r="AV105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -9575,8 +10078,14 @@
       <c r="AT106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -9668,8 +10177,14 @@
       <c r="AT107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -9731,8 +10246,11 @@
       <c r="AS108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -9812,8 +10330,14 @@
       <c r="AT109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU109">
+        <v>1</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -9905,8 +10429,14 @@
       <c r="AT110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU110">
+        <v>6</v>
+      </c>
+      <c r="AV110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -9974,8 +10504,11 @@
       <c r="AS111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -10061,8 +10594,14 @@
       <c r="AT112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -10163,8 +10702,14 @@
       <c r="AT113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -10232,8 +10777,11 @@
       <c r="AS114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -10337,8 +10885,14 @@
       <c r="AT115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU115">
+        <v>2</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -10406,8 +10960,14 @@
       <c r="AT116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU116">
+        <v>8</v>
+      </c>
+      <c r="AV116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -10487,8 +11047,14 @@
       <c r="AT117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU117">
+        <v>1</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -10560,8 +11126,11 @@
       <c r="AS118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -10623,8 +11192,11 @@
       <c r="AS119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -10689,8 +11261,11 @@
       <c r="AS120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -10758,8 +11333,11 @@
       <c r="AS121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -10830,8 +11408,11 @@
       <c r="AS122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -10914,8 +11495,14 @@
       <c r="AT123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -11025,8 +11612,14 @@
       <c r="AT124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -11136,8 +11729,14 @@
       <c r="AT125">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU125">
+        <v>0</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -11226,8 +11825,14 @@
       <c r="AT126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU126">
+        <v>5</v>
+      </c>
+      <c r="AV126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -11313,8 +11918,14 @@
       <c r="AT127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -11373,8 +11984,11 @@
       <c r="AS128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -11460,8 +12074,14 @@
       <c r="AT129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU129">
+        <v>2</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -11532,8 +12152,11 @@
       <c r="AS130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -11610,8 +12233,14 @@
       <c r="AT131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -11673,8 +12302,11 @@
       <c r="AS132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -11739,8 +12371,11 @@
       <c r="AS133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -11814,8 +12449,11 @@
       <c r="AS134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -11880,8 +12518,11 @@
       <c r="AS135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -11949,8 +12590,14 @@
       <c r="AT136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -12024,8 +12671,14 @@
       <c r="AT137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU137">
+        <v>3</v>
+      </c>
+      <c r="AV137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -12117,8 +12770,14 @@
       <c r="AT138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -12192,8 +12851,14 @@
       <c r="AT139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU139">
+        <v>5</v>
+      </c>
+      <c r="AV139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -12252,8 +12917,11 @@
       <c r="AS140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -12366,8 +13034,14 @@
       <c r="AT141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -12477,8 +13151,14 @@
       <c r="AT142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -12537,8 +13217,11 @@
       <c r="AS143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -12600,8 +13283,11 @@
       <c r="AS144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -12669,8 +13355,11 @@
       <c r="AS145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -12771,8 +13460,14 @@
       <c r="AT146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -12867,8 +13562,14 @@
       <c r="AT147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU147">
+        <v>2</v>
+      </c>
+      <c r="AV147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -12933,8 +13634,11 @@
       <c r="AS148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -13020,8 +13724,14 @@
       <c r="AT149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU149">
+        <v>2</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -13128,8 +13838,14 @@
       <c r="AT150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU150">
+        <v>8</v>
+      </c>
+      <c r="AV150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -13191,8 +13907,11 @@
       <c r="AS151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -13251,8 +13970,11 @@
       <c r="AS152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -13323,8 +14045,14 @@
       <c r="AS153">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -13440,8 +14168,14 @@
       <c r="AT154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -13524,8 +14258,14 @@
       <c r="AT155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -13590,8 +14330,11 @@
       <c r="AS156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -13659,8 +14402,11 @@
       <c r="AS157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -13734,8 +14480,11 @@
       <c r="AS158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -13818,8 +14567,14 @@
       <c r="AT159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU159">
+        <v>4</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -13884,8 +14639,11 @@
       <c r="AS160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -13992,8 +14750,14 @@
       <c r="AT161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU161">
+        <v>2</v>
+      </c>
+      <c r="AV161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -14061,8 +14825,11 @@
       <c r="AS162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -14142,8 +14909,14 @@
       <c r="AT163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -14202,8 +14975,11 @@
       <c r="AS164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -14283,8 +15059,14 @@
       <c r="AT165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -14385,8 +15167,14 @@
       <c r="AT166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -14454,8 +15242,14 @@
       <c r="AT167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU167">
+        <v>7</v>
+      </c>
+      <c r="AV167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -14541,8 +15335,14 @@
       <c r="AT168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU168">
+        <v>9</v>
+      </c>
+      <c r="AV168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -14610,8 +15410,11 @@
       <c r="AS169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -14679,8 +15482,11 @@
       <c r="AS170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -14772,8 +15578,14 @@
       <c r="AT171">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -14838,8 +15650,11 @@
       <c r="AS172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -14904,8 +15719,11 @@
       <c r="AS173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -14973,8 +15791,11 @@
       <c r="AS174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -15054,8 +15875,14 @@
       <c r="AT175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -15114,8 +15941,11 @@
       <c r="AS176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -15180,8 +16010,11 @@
       <c r="AS177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -15252,8 +16085,11 @@
       <c r="AS178">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -15336,8 +16172,14 @@
       <c r="AT179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU179">
+        <v>6</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -15414,8 +16256,14 @@
       <c r="AT180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU180">
+        <v>7</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -15486,8 +16334,14 @@
       <c r="AT181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -15555,8 +16409,11 @@
       <c r="AS182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -15653,8 +16510,14 @@
       <c r="AT183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -15718,8 +16581,11 @@
       <c r="AS184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -15789,8 +16655,14 @@
       <c r="AT185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU185">
+        <v>3</v>
+      </c>
+      <c r="AV185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -15866,8 +16738,14 @@
       <c r="AT186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU186">
+        <v>6</v>
+      </c>
+      <c r="AV186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -15928,8 +16806,11 @@
       <c r="AS187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -16008,8 +16889,14 @@
       <c r="AT188">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU188">
+        <v>6</v>
+      </c>
+      <c r="AV188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -16112,8 +16999,14 @@
       <c r="AT189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -16207,8 +17100,14 @@
       <c r="AT190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -16302,8 +17201,14 @@
       <c r="AT191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU191">
+        <v>1</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -16382,8 +17287,14 @@
       <c r="AT192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU192">
+        <v>0</v>
+      </c>
+      <c r="AV192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -16483,8 +17394,14 @@
       <c r="AT193">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU193">
+        <v>4</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -16560,8 +17477,14 @@
       <c r="AT194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -16661,8 +17584,14 @@
       <c r="AT195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU195">
+        <v>2</v>
+      </c>
+      <c r="AV195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -16768,8 +17697,14 @@
       <c r="AT196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU196">
+        <v>5</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -16848,8 +17783,14 @@
       <c r="AT197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU197">
+        <v>2</v>
+      </c>
+      <c r="AV197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -16913,8 +17854,11 @@
       <c r="AS198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -16999,8 +17943,14 @@
       <c r="AT199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU199">
+        <v>5</v>
+      </c>
+      <c r="AV199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -17067,8 +18017,11 @@
       <c r="AS200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -17159,8 +18112,14 @@
       <c r="AT201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU201">
+        <v>3</v>
+      </c>
+      <c r="AV201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -17260,8 +18219,14 @@
       <c r="AT202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU202">
+        <v>0</v>
+      </c>
+      <c r="AV202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -17346,8 +18311,14 @@
       <c r="AT203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU203">
+        <v>2</v>
+      </c>
+      <c r="AV203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -17411,8 +18382,11 @@
       <c r="AS204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -17515,8 +18489,14 @@
       <c r="AT205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU205">
+        <v>9</v>
+      </c>
+      <c r="AV205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -17580,8 +18560,11 @@
       <c r="AS206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -17645,8 +18628,11 @@
       <c r="AS207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -17740,8 +18726,14 @@
       <c r="AT208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU208">
+        <v>2</v>
+      </c>
+      <c r="AV208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -17817,8 +18809,14 @@
       <c r="AT209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU209">
+        <v>3</v>
+      </c>
+      <c r="AV209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -17918,8 +18916,14 @@
       <c r="AT210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:46" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AU210">
+        <v>4</v>
+      </c>
+      <c r="AV210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -17995,8 +18999,14 @@
       <c r="AT211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU211">
+        <v>3</v>
+      </c>
+      <c r="AV211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -18066,8 +19076,14 @@
       <c r="AT212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="2:46" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="AU212">
+        <v>4</v>
+      </c>
+      <c r="AV212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:48" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4297A7-EC42-AC4D-B54A-2ED91EE0A9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C317B3C-7CDF-7E4F-848E-5FAA5064A548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17300" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="79">
   <si>
     <t>seed_species</t>
   </si>
@@ -288,6 +288,12 @@
   <si>
     <t>21_dead</t>
   </si>
+  <si>
+    <t>28_alive</t>
+  </si>
+  <si>
+    <t>28_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -374,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AV213" totalsRowShown="0">
-  <autoFilter ref="B2:AV213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AX213" totalsRowShown="0">
+  <autoFilter ref="B2:AX213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="THPL"/>
@@ -392,7 +398,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="47">
+  <tableColumns count="49">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -440,6 +446,8 @@
     <tableColumn id="45" xr3:uid="{787FF129-C95D-824E-9097-BC65B3846FE1}" name="14_dead"/>
     <tableColumn id="46" xr3:uid="{ECFA23DF-A6CF-3440-BD75-F96610D24011}" name="21_alive"/>
     <tableColumn id="47" xr3:uid="{B0CAD71F-C03D-ED4A-BF76-64F0043A0743}" name="21_dead"/>
+    <tableColumn id="48" xr3:uid="{71DD5F09-FE5A-1943-8C02-2973E704058E}" name="28_alive"/>
+    <tableColumn id="49" xr3:uid="{BA54B51D-9E45-224E-9CB8-CFB53B9DA271}" name="28_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -762,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AV213"/>
+  <dimension ref="B2:AX213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AU214" sqref="AU214"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AW214" sqref="AW214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,7 +783,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -917,8 +925,14 @@
       <c r="AV2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1041,14 @@
       <c r="AV3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1098,8 +1118,11 @@
       <c r="AU4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1208,8 +1231,14 @@
       <c r="AV5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW5">
+        <v>6</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1279,8 +1308,11 @@
       <c r="AU6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1356,8 +1388,14 @@
       <c r="AV7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW7">
+        <v>5</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1460,8 +1498,14 @@
       <c r="AV8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW8">
+        <v>6</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1570,8 +1614,14 @@
       <c r="AV9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW9">
+        <v>6</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1644,8 +1694,11 @@
       <c r="AU10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1748,8 +1801,14 @@
       <c r="AV11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW11">
+        <v>6</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1861,8 +1920,14 @@
       <c r="AV12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -1944,8 +2009,14 @@
       <c r="AV13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW13">
+        <v>5</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2036,8 +2107,11 @@
       <c r="AU14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2200,14 @@
       <c r="AV15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW15">
+        <v>4</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2210,8 +2290,11 @@
       <c r="AU16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2392,14 @@
       <c r="AV17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW17">
+        <v>6</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2375,8 +2464,11 @@
       <c r="AU18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2477,8 +2569,14 @@
       <c r="AV19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2552,8 +2650,14 @@
       <c r="AV20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW20">
+        <v>13</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2632,8 +2736,14 @@
       <c r="AV21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW21">
+        <v>5</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2704,8 +2814,11 @@
       <c r="AU22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2791,8 +2904,14 @@
       <c r="AV23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW23">
+        <v>8</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2872,8 +2991,14 @@
       <c r="AV24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW24">
+        <v>8</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -2941,8 +3066,11 @@
       <c r="AU25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -3073,8 +3201,14 @@
       <c r="AV26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW26">
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -3145,8 +3279,11 @@
       <c r="AU27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -3256,8 +3393,14 @@
       <c r="AV28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW28">
+        <v>7</v>
+      </c>
+      <c r="AX28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -3334,8 +3477,14 @@
       <c r="AV29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW29">
+        <v>3</v>
+      </c>
+      <c r="AX29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3558,11 @@
       <c r="AU30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3517,8 +3669,14 @@
       <c r="AV31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3589,8 +3747,14 @@
       <c r="AV32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW32">
+        <v>9</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3661,8 +3825,11 @@
       <c r="AU33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -3760,8 +3927,11 @@
       <c r="AU34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -3847,8 +4017,14 @@
       <c r="AV35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -3931,8 +4107,11 @@
       <c r="AU36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -4000,8 +4179,11 @@
       <c r="AU37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -4126,8 +4308,14 @@
       <c r="AV38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW38">
+        <v>5</v>
+      </c>
+      <c r="AX38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -4234,8 +4422,14 @@
       <c r="AV39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -4354,8 +4548,14 @@
       <c r="AV40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW40">
+        <v>6</v>
+      </c>
+      <c r="AX40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -4441,8 +4641,14 @@
       <c r="AV41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -4519,8 +4725,11 @@
       <c r="AU42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -4624,8 +4833,14 @@
       <c r="AV43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW43">
+        <v>7</v>
+      </c>
+      <c r="AX43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -4687,8 +4902,11 @@
       <c r="AU44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -4819,8 +5037,14 @@
       <c r="AV45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW45">
+        <v>7</v>
+      </c>
+      <c r="AX45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -4894,8 +5118,11 @@
       <c r="AU46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -4963,8 +5190,11 @@
       <c r="AU47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -5080,8 +5310,14 @@
       <c r="AV48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW48">
+        <v>5</v>
+      </c>
+      <c r="AX48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -5149,8 +5385,11 @@
       <c r="AU49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -5281,8 +5520,14 @@
       <c r="AV50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW50">
+        <v>7</v>
+      </c>
+      <c r="AX50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -5386,8 +5631,14 @@
       <c r="AV51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -5455,8 +5706,11 @@
       <c r="AU52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -5551,8 +5805,14 @@
       <c r="AV53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -5623,8 +5883,11 @@
       <c r="AU54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -5713,8 +5976,14 @@
       <c r="AV55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -5776,8 +6045,11 @@
       <c r="AU56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -5845,8 +6117,11 @@
       <c r="AU57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -5920,8 +6195,11 @@
       <c r="AU58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -5986,8 +6264,11 @@
       <c r="AU59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -6076,8 +6357,14 @@
       <c r="AV60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -6145,8 +6432,11 @@
       <c r="AU61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -6265,8 +6555,14 @@
       <c r="AV62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -6364,8 +6660,14 @@
       <c r="AV63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -6436,8 +6738,11 @@
       <c r="AU64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -6508,8 +6813,14 @@
       <c r="AV65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -6577,8 +6888,11 @@
       <c r="AU66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -6685,8 +6999,14 @@
       <c r="AV67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -6748,8 +7068,11 @@
       <c r="AU68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -6817,8 +7140,11 @@
       <c r="AU69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -6895,8 +7221,11 @@
       <c r="AU70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -6982,8 +7311,14 @@
       <c r="AV71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW71">
+        <v>8</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -7081,8 +7416,14 @@
       <c r="AV72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -7150,8 +7491,11 @@
       <c r="AU73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -7228,8 +7572,11 @@
       <c r="AU74">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -7312,8 +7659,14 @@
       <c r="AV75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -7429,8 +7782,14 @@
       <c r="AV76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW76">
+        <v>7</v>
+      </c>
+      <c r="AX76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -7501,8 +7860,11 @@
       <c r="AU77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -7573,8 +7935,11 @@
       <c r="AU78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -7684,8 +8049,14 @@
       <c r="AV79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -7765,8 +8136,14 @@
       <c r="AV80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW80">
+        <v>9</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -7858,8 +8235,14 @@
       <c r="AV81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW81">
+        <v>4</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -7972,8 +8355,14 @@
       <c r="AV82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -8083,8 +8472,14 @@
       <c r="AV83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -8194,8 +8589,14 @@
       <c r="AV84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW84">
+        <v>7</v>
+      </c>
+      <c r="AX84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -8302,8 +8703,14 @@
       <c r="AV85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -8392,8 +8799,14 @@
       <c r="AV86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW86">
+        <v>8</v>
+      </c>
+      <c r="AX86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -8506,8 +8919,14 @@
       <c r="AV87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -8605,8 +9024,14 @@
       <c r="AV88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW88">
+        <v>6</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -8683,8 +9108,14 @@
       <c r="AV89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW89">
+        <v>3</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -8755,8 +9186,11 @@
       <c r="AU90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -8863,8 +9297,14 @@
       <c r="AV91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -8950,8 +9390,14 @@
       <c r="AV92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW92">
+        <v>5</v>
+      </c>
+      <c r="AX92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -9022,8 +9468,11 @@
       <c r="AU93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -9097,8 +9546,11 @@
       <c r="AU94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -9166,8 +9618,14 @@
       <c r="AU95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -9259,8 +9717,14 @@
       <c r="AV96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW96">
+        <v>8</v>
+      </c>
+      <c r="AX96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -9331,8 +9795,11 @@
       <c r="AU97">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -9424,8 +9891,14 @@
       <c r="AV98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -9490,8 +9963,11 @@
       <c r="AU99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -9559,8 +10035,11 @@
       <c r="AU100">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -9640,8 +10119,14 @@
       <c r="AV101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW101">
+        <v>2</v>
+      </c>
+      <c r="AX101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -9712,8 +10197,11 @@
       <c r="AU102">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -9814,8 +10302,14 @@
       <c r="AV103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW103">
+        <v>2</v>
+      </c>
+      <c r="AX103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -9889,8 +10383,14 @@
       <c r="AV104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -9976,8 +10476,14 @@
       <c r="AV105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW105">
+        <v>2</v>
+      </c>
+      <c r="AX105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -10084,8 +10590,14 @@
       <c r="AV106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW106">
+        <v>7</v>
+      </c>
+      <c r="AX106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -10183,8 +10695,14 @@
       <c r="AV107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -10249,8 +10767,11 @@
       <c r="AU108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -10336,8 +10857,14 @@
       <c r="AV109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW109">
+        <v>1</v>
+      </c>
+      <c r="AX109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -10435,8 +10962,14 @@
       <c r="AV110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW110">
+        <v>6</v>
+      </c>
+      <c r="AX110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -10507,8 +11040,14 @@
       <c r="AU111">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW111">
+        <v>5</v>
+      </c>
+      <c r="AX111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -10600,8 +11139,14 @@
       <c r="AV112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW112">
+        <v>6</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -10708,8 +11253,14 @@
       <c r="AV113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -10780,8 +11331,11 @@
       <c r="AU114">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -10891,8 +11445,14 @@
       <c r="AV115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -10966,8 +11526,14 @@
       <c r="AV116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW116">
+        <v>8</v>
+      </c>
+      <c r="AX116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -11053,8 +11619,14 @@
       <c r="AV117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW117">
+        <v>1</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -11129,8 +11701,11 @@
       <c r="AU118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -11195,8 +11770,11 @@
       <c r="AU119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -11264,8 +11842,11 @@
       <c r="AU120">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -11336,8 +11917,11 @@
       <c r="AU121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -11411,8 +11995,11 @@
       <c r="AU122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -11501,8 +12088,14 @@
       <c r="AV123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -11618,8 +12211,14 @@
       <c r="AV124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -11735,8 +12334,14 @@
       <c r="AV125">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW125">
+        <v>0</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -11831,8 +12436,14 @@
       <c r="AV126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW126">
+        <v>5</v>
+      </c>
+      <c r="AX126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -11924,8 +12535,14 @@
       <c r="AV127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW127">
+        <v>1</v>
+      </c>
+      <c r="AX127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -11987,8 +12604,11 @@
       <c r="AU128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -12080,8 +12700,14 @@
       <c r="AV129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW129">
+        <v>2</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -12155,8 +12781,11 @@
       <c r="AU130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -12239,8 +12868,14 @@
       <c r="AV131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW131">
+        <v>7</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -12305,8 +12940,11 @@
       <c r="AU132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -12374,8 +13012,11 @@
       <c r="AU133">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -12452,8 +13093,11 @@
       <c r="AU134">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -12521,8 +13165,11 @@
       <c r="AU135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -12596,8 +13243,14 @@
       <c r="AV136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW136">
+        <v>6</v>
+      </c>
+      <c r="AX136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -12677,8 +13330,14 @@
       <c r="AV137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -12776,8 +13435,14 @@
       <c r="AV138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -12857,8 +13522,14 @@
       <c r="AV139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW139">
+        <v>5</v>
+      </c>
+      <c r="AX139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -12920,8 +13591,11 @@
       <c r="AU140">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -13040,8 +13714,14 @@
       <c r="AV141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -13157,8 +13837,14 @@
       <c r="AV142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -13220,8 +13906,14 @@
       <c r="AU143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW143">
+        <v>8</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -13286,8 +13978,11 @@
       <c r="AU144">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -13358,8 +14053,11 @@
       <c r="AU145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -13466,8 +14164,14 @@
       <c r="AV146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -13568,8 +14272,14 @@
       <c r="AV147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW147">
+        <v>2</v>
+      </c>
+      <c r="AX147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -13637,8 +14347,11 @@
       <c r="AU148">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -13730,8 +14443,14 @@
       <c r="AV149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW149">
+        <v>2</v>
+      </c>
+      <c r="AX149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -13844,8 +14563,14 @@
       <c r="AV150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW150">
+        <v>8</v>
+      </c>
+      <c r="AX150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -13910,8 +14635,14 @@
       <c r="AU151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -13973,8 +14704,11 @@
       <c r="AU152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -14051,8 +14785,14 @@
       <c r="AV153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -14174,8 +14914,14 @@
       <c r="AV154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -14264,8 +15010,14 @@
       <c r="AV155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -14333,8 +15085,11 @@
       <c r="AU156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -14405,8 +15160,11 @@
       <c r="AU157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -14483,8 +15241,11 @@
       <c r="AU158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -14573,8 +15334,14 @@
       <c r="AV159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW159">
+        <v>3</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -14642,8 +15409,11 @@
       <c r="AU160">
         <v>9</v>
       </c>
-    </row>
-    <row r="161" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -14756,8 +15526,14 @@
       <c r="AV161">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW161">
+        <v>2</v>
+      </c>
+      <c r="AX161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -14828,8 +15604,11 @@
       <c r="AU162">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -14915,8 +15694,14 @@
       <c r="AV163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -14978,8 +15763,11 @@
       <c r="AU164">
         <v>9</v>
       </c>
-    </row>
-    <row r="165" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -15065,8 +15853,14 @@
       <c r="AV165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -15173,8 +15967,14 @@
       <c r="AV166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -15248,8 +16048,14 @@
       <c r="AV167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -15341,8 +16147,14 @@
       <c r="AV168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW168">
+        <v>9</v>
+      </c>
+      <c r="AX168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -15413,8 +16225,11 @@
       <c r="AU169">
         <v>6</v>
       </c>
-    </row>
-    <row r="170" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -15485,8 +16300,11 @@
       <c r="AU170">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -15584,8 +16402,14 @@
       <c r="AV171">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -15653,8 +16477,11 @@
       <c r="AU172">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -15722,8 +16549,11 @@
       <c r="AU173">
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -15794,8 +16624,11 @@
       <c r="AU174">
         <v>9</v>
       </c>
-    </row>
-    <row r="175" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW174">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -15881,8 +16714,14 @@
       <c r="AV175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -15944,8 +16783,11 @@
       <c r="AU176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -16013,8 +16855,11 @@
       <c r="AU177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -16088,8 +16933,11 @@
       <c r="AU178">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -16178,8 +17026,14 @@
       <c r="AV179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW179">
+        <v>6</v>
+      </c>
+      <c r="AX179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -16262,8 +17116,14 @@
       <c r="AV180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW180">
+        <v>7</v>
+      </c>
+      <c r="AX180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -16340,8 +17200,14 @@
       <c r="AV181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW181">
+        <v>4</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -16412,8 +17278,11 @@
       <c r="AU182">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -16516,8 +17385,14 @@
       <c r="AV183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -16584,8 +17459,11 @@
       <c r="AU184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -16661,8 +17539,14 @@
       <c r="AV185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW185">
+        <v>3</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -16744,8 +17628,14 @@
       <c r="AV186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW186">
+        <v>6</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -16809,8 +17699,11 @@
       <c r="AU187">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="AW187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -16895,8 +17788,14 @@
       <c r="AV188">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW188">
+        <v>6</v>
+      </c>
+      <c r="AX188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -17005,8 +17904,14 @@
       <c r="AV189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW189">
+        <v>2</v>
+      </c>
+      <c r="AX189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -17106,8 +18011,14 @@
       <c r="AV190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -17207,8 +18118,14 @@
       <c r="AV191">
         <v>4</v>
       </c>
-    </row>
-    <row r="192" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW191">
+        <v>1</v>
+      </c>
+      <c r="AX191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -17293,8 +18210,14 @@
       <c r="AV192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW192">
+        <v>0</v>
+      </c>
+      <c r="AX192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -17400,8 +18323,14 @@
       <c r="AV193">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -17483,8 +18412,14 @@
       <c r="AV194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW194">
+        <v>4</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -17590,8 +18525,14 @@
       <c r="AV195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW195">
+        <v>2</v>
+      </c>
+      <c r="AX195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -17703,8 +18644,14 @@
       <c r="AV196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW196">
+        <v>4</v>
+      </c>
+      <c r="AX196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -17789,8 +18736,14 @@
       <c r="AV197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW197">
+        <v>2</v>
+      </c>
+      <c r="AX197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -17857,8 +18810,11 @@
       <c r="AU198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -17949,8 +18905,14 @@
       <c r="AV199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="AW199">
+        <v>5</v>
+      </c>
+      <c r="AX199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -18020,8 +18982,14 @@
       <c r="AU200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW200">
+        <v>6</v>
+      </c>
+      <c r="AX200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -18118,8 +19086,14 @@
       <c r="AV201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW201">
+        <v>3</v>
+      </c>
+      <c r="AX201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -18225,8 +19199,14 @@
       <c r="AV202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW202">
+        <v>0</v>
+      </c>
+      <c r="AX202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -18317,8 +19297,14 @@
       <c r="AV203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW203">
+        <v>2</v>
+      </c>
+      <c r="AX203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -18385,8 +19371,11 @@
       <c r="AU204">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -18495,8 +19484,14 @@
       <c r="AV205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="AW205">
+        <v>9</v>
+      </c>
+      <c r="AX205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -18563,8 +19558,11 @@
       <c r="AU206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -18631,8 +19629,14 @@
       <c r="AU207">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW207">
+        <v>3</v>
+      </c>
+      <c r="AX207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -18732,8 +19736,14 @@
       <c r="AV208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW208">
+        <v>1</v>
+      </c>
+      <c r="AX208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -18815,8 +19825,14 @@
       <c r="AV209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW209">
+        <v>3</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -18922,8 +19938,14 @@
       <c r="AV210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:48" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -19005,8 +20027,14 @@
       <c r="AV211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="2:48" x14ac:dyDescent="0.2">
+      <c r="AW211">
+        <v>3</v>
+      </c>
+      <c r="AX211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -19082,8 +20110,14 @@
       <c r="AV212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="2:48" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:50" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C317B3C-7CDF-7E4F-848E-5FAA5064A548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8BC72-0C2E-AD49-8FD7-B06A1AC27DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="81">
   <si>
     <t>seed_species</t>
   </si>
@@ -294,6 +294,12 @@
   <si>
     <t>28_dead</t>
   </si>
+  <si>
+    <t>35_alive</t>
+  </si>
+  <si>
+    <t>35_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -380,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AX213" totalsRowShown="0">
-  <autoFilter ref="B2:AX213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AZ213" totalsRowShown="0">
+  <autoFilter ref="B2:AZ213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="THPL"/>
@@ -398,7 +404,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="49">
+  <tableColumns count="51">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -448,6 +454,8 @@
     <tableColumn id="47" xr3:uid="{B0CAD71F-C03D-ED4A-BF76-64F0043A0743}" name="21_dead"/>
     <tableColumn id="48" xr3:uid="{71DD5F09-FE5A-1943-8C02-2973E704058E}" name="28_alive"/>
     <tableColumn id="49" xr3:uid="{BA54B51D-9E45-224E-9CB8-CFB53B9DA271}" name="28_dead"/>
+    <tableColumn id="50" xr3:uid="{C23F46C6-A415-8E4B-B621-5203CC00E846}" name="35_alive"/>
+    <tableColumn id="51" xr3:uid="{32C2D965-13FE-2344-A3F4-F0A8CD0EDE64}" name="35_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AX213"/>
+  <dimension ref="B2:AZ213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AW214" sqref="AW214"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AY214" sqref="AY214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,7 +791,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -931,8 +939,14 @@
       <c r="AX2" t="s">
         <v>78</v>
       </c>
+      <c r="AY2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1047,8 +1061,14 @@
       <c r="AX3">
         <v>1</v>
       </c>
+      <c r="AY3">
+        <v>3</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1141,11 @@
       <c r="AW4">
         <v>9</v>
       </c>
+      <c r="AY4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1260,14 @@
       <c r="AX5">
         <v>1</v>
       </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1311,8 +1340,11 @@
       <c r="AW6">
         <v>9</v>
       </c>
+      <c r="AY6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1394,8 +1426,14 @@
       <c r="AX7">
         <v>1</v>
       </c>
+      <c r="AY7">
+        <v>4</v>
+      </c>
+      <c r="AZ7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1504,8 +1542,14 @@
       <c r="AX8">
         <v>1</v>
       </c>
+      <c r="AY8">
+        <v>6</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1620,8 +1664,14 @@
       <c r="AX9">
         <v>1</v>
       </c>
+      <c r="AY9">
+        <v>6</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1697,8 +1747,11 @@
       <c r="AW10">
         <v>8</v>
       </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1807,8 +1860,14 @@
       <c r="AX11">
         <v>2</v>
       </c>
+      <c r="AY11">
+        <v>6</v>
+      </c>
+      <c r="AZ11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1926,8 +1985,14 @@
       <c r="AX12">
         <v>3</v>
       </c>
+      <c r="AY12">
+        <v>5</v>
+      </c>
+      <c r="AZ12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -2015,8 +2080,14 @@
       <c r="AX13">
         <v>1</v>
       </c>
+      <c r="AY13">
+        <v>5</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2110,8 +2181,11 @@
       <c r="AW14">
         <v>8</v>
       </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -2206,8 +2280,14 @@
       <c r="AX15">
         <v>4</v>
       </c>
+      <c r="AY15">
+        <v>4</v>
+      </c>
+      <c r="AZ15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2293,8 +2373,11 @@
       <c r="AW16">
         <v>9</v>
       </c>
+      <c r="AY16">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2398,8 +2481,14 @@
       <c r="AX17">
         <v>2</v>
       </c>
+      <c r="AY17">
+        <v>6</v>
+      </c>
+      <c r="AZ17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2467,8 +2556,11 @@
       <c r="AW18">
         <v>10</v>
       </c>
+      <c r="AY18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2575,8 +2667,14 @@
       <c r="AX19">
         <v>4</v>
       </c>
+      <c r="AY19">
+        <v>2</v>
+      </c>
+      <c r="AZ19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2656,8 +2754,14 @@
       <c r="AX20">
         <v>1</v>
       </c>
+      <c r="AY20">
+        <v>13</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2742,8 +2846,14 @@
       <c r="AX21">
         <v>1</v>
       </c>
+      <c r="AY21">
+        <v>5</v>
+      </c>
+      <c r="AZ21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="AW22">
         <v>8</v>
       </c>
+      <c r="AY22">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -2910,8 +3023,14 @@
       <c r="AX23">
         <v>1</v>
       </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -2997,8 +3116,14 @@
       <c r="AX24">
         <v>4</v>
       </c>
+      <c r="AY24">
+        <v>8</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -3069,8 +3194,11 @@
       <c r="AW25">
         <v>8</v>
       </c>
+      <c r="AY25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -3207,8 +3335,14 @@
       <c r="AX26">
         <v>2</v>
       </c>
+      <c r="AY26">
+        <v>6</v>
+      </c>
+      <c r="AZ26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3416,11 @@
       <c r="AW27">
         <v>4</v>
       </c>
+      <c r="AY27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -3399,8 +3536,14 @@
       <c r="AX28">
         <v>2</v>
       </c>
+      <c r="AY28">
+        <v>7</v>
+      </c>
+      <c r="AZ28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3626,14 @@
       <c r="AX29">
         <v>1</v>
       </c>
+      <c r="AY29">
+        <v>3</v>
+      </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -3561,8 +3710,11 @@
       <c r="AW30">
         <v>8</v>
       </c>
+      <c r="AY30">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3675,8 +3827,14 @@
       <c r="AX31">
         <v>1</v>
       </c>
+      <c r="AY31">
+        <v>4</v>
+      </c>
+      <c r="AZ31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3753,8 +3911,14 @@
       <c r="AX32">
         <v>1</v>
       </c>
+      <c r="AY32">
+        <v>9</v>
+      </c>
+      <c r="AZ32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3828,8 +3992,11 @@
       <c r="AW33">
         <v>9</v>
       </c>
+      <c r="AY33">
+        <v>9</v>
+      </c>
     </row>
-    <row r="34" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -3930,8 +4097,11 @@
       <c r="AW34">
         <v>5</v>
       </c>
+      <c r="AY34">
+        <v>5</v>
+      </c>
     </row>
-    <row r="35" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -4023,8 +4193,14 @@
       <c r="AX35">
         <v>2</v>
       </c>
+      <c r="AY35">
+        <v>6</v>
+      </c>
+      <c r="AZ35">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -4110,8 +4286,11 @@
       <c r="AW36">
         <v>8</v>
       </c>
+      <c r="AY36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -4182,8 +4361,11 @@
       <c r="AW37">
         <v>7</v>
       </c>
+      <c r="AY37">
+        <v>7</v>
+      </c>
     </row>
-    <row r="38" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -4314,8 +4496,14 @@
       <c r="AX38">
         <v>2</v>
       </c>
+      <c r="AY38">
+        <v>4</v>
+      </c>
+      <c r="AZ38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -4428,8 +4616,14 @@
       <c r="AX39">
         <v>4</v>
       </c>
+      <c r="AY39">
+        <v>2</v>
+      </c>
+      <c r="AZ39">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -4554,8 +4748,14 @@
       <c r="AX40">
         <v>4</v>
       </c>
+      <c r="AY40">
+        <v>5</v>
+      </c>
+      <c r="AZ40">
+        <v>5</v>
+      </c>
     </row>
-    <row r="41" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -4647,8 +4847,14 @@
       <c r="AX41">
         <v>2</v>
       </c>
+      <c r="AY41">
+        <v>4</v>
+      </c>
+      <c r="AZ41">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -4728,8 +4934,11 @@
       <c r="AW42">
         <v>7</v>
       </c>
+      <c r="AY42">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -4839,8 +5048,14 @@
       <c r="AX43">
         <v>2</v>
       </c>
+      <c r="AY43">
+        <v>7</v>
+      </c>
+      <c r="AZ43">
+        <v>2</v>
+      </c>
     </row>
-    <row r="44" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -4905,8 +5120,11 @@
       <c r="AW44">
         <v>6</v>
       </c>
+      <c r="AY44">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -5043,8 +5261,14 @@
       <c r="AX45">
         <v>1</v>
       </c>
+      <c r="AY45">
+        <v>7</v>
+      </c>
+      <c r="AZ45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -5121,8 +5345,11 @@
       <c r="AW46">
         <v>6</v>
       </c>
+      <c r="AY46">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -5193,8 +5420,11 @@
       <c r="AW47">
         <v>9</v>
       </c>
+      <c r="AY47">
+        <v>9</v>
+      </c>
     </row>
-    <row r="48" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -5316,8 +5546,14 @@
       <c r="AX48">
         <v>5</v>
       </c>
+      <c r="AY48">
+        <v>5</v>
+      </c>
+      <c r="AZ48">
+        <v>5</v>
+      </c>
     </row>
-    <row r="49" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -5388,8 +5624,11 @@
       <c r="AW49">
         <v>8</v>
       </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -5526,8 +5765,14 @@
       <c r="AX50">
         <v>1</v>
       </c>
+      <c r="AY50">
+        <v>7</v>
+      </c>
+      <c r="AZ50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -5637,8 +5882,14 @@
       <c r="AX51">
         <v>1</v>
       </c>
+      <c r="AY51">
+        <v>4</v>
+      </c>
+      <c r="AZ51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>3</v>
       </c>
@@ -5709,8 +5960,11 @@
       <c r="AW52">
         <v>6</v>
       </c>
+      <c r="AY52">
+        <v>6</v>
+      </c>
     </row>
-    <row r="53" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -5811,8 +6065,14 @@
       <c r="AX53">
         <v>1</v>
       </c>
+      <c r="AY53">
+        <v>2</v>
+      </c>
+      <c r="AZ53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -5886,8 +6146,11 @@
       <c r="AW54">
         <v>5</v>
       </c>
+      <c r="AY54">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -5982,8 +6245,14 @@
       <c r="AX55">
         <v>2</v>
       </c>
+      <c r="AY55">
+        <v>4</v>
+      </c>
+      <c r="AZ55">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>1</v>
       </c>
@@ -6048,8 +6317,11 @@
       <c r="AW56">
         <v>10</v>
       </c>
+      <c r="AY56">
+        <v>10</v>
+      </c>
     </row>
-    <row r="57" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -6120,8 +6392,11 @@
       <c r="AW57">
         <v>5</v>
       </c>
+      <c r="AY57">
+        <v>5</v>
+      </c>
     </row>
-    <row r="58" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>1</v>
       </c>
@@ -6198,8 +6473,11 @@
       <c r="AW58">
         <v>6</v>
       </c>
+      <c r="AY58">
+        <v>6</v>
+      </c>
     </row>
-    <row r="59" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>4</v>
       </c>
@@ -6267,8 +6545,11 @@
       <c r="AW59">
         <v>7</v>
       </c>
+      <c r="AY59">
+        <v>7</v>
+      </c>
     </row>
-    <row r="60" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>4</v>
       </c>
@@ -6363,8 +6644,14 @@
       <c r="AX60">
         <v>2</v>
       </c>
+      <c r="AY60">
+        <v>7</v>
+      </c>
+      <c r="AZ60">
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
@@ -6435,8 +6722,11 @@
       <c r="AW61">
         <v>7</v>
       </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
     </row>
-    <row r="62" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>4</v>
       </c>
@@ -6561,8 +6851,14 @@
       <c r="AX62">
         <v>2</v>
       </c>
+      <c r="AY62">
+        <v>3</v>
+      </c>
+      <c r="AZ62">
+        <v>2</v>
+      </c>
     </row>
-    <row r="63" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -6666,8 +6962,14 @@
       <c r="AX63">
         <v>3</v>
       </c>
+      <c r="AY63">
+        <v>4</v>
+      </c>
+      <c r="AZ63">
+        <v>3</v>
+      </c>
     </row>
-    <row r="64" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>3</v>
       </c>
@@ -6741,8 +7043,14 @@
       <c r="AW64">
         <v>8</v>
       </c>
+      <c r="AY64">
+        <v>7</v>
+      </c>
+      <c r="AZ64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>3</v>
       </c>
@@ -6819,8 +7127,14 @@
       <c r="AX65">
         <v>1</v>
       </c>
+      <c r="AY65">
+        <v>5</v>
+      </c>
+      <c r="AZ65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -6891,8 +7205,11 @@
       <c r="AW66">
         <v>4</v>
       </c>
+      <c r="AY66">
+        <v>4</v>
+      </c>
     </row>
-    <row r="67" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -7005,8 +7322,14 @@
       <c r="AX67">
         <v>3</v>
       </c>
+      <c r="AY67">
+        <v>7</v>
+      </c>
+      <c r="AZ67">
+        <v>3</v>
+      </c>
     </row>
-    <row r="68" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -7071,8 +7394,11 @@
       <c r="AW68">
         <v>11</v>
       </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
     </row>
-    <row r="69" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>1</v>
       </c>
@@ -7143,8 +7469,11 @@
       <c r="AW69">
         <v>9</v>
       </c>
+      <c r="AY69">
+        <v>9</v>
+      </c>
     </row>
-    <row r="70" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>1</v>
       </c>
@@ -7224,8 +7553,11 @@
       <c r="AW70">
         <v>7</v>
       </c>
+      <c r="AY70">
+        <v>7</v>
+      </c>
     </row>
-    <row r="71" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>4</v>
       </c>
@@ -7317,8 +7649,14 @@
       <c r="AX71">
         <v>2</v>
       </c>
+      <c r="AY71">
+        <v>8</v>
+      </c>
+      <c r="AZ71">
+        <v>2</v>
+      </c>
     </row>
-    <row r="72" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
@@ -7422,8 +7760,14 @@
       <c r="AX72">
         <v>1</v>
       </c>
+      <c r="AY72">
+        <v>6</v>
+      </c>
+      <c r="AZ72">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>4</v>
       </c>
@@ -7494,8 +7838,11 @@
       <c r="AW73">
         <v>8</v>
       </c>
+      <c r="AY73">
+        <v>8</v>
+      </c>
     </row>
-    <row r="74" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>4</v>
       </c>
@@ -7575,8 +7922,11 @@
       <c r="AW74">
         <v>9</v>
       </c>
+      <c r="AY74">
+        <v>9</v>
+      </c>
     </row>
-    <row r="75" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>3</v>
       </c>
@@ -7665,8 +8015,14 @@
       <c r="AX75">
         <v>1</v>
       </c>
+      <c r="AY75">
+        <v>6</v>
+      </c>
+      <c r="AZ75">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>3</v>
       </c>
@@ -7788,8 +8144,14 @@
       <c r="AX76">
         <v>1</v>
       </c>
+      <c r="AY76">
+        <v>7</v>
+      </c>
+      <c r="AZ76">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>3</v>
       </c>
@@ -7863,8 +8225,14 @@
       <c r="AW77">
         <v>6</v>
       </c>
+      <c r="AY77">
+        <v>5</v>
+      </c>
+      <c r="AZ77">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>3</v>
       </c>
@@ -7938,8 +8306,11 @@
       <c r="AW78">
         <v>6</v>
       </c>
+      <c r="AY78">
+        <v>7</v>
+      </c>
     </row>
-    <row r="79" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>1</v>
       </c>
@@ -8055,8 +8426,14 @@
       <c r="AX79">
         <v>4</v>
       </c>
+      <c r="AY79">
+        <v>4</v>
+      </c>
+      <c r="AZ79">
+        <v>5</v>
+      </c>
     </row>
-    <row r="80" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -8142,8 +8519,14 @@
       <c r="AX80">
         <v>1</v>
       </c>
+      <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>1</v>
       </c>
@@ -8241,8 +8624,14 @@
       <c r="AX81">
         <v>2</v>
       </c>
+      <c r="AY81">
+        <v>4</v>
+      </c>
+      <c r="AZ81">
+        <v>2</v>
+      </c>
     </row>
-    <row r="82" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>1</v>
       </c>
@@ -8361,8 +8750,14 @@
       <c r="AX82">
         <v>2</v>
       </c>
+      <c r="AY82">
+        <v>7</v>
+      </c>
+      <c r="AZ82">
+        <v>2</v>
+      </c>
     </row>
-    <row r="83" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
@@ -8478,8 +8873,14 @@
       <c r="AX83">
         <v>4</v>
       </c>
+      <c r="AY83">
+        <v>5</v>
+      </c>
+      <c r="AZ83">
+        <v>4</v>
+      </c>
     </row>
-    <row r="84" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>4</v>
       </c>
@@ -8595,8 +8996,14 @@
       <c r="AX84">
         <v>2</v>
       </c>
+      <c r="AY84">
+        <v>7</v>
+      </c>
+      <c r="AZ84">
+        <v>2</v>
+      </c>
     </row>
-    <row r="85" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>4</v>
       </c>
@@ -8709,8 +9116,14 @@
       <c r="AX85">
         <v>2</v>
       </c>
+      <c r="AY85">
+        <v>4</v>
+      </c>
+      <c r="AZ85">
+        <v>2</v>
+      </c>
     </row>
-    <row r="86" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>4</v>
       </c>
@@ -8805,8 +9218,14 @@
       <c r="AX86">
         <v>1</v>
       </c>
+      <c r="AY86">
+        <v>8</v>
+      </c>
+      <c r="AZ86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -8925,8 +9344,14 @@
       <c r="AX87">
         <v>2</v>
       </c>
+      <c r="AY87">
+        <v>5</v>
+      </c>
+      <c r="AZ87">
+        <v>2</v>
+      </c>
     </row>
-    <row r="88" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>3</v>
       </c>
@@ -9030,8 +9455,14 @@
       <c r="AX88">
         <v>3</v>
       </c>
+      <c r="AY88">
+        <v>6</v>
+      </c>
+      <c r="AZ88">
+        <v>3</v>
+      </c>
     </row>
-    <row r="89" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>3</v>
       </c>
@@ -9115,7 +9546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>3</v>
       </c>
@@ -9189,8 +9620,11 @@
       <c r="AW90">
         <v>7</v>
       </c>
+      <c r="AY90">
+        <v>7</v>
+      </c>
     </row>
-    <row r="91" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>1</v>
       </c>
@@ -9303,8 +9737,14 @@
       <c r="AX91">
         <v>3</v>
       </c>
+      <c r="AY91">
+        <v>5</v>
+      </c>
+      <c r="AZ91">
+        <v>3</v>
+      </c>
     </row>
-    <row r="92" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
@@ -9396,8 +9836,14 @@
       <c r="AX92">
         <v>2</v>
       </c>
+      <c r="AY92">
+        <v>5</v>
+      </c>
+      <c r="AZ92">
+        <v>2</v>
+      </c>
     </row>
-    <row r="93" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>1</v>
       </c>
@@ -9471,8 +9917,11 @@
       <c r="AW93">
         <v>9</v>
       </c>
+      <c r="AY93">
+        <v>9</v>
+      </c>
     </row>
-    <row r="94" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>1</v>
       </c>
@@ -9549,8 +9998,11 @@
       <c r="AW94">
         <v>7</v>
       </c>
+      <c r="AY94">
+        <v>7</v>
+      </c>
     </row>
-    <row r="95" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>4</v>
       </c>
@@ -9624,8 +10076,14 @@
       <c r="AX95">
         <v>1</v>
       </c>
+      <c r="AY95">
+        <v>7</v>
+      </c>
+      <c r="AZ95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
@@ -9723,8 +10181,14 @@
       <c r="AX96">
         <v>2</v>
       </c>
+      <c r="AY96">
+        <v>8</v>
+      </c>
+      <c r="AZ96">
+        <v>2</v>
+      </c>
     </row>
-    <row r="97" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>4</v>
       </c>
@@ -9798,8 +10262,11 @@
       <c r="AW97">
         <v>7</v>
       </c>
+      <c r="AY97">
+        <v>7</v>
+      </c>
     </row>
-    <row r="98" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>4</v>
       </c>
@@ -9897,8 +10364,14 @@
       <c r="AX98">
         <v>2</v>
       </c>
+      <c r="AY98">
+        <v>5</v>
+      </c>
+      <c r="AZ98">
+        <v>2</v>
+      </c>
     </row>
-    <row r="99" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>3</v>
       </c>
@@ -9966,8 +10439,11 @@
       <c r="AW99">
         <v>2</v>
       </c>
+      <c r="AY99">
+        <v>2</v>
+      </c>
     </row>
-    <row r="100" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>3</v>
       </c>
@@ -10038,8 +10514,11 @@
       <c r="AW100">
         <v>8</v>
       </c>
+      <c r="AY100">
+        <v>8</v>
+      </c>
     </row>
-    <row r="101" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -10125,8 +10604,14 @@
       <c r="AX101">
         <v>1</v>
       </c>
+      <c r="AY101">
+        <v>1</v>
+      </c>
+      <c r="AZ101">
+        <v>2</v>
+      </c>
     </row>
-    <row r="102" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -10200,8 +10685,11 @@
       <c r="AW102">
         <v>7</v>
       </c>
+      <c r="AY102">
+        <v>7</v>
+      </c>
     </row>
-    <row r="103" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>1</v>
       </c>
@@ -10308,8 +10796,14 @@
       <c r="AX103">
         <v>4</v>
       </c>
+      <c r="AY103">
+        <v>2</v>
+      </c>
+      <c r="AZ103">
+        <v>4</v>
+      </c>
     </row>
-    <row r="104" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>1</v>
       </c>
@@ -10389,8 +10883,14 @@
       <c r="AX104">
         <v>1</v>
       </c>
+      <c r="AY104">
+        <v>8</v>
+      </c>
+      <c r="AZ104">
+        <v>1</v>
+      </c>
     </row>
-    <row r="105" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>1</v>
       </c>
@@ -10482,8 +10982,14 @@
       <c r="AX105">
         <v>3</v>
       </c>
+      <c r="AY105">
+        <v>2</v>
+      </c>
+      <c r="AZ105">
+        <v>3</v>
+      </c>
     </row>
-    <row r="106" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>1</v>
       </c>
@@ -10596,8 +11102,14 @@
       <c r="AX106">
         <v>1</v>
       </c>
+      <c r="AY106">
+        <v>7</v>
+      </c>
+      <c r="AZ106">
+        <v>1</v>
+      </c>
     </row>
-    <row r="107" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>4</v>
       </c>
@@ -10701,8 +11213,14 @@
       <c r="AX107">
         <v>1</v>
       </c>
+      <c r="AY107">
+        <v>4</v>
+      </c>
+      <c r="AZ107">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>4</v>
       </c>
@@ -10770,8 +11288,14 @@
       <c r="AW108">
         <v>8</v>
       </c>
+      <c r="AY108">
+        <v>7</v>
+      </c>
+      <c r="AZ108">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>4</v>
       </c>
@@ -10863,8 +11387,14 @@
       <c r="AX109">
         <v>8</v>
       </c>
+      <c r="AY109">
+        <v>1</v>
+      </c>
+      <c r="AZ109">
+        <v>8</v>
+      </c>
     </row>
-    <row r="110" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>4</v>
       </c>
@@ -10968,8 +11498,14 @@
       <c r="AX110">
         <v>1</v>
       </c>
+      <c r="AY110">
+        <v>6</v>
+      </c>
+      <c r="AZ110">
+        <v>1</v>
+      </c>
     </row>
-    <row r="111" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>3</v>
       </c>
@@ -11046,8 +11582,14 @@
       <c r="AX111">
         <v>1</v>
       </c>
+      <c r="AY111">
+        <v>5</v>
+      </c>
+      <c r="AZ111">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>3</v>
       </c>
@@ -11145,8 +11687,14 @@
       <c r="AX112">
         <v>2</v>
       </c>
+      <c r="AY112">
+        <v>6</v>
+      </c>
+      <c r="AZ112">
+        <v>2</v>
+      </c>
     </row>
-    <row r="113" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>3</v>
       </c>
@@ -11259,8 +11807,14 @@
       <c r="AX113">
         <v>2</v>
       </c>
+      <c r="AY113">
+        <v>4</v>
+      </c>
+      <c r="AZ113">
+        <v>2</v>
+      </c>
     </row>
-    <row r="114" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>3</v>
       </c>
@@ -11334,8 +11888,11 @@
       <c r="AW114">
         <v>8</v>
       </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
     </row>
-    <row r="115" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>1</v>
       </c>
@@ -11451,8 +12008,14 @@
       <c r="AX115">
         <v>2</v>
       </c>
+      <c r="AY115">
+        <v>2</v>
+      </c>
+      <c r="AZ115">
+        <v>2</v>
+      </c>
     </row>
-    <row r="116" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>1</v>
       </c>
@@ -11532,8 +12095,14 @@
       <c r="AX116">
         <v>1</v>
       </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>1</v>
+      </c>
     </row>
-    <row r="117" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>1</v>
       </c>
@@ -11625,8 +12194,14 @@
       <c r="AX117">
         <v>3</v>
       </c>
+      <c r="AY117">
+        <v>1</v>
+      </c>
+      <c r="AZ117">
+        <v>3</v>
+      </c>
     </row>
-    <row r="118" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -11704,8 +12279,11 @@
       <c r="AW118">
         <v>6</v>
       </c>
+      <c r="AY118">
+        <v>6</v>
+      </c>
     </row>
-    <row r="119" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>4</v>
       </c>
@@ -11773,8 +12351,11 @@
       <c r="AW119">
         <v>7</v>
       </c>
+      <c r="AY119">
+        <v>7</v>
+      </c>
     </row>
-    <row r="120" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>4</v>
       </c>
@@ -11845,8 +12426,11 @@
       <c r="AW120">
         <v>10</v>
       </c>
+      <c r="AY120">
+        <v>10</v>
+      </c>
     </row>
-    <row r="121" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>4</v>
       </c>
@@ -11920,8 +12504,11 @@
       <c r="AW121">
         <v>8</v>
       </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
     </row>
-    <row r="122" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>4</v>
       </c>
@@ -11998,8 +12585,11 @@
       <c r="AW122">
         <v>5</v>
       </c>
+      <c r="AY122">
+        <v>5</v>
+      </c>
     </row>
-    <row r="123" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>3</v>
       </c>
@@ -12094,8 +12684,14 @@
       <c r="AX123">
         <v>3</v>
       </c>
+      <c r="AY123">
+        <v>3</v>
+      </c>
+      <c r="AZ123">
+        <v>3</v>
+      </c>
     </row>
-    <row r="124" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>3</v>
       </c>
@@ -12217,8 +12813,14 @@
       <c r="AX124">
         <v>2</v>
       </c>
+      <c r="AY124">
+        <v>7</v>
+      </c>
+      <c r="AZ124">
+        <v>2</v>
+      </c>
     </row>
-    <row r="125" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>3</v>
       </c>
@@ -12340,8 +12942,14 @@
       <c r="AX125">
         <v>6</v>
       </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>6</v>
+      </c>
     </row>
-    <row r="126" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>3</v>
       </c>
@@ -12442,8 +13050,14 @@
       <c r="AX126">
         <v>1</v>
       </c>
+      <c r="AY126">
+        <v>5</v>
+      </c>
+      <c r="AZ126">
+        <v>1</v>
+      </c>
     </row>
-    <row r="127" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>1</v>
       </c>
@@ -12541,8 +13155,14 @@
       <c r="AX127">
         <v>2</v>
       </c>
+      <c r="AY127">
+        <v>1</v>
+      </c>
+      <c r="AZ127">
+        <v>2</v>
+      </c>
     </row>
-    <row r="128" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>1</v>
       </c>
@@ -12607,8 +13227,11 @@
       <c r="AW128">
         <v>7</v>
       </c>
+      <c r="AY128">
+        <v>7</v>
+      </c>
     </row>
-    <row r="129" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -12706,8 +13329,14 @@
       <c r="AX129">
         <v>3</v>
       </c>
+      <c r="AY129">
+        <v>2</v>
+      </c>
+      <c r="AZ129">
+        <v>3</v>
+      </c>
     </row>
-    <row r="130" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>1</v>
       </c>
@@ -12784,8 +13413,11 @@
       <c r="AW130">
         <v>7</v>
       </c>
+      <c r="AY130">
+        <v>7</v>
+      </c>
     </row>
-    <row r="131" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>4</v>
       </c>
@@ -12874,8 +13506,14 @@
       <c r="AX131">
         <v>2</v>
       </c>
+      <c r="AY131">
+        <v>7</v>
+      </c>
+      <c r="AZ131">
+        <v>2</v>
+      </c>
     </row>
-    <row r="132" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>4</v>
       </c>
@@ -12943,8 +13581,11 @@
       <c r="AW132">
         <v>6</v>
       </c>
+      <c r="AY132">
+        <v>6</v>
+      </c>
     </row>
-    <row r="133" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>4</v>
       </c>
@@ -13015,8 +13656,11 @@
       <c r="AW133">
         <v>6</v>
       </c>
+      <c r="AY133">
+        <v>7</v>
+      </c>
     </row>
-    <row r="134" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>4</v>
       </c>
@@ -13096,8 +13740,11 @@
       <c r="AW134">
         <v>10</v>
       </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
     </row>
-    <row r="135" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>3</v>
       </c>
@@ -13168,8 +13815,11 @@
       <c r="AW135">
         <v>7</v>
       </c>
+      <c r="AY135">
+        <v>7</v>
+      </c>
     </row>
-    <row r="136" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>3</v>
       </c>
@@ -13249,8 +13899,14 @@
       <c r="AX136">
         <v>1</v>
       </c>
+      <c r="AY136">
+        <v>6</v>
+      </c>
+      <c r="AZ136">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>3</v>
       </c>
@@ -13336,8 +13992,14 @@
       <c r="AX137">
         <v>2</v>
       </c>
+      <c r="AY137">
+        <v>3</v>
+      </c>
+      <c r="AZ137">
+        <v>2</v>
+      </c>
     </row>
-    <row r="138" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>3</v>
       </c>
@@ -13441,8 +14103,14 @@
       <c r="AX138">
         <v>1</v>
       </c>
+      <c r="AY138">
+        <v>7</v>
+      </c>
+      <c r="AZ138">
+        <v>1</v>
+      </c>
     </row>
-    <row r="139" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>1</v>
       </c>
@@ -13528,8 +14196,14 @@
       <c r="AX139">
         <v>1</v>
       </c>
+      <c r="AY139">
+        <v>5</v>
+      </c>
+      <c r="AZ139">
+        <v>1</v>
+      </c>
     </row>
-    <row r="140" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>1</v>
       </c>
@@ -13594,8 +14268,11 @@
       <c r="AW140">
         <v>9</v>
       </c>
+      <c r="AY140">
+        <v>9</v>
+      </c>
     </row>
-    <row r="141" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>1</v>
       </c>
@@ -13720,8 +14397,14 @@
       <c r="AX141">
         <v>4</v>
       </c>
+      <c r="AY141">
+        <v>4</v>
+      </c>
+      <c r="AZ141">
+        <v>4</v>
+      </c>
     </row>
-    <row r="142" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>1</v>
       </c>
@@ -13843,8 +14526,14 @@
       <c r="AX142">
         <v>2</v>
       </c>
+      <c r="AY142">
+        <v>6</v>
+      </c>
+      <c r="AZ142">
+        <v>2</v>
+      </c>
     </row>
-    <row r="143" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>4</v>
       </c>
@@ -13912,8 +14601,14 @@
       <c r="AX143">
         <v>1</v>
       </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>1</v>
+      </c>
     </row>
-    <row r="144" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>4</v>
       </c>
@@ -13981,8 +14676,11 @@
       <c r="AW144">
         <v>7</v>
       </c>
+      <c r="AY144">
+        <v>7</v>
+      </c>
     </row>
-    <row r="145" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>4</v>
       </c>
@@ -14056,8 +14754,11 @@
       <c r="AW145">
         <v>7</v>
       </c>
+      <c r="AY145">
+        <v>7</v>
+      </c>
     </row>
-    <row r="146" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>4</v>
       </c>
@@ -14170,8 +14871,14 @@
       <c r="AX146">
         <v>2</v>
       </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>2</v>
+      </c>
     </row>
-    <row r="147" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>3</v>
       </c>
@@ -14278,8 +14985,14 @@
       <c r="AX147">
         <v>1</v>
       </c>
+      <c r="AY147">
+        <v>2</v>
+      </c>
+      <c r="AZ147">
+        <v>1</v>
+      </c>
     </row>
-    <row r="148" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>3</v>
       </c>
@@ -14350,8 +15063,11 @@
       <c r="AW148">
         <v>9</v>
       </c>
+      <c r="AY148">
+        <v>9</v>
+      </c>
     </row>
-    <row r="149" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>3</v>
       </c>
@@ -14449,8 +15165,14 @@
       <c r="AX149">
         <v>2</v>
       </c>
+      <c r="AY149">
+        <v>2</v>
+      </c>
+      <c r="AZ149">
+        <v>2</v>
+      </c>
     </row>
-    <row r="150" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>3</v>
       </c>
@@ -14569,8 +15291,14 @@
       <c r="AX150">
         <v>1</v>
       </c>
+      <c r="AY150">
+        <v>8</v>
+      </c>
+      <c r="AZ150">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>1</v>
       </c>
@@ -14641,8 +15369,14 @@
       <c r="AX151">
         <v>3</v>
       </c>
+      <c r="AY151">
+        <v>4</v>
+      </c>
+      <c r="AZ151">
+        <v>3</v>
+      </c>
     </row>
-    <row r="152" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>1</v>
       </c>
@@ -14707,8 +15441,11 @@
       <c r="AW152">
         <v>9</v>
       </c>
+      <c r="AY152">
+        <v>9</v>
+      </c>
     </row>
-    <row r="153" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>1</v>
       </c>
@@ -14791,8 +15528,14 @@
       <c r="AX153">
         <v>1</v>
       </c>
+      <c r="AY153">
+        <v>5</v>
+      </c>
+      <c r="AZ153">
+        <v>1</v>
+      </c>
     </row>
-    <row r="154" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>1</v>
       </c>
@@ -14920,8 +15663,14 @@
       <c r="AX154">
         <v>2</v>
       </c>
+      <c r="AY154">
+        <v>4</v>
+      </c>
+      <c r="AZ154">
+        <v>2</v>
+      </c>
     </row>
-    <row r="155" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>4</v>
       </c>
@@ -15016,8 +15765,14 @@
       <c r="AX155">
         <v>3</v>
       </c>
+      <c r="AY155">
+        <v>6</v>
+      </c>
+      <c r="AZ155">
+        <v>3</v>
+      </c>
     </row>
-    <row r="156" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>4</v>
       </c>
@@ -15088,8 +15843,11 @@
       <c r="AW156">
         <v>6</v>
       </c>
+      <c r="AY156">
+        <v>6</v>
+      </c>
     </row>
-    <row r="157" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>4</v>
       </c>
@@ -15163,8 +15921,11 @@
       <c r="AW157">
         <v>5</v>
       </c>
+      <c r="AY157">
+        <v>5</v>
+      </c>
     </row>
-    <row r="158" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>4</v>
       </c>
@@ -15244,8 +16005,11 @@
       <c r="AW158">
         <v>7</v>
       </c>
+      <c r="AY158">
+        <v>7</v>
+      </c>
     </row>
-    <row r="159" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>3</v>
       </c>
@@ -15340,8 +16104,14 @@
       <c r="AX159">
         <v>3</v>
       </c>
+      <c r="AY159">
+        <v>3</v>
+      </c>
+      <c r="AZ159">
+        <v>3</v>
+      </c>
     </row>
-    <row r="160" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>3</v>
       </c>
@@ -15412,8 +16182,11 @@
       <c r="AW160">
         <v>9</v>
       </c>
+      <c r="AY160">
+        <v>9</v>
+      </c>
     </row>
-    <row r="161" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>3</v>
       </c>
@@ -15532,8 +16305,14 @@
       <c r="AX161">
         <v>4</v>
       </c>
+      <c r="AY161">
+        <v>2</v>
+      </c>
+      <c r="AZ161">
+        <v>4</v>
+      </c>
     </row>
-    <row r="162" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>3</v>
       </c>
@@ -15607,8 +16386,11 @@
       <c r="AW162">
         <v>8</v>
       </c>
+      <c r="AY162">
+        <v>8</v>
+      </c>
     </row>
-    <row r="163" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -15700,8 +16482,14 @@
       <c r="AX163">
         <v>5</v>
       </c>
+      <c r="AY163">
+        <v>3</v>
+      </c>
+      <c r="AZ163">
+        <v>5</v>
+      </c>
     </row>
-    <row r="164" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>1</v>
       </c>
@@ -15766,8 +16554,11 @@
       <c r="AW164">
         <v>9</v>
       </c>
+      <c r="AY164">
+        <v>9</v>
+      </c>
     </row>
-    <row r="165" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>1</v>
       </c>
@@ -15859,8 +16650,14 @@
       <c r="AX165">
         <v>2</v>
       </c>
+      <c r="AY165">
+        <v>4</v>
+      </c>
+      <c r="AZ165">
+        <v>2</v>
+      </c>
     </row>
-    <row r="166" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>1</v>
       </c>
@@ -15973,8 +16770,14 @@
       <c r="AX166">
         <v>2</v>
       </c>
+      <c r="AY166">
+        <v>5</v>
+      </c>
+      <c r="AZ166">
+        <v>2</v>
+      </c>
     </row>
-    <row r="167" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>4</v>
       </c>
@@ -16054,8 +16857,14 @@
       <c r="AX167">
         <v>1</v>
       </c>
+      <c r="AY167">
+        <v>7</v>
+      </c>
+      <c r="AZ167">
+        <v>1</v>
+      </c>
     </row>
-    <row r="168" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>4</v>
       </c>
@@ -16153,8 +16962,14 @@
       <c r="AX168">
         <v>1</v>
       </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>1</v>
+      </c>
     </row>
-    <row r="169" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>4</v>
       </c>
@@ -16228,8 +17043,11 @@
       <c r="AW169">
         <v>6</v>
       </c>
+      <c r="AY169">
+        <v>6</v>
+      </c>
     </row>
-    <row r="170" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>4</v>
       </c>
@@ -16303,8 +17121,11 @@
       <c r="AW170">
         <v>7</v>
       </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
     </row>
-    <row r="171" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>3</v>
       </c>
@@ -16408,8 +17229,14 @@
       <c r="AX171">
         <v>3</v>
       </c>
+      <c r="AY171">
+        <v>5</v>
+      </c>
+      <c r="AZ171">
+        <v>3</v>
+      </c>
     </row>
-    <row r="172" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>3</v>
       </c>
@@ -16480,8 +17307,11 @@
       <c r="AW172">
         <v>8</v>
       </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
     </row>
-    <row r="173" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>3</v>
       </c>
@@ -16552,8 +17382,11 @@
       <c r="AW173">
         <v>6</v>
       </c>
+      <c r="AY173">
+        <v>6</v>
+      </c>
     </row>
-    <row r="174" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>3</v>
       </c>
@@ -16627,8 +17460,11 @@
       <c r="AW174">
         <v>9</v>
       </c>
+      <c r="AY174">
+        <v>9</v>
+      </c>
     </row>
-    <row r="175" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>1</v>
       </c>
@@ -16720,8 +17556,14 @@
       <c r="AX175">
         <v>2</v>
       </c>
+      <c r="AY175">
+        <v>7</v>
+      </c>
+      <c r="AZ175">
+        <v>2</v>
+      </c>
     </row>
-    <row r="176" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>1</v>
       </c>
@@ -16786,8 +17628,11 @@
       <c r="AW176">
         <v>8</v>
       </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
     </row>
-    <row r="177" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>1</v>
       </c>
@@ -16858,8 +17703,11 @@
       <c r="AW177">
         <v>4</v>
       </c>
+      <c r="AY177">
+        <v>4</v>
+      </c>
     </row>
-    <row r="178" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>1</v>
       </c>
@@ -16936,8 +17784,11 @@
       <c r="AW178">
         <v>8</v>
       </c>
+      <c r="AY178">
+        <v>8</v>
+      </c>
     </row>
-    <row r="179" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>4</v>
       </c>
@@ -17032,8 +17883,14 @@
       <c r="AX179">
         <v>4</v>
       </c>
+      <c r="AY179">
+        <v>6</v>
+      </c>
+      <c r="AZ179">
+        <v>4</v>
+      </c>
     </row>
-    <row r="180" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>4</v>
       </c>
@@ -17122,8 +17979,14 @@
       <c r="AX180">
         <v>2</v>
       </c>
+      <c r="AY180">
+        <v>7</v>
+      </c>
+      <c r="AZ180">
+        <v>2</v>
+      </c>
     </row>
-    <row r="181" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>4</v>
       </c>
@@ -17206,8 +18069,14 @@
       <c r="AX181">
         <v>3</v>
       </c>
+      <c r="AY181">
+        <v>4</v>
+      </c>
+      <c r="AZ181">
+        <v>3</v>
+      </c>
     </row>
-    <row r="182" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>4</v>
       </c>
@@ -17281,8 +18150,11 @@
       <c r="AW182">
         <v>6</v>
       </c>
+      <c r="AY182">
+        <v>6</v>
+      </c>
     </row>
-    <row r="183" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>3</v>
       </c>
@@ -17391,8 +18263,14 @@
       <c r="AX183">
         <v>2</v>
       </c>
+      <c r="AY183">
+        <v>5</v>
+      </c>
+      <c r="AZ183">
+        <v>2</v>
+      </c>
     </row>
-    <row r="184" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>1</v>
       </c>
@@ -17462,8 +18340,11 @@
       <c r="AW184">
         <v>6</v>
       </c>
+      <c r="AY184">
+        <v>6</v>
+      </c>
     </row>
-    <row r="185" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>3</v>
       </c>
@@ -17545,8 +18426,14 @@
       <c r="AX185">
         <v>2</v>
       </c>
+      <c r="AY185">
+        <v>2</v>
+      </c>
+      <c r="AZ185">
+        <v>3</v>
+      </c>
     </row>
-    <row r="186" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>1</v>
       </c>
@@ -17634,8 +18521,14 @@
       <c r="AX186">
         <v>1</v>
       </c>
+      <c r="AY186">
+        <v>6</v>
+      </c>
+      <c r="AZ186">
+        <v>1</v>
+      </c>
     </row>
-    <row r="187" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>4</v>
       </c>
@@ -17702,8 +18595,11 @@
       <c r="AW187">
         <v>7</v>
       </c>
+      <c r="AY187">
+        <v>7</v>
+      </c>
     </row>
-    <row r="188" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>4</v>
       </c>
@@ -17794,8 +18690,14 @@
       <c r="AX188">
         <v>4</v>
       </c>
+      <c r="AY188">
+        <v>6</v>
+      </c>
+      <c r="AZ188">
+        <v>4</v>
+      </c>
     </row>
-    <row r="189" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -17910,8 +18812,14 @@
       <c r="AX189">
         <v>2</v>
       </c>
+      <c r="AY189">
+        <v>2</v>
+      </c>
+      <c r="AZ189">
+        <v>2</v>
+      </c>
     </row>
-    <row r="190" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>1</v>
       </c>
@@ -18017,8 +18925,14 @@
       <c r="AX190">
         <v>2</v>
       </c>
+      <c r="AY190">
+        <v>3</v>
+      </c>
+      <c r="AZ190">
+        <v>2</v>
+      </c>
     </row>
-    <row r="191" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>3</v>
       </c>
@@ -18124,8 +19038,14 @@
       <c r="AX191">
         <v>4</v>
       </c>
+      <c r="AY191">
+        <v>1</v>
+      </c>
+      <c r="AZ191">
+        <v>4</v>
+      </c>
     </row>
-    <row r="192" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>1</v>
       </c>
@@ -18216,8 +19136,14 @@
       <c r="AX192">
         <v>3</v>
       </c>
+      <c r="AY192">
+        <v>0</v>
+      </c>
+      <c r="AZ192">
+        <v>3</v>
+      </c>
     </row>
-    <row r="193" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>4</v>
       </c>
@@ -18329,8 +19255,14 @@
       <c r="AX193">
         <v>4</v>
       </c>
+      <c r="AY193">
+        <v>4</v>
+      </c>
+      <c r="AZ193">
+        <v>4</v>
+      </c>
     </row>
-    <row r="194" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>4</v>
       </c>
@@ -18418,8 +19350,14 @@
       <c r="AX194">
         <v>1</v>
       </c>
+      <c r="AY194">
+        <v>4</v>
+      </c>
+      <c r="AZ194">
+        <v>1</v>
+      </c>
     </row>
-    <row r="195" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>3</v>
       </c>
@@ -18531,8 +19469,14 @@
       <c r="AX195">
         <v>2</v>
       </c>
+      <c r="AY195">
+        <v>2</v>
+      </c>
+      <c r="AZ195">
+        <v>2</v>
+      </c>
     </row>
-    <row r="196" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>1</v>
       </c>
@@ -18650,8 +19594,14 @@
       <c r="AX196">
         <v>4</v>
       </c>
+      <c r="AY196">
+        <v>3</v>
+      </c>
+      <c r="AZ196">
+        <v>5</v>
+      </c>
     </row>
-    <row r="197" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>3</v>
       </c>
@@ -18742,8 +19692,14 @@
       <c r="AX197">
         <v>3</v>
       </c>
+      <c r="AY197">
+        <v>2</v>
+      </c>
+      <c r="AZ197">
+        <v>3</v>
+      </c>
     </row>
-    <row r="198" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>1</v>
       </c>
@@ -18813,8 +19769,11 @@
       <c r="AW198">
         <v>5</v>
       </c>
+      <c r="AY198">
+        <v>5</v>
+      </c>
     </row>
-    <row r="199" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>4</v>
       </c>
@@ -18911,8 +19870,14 @@
       <c r="AX199">
         <v>1</v>
       </c>
+      <c r="AY199">
+        <v>5</v>
+      </c>
+      <c r="AZ199">
+        <v>1</v>
+      </c>
     </row>
-    <row r="200" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>4</v>
       </c>
@@ -18988,8 +19953,14 @@
       <c r="AX200">
         <v>1</v>
       </c>
+      <c r="AY200">
+        <v>6</v>
+      </c>
+      <c r="AZ200">
+        <v>1</v>
+      </c>
     </row>
-    <row r="201" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>3</v>
       </c>
@@ -19092,8 +20063,14 @@
       <c r="AX201">
         <v>2</v>
       </c>
+      <c r="AY201">
+        <v>3</v>
+      </c>
+      <c r="AZ201">
+        <v>2</v>
+      </c>
     </row>
-    <row r="202" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -19205,8 +20182,14 @@
       <c r="AX202">
         <v>1</v>
       </c>
+      <c r="AY202">
+        <v>0</v>
+      </c>
+      <c r="AZ202">
+        <v>1</v>
+      </c>
     </row>
-    <row r="203" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>3</v>
       </c>
@@ -19303,8 +20286,14 @@
       <c r="AX203">
         <v>2</v>
       </c>
+      <c r="AY203">
+        <v>2</v>
+      </c>
+      <c r="AZ203">
+        <v>2</v>
+      </c>
     </row>
-    <row r="204" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>1</v>
       </c>
@@ -19374,8 +20363,11 @@
       <c r="AW204">
         <v>5</v>
       </c>
+      <c r="AY204">
+        <v>6</v>
+      </c>
     </row>
-    <row r="205" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>4</v>
       </c>
@@ -19490,8 +20482,14 @@
       <c r="AX205">
         <v>1</v>
       </c>
+      <c r="AY205">
+        <v>9</v>
+      </c>
+      <c r="AZ205">
+        <v>1</v>
+      </c>
     </row>
-    <row r="206" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>4</v>
       </c>
@@ -19561,8 +20559,11 @@
       <c r="AW206">
         <v>5</v>
       </c>
+      <c r="AY206">
+        <v>5</v>
+      </c>
     </row>
-    <row r="207" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>3</v>
       </c>
@@ -19635,8 +20636,14 @@
       <c r="AX207">
         <v>1</v>
       </c>
+      <c r="AY207">
+        <v>3</v>
+      </c>
+      <c r="AZ207">
+        <v>1</v>
+      </c>
     </row>
-    <row r="208" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>1</v>
       </c>
@@ -19742,8 +20749,14 @@
       <c r="AX208">
         <v>2</v>
       </c>
+      <c r="AY208">
+        <v>1</v>
+      </c>
+      <c r="AZ208">
+        <v>2</v>
+      </c>
     </row>
-    <row r="209" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>3</v>
       </c>
@@ -19831,8 +20844,14 @@
       <c r="AX209">
         <v>2</v>
       </c>
+      <c r="AY209">
+        <v>3</v>
+      </c>
+      <c r="AZ209">
+        <v>2</v>
+      </c>
     </row>
-    <row r="210" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>1</v>
       </c>
@@ -19944,8 +20963,14 @@
       <c r="AX210">
         <v>1</v>
       </c>
+      <c r="AY210">
+        <v>4</v>
+      </c>
+      <c r="AZ210">
+        <v>1</v>
+      </c>
     </row>
-    <row r="211" spans="2:50" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>4</v>
       </c>
@@ -20033,8 +21058,14 @@
       <c r="AX211">
         <v>2</v>
       </c>
+      <c r="AY211">
+        <v>3</v>
+      </c>
+      <c r="AZ211">
+        <v>2</v>
+      </c>
     </row>
-    <row r="212" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:52" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>4</v>
       </c>
@@ -20116,8 +21147,14 @@
       <c r="AX212">
         <v>1</v>
       </c>
+      <c r="AY212">
+        <v>4</v>
+      </c>
+      <c r="AZ212">
+        <v>1</v>
+      </c>
     </row>
-    <row r="213" spans="2:50" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="2:52" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/germination_data.xlsx
+++ b/data/germination_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolanmeier/git/morasoilinoculation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8BC72-0C2E-AD49-8FD7-B06A1AC27DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB739A1-3C07-8340-9834-72D384753773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="17240" xr2:uid="{8DD11EFF-0136-EA44-86B7-80FED636BE50}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="83">
   <si>
     <t>seed_species</t>
   </si>
@@ -300,6 +300,12 @@
   <si>
     <t>35_dead</t>
   </si>
+  <si>
+    <t>42_alive</t>
+  </si>
+  <si>
+    <t>42_dead</t>
+  </si>
 </sst>
 </file>
 
@@ -386,8 +392,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:AZ213" totalsRowShown="0">
-  <autoFilter ref="B2:AZ213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}" name="Table1" displayName="Table1" ref="B2:BB213" totalsRowShown="0">
+  <autoFilter ref="B2:BB213" xr:uid="{7BC992C1-6373-AD4D-8EE4-164E75FC3419}">
     <filterColumn colId="0">
       <filters>
         <filter val="THPL"/>
@@ -404,7 +410,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="51">
+  <tableColumns count="53">
     <tableColumn id="1" xr3:uid="{1199D7AD-452C-9D4F-9453-306631F01BCC}" name="soil_species"/>
     <tableColumn id="2" xr3:uid="{11F49906-5A0D-4E4F-BA5C-F91CB62A2174}" name="seed_species"/>
     <tableColumn id="3" xr3:uid="{B695F4B4-8561-9D48-9FF3-12A40CB2B7C7}" name="inoculated_%"/>
@@ -456,6 +462,8 @@
     <tableColumn id="49" xr3:uid="{BA54B51D-9E45-224E-9CB8-CFB53B9DA271}" name="28_dead"/>
     <tableColumn id="50" xr3:uid="{C23F46C6-A415-8E4B-B621-5203CC00E846}" name="35_alive"/>
     <tableColumn id="51" xr3:uid="{32C2D965-13FE-2344-A3F4-F0A8CD0EDE64}" name="35_dead"/>
+    <tableColumn id="52" xr3:uid="{02AAEE75-9C97-ED4C-B09E-C6B3FB011456}" name="42_alive"/>
+    <tableColumn id="53" xr3:uid="{3125BEBA-251D-3D4F-8ED0-3B567E963AE4}" name="42_dead"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -778,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68F8197-A530-A948-B005-AEDF71CF4B66}">
-  <dimension ref="B2:AZ213"/>
+  <dimension ref="B2:BB213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AY214" sqref="AY214"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="150" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="BA214" sqref="BA214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,7 +799,7 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:54" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -945,8 +953,14 @@
       <c r="AZ2" t="s">
         <v>80</v>
       </c>
+      <c r="BA2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="3" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1067,8 +1081,14 @@
       <c r="AZ3">
         <v>1</v>
       </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1164,11 @@
       <c r="AY4">
         <v>9</v>
       </c>
+      <c r="BA4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1289,14 @@
       <c r="AZ5">
         <v>1</v>
       </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1372,11 @@
       <c r="AY6">
         <v>9</v>
       </c>
+      <c r="BA6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1432,8 +1464,14 @@
       <c r="AZ7">
         <v>2</v>
       </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1548,8 +1586,14 @@
       <c r="AZ8">
         <v>1</v>
       </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1670,8 +1714,14 @@
       <c r="AZ9">
         <v>1</v>
       </c>
+      <c r="BA9">
+        <v>6</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1750,8 +1800,11 @@
       <c r="AY10">
         <v>8</v>
       </c>
+      <c r="BA10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1866,8 +1919,14 @@
       <c r="AZ11">
         <v>2</v>
       </c>
+      <c r="BA11">
+        <v>6</v>
+      </c>
+      <c r="BB11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1991,8 +2050,14 @@
       <c r="AZ12">
         <v>3</v>
       </c>
+      <c r="BA12">
+        <v>5</v>
+      </c>
+      <c r="BB12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -2086,8 +2151,14 @@
       <c r="AZ13">
         <v>1</v>
       </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2184,8 +2255,11 @@
       <c r="AY14">
         <v>8</v>
       </c>
+      <c r="BA14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2360,14 @@
       <c r="AZ15">
         <v>4</v>
       </c>
+      <c r="BA15">
+        <v>4</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2376,8 +2456,11 @@
       <c r="AY16">
         <v>9</v>
       </c>
+      <c r="BA16">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -2487,8 +2570,14 @@
       <c r="AZ17">
         <v>2</v>
       </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -2559,8 +2648,11 @@
       <c r="AY18">
         <v>10</v>
       </c>
+      <c r="BA18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -2673,8 +2765,14 @@
       <c r="AZ19">
         <v>4</v>
       </c>
+      <c r="BA19">
+        <v>2</v>
+      </c>
+      <c r="BB19">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -2760,8 +2858,14 @@
       <c r="AZ20">
         <v>1</v>
       </c>
+      <c r="BA20">
+        <v>13</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1</v>
       </c>
@@ -2852,8 +2956,14 @@
       <c r="AZ21">
         <v>1</v>
       </c>
+      <c r="BA21">
+        <v>5</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2930,8 +3040,11 @@
       <c r="AY22">
         <v>8</v>
       </c>
+      <c r="BA22">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -3029,8 +3142,14 @@
       <c r="AZ23">
         <v>1</v>
       </c>
+      <c r="BA23">
+        <v>8</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -3122,8 +3241,14 @@
       <c r="AZ24">
         <v>4</v>
       </c>
+      <c r="BA24">
+        <v>8</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -3197,8 +3322,11 @@
       <c r="AY25">
         <v>8</v>
       </c>
+      <c r="BA25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -3341,8 +3469,14 @@
       <c r="AZ26">
         <v>3</v>
       </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -3419,8 +3553,11 @@
       <c r="AY27">
         <v>4</v>
       </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3679,14 @@
       <c r="AZ28">
         <v>2</v>
       </c>
+      <c r="BA28">
+        <v>7</v>
+      </c>
+      <c r="BB28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -3632,8 +3775,14 @@
       <c r="AZ29">
         <v>1</v>
       </c>
+      <c r="BA29">
+        <v>3</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -3713,8 +3862,11 @@
       <c r="AY30">
         <v>8</v>
       </c>
+      <c r="BA30">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3833,8 +3985,14 @@
       <c r="AZ31">
         <v>1</v>
       </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3917,8 +4075,14 @@
       <c r="AZ32">
         <v>1</v>
       </c>
+      <c r="BA32">
+        <v>9</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3995,8 +4159,14 @@
       <c r="AY33">
         <v>9</v>
       </c>
+      <c r="BA33">
+        <v>8</v>
+      </c>
+      <c r="BB33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -4100,8 +4270,11 @@
       <c r="AY34">
         <v>5</v>
       </c>
+      <c r="BA34">
+        <v>5</v>
+      </c>
     </row>
-    <row r="35" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
@@ -4199,8 +4372,14 @@
       <c r="AZ35">
         <v>2</v>
       </c>
+      <c r="BA35">
+        <v>6</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>4</v>
       </c>
@@ -4289,8 +4468,11 @@
       <c r="AY36">
         <v>8</v>
       </c>
+      <c r="BA36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -4364,8 +4546,11 @@
       <c r="AY37">
         <v>7</v>
       </c>
+      <c r="BA37">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>4</v>
       </c>
@@ -4502,8 +4687,14 @@
       <c r="AZ38">
         <v>3</v>
       </c>
+      <c r="BA38">
+        <v>4</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -4622,8 +4813,14 @@
       <c r="AZ39">
         <v>4</v>
       </c>
+      <c r="BA39">
+        <v>2</v>
+      </c>
+      <c r="BB39">
+        <v>4</v>
+      </c>
     </row>
-    <row r="40" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>3</v>
       </c>
@@ -4754,8 +4951,14 @@
       <c r="AZ40">
         <v>5</v>
       </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>5</v>
+      </c>
     </row>
-    <row r="41" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -4853,8 +5056,14 @@
       <c r="AZ41">
         <v>2</v>
       </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -4937,8 +5146,11 @@
       <c r="AY42">
         <v>7</v>
       </c>
+      <c r="BA42">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>1</v>
       </c>
@@ -5054,8 +5266,14 @@
       <c r="AZ43">
         <v>2</v>
       </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>1</v>
       </c>
@@ -5123,8 +5341,11 @@
       <c r="AY44">
         <v>6</v>
       </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>1</v>
       </c>
@@ -5267,8 +5488,14 @@
       <c r="AZ45">
         <v>1</v>
       </c>
+      <c r="BA45">
+        <v>7</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>1</v>
       </c>
@@ -5348,8 +5575,11 @@
       <c r="AY46">
         <v>6</v>
       </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>4</v>
       </c>
@@ -5423,8 +5653,14 @@
       <c r="AY47">
         <v>9</v>
       </c>
+      <c r="BA47">
+        <v>8</v>
+      </c>
+      <c r="BB47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -5552,8 +5788,14 @@
       <c r="AZ48">
         <v>5</v>
       </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>5</v>
+      </c>
     </row>
-    <row r="49" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -5627,8 +5869,11 @@
       <c r="AY49">
         <v>8</v>
       </c>
+      <c r="BA49">
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>4</v>
       </c>
@@ -5771,8 +6016,14 @@
       <c r="AZ50">
         <v>1</v>
       </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -5888,8 +6139,14 @@
       <c r="AZ51">
         <v>1</v>
       </c>
+      <c r="BA51">
+        <v>4</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="2:52" hidden="1" x14ac:dyDescent="0.2">
+   